--- a/기사데이터/토스/엑셀파일/news(토스, 2022.09.01~2022.09.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.09.01~2022.09.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.09.10.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>은행권 민원 3분기째 축소 '역대 최저'…금리 인상 '어부지리'</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002638061?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>2분기 393건, 전분기比 10.27% 줄어4대 은행, 여・수신 감소세 두드러져4대 은행(왼쪽부터 우리, 신한, KB국민, 하나) 사옥 ⓒ 각 사 제공[데일리안 = 이호연 기자] 국내 은행들의 올해 2분기 민원건수가 300건 아래로 떨어졌다. 역대 최소 수준으로 3분기 연속 감소세를 지속하고 있다. 금융소비자 보호법이 안착한 가운데, 시장금리 고공행진에 따른 효과로 풀이된다.10일 은행연합회 공시에 따르면 국내 19개 은행의 2분기 민원 건수는 393건으로 집계됐다. 이는 전분기(438건) 대비 10.27% 줄어든 수치다. 종류별로는 은행 자체 민원이 190건, 대외민원이 203건을 차지했다. 유형별로는 ▲수신 75건 ▲여신 124건 ▲외환업무 17건 ▲신용카드 35건 ▲기타 142건을 기록했다.직전분기와 비교하면 외환업무를 제외하고 모두 감소했다. 1분기 민원건수는 ▲수신 85건 ▲여신 131건 ▲외환업무 11건 ▲신용카드 44건 ▲기타 167건으로 나타났다. ‘기타’는 전자금융, 펀드, 방카슈랑스 등 복합상품 판매가 포함된다.은행별로는 4대 은행(KB국민・신한・하나・우리)과 토스뱅크가 민원 건수가 상당수준 감소했다. 가장 적은 민원수를 기록한 것은 신한은행이었다. 고객 십만명당 환산건수를 살펴보면, 신한은행은 0.15로 전분기보다 25% 줄었다. 그 뒤를 KB국민은행이 0.17건(-19.95%), 우리은행 0.24건(-17.24%), 하나은행 0.24건(-4%)이 쫒았다. NH농협은행은 0.25건으로 전분기와 동일했다.ⓒ 데일리안 이호연 기자특히 4대 은행의 민원 건수 감소폭은 지방은행을 뛰어넘었다. 대출 금리가 뛰며 가계대출이 감소하자 민원 역시 줄어들었다는 해석이다. 특히 5대 은행의 가계대출 잔액(8월말 696조4509억원)이 8개월 연속 감소하자, 은행들이 금리를 낮추며 가입자 경쟁에 나선것도 한 몫 했다.여기에 한국은행이 사상 첫 ‘빅스텝(기준금리를 한 번에 0.5%p인상)’을 단행하며 기준금리를 올린데 따른 은행들의 수신금리 인상도 영향을 미쳤다. 은행 정기예금 금리는 3%를 넘어 4%를 향하는 중이다. 예대금리차가 줄어들며 수신 관련 민원도 줄어든 것으로 보인다.인터넷 전문은행에서는 토스뱅크가 0.21건으로 같은 기간 71.23%가 줄었다. 출범한지 1년이 지나지 않은만큼 민원 건수 감소세가 이어진 것으로 보여진다. 다만 대출잔액이 더욱 증가하면, 민원건수가 불어나며 고객 십만명당 환산건수도 늘어날 것으로 예상된다. 이 외 카카오뱅크는 0.10건(25%), 케이뱅크는 0.09건(80%)을 기록했다.업계는 은행별 ‘예대금리차 비교 공시’가 시작된 3분기 민원 건수 감소율에도 이목을 집중하고 있다. 시중은행들은 ‘이자장사’ 비판을 의식해 예대금리차 공시를 전후로 대출금리는 낮추고, 예・적금 금리는 지속 높여왔다.은행 민원 건수는 전반적으로 감소하는 추세다. 첫 공시를 시작한 2015년 1분기 1306건을 기록했으나, 2021년 1분기 582건 2분기 573건까지 하락했다. 이후 3분기 622건 소폭 오르다 4분기 505건, 올해 1분기 438건, 이번 분기 393건까지 3분기 연속 감소중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.09.01.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>뭉쳐야 산다…‘투자 혹한기’ 스타트업끼리 M&amp;A 급증</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003220763?sid=105</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>투자금 혹한기를 맞은 스타트업들이 합종연횡에 나서고 있다. 글로벌 금리 인상 기조에 따라 벤처투자(VC)업계가 돈줄을 조이자, 곳간에 여유가 있는 스타트업들이 체급이 더 낮은 스타트업을 인수·합병(M&amp;A)하는 사례가 느는 것이다.      31일 스타트업 민관협력기관 스타트업얼라이언스에 따르면, 올해 1~7월 총 79곳의 스타트업이 다른 기업에 인수 합병된 것으로 나타났다. 이중 절반은 스타트업이 스타트업을 인수한 경우였다. 후속 투자유치에 어려움을 겪은 중소 스타트업들이 체급이 더 큰 스타트업들에 흡수되는 경우가 많았다. 장승룡 카카오벤처스 이사는 “예전에는 스타트업이 어딘가에 인수되는 일 자체가 희귀했는데, 이젠 스타트업 간 M&amp;A도 활발해진 걸 보면 국내 창업 생태계가 성숙해졌다”고 말했다.      그래픽=김주원 기자 zoom@joongang.co.kr           특히, 업종 1·2위 스타트업들이 같은 업종 스타트업을 흡수해 시장 우위를 확고히 했다. 유·아동 교육·돌봄 매칭 서비스인 ‘자란다’는 이달 1일 비대면 육아상담 서비스를 운영하는 ‘그로잉맘’을 인수했다. 명함관리 앱 ‘리멤버’ 개발사 드라마앤컴퍼니는 경력직 채용 서비스를 키우기 위해 이안손앤컴퍼니(전문가 네트워크 기업)에 이어 슈퍼루키·자소설닷컴(신입·인턴 채용 전문)까지 끌어안았다. 지난해 사모펀드 아크앤파트너스 등으로부터 투자금 1600억원을 유치한 자금력을 활용했다.      특히, 인재 확보를 위해 스타트업을 인수하는 ‘애크하이어(acqui-hire·인수 고용)’가 눈에 띈다. 세금환급 서비스 ‘삼쩜삼’ 운영사 자비스앤빌런즈는 지난 3월 영상통화 스타트업(스무디)을 인수해 모바일 앱 개발팀을 확충했다. 스무디 창업자였던 조현근 삼쩜삼 잡매칭 사업본부장은 “(스무디는) 코로나 초기 크게 성장해 투자도 잘 받았었지만, 수익모델을 잘 구축하지 못해 인수처를 찾게 됐다”며 “수익모델이 확실한 삼쩜삼과 앱 개발력을 갖춘 우리가 합쳤으니 시너지가 클 것”이라고 말했다.      투자 혹한기는 넉넉한 투자금을 확보한 스타트업들이 큰돈 들이지 않고 스케일 업(scale-up·규모 확장)할 절호의 기회다. 특히 유사 업종 스타트업을 삼키는 방식으로 영역을 확장하면 ‘업계 1위’로 가는 지름길이 될 수 있다. 장 이사는 “동종업계 M&amp;A는 운영과 경영에 투입되는 비용을 낮출 수 있는 가성비 높은 방식”이라고 말했다.      업계에선 스타트업의 스타트업 인수가 대기업의 스타트업 인수보다 위험 요인이 적다고 입을 모은다. 빠른 성장에 몰두하는 스타트업 문화를 공유하고 있어 M&amp;A 이후 기업 통합 과정에서 갈등이 비교적 적다는 것이다.      자금이 넉넉한 스타트업들은 M&amp;A를 신사업 진출의 기회로 삼기도 한다. 모바일 세탁서비스 ‘런드리고’(운영사 의식주컴퍼니)도 호텔세탁 사업자(크린누리)를 사들이면서 B2B 시장에 발을 뻗었다. 금융앱 ‘토스’를 운영하는 비바리퍼블리카는 알뜰폰 사업자 머천드코리아를 인수하면서 알뜰폰 사업 진출을 선언했다.      요즘 같은 투자 혹한기에 투자 유치 없이는 자립이 힘든 스타트업이라면 빠르게 피벗(pivot·사업방향 전환) 하거나, 다른 회사의 품에 안기는 길 외엔 선택지가 많지 않다.      다만, 살림을 성급히 합쳤다간 독이 든 성배를 마시게 될 수도 있다. 스타트업 액셀러레이터인 퓨처플레이의 권오형 투자 파트너는 “M&amp;A가 잘못되는 경우도 너무 많다”며 “기대했던 사업적 성과가 저조할 수도, 예상치 못한 부채나 리스크가 함께 넘어올 수도 있으니 시너지를 잘 고려해야 한다”고 말했다.      실패 확률을 줄이기 위해 조건부 M&amp;A를 하는 경우도 는다. 안희철 법무법인 디라이트 변호사는 “최근엔 인수할 스타트업의 주식을 51% 정도만 보수적으로 인수하고, 나머지 지분은 상대 기업이 매출이나 사용자 숫자 등에서 일정 수준의 목표를 충족하면 사기로 하는, 일명 ‘언아웃(earn out)’ 방식의 M&amp;A가 많아지고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>[앤츠랩] 여행 말고 투자...역대급 엔저에 대처하는 법</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003223372?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>“나는 2019년.”     “나는 5년쯤 된 거 같은데.”     지인들과 마지막 해외여행 시기를 놓고 나눈 서글픈 대화입니다. 아직 멀리 가긴 좀 부담스럽고, 일본이라도 다녀오고 싶다고 말하는 분이 많은데요.     일본 도쿄의 야경. 셔터스톡           그래도 쉽지 않았던 건 일본 정부가 워낙 꽁꽁 문을 걸어 잠갔기 때문인데요. 그런데 최근 방향을 틀었습니다. 9월 7일부터는 하루 5만명씩, 가이드가 없는 패키지(팀을 꾸려서 가되 관광은 자율적으로 하는 시스템)도 허용하기로 했죠.한국인 입장에서 지금은 일본 여행하기 정말 좋은 때입니다. 여행이 별거 있나요. 좋은 데 싸게 갈 수 있으면 최고인데, 환율 여건이 최상! 1달러 기준 143엔으로 엔화 가치가 약 30%가량 하락했기 때문이죠. 우리 돈과 비교해도 잘 알 수 있는데요. 1년 전 100엔당 1050원이었다가 지금은 960원대. 6월 초엔 930원대까지 떨어지기도 했죠. 여행을 간다면 같은 돈으로 더 먹고, 더 즐길 수 있는 셈입니다.      극강의 ‘엔저’, 매력적인 투자 아이템이기도 합니다. 쌀 때 엔화를 좀 사뒀다가 비쌀 때 팔면 소위 ‘환차익’을 얻을 수 있으니까요. 이미 눈치 빠른 투자자는 이쪽으로 눈을 돌리고 있습니다. 7월 말 기준 5대 은행(KB국민·신한·우리·하나·농협)의 엔화 예금 잔액은 6000억엔을 넘어섰는데요. 지난해 말 4967억엔이었으니 약 반년 만에 1조원이 넘는 돈이 몰린 거죠.     일본 하네다 공항. 연합뉴스           일단, 궁금합니다. 선진국 일본의 엔화 가치는 왜 이렇게 떨어졌을까. 일본은 1960~70년대 탄탄한 제조업을 바탕으로 고속 성장했는데 이땐 엔저가 큰 역할을 했죠. 하지만 미국이 엔저 견제를 시작한 뒤, 빠르게 엔고로 전환. 수출 부진이 따라왔는데 이게 잃어버린 20년을 야기했다는 게 일본 정부의 인식입니다.  “반격을 시작한 게 바로 아베의 2차 집권 때. 아베노믹스의 핵심이 바로 엔저인데요. 잃었던 수출 경쟁력을 되찾으려면 엔저가 필수적이라 본 거죠. 의도적으로 엔화 가치를 낮게 유지해 온 겁니다.”&lt;노구치 유키오 『일본이 선진국에서 탈락하는 날』&gt;      아베 집권이 끝난 이후에도 이런 정책 방향은 여전히 유지되는 중. 최근 엔화 약세의 가장 큰 이유는 아무래도 미국과 일본의 금리 차이일 텐데 미국이 기준금리를 계속 올려도 일본은 ‘우린 아직 멀었어요’ 하는 상황이죠. 금리 차가 벌어지니 엔화를 팔려는 수요가 늘어나는 패턴이죠. 에너지 가격 급등으로 무역수지가 악화한 점도 엔화 가치를 떨어뜨리는 요인이고요.     엔화 이미지. 셔터스톡           두 가지 고민이 필요할 텐데요. 첫째, 엔화 환율이 앞으로 어떻게 움직일 것인지 따져봐야 합니다.    과거 경험상 엔화가 이 정도 약세를 보였을 때는 원화 매도, 엔화 매수가 적절한 선택이었다. 2000년대 중반 세계 경제의 초호황 국면에는 100엔이 750원까지 떨어지기도 했지만, 현재 세계 경제 여건이나 한국의 낮아진 수출 경쟁력을 고려할 때 이런 시나리오는 배제할 수 있다. 엔화는 대략 900원대에서 저점을 찍고, 1100원대까지 반등하는 패턴이었다.&lt;박희찬 미래에셋증권 연구원&gt;      일본 중앙은행이 올해 하반기 중 YCC 정책(경제 모멘텀 회복을 위해 10년물 금리 상단을 제한하는 정책으로 2016년 10월부터 시행 중)에 따른 부작용을 줄이기 위해 철회는 아니더라도 변경 가능성이 존재하며, 이에 따라 엔저현상도 일부 완화될 것으로 예상한다. &lt;이다은 대신증권 연구원&gt;      엔화 가치가 지금 달러 대비로 20년 내 가장 낮은 수준이라서 이미 (엔화 약세가) 너무 많이 진행됐다고 보고 있다. 가장 큰 트리거가 미국과 일본의 물가 차이인데 7~8% 정도의 미국 물가지수 상승률이 내년, 내후년까지 계속 이어진다면 엔화 환율이 150엔까지 갈 수도 있다. 하지만 이 정점(미국과 일본의 물가 차이)이 올해이고, 내년부턴 줄어들 거로 본다.&lt;권아민 NH투자증권 책임연구원&gt;     엔-달러 환율. 마켓워치           각각 다른 관점에서의 설명인데요. 정리하면 '엔화 가치가 좀 더 하락할 수 있겠으나 엔저는 머지않아 끝난다' 정도가 아닐까 싶네요. 두 번째 고민, 그럼 ‘어떻게 사야 하느냐’가 남았죠. 크게 4가지 방법이 있습니다.     ━   ①엔화 화폐 매입     한 마디로 직접 원화를 엔화로 바꾸는 건데요. 요즘은 각 은행의 모바일 앱을 이용하면 쉽게 바꿀 수 있는데요. 필요할 땐 출금도 가능합니다. 환전할 때 중요한 건 우대율이니, 조금이라도 우대율이 높은 은행을 택해야겠죠. 현재 토스는 100만원까지 100%(수수료가 없다는 뜻) 이벤트를 진행 중. ━   ②엔화 통장     은행에 엔화를 넣어두는 외화 보통예금과 정기예금입니다. 가장 손쉬운 방법이긴 합니다. 다만 환차익의 가장 큰 매력은 세금이 없다는 건데 일반 예·적금처럼 15.4%의 소득세를 내야 한다는 점은 기억해야 합니다. ━   ③엔화 ETF     ETF도 방법입니다. 하지만 달러와 달리 선택지가 거의 없는데요. 우리와 매우 가까운 일본이지만 엔화 ETF는 현재로썬 ‘TIGER일본엔선물 ETF’가 유일합니다. 상대적으로 저렴한 수수료가 장점입니다. ━   ④증권사 엔화 환전     은행 환전과 가장 큰 차이점은 출금할 수 없다는 점. 즉 원화로 다시 바꿔서 출금해야 한다는 뜻입니다. 수수료는 은행보다 저렴하기 때문에 환차익만을 목표로 한다면 증권사 환전이 가장 유리합니다.       엔화. 연합뉴스           어떤 방법을 택하든 전문가가 하나같이 말하는 건 ‘분할 매수’입니다. 지금 싸다고 한꺼번에 소위 ‘몰빵’ 하면 안 된다는 뜻이죠. 역대 최고 수준의 엔저가 일본 증시를 밀어 올리는 현상도 함께 관찰하시죠. 글로벌 증시를 보면 연초 대비 상승률이 마이너스가 아닌 나라를 찾기 힘든데요. 닛케이225 지수가 거의 유일하게 플러스(2.4% 상승)를 기록 중!! 일본 증시에 투자하는 ETF도 함께 들여다볼 만하겠군요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>인뱅 주담대 출시에 인터넷뱅킹 일평균 이용액 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013439895?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>인터넷뱅킹 고객 2억명 육박…모바일은 1억6천255만명인터넷뱅킹(CG)[연합뉴스TV 제공]    (서울=연합뉴스) 김유아 기자 = 인터넷전문은행이 주택담보대출을 출시한 영향 등으로 올 상반기 인터넷뱅킹을 통해 신청된 대출금이 처음으로 하루 평균 1조원을 넘어섰다.    15일 한국은행에 따르면 올 1∼6월 19개 국내은행·우체국의 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출 신청 금액은 일평균 1조3천194억원으로, 지난해 말(7천908억원)보다 무려 66.8% 증가했다.[그래픽] 인터넷뱅킹 대출 신청 금액 추이(서울=연합뉴스) 원형민 기자 = circlemin@yna.co.kr    페이스북 tuney.kr/LeYN1 트위터 @yonhap_graphics    대출 신청 서비스의 일평균 이용 금액이 1조원을 넘어선 것은 이번이 처음이다.    한은 관계자는 "인터넷전문은행들이 신규 상품으로 주택담보대출을 출시하면서, 이를 중심으로 신청 금액이 늘었다"라고 설명했다.    앞서 카카오뱅크는 지난 2월 말 처음으로 주담대 상품을 내놓은 바 있다. 케이뱅크 역시 주담대를 취급하고 있으며, 토스뱅크는 향후 출시를 검토 중이다.인터넷뱅킹 서비스 이용 실적[한은 제공. 재판매 및 DB 금지]    대출 신청 건수는 하루 평균 3만5천건으로, 7.4% 늘었다. 이용 건수는 지속해서 늘며 역대 최대 기록을 경신해오고 있다.    인터넷뱅킹을 통한 자금 이체 이용 금액과 건수는 일평균 각각 73조7천771억원, 1천878만건으로, 각각 2.1%, 6.9% 불었다.    이에 따라 대출 신청과 자금 이체 서비스를 모두 합한 인터넷뱅킹 일평균 이용 금액은 75조965억원, 이용 건수는 1천882만건이다. 지난해 말보다 각각 2.8%, 6.9% 늘었다.    이 중 모바일뱅킹을 떼어 보면, 전체 이용 금액은 14조원을 넘어서며 14조3천260억원을 기록했다.     모바일뱅킹의 이용 건수는 1천603만건을 기록, 전체 인터넷뱅킹 이용 건수에서 85.2% 비중을 차지했다.    지난해 말 기준 국내은행의 인터넷뱅킹 등록 고객 수(여러 은행 등록 중복 합산)는 1억9천950만명으로, 지난해 말보다 4.5% 늘었다.     이 가운데 모바일뱅킹 등록 고객은 6.0% 늘어난 1억6천255만명으로 집계됐다.인터넷뱅킹 등록 고객 수[한은 제공. 재판매 및 DB 금지]    kua@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.09.14.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[르포] "코리아뱅크 굿" 한국 은행들, 베트남 홀렸다</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000851408?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>[머니S리포트-다시 뛰는 신남방, 'K금융' DNA 심는다①] 어려울 때 우산 받쳐준다… 직원 자기개발 지원과 친근한 조직문화 형성에도 매진[편집자주]베트남은 인도와 싱가포르, 태국, 인도네시아 등 한국 정부가 경제협력을 강화하고 있는 신남방 11개국 중에서 가장 중요한 국가다. 한국 기업들은 2021년 기준 9895만명의 인구와 IMF(국제통화기금) 추정 경제성장률 6.6%를 기록한 베트남에 크게  공을 들이고 있다. 베트남은 중국, 미국에 이어 한국의 3위 교역국이기도 하다. 국내 금융사들도 금융 서비스 노하우를 무기로 현지 시장을 적극 공략하고 있다. 한국의 ICT(정보통신기술)를 바탕으로 휴대전화를 통한 금융거래, 결제 서비스도 현지인들에게 충분히 통할 것으로 보고 있다. K-금융은 베트남 경제수도인 호찌민을 조용히 물들이고 있다. 조만간 베트남 금융시장이 한복으로 갈아입을 것이란 기대감도 크다.베트남 호찌민시 응웬 후에 워킹 스트리트에서 오토바이로 이동하는 현지인들_사진=박슬기 기자 ◆기사 게재 순서① "코리아뱅크 굿" 한국 은행들, 베트남 홀렸다② 베트남, 국민 중 절반만 은행 계좌 보유… 갈길 먼 디지털 금융③ "서류 내고 돌아서니 보험금 '뚝딱'… 베트남과 달라요"④ "주식이 뭐예요?"… 베트남 증권시장, 韓에 열려있다⑤ 예영해 삼성화재 베트남법인장 "베트남 기업보험 개척자… 로컬기업과 협업에 신규 채널 확보까지" ⑥ 이의철 신한라이프 베트남법인장 "텔레마케팅, 안된다고?… 신한라이프 베트남, 차별화로 대박쳤다" ⑦ 강규원 신한베트남은행 법인장 "3년 안에 베트남 12위권 은행으로… 2030년엔 톱10 안에"⑧ 박원상 한국투자증권 베트남법인장 "베트남 톱티어 증권사 될 것"… 글로벌 도전장⑨ 강문경 미래에셋증권 베트남법인 대표 "MTS 베트남 최고 수준이라 자부… 올해의 화두는 디지털화"⑩ 정희균 토스베트남 PO "젊고 빠른 성장세, 베트남의 매력"호찌민(베트남)=박슬기 기자 #. 베트남 1위 저가항공사(LCC) 비엣젯은 2019년 12월 우리은행을 비롯한 금융사에서 신디케이트론(집단대출)을 받았지만 2020년부터 시작된 신종 코로나바이러스 감염증(코로나19) 확산으로 지난해 경영 악화를 겪어야 했다. 당시 우리은행은 비엣젯의 대출 분할상환 기한을 늦춰주고 대출 금리를 기존보다 2.5%포인트 인하해주는 등 경영 정상화를 도우며 한국 은행으로서 위상을 높였다.베트남에 진출한 국내 은행들은 "비 올 때 우산을 받쳐주듯 어려울 때 돈을 회수하지 않는다"는 마음으로 현지인들의 마음을 사로잡고 있었다.8월22일 베트남 호찌민 떤선 국제공항에서 내리자마자 신한은행 등 익숙한 간판들이 즐비했다. 공항에서 7㎞를 이동해 도착한 호찌민 1군의 엠플라자(MPLAZA)사이공타워는 베트남인지 한국인지 분간이 어려울 정도로 국내 은행들이 다수 모여있었다.엠플라자에는 신한은행, KB국민은행, 우리은행, BNK부산은행, DGB대구은행 등 국내 은행 5곳의 지점들이 들어서 현지 고객들을 맞이하고 있었다.베트남 호찌민 CJ빌딩 1층에 한국계 은행 ATM이 설치돼 있다./사진=박슬기 기자 ━끈끈한 동반자 역할하는 한국 은행━KB국민은행과 우리은행, 하나은행 호찌민지점은 주로 기업 고객을 대상으로 영업하고 있었다. 이들은 현지은행과 비교해 높은 대출 안정성을 무기로 내세우고 있다.엠플라자 3층에 위치한 KB국민은행 호찌민지점에서 만난 이건 팀장은 "주로 한국계 기업의 현지법인. 한국 기업과 베트남 기업의 합작법인, 일부 로컬기업과 거래 관계를 유지하고 있다"며 "베트남 기업은 한국의 외부감사법과 같이 의무적으로 외부회계감사를 받아야 하는 규정이 없어 로컬기업의 회계 투명성이 결여돼 여신 거래가 쉽지 않은 상황이지만 상대적으로 우량한 톱 티어(TOP TIER:세계 일류) 기업들과 거래 성사를 위해 노력하고 있다"고 설명했다.베트남에 진출한 지 20년 이상 지난 A 대기업은 호찌민시 동남부 동나이성에서 사업을 영위하며 현지 다수 은행들과 대규모 여신거래를 해오고 있었다. A사는 지난해 코로나19 확산으로 전방 수요가 감소하면서 영업실적이 악화했다. 이에 현지 은행들은 A사를 대상으로 만기가 남아 있던 대출의 상환을 갑작스레 요구하고 상환하지 않을 경우 금리를 대폭 인상한다는 통보까지 했다.A회사 관계자는 "로컬은행과의 거래는 편리성 측면에서는 유리하지만 가끔 은행들의 무리한 꺾기 요구, 예상치 못한 대출 상환 요구 등 어려움에 직면하는 경우가 발생하는데 막상 상황이 닥치니 눈앞이 깜깜해졌다"며 "KB국민은행 호찌민지점에 긴급 자금 지원 요청을 했으며 반기말 거래처 결제자금 송금 등 중요한 회사 운영에 차질을 빚지 않을 수 있었다"고 회상했다.기업금융뿐만 아니라 리테일(소매)금융에서도 한국 은행들은 현지인들에게 보다 친근한 이미지로 다가가며 입지를 다져가고 있었다.우리은행 호찌민지점에서 일하는 응우옌 티 마이 짱 대리는 "며칠 전 베트남 유학생에게 한국 유학 예치보증금 업무 처리했는데 그 학생이 해당 예치확인서를 갖고 한국 영사관에서 한국 비자를 신청하고 비자를 받은 후 지점에 다시 방문해 '업무처리를 잘 해줘서 감사했다'고 말할 때 보람을 느꼈다"고 말했다.신한은행 ATM 호찌민지점 외관 전경./사진=박슬기 기자 ━자기개발 지원하는 한국 은행━한국 은행들은 현지 직원들에게도 다양한 복지와 자기개발 기회 등 혜택을 제공함으로써 인재 유치에도 열을 올리고 있었다 신한베트남은행에서 25년동안 근무한 레 티 야 타오 전략본부 부장은 "신한베트남은행 발전에 기여한 공로를 인정 받아 신한금융이 수여하는 신한웨이상을 2018년 베트남에서 유일하게 받았다"며 "최근엔 디지털 스페셜리스트 30명을 뽑았는데 이들은 호찌민경제대에서 토요일마다 6시간 디지털 교육을 받는다"고 설명했다.이어 그는 "신한베트남은행에서 여러 직책들을 거치면서 더 많이 배우고 성장할 수 있었다"며 "항상 모든 직원들을 지원해오고 회사의 성장과 함께 직원도 전문적으로 발전해나갈 수 있는 점이 한국계 은행을 선호하는 요인 중 하나"라고 덧붙였다.베트남에서 한국 은행에 대한 이미지도 친근한 편이다. 하나은행 호찌민 지점에서 만난 응우옌 티 푸엉 짱 계장은 "대학에서 한국학을 전공 후 졸업할 당시 베트남에 진출한 한국계 은행이 많아져 좋은 기회라 생각했다"며 "현지 은행은 경쟁이 심하고 야근도 많지만 한국계 은행은 발달될 시스템과 문화가 좋은 데다 지점 인원수가 30~40명으로 동료들이 서로 챙겨주고 도와주는 가족 같은 분위기"라고 전했다.다만 한국 은행들은 지난해 하반기 호찌민과 베트남 남부지역의 4개월여간의 락다운(Lock Down) 시기를 겪은 데다 '3 on site'(기업봉쇄령) 준수를 거치며 어려운 시간을 보내기도 했다. '3 onsite'는 공장 안에 머물며 숙박, 식사, 생산을 해결하는 기업에 한해 기업활동을 허가하는 베트남 정부의 코로나19 방역 정책을 말한다.이건 팀장은 "힘겨웠던 시간들을 많은 교민들, 기업인들, 저희와 같은 금융인들이 힘을 합쳐 함께 극복했으며 한국인의 저력을 느낄 수 있는 소중한 경험이었다"며 "은행원으로 베트남에 나와 느낀 점은 고객들이 단순한 그냥 은행 고객이 아니라 매 순간 함께 호흡하고, 고민을 나누고, 같이 성장하고, 때로는 은행이 고객을 지켜주고, 때로는 고객이 은행을 지켜주는 그런 동반자적 관계라는 느낌을 갖는다"고 말했다.이어 그는 "특히 새롭게 베트남에 나오는 기업의 경우 최소 3~4년 정도의 안정화 기간이 필요한데 긴 시간을 함께하며 고객들이 자리를 잡고 성장하는 모습을 보면 저희 역시 큰 보람을 느낀다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>이수형 파인아시아운용 대표, 한국핀테크산업협회 부회장 선출</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004894425?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>이수형 파인아시아자산운용 대표[파이낸셜뉴스] 이수형 파인아시아자산운용 대표가 제4대 한국핀테크산업협회 부회장에 선출됐다. 6일 한국핀테크산업협회에 따르면 지난달 31일 진행된 정기이사회에서 이 같은 결정이 내려졌다.   파인아시아자산운용은 종합운용사로서 주식, 채권, 부동산, 특별자산 등을 활용한 다양한 펀드상품을 시장에 제공하고 있으며, 인공지능(AI)을 활용한 자산운용상품 기획, 로보어드바이저 솔루션을 이용한 신규상품(펀드) 개발 등 핀테크를 활용한 자산운용 혁신을 도모하고 있다.   이수형 대표는 서울대학교 법학과 졸업 후 한컴그룹 총괄 변호사를 거쳐 지난 2018년 경영총괄 상무로 파인아시아자산운용에 합류했다. 지난 2019년 대표이사로 새롭게 선임되면서 자산운용업계 최초로 30대 여성 CEO로 뽑히며 주목받았다. 지난해 대표이사 연임에 성공하기도 했다.   이 대표는 “파인아시아자산운용 투자 역량을 활용해 유망한 핀테크 회사들과 자본시장을 연결하고, 인수합병 및 상장 등 성장 기회를 제공하여 핀테크 생태계 발전에 이바지 하겠다”고 말했다.   한국핀테크산업협회는 금융위원회 설립 인가 비영리 사단법인으로 핀테크 기업 목소리를 대변하는 국내 최대 핀테크 네트워크 기관이다. 지급결제, 자산관리, 블록체인, 크라우드펀딩, 인슈어테크 등 다양한 분야에서 디지털 금융 혁신을 선도하고 있는 370여개 핀테크 기업이 회원사로 참여하고 있고, 파인아시아자산운용를 비롯해 네이버파이낸셜, 두나무, 토스, 카카오페이, 빗썸 등이 임원사로 참여하고 있다. #파인아시아운용 #한국핀테크산업협회</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>핵심예금 말라붙자…예금 뺨치는 파킹통장 금리</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005145832?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>3%대 금리 파킹통장 속속 등장3년 차 직장인 김종헌(30)씨는 그간 모은 목돈 2000만원을 모(某) 저축은행의 파킹통장으로 예치했다. 당장 목돈이 필요한 일은 없지만, 급전이 필요할 때를 염두에 둬서다. 특히나 최근엔 파킹통장 금리 수준이 3% 안팎까지 오르며 부담을 덜었다.고(高)금리 기조에 '핵심 예금'으로 불리는 은행권의 저원가성 예금이 말라붙으면서 은행권이 '파킹통장' 경쟁에 나서고 있다. 일부 상품의 경우 연 금리가 3%를 넘어서며 일반 예·적금 금리 수준에 도달하는 등 경쟁은 치열해지는 분위기다.12일 금융권에 따르면 페퍼저축은행의 수시입출금식 통장인 '페퍼스파킹통장'은 연 3.2%의 금리를 제공한다. 연 3.2%의 이자를 주는 예치금의 한도는 5000만원이며, 이와 관련한 별다른 우대조건은 없다.이외 웰컴저축은행도 '웰컴 직장인사랑 보통예금'을 통해 일부 우대조건(급여, 자동이체) 충족 시 5000만원 한도 내 연 3.0%의 금리를 제공하며, OK저축은행은 한발 더 나아가 'e-읏통장'의 최고 금리를 내달 1일부터 3.3%(우대금리 적용, 1000만원 한도)로 올린다. 이는 3% 수준인 시중은행의 정기예금 금리와 비교했을 때도 낮은 수준이 아니다.시중은행들도 경쟁 대열에 동참하는 분위기다. KDB산업은행이 연 2.25%의 금리를 제공하는 파킹통장으로 포문을 연 가운데, 최근엔 SC제일은행이 비대면 전용 수시입출금식 통장인 '제일EZ통장'을 통해 최고 연 2.5%(최초 거래고객 대상, 6개월)를 제공하고 나섰다. 이는 고금리 파킹통장의 원조라 할 수 있는 토스뱅크 토스뱅크 통장(연 2.0%, 1억원 미만)의 금리 수준을 뛰어넘는 것이다.이런 상황이다 보니 파킹통장 '갈아타기'도 등장하고 있다. 최근 한 은행 파킹통장에 예치된 목돈을 저축은행 파킹통장으로 옮겼다는 직장인 박희영(36·여)씨는 "당장 투자할 곳은 없지만, 미래는 어찌 될 지 알 수 없는 것이 아니냐"면서 "파킹통장 간 금리 차이가 1%포인트(p)까지 벌어지면서 잠시라도 (금리가 높은 기관으로) 옮기는 것이 낫겠다는 판단"이라고 전했다.금융권이 파킹통장 금리를 경쟁적으로 올리고 있는 것은 고객 락인(lock-in) 효과도 있지만, 금리 인상의 여파로 은행 예대마진의 핵심인 저원가성 예금이 빠르게 줄고 있어서다. 금융권에 따르면 국내 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 지난달 말 기준 요구불예금 잔액은 659조6808억원 전월 대비 13조6794억원 줄었다. 전월에도 직전 달 대비 36조원 감소한 바 있다.업계에선 당분간 이런 파킹통장 금리 경쟁이 계속될 수밖에 없을 것으로 본다. 금리 인상에 따라 저원가성 예금 축소는 지속될 전망인데다, 은행채 금리 역시 점차 오름세를 타고 있는 까닭이다. 서영수 키움증권 이사는 최근 보고서를 통해 "예금·대출금리 상승 속도, 예대금리차 하락은 저원가성 예금 이탈이 예상보다 과도하게 진행되면서 예측 범위보다 조금 더 빠르게 진행되고 있다"라면서 "이는 금융안정 위험이 예상보다 더 커지고 있음을 의미하는 것으로 주목해야 할 사안"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.09.08.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>'해외주식 소수점 거래' 증권사 5곳↑… 경쟁 더 치열해진다</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000850335?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>증권사들이 잇따라 해외주식 소수점 매매 서비스 시장에 진출하고 있는 가운데 혁신금융서비스로 신규 지정된 증권사가 추가로 합류하면서 경쟁이 더욱 치열해질 전망이다. 8일 금융위원회에 따르면 전일 정례회의를 개최하고 IBK투자증권·이베스트투자증권·SK증권·현대차증권·상상인증권 등 5개 증권사의 해외주식 소수단위 거래 서비스를 혁신금융서비스로 신규 지정했다. 지난해 11월 증권사 20곳의 해외주식 단위 거래 서비스를 혁신금융서비스로 지정한데 이어 5개 증권사가 추가됐다. 이 서비스는 신한금융투자가 2018년 10월 국내 증권사 최초로 미국 주식 소수점 투자 서비스를 선보인 뒤 한국투자증권이 2020년 8월 해외주식 소수점 거래 서비스를 시작하며 한동안 양분체제를 유지해왔다. 현재 두 곳의 증권사를 포함해 삼성증권·KB증권·NH투자증권·다올투자증권·대신증권·메리츠증권·미래에셋증권·신영증권·키움증권·카카오페이증권·토스증권·하나증권·하이투자증권·한화투자증권 총 16개 증권사가 해외주식에 한해 소수점 거래 서비스를 제공하고 있다. 교보증권과 DB금융투자, 유진투자증권, 유안타증권 등도 해당 서비스를 준비하고 있다. 금융위는 이번 혁신금융 지정에서 소수단위 해외주식 매매를 중개할 경우 계좌구분개설·거래의무가 적용되지 않도록 특례를 부여했다.  자본시장법 시행령 제184조제2항에 따라 증권사와 같은 투자중개업자는 해외주식매매 중개시 자기주식과 고객주식 계좌를 별도 구분해 개설한 후 거래해야 한다. 혁신금융서비스 지정을 받은 증권사 5곳은 내년 상반기부터 증권사별 전산개발 일정에 따라 순차적으로 서비스를 출시할 전망이다. 금융위 측은 "해외주식 소수점거래 혁신금융서비스 지정으로 고가 해외주식에 대한 개인투자자의 접근성이 확대되고 소액 분산투자가 가능해 포트폴리오 관리의 효율성도 높일 수 있을 것으로 기대된다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>“실적은 좋은데 비싸”… 롯데카드 매각 예비입찰, 발 빼는 인수 후보자들</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000839496?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>롯데카드 매각을 위한 예비입찰이 7일 시작했지만, 유력한 인수 후보군으로 거론돼오던 기업들이 별다른 관심을 보이지 않고 있다. 그동안 인수에 관심을 보였던 기업들은 롯데카드의 대주주인 MBK파트너스가 제시한 가격이 지나치게 높다는 이유로 발을 빼는 분위기다.서울 광화문에 위치한 롯데카드 신사옥 전경.        7일 카드업계에 따르면 MBK파트너스는 이날 JP모건을 매각 주관사로 선정해 예비 입찰을 시작했다. 그러나 가장 유력한 인수 후보로 거론됐던 우리금융그룹은 입찰에 참여하지 않기로 내부 방침을 정한 것으로 전해졌다. 우리금융그룹은 롯데카드 지분의 20%를 보유해 인수전에서 경쟁자들에 비해 한발 앞선 상황이다.우리금융그룹 관계자는 “계열사간 시너지 효과를 높이기 위해선 카드사보다 증권사 인수가 우선이라고 판단했다”며 롯데카드 인수전에 참여하지 않을 가능성이 크다는 입장을 전했다.역시 롯데카드 유력 인수 후보로 거론됐던 KT도 롯데카드 인수에 참여하지 않기로 방침을 정했다. 당초 KT는 BC카드, 케이뱅크 등과 시너지를 내기 위한 목적으로 롯데카드 인수에 관심을 보였다. 그러나 내년 3월 임기 만료를 앞두고 연임의 기로에 서 있는 구현모 KT 대표가 롯데카드 인수를 위해 수조원을 베팅하는 무리수를 두기는 어렵다고 판단에 최종적으로 발을 빼기로 한 것으로 알려졌다.최근 또 다른 후보자로 떠올랐던 토스도 롯데카드 예비입찰에 참여하지 않는다. 토스 관계자는 “지금은 롯데카드 인수를 검토하고 있지 않고 있다”고 전했다. 이 밖에 하나금융지주는 아직까지 롯데카드 인수와 관련해 공식적인 입장이 없는 상태다.막상 예비입찰이 시작되자, 롯데카드 인수 후보로 거론돼 온 기업들이 발을 빼고 있는 것은 MBK파트너스가 제시한 매각가격 3조원이 너무 높다는 이유 때문인 것으로 전해졌다. MBK파트너스는 지난 2019년 1조3810억원에 롯데카드를 인수했는데, 3년 만에 2배 이상의 가격을 부른 것은 지나치다는 입장이다.다만, 금융 시장에서는 롯데카드의 최근 실적이 눈에 띄게 개선되고 있어 가격이 조정될 경우 후보로 거론돼 왔던 회사들이 인수전에 다시 뛰어들 가능성이 있다고 분석한다. 롯데카드의 올 상반기 당기순이익은 1772억원으로 전년 동기(1086억원) 대비 63.2% 증가했다. 이는 업계 4위인 현대카드를 앞선 수준이다.MBK파트너스와 JP모건은 이번 롯데카드 예비입찰에 참여한 기업들이 예상했던 수준을 밑돌 경우 입찰 기간을 연장하는 방안을 검토 중인 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.09.14.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>[ET단상] 금융사의 알뜰폰 시장 진출과 '메기' 논란</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003043512?sid=105</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>알뜰폰 시장에 때아닌 '메기' 논란이 등장했다. 지난 2019년 말 알뜰폰 시장에 진입한 KB국민은행의 '리브엠'이 가입자를 약 30만명까지 늘리며 새로운 강자로 자리매김하고, 이에 자극받은 다른 대형 은행들도 잇달아 알뜰폰 시장 진출을 검토하고 있다는 뉴스가 들려오면서부터다. 약 8조5000억원의 기업가치를 인정받은 스타트업 토스는 최근 가입자 10만의 머천드코리아를 인수하며 이미 알뜰폰 시장 진입을 공식화했다. 제 2, 3의 메기 등장을 앞두고 알뜰폰 시장이 술렁이고 있다.우리나라 법률은 은행이 수행하는 부수 업무 범위를 제한하고 있다. 은행법에 따르면 원칙적으로 통신업은 은행의 부수 업무에 포함되지 않는다. 이에 KB는 알뜰폰 사업을 위해 금융위원회의 금융규제 샌드박스를 통해 2019년 리브엠에 대한 혁신금융서비스 지정을 받았다. 문제는 금융위가 통신업을 2023년 4월로 예정된 임시허가 만료 전에 은행의 부수 업무로 지정할 경우 발생한다. 다른 은행들도 통신업을 자유롭게 영위하기 전에 은행의 통신업 진출과 관련해서 해결해야 할 과제가 많다.KB는 임시허가를 신청할 당시 금융과 통신을 융합해서 혁신적인 서비스를 선보이겠다고 공언했지만 아직 별다른 혁신 서비스를 보이지 못하고 있다. 이용자가 체감할 수 있는 실적은 없는 반면 이동통신 유통 생태계와 알뜰폰 시장구조 파괴에 미친 영향은 상당하다. KB가 막강한 자본력을 기반으로 원가 이하의 할인 요금제와 사은품 등 무리한 마케팅을 전개해 가입자를 유치하면서 이통 유통 생태계와 알뜰폰 시장구조를 왜곡하기도 한다.실제로 지난해 국회 과학기술정보방송통신위원회 국정감사에서 KB는 방송통신위원회 자급제 단말기 유통 가이드라인 위반을 지적받았다. KB 노조 역시 대면 판매를 금지한 혁신금융서비스 재지정 승인조건 위반을 이유로 금융위원회에 KB의 알뜰폰 사업 임시허가 취소를 촉구하고 있다. 알뜰폰을 포함한 이통 유통 생태계에 대한 사업자 이해가 부재한 상황에서 대형 금융사들의 추가적인 알뜰폰 시장 진입이 이루어질 경우 불공정경쟁으로 인한 시장 왜곡 문제는 더욱 심화할 수밖에 없다.알뜰폰은 이용자의 가계통신비 부담 경감과 이통시장의 경쟁 활성화를 위해 도입됐다. 최근 코로나19로 가계소득이 크게 감소한 상황에서 알뜰폰 가입자가 확대된 것만 봐도 알뜰폰이 이용자의 가계통신비 부담 완화에 기여한 바가 큼을 체감할 수 있다. 그렇다면 알뜰폰의 도입 취지를 고려할 때 논란이 되는 부분은 이통시장의 경쟁 활성화 부분이다. 정부는 정책적으로 다수의 중소 사업자가 알뜰폰 시장에 진입할 수 있는 환경을 조성하면서 중소 사업자들이 자생력을 확보할 수 있도록 전파사용료 감면 등 다양한 지원책을 펼쳐 왔다.그러나 KB의 사례에서 보듯 알뜰폰 시장에 대한 대형 금융사의 추가적 진출은 중소 사업자들과의 경쟁을 활성화하기보다 이들의 생존 기반 자체를 와해시킬 위험성이 크다. 알뜰폰 시장마저 소수의 금융사나 대기업이 과점하는 시장으로 전락함에 따라 발생할 이용자 피해도 우려된다.현대 자본주의 사회에서 금융자본(financial capital)은 가장 중요한 자원 가운데 하나다. 그리고 은행은 이러한 금융자본을 시장에 조달해서 효율적으로 공급·이용될 수 있도록 매개하고 조정하는 중요한 역할을 부여받았다. 그런데 은행이 본래 부여된 매개·조정자 역할을 하지 않고 막강한 자본력을 기반으로 산업계에 진출하는 것은 마치 심판이 직접 선수로 뛰는 것과 같다. 금산분리는 은행이 산업자본의 사금고화가 되는 것을 막기 위해 나온 원칙이다. 최근 금융자본의 힘이 커지면서 금융기관이 산업을 좌지우지해서는 안 된다는 원칙의 중요성도 커지고 있다. 국민의 소중한 예금으로 자본을 확대하고 있는 은행이 금융업 외에 수행하는 부수적인 비금융 사업에 대해서는 자금을 제공하는 사업보다 더욱 엄격한 잣대로 사업의 공정성, 사회에 미치는 영향 등을 감시해야 하는 이유다.금리 인상으로 예대마진이 크게 증가하면서 은행들은 사상 최대 수준의 이익을 올리고 있다. 하지만 반대로 서민, 영세 자영업자 등 취약계층의 대출채권 부실화 우려는 더욱 커지고 있다. 이런 상황에서 대형 금융사들이 자기자본 비율을 높여서 위험에 대비하거나 취약 차주 지원과 같은 사회적 금융 안전망을 강화하는 것보다 알뜰폰과 같은 신규 사업 진출에 먼저 눈을 돌리는 것이 과연 바람직할까?한 마리의 메기가 미꾸라지를 자극할 수는 있지만 포식자 메기가 늘면 미꾸라지는 잡아먹히기 마련이다. 은행들이 밑 빠진 독에 물 붓기 식으로 자본을 투여하며 비금융 산업의 시장 질서를 흔들었을 때 발생할 부작용을 예방하기 위한 금융위와 과학기술정보통신부의 깊은 고민 및 적극적인 대책 마련이 조속히 이루어지길 바란다.고창열 제주대 교수 kocy@jejunu.ac.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>연 2%, 2.1%, 2.2%…3.3%까지, 수시입출금통장 ‘고금리 경쟁’</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003172734?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>OK저축은행, 파킹통장 중 최고유동성 정상화 위해 자금 필수은행들, 잇따라 수신 금리 인상금융권이 자금 조달 경쟁을 벌이면서 연 3% 이상의 금리가 적용되는 수시입출금통장이 연이어 출시되고 있다. 한때 토스뱅크가 연 2% 금리의 수시입출금통장으로 인기몰이를 했지만 이제는 경쟁력이 떨어지는 모양새가 됐다.OK저축은행은 13일 최고 연 3.3%(세전) 금리를 제공하는 입출금통장인 ‘OK세컨드통장’을 출시했다고 밝혔다. 1000만원까지만 연 3.0%가 적용되고 다른 은행 오픈뱅킹에 해당 상품의 계좌를 등록해야 우대금리 0.3%포인트가 제공된다는 조건이 있긴 하지만 기존 입출금통장 중 가장 높은 금리를 제공한다.앞서 페퍼저축은행도 최고 연 3.2% 금리를 주는 ‘페퍼스 파킹통장’을 내놨다. 파킹통장은 투자처를 정하지 못한 목돈을 잠시 넣어두는 수시입출금통장을 뜻한다. 이 상품은 5000만원까지 연 3.2%, 5000만원이 넘는 액수에 대해선 연 1%의 이자를 지급한다.고금리 수시입출금 상품이 잇따라 출시되는 것은 금융권에서 자금이 필요해졌기 때문이다. 금융당국이 코로나19 대유행 당시 완화했던 유동성커버리지비율(LCR) 규제를 다시 정상화하자, 은행권은 이 규제를 준수하기 위해 공격적으로 자금을 끌어모으고 있다. 이 과정에서 은행채도 발행하고, 정기예금 금리도 올렸다. 가계대출은 주춤하지만 기업 대출 수요가 꾸준히 증가하고 있다는 것도 은행이 자금 조달에 나서는 이유다.이처럼 은행이 시중 자금을 빨아들이다 보니, 저축은행과 인터넷전문은행도 자금 조달을 위해 수신 금리를 올리지 않을 수 없는 상황이 됐다.인터넷은행 중에선 카카오뱅크가 선두다. 카카오뱅크는 지난 8일부터 파킹통장인 ‘세이프박스’의 기본금리를 0.2%포인트 인상해 연 2.2% 금리를 제공하고 있다. 지난달에도 세이프박스 금리를 0.8%포인트 올렸던 카카오뱅크는 한 달 사이에 이 상품 금리를 총 1.0%포인트 인상했다.앞서 케이뱅크도 지난 7월 파킹통장인 ‘플러스박스’ 금리를 0.8%포인트 올려, 연 2.1%를 제공하고 있다.저축은행과 인터넷은행이 이처럼 파킹통장 금리 경쟁을 벌이면서 기존의 고금리 파킹통장이 상대적으로 빛을 잃는 모양새가 되고 있다.지난해 10월 출범한 토스뱅크는 하루만 맡겨도 연 2% 금리를 주는 ‘토스뱅크 통장’을 선보여 인기를 끌었다. 그러나 한국은행의 기준금리 인상으로 시중은행 정기예금 금리가 오르자 수신상품이 ‘토스뱅크 통장’ 하나였던 토스뱅크가 수세에 몰리게 된 상황이다.토스뱅크는 지난 6월 최고 연 3% 금리를 주는 ‘키워봐요 적금’을 출시했지만, 이 역시 경쟁력이 있다고 보기는 어렵다. 금융감독원의 금융상품 통합 비교공시에 따르면 케이뱅크는 연 3.7%의 적금 상품을, 신한·우리은행 등 시중은행도 연 3.2%가 넘는 적금 상품을 판매하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>앱 통해 의사 상담후 약 처방…"집에서 전국 모든 병원 진료 받죠"</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004097953?sid=103</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[다시 기업을 뛰게하자]3부- 혁신 현장을 가다-&lt;12&gt; 비대면 진료 플랫폼 닥터나우병원 800여곳 제휴 감기서 만성질환까지 비대면 진료장소·시간 제약없어 지방·장애인 의료접근성 크게 개선건강상태 분석·전담의사 등 통합 헬스케어시스템 추진닥터나우 이용자가 스마트폰 앱을 통해 비대면 진료를 받고 있다. 사진 제공=닥터나우[서울경제] “코로나19에 확진되고 비대면 진료를 받았습니다. 온라인으로 연결된 의사가 친절하게 증상을 확인한 다음 약을 처방해줬습니다. 아들도 확진됐는데 아들도 비대면 진료를 통해 약을 처방 받았습니다. 비대면 진료 덕분에 코로나를 무사히 넘길 수 있을 것 같습니다.”비대면 진료 플랫폼 기업 닥터나우의 홈페이지에는 서비스에 대한 고마움을 표시하는 후기가 가득하다. 2020년 코로나19 발생 이후 비대면 진료가 한시적으로 허용되면서 비대면 진료를 경험해 본 국민들은 대체로 좋은 반응을 보였다. 코로나19뿐만 아니라 감기 같은 경증 질환에 더해 당뇨·고혈압·고지혈증과 같은 만성질환 환자들도 비대면 진료의 편리함에 엄지를 치켜들었다. 닥터나우 이용자 강 모 씨는 “당뇨 때문에 약을 받아야 하는데 코로나19 때문에 병원을 갈 수가 없어 불안했었다”면서 “비대면 진료로 쉽고 빠르게 재처방 받고 약도 배송 받아 정말 좋았다”고 전했다.이용자들은 전국 어느 병원이나 이용할 수 있고 병원에서 하염없이 기다리지 않아도 된다는 점이 비대면 진료의 장점이라고 입을 모은다. 이용 방법도 쉽다. 애플리케이션을 내려받아 실행시킨 후 원하는 병원과 진료 과목을 선택해 예약하면 해당 병원이 환자에게 전화를 걸어 진료를 한다. 직접 병원을 찾아갈 필요도, 의사를 만나기 위해 장시간 기다려야 할 필요도 없다. 이처럼 장소와 시간의 제약이 없다 보니 지방에 거주하는 환자들에게 인기가 높아지고 있다. 닥터나우에 따르면 지난해 상반기 비대면 진료 이용자의 약 80%가 수도권 이용자였지만 올 상반기에는 지방 이용자 비중이 40%까지 확대됐다. 또 다른 비대면 진료 플랫폼인 굿닥의 경우 올 3월 10%에 불과했던 지방 이용자가 6월에는 65%까지 급증했다. 지방에 거주하는 한 이용자는 “전국에 있는 모든 병원에서 진료를 받을 수 있다는 점이 신기했다”며 “서울에 있는 내과에서 진료를 받고 처방약은 집 근처 약국으로 배달되니 너무 편리하고 만족했다”고 말했다. 그는 이어 “지방에 사는 사람 입장에서는 좋은 병원을 이용할 수 있기 때문에 코로나19가 끝나더라도 비대면 진료가 운영되면 좋겠다”고 말했다.특히 이동이 힘들어 직접 병원을 방문하기 어려운 장애인들에게 비대면 진료는 그야말로 ‘신세계’다. 하반신 마비 장애를 갖고 있는 지체장애인 A 씨는 “혼자 운전이 불가능해 도움 없이는 병원에 가는 게 사실상 불가능하다”면서 “비대면 진료를 이용해 보니 집 밖으로 나가지 않아도 언제든지 의사의 진료를 받을 수 있었다. 장애인들에게 꼭 필요한 진료 방식”이라고 말했다.코로나19 장기화로 비대면 진료를 이용하는 사람들이 늘어나면서 자연스럽게 이용 연령층도 확대되고 있다. 닥터나우의 경우 서비스 초기에는 이용자의 90%가 플랫폼에 익숙한 2030세대였지만 올 상반기에는 40대 이상 이용자 비중이 30%가량으로 늘었다. 올 초 오미크론 변이가 기승을 부리면서 보다 다양한 연령층이 비대면 진료를 경험하게 된 것이다. 닥터나우 관계자는 “비대면 진료를 경험해 본 이용자들이 늘어나면서 긍정적 인식이 확산되고 있다”며 “코로나19로 재택 치료를 받으며 빠르게 대중화된 것으로 분석된다”고 말했다.2019년 설립된 닥터나우는 코로나19 팬데믹 상황에서 발 빠른 비대면 진료 서비스를 제공해 비대면 진료 대표 기업으로 성장했다. 2020년 12월부터 비대면 진료 서비스를 시작해 현재까지 누적 이용 건수는 600만 건이 넘는다. 내과·이비인후과·가정의학과·소아청소년과 등 전국 800여 곳의 병원과 700여 곳의 약국과 제휴를 맺고 있다. 비대면 진료에 대한 의약계의 반대는 여전하지만 상대적으로 젊은 의사들의 참여도가 높다. 닥터나우 관계자는 “젊은 의사들은 대체로 비대면 진료에 찬성하는 편”이라며 “규모가 작은 병원도 비대면 진료를 진행하는 데 별 제한이 없어 확장성이 크다”고 말했다. 비대면 진료에 대한 법적 제도화가 이뤄지지 않은 상황에서도 성장 잠재력을 높이 평가 받아 현재까지 520억 원의 투자를 유치했다. 업계 관계자는 “만약 코로나19 팬데믹 이후 비대면 진료가 다시 금지된다면 생존 자체를 위협받을 수 있다”며 “하지만 많은 국민들이 편리함을 경험한데다 해외에서 비대면 진료가 비약적으로 성장하고 있는 만큼 투자시장에서는 향후 발전 가능성에 베팅하는 분위기”라고 전했다.닥터나우는 또 다른 혁신에 나서고 있다. 비대면 진료 플랫폼 기업이 20여 개에 달하는 상황에서 차별화를 통해 경쟁력을 강화하기 위해서다. 여기저기 흩어져 있는 건강검진 데이터를 한 곳에 모아 이용자들에게 제공해 이용자들이 자신의 건강 상태를 편리하게 관리하도록 도울 계획이다. 아울러 이 데이터를 분석해 ‘건강 상태 분석’ 등의 서비스를 도입하는 방안도 검토 중이다. 또 비대면 진료가 일회성에 그치지 않도록 진료를 본 의사를 ‘전담 의사’로 지정해 증상에 대한 궁금증을 의사와 일대일 상담도 가능하게 했다. 진료 이후 증상을 관리할 수 있도록 ‘복약 알림’ 등도 제공한다.장지호 닥터나우 대표는 “진료부터 예방까지 모든 헬스케어 분야를 망라한 서비스로 사업 영역을 확대해 나갈 것”이라며 “금융 분야의 ‘토스’와 음식 분야의 ‘배달의 민족’과 같은 의료 분야의 ‘슈퍼앱’으로 성장하겠다”고 포부를 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.09.09.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>"게임에서도 추석 분위기 물씬" 이벤트·할인 쏟아진다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004097564?sid=105</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>추석맞이 이벤트···아이템·기기 할인 등 다양[서울경제] 게임업계가 민족대명절 추석을 맞이해 풍성한 이벤트와 콘텐츠 업데이트에 나선다.9일 게임업계에 따르면 넥슨은 방탄소년단(BTS) 멤버 ‘진’의 아이디어가 반영된 추석 업데이트 ‘이그니션 풀 문 파티’를 오는 28일까지 진행한다. 진이 NPC로 등장하는 월간 이벤트 ‘월드 와이드 핸섬!’을 통해 레벨 범위 몬스터를 사냥하고 알파벳 아이템을 모아 제시어를 완성하면 각종 아이템을 지급하며, 모든 단어 완성 시 ‘진 로이드 교환권’을 추가 제공한다. 또, ‘마이크의 미니게임 라운지!’ 이벤트를 통해 진이 기획한 ‘들썩들썩 널뛰기’를 포함 8종의 미니게임을 제공한다.카카오게임즈(293490)는 추석 업데이트를 통해 ‘오딘: 발할라 라이징’에 한복 외형 아바타를 선보였다. 클래스(직업)별로 다른 모양의 한복을 획득할 수 있다. 오는 28일까지 추석 이벤트 던전 ‘달빛 정원’도 연다. 이용자들은 매일 1시간씩 플레이할 수 있다. 카카오게임즈는 이외 '달빛조각사', '엘리온', '프렌즈팝콘' 등 게임에도 한복 의상을 업데이트했다.컴투스(078340)는 신작 ‘서머너즈 워: 크로니클’을 비롯해 ‘컴프야2022’, ‘골프스타’, ‘낚시의 신’, ‘백년전쟁’, ‘아이모’ 등에서 추석 이벤트를 실시한다. 크로니클 이용자에게는 게임에 접속만 해도 ‘3성 빛과 어둠의 선택권’ 등 아이템을 지급한다. 이와 함께 신규 탈 것 ‘달토끼’가 추가됐으며, 세트 보유 시 캐릭터 공격력이 상승하는 보름달빛 의상 세트도 오는 20일까지 제공한다.엔씨소프트(036570)는 '리니지M', '리니지W', '블레이드&amp;소울 2' 등을 비롯한 총 11종의 게임에서 이벤트 재화를 모아 게임 내 아이템으로 교환할 수 있는 이벤트를 선보인다. 넷마블(251270)은 '세븐나이츠 레볼루션', '블레이드&amp;소울 레볼루션', '리니지2 레볼루션', '제2의 나라: 크로스 월드'를 비롯한 12종 게임에서 추석 맞이 이벤트를 연다. 이 밖에도 펄어비스의 '검은사막 모바일', 엔픽셀의 '그랑사가' 등도 추석을 테마로 한 다양한 이벤트를 개최한다.해외 게임사도 추석맞이에 나섰다. 라이엇게임즈는 '리그 오브 레전드'에서 '한가위에는 행복이 한가득' 이벤트를 열고 토스 간편결제 이용시 라이엇 포인트(RP) 충전 금액을 10% 할인한다. 또 140종의 서사급 스킨을 50% 할인해 판매하고, 이벤트 기간에 사용한 RP 액수에 따라 게이밍 기기, 한정판 상품, 인게임 아이템 경품 응모 기회를 제공한다. 텐센트의 글로벌 퍼블리싱 브랜드인 ‘레벨 인피니트’는 ‘천애명월도M’에서 폭죽놀이·월병(중국의 전통 과자) 이벤트 등을 실시한다.콘솔 게이머를 위한 할인 이벤트도 실시된다. 소니 인터랙티브 엔터테인먼트 코리아(SIEK)는 20일까지 '2022 추석 세일'을 통해 '플레이스테이션(PS) 5'용 인기 게임 타이틀을 최대 50%까지 할인된 가격에 온·오프라인에서 판매한다. 가상현실 게임기인 'PS VR' 기기는 세일 기간 정가에서 10만원 할인된 34만8000원에 판매한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.09.11.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>"주식·코인하다 원금도 잃었다"…눈물 쏙 뺀 민지들 몰려간 곳</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004793358?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>서울 여의도의 한 시중은행 영업점 전경#, 직장인 2년차 심모씨는 입사 초기 친구들로부터 '사회생활도 시작했으니 재테크를 해야 하지 않겠냐'는 말을 들었다. 코로나19(COVID-19) 장기화 영향으로 초저금리가 계속되자 '은행에 돈을 넣어두는 것은 바보'라고 생각한 심씨는 주식과 코인(암호화폐)에 집중했다. 그런데 올해 들어 상황이 바뀌었다. 주식과 코인 시장 모두 폭락장이 이어지며 그간 번 돈은 물론, 투자 원금도 손실을 봤다. 결국 김씨는 지난달 주식과 코인을 모두 정리해 은행 특판 정기예금에 넣었다. 또 적금에 가입해 월급의 일부를 차곡차곡 모아보기로 했다.지난해만 해도 제로(0)에 가까운 금리로 MZ세대(1980년대 초반~2000년대 초반 출생)들이 거들떠도 보지 않던 예·적금 인기가 부활하고 있다. 올해 들어 가파른 기준금리 인상과 함께 주식과 코인 시장에 한파가 닥치면서 안전자산인 예·적금으로 돌이 몰리는 '역(逆)머니무브' 현상이 나타나면서다.11일 은행권에 따르면 KB국민·신한·하나·우리·NH농협은행 등 5대은행의 지난달 말 정기 예·적금 잔액은 768조5434억원(정기예금 729조8206억원, 정기적금 38조7228억원)으로 한달 사이 17조9776억원 급증했다. 7월 한 달간 28조56억원이 불어난 데 이어 두 달 만에 46조원의 시중자금이 유입된 것이다.또 올해 들어 8개월간 5대은행 예·적금 증가액은 78조5068억원에 달한다. 한 달 평균 10조원씩 늘어난 셈이다.공격적인 투자성향을 띄는 MZ세대들도 이 대열에 동참했다. 한화투자증권의 '2022 MZ세대 투자인식 보고서'에 따르면 MZ세대가 경험해 본 재테크 및 투자법은 예·적금이 64%로 가장 높게 나타났다. 주식(54%)보다 10%P(포인트) 높은 수치다. 금융권도 MZ세대를 겨냥한 고금리 '특판'과 '펀세이빙' 상품을 내놓고 있다. 단순히 금리만 높은 게 아니라 금융상품에 게임적 요소를 가미해 MZ세대들을 고객으로 끌어들이려 하고 있다.광주은행은 최고 연 13.2%의 금리를 주는 '행운적금'을 출시했다. 이 상품은 로또복권처럼 적금 가입 고객에 매주 월요일 행운번호 6개를 배정한다. 그주 금요일 추첨을 통해 당첨된 고객에게는 연 10%P의 우대금리를 준다. 기본금리도 연 3.2%로 나쁘지 않은 데다 우대금리 행운이 더해지면 연 13.2% 이자를 받을 수 있어 재테크 카페 등에서 화제가 되고 있다. 월 납입 한도는 50만원이다.상대적으로 MZ세대 이용자 비율이 높은 인터넷전문은행들도 펀세이빙 적금에 적극적이다. 대표적인 것이 토스뱅크의 '키워봐요 적금', 카카오뱅크의 '26주 적금'이다. 키워봐요 적금은 동물을 키우는 방식으로 돈을 쌓을 수 있어 실속과 재미를 함께 노린 상품이다. 우선 가입 시 '알'을 하나 준다. 이 알은 다음날 부화해 거북이·문어·망아지 등으로 자란다. 매주 자동이체로 적금을 납입할 때마다 진화하고, 6개월 뒤 최종 만기일에는 '전설의 동물'이 된다.26주 적금은 1000원·2000원·3000원·5000원·1만원 중 하나를 첫 주 납입액으로 선택해 가입하면 매주 그 금액만큼 증액해 저축하는 소액 단기 적금 상품이다. 가입할 때 라이언·어피치·춘식이 등 카카오프렌즈 캐릭터를 선택하는데, 매주 적금을 납입할 때마다 캐릭터가 하나씩 늘어난다.특히 인터넷은행들은 짧은 호흡을 선호하는 MZ세대 투자 성향을 반영해 적금상품 만기를 6개월로 운영하는 추세다. 키워봐요 적금과 26주 적금 모두 만기가 6개월이다.아울러 카카오뱅크는 최근 '카카오뱅크 mini(미니)'의 첫번째 제휴 서비스로 배달의민족과 '26일저금'을 내놓기도 했다. 만 14세부터 만 18세 이하 청소년만 가입할 수 있다. 기존 히트상품인 26주적금을 재해석한 상품으로, 매일 500원부터 2000원까지 26일 동안 저금하는 상품이다. 가입만으로 배달의 민족 상품권(최소 1000원, 최대 5만원)을 주고, 저금 연속 성공일에 따라 최대 5000원의 상품권을 추가로 지급한다.건강을 챙기며 이자를 버는 '헬스케어 적금' 상품도 저축은행에서 등장했다. 웰컴저축은행은 최고 연 10% 금리를 제공하는 '웰뱅워킹적금'을 출시했다. 계약기간 동안 집계된 걸음 수에 따라 최고 연 8%p(포인트)의 우대금리를 적용한다. 걸음 수에 따라 제공되는 우대금리는 최소 100만보에서 최대 500만보까지 달성 구간에 따라 적용된다. 달성구간에 따라 △100만보 1%p △200만보 3%p △300만보 4%p △400만보 6%p △500만보 8%p의 우대금리가 각각 지급된다.하루 1만보 이상 걷는 고객이라면 300만보(우대금리 4%p)는 어렵지 않게 달성할 수 있다. 특히 실시간으로 웰뱅 앱 '웰뱅워킹 서비스'로 걸음 수를 확인할 수 있기 때문에 산책이나 건강 증진을 위해 조금 더 걷는 고객은 500만보 달성도 어렵지 않다는 게 웰컴저축은행 측 설명이다.금융권 관계자는 "MZ세대들이 주식과 코인 대폭락을 경험하면서 안전자산의 중요성에 대해 인식했을 것"이라며 "하반기에도 기준금리 인상 기조가 이어질 것으로 전망되는 만큼 높은 금리를 주면서도 재미 요소가 가미된 다양한 예·적금 상품에 대한 MZ세대 수요도 계속될 것으로 보인다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.09.11.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>‘앱테크 맛집’ 네이버 영수증 리뷰 이벤트 10월 말 종료</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000077169?sid=102</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>짠테크족의 사랑을 받던 네이버 영수증 리뷰 이벤트가 10월 말 종료된다.네이버는 ‘MY플레이스(마이플레이스)’의 영수증 리뷰 포인트 지급 이벤트를 오는 10월 31일 종료한다고 밝혔다. 그동안 네이버 마이플레이스는 방문한 식당, 카페 등 매장 영수증을 인증한 뒤 장소 리뷰를 작성하면 네이버페이 포인트를 지급하는 이벤트를 해왔다. 첫 방문 장소는 50원, 재방문 장소는 10원의 네이버페이 포인트가 지급됐다.영수증 포인트 이벤트는 토스 만보기 등과 함께 대표적인 앱테크(앱으로 일정 미션을 수행하면 적립금 등을 받을 수 있는 서비스)로 꼽혀왔다. 참여 방법이 간단해 호응이 컸다. 네이버 앱 등에서 마이플레이스에 접속해 ‘영수증 인증’을 통해 영수증 사진을 찍으면 상호명과 구매 물품 등이 자동으로 인식된다. 이어 리뷰를 남기면 포인트가 적립된다.네이버는 리뷰 생태계의 투명성과 품질을 높이기 위해 2019년 11월부터 ‘영수증 인증 리뷰’ 서비스를 운영해왔다. 지난 3년여간 이 서비스를 통해 1000만명 이상 이용자가 6억7000만개 영수증을 인증하고 4억건 이상의 리뷰를 작성했다.포인트 지급 이벤트가 종료되는 것이지, 영수증 인증 기능 자체가 사라지는 것은 아니다. 향후 영수증 인증과 관련된 새로운 이벤트도 진행될 예정이다. 네이버 마이플레이스 관계자는 “이번 이벤트 종료 후에도 이용자 참여를 유도하기 위한 ‘시즌2 이벤트’를 준비 중”이라면서 “‘영수증 인증’으로 인해 기존에 흔했던 단순 별점 리뷰가 아닌 콘텐츠로서의 리뷰가 많이 늘어났다. 마이플레이스를 콘텐츠 플랫폼이나 커뮤니티 측면에서 활성화시키기 위한 이벤트를 기획하고 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>투자 혹한기에도 개발자 확보는 전쟁…채용시장 다각화</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011406169?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>기사내용 요약스타트업, 개발 인재 양성·채용에 주목[서울=뉴시스] 개발자 모습. (사진=뉴시스 DB). photo@newsis.com[서울=뉴시스] 배민욱 기자 = 스타트업 투자 시장 혹한기 분위기에도 핵심 개발 인재를 확보하기 위한 기업들의 움직임은 분주하다. 안정적인 사업 모델로 시장에 증명을 해야 하는 이 시기를 오히려 성장 가능성 높은 인재를 채용·양성할 수 있는 기회로 삼는 기업들이 많아지고 있기 때문이다. 특히 실무에 투입해도 무리가 없도록 개발자들의 역량을 강화해주는 서비스, 높은 매칭률로 기업과 개발자에게 꼭 맞는 채용을 연계해주는 플랫폼, 직접 개발 인재를 양성하는 스타트업까지 등장하고 있다. 6일 관련 업계에 따르면 팀스파르타가 운영하는 '포트(Port)99'는 복잡한 절차 없이 대규모의 신입 개발자 지원을 받고 간편하게 관리할 수 있는 채용 플랫폼이다. 코딩부트캠프 항해99 출신의 검증된 지원자를 채용할 수 있다. Port99를 이용하는 협력사들은 개발자들의 이력서를 별도 다운로드 없이 직무와 기술 스택 별로 쉽게 조회할 수 있다.Port99를 이용하는 기업회원은 채용공고 업로드 후 10분 이내로 첫 지원자를 확인할 수 있다. 평균적으로 한 기업당 20개 이상의 입사지원을 받게 된다. 현재 시리즈A 규모 스타트업부터 카카오벤처스 패밀리사를 비롯해 토스, 오늘의집, 우아한형제들 유수의 기업들까지 700개 이상의 기업이 Port99 회원으로 함께 하고 있다.IT기업의 탄탄한 역량을 바탕으로 직접 개발자 양성에 나서는 기업도 있다. '배달의민족' 운영사인 우아한형제들은 프로그램 개발자 저변을 확대하기 위해 지난 2019년 개발자 양성 프로그램 '우아한테크코스'를 도입했다. 채용 연계 프로그램 '우아한테크캠프'도 운영 중이다. 기술적 역량과 팀 프로젝트를 통해 개발자에 필요한 커뮤니케이션 역량을 갖출 수 있도록 하고 있다.해당 교육은 10주 과정이다. 프로그래밍 기본부터 시작해 심화 과정까지 이어진다. 비전공자들도 프로그래밍 언어를 이해하고 앱 개발 공식을 배워 유지하고 관리하는 수준까지 이를 수 있다. 수업에 대한 교육비는 전액 우아한형제들이 부담한다.인덴트코퍼레이션은 서비스 고도화와 글로벌 진출을 앞두고 개발자 채용을 진행한다. 오픈소스 기여자이자 개발자로 유명한 전수열 iCTO(interim-CTO)를 주축으로 IT 핵심 전력 채용에 나섰다. 올해 인덴트코퍼레이션에 합류한 전 iCTO는 기술 리더로 역할을 총괄하며 핵심 역량을 갖춘 IT 인력 채용에 집중, 본격적인 개발팀 구성에 속도를 올릴 계획이다. 채용 직군의 주요 업무는 B2B(기업간 거래) 서비스 '브이리뷰'와 B2C(기업과 소비자간 거래) 서비스 '스프레이' 백엔드 개발 업무를 수행할 예정이다. 렌트카 가격 비교 앱 카모아를 운영하는 팀오투는 벡엔드 개발자 채용을 진행한다. 카모아 내부와 외부 API(응용 프로그램 인터페이스)와 개발 업무를 수행할 예정이다. 컴퓨터 공학과 웹서비스에 대한 전문성이 있는 등 일정 조건을 갖추면 신입부터 지원이 가능하다. 로봇 솔루션과 서비스를 개발하는 클로봇은 연구소 자율주행 개발자, 로봇 응용 SW(소프트웨어)개발자 부문에서 채용을 진행한다. 신입·경력 무관하게 채용을 진행하며 로보틱스 및 컴퓨터 공학 관련 전공자를 우대한다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>"요즘 이거 없으면 안돼" 컬처 덱에 빠진 스타트업들</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000696994?sid=105</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2009년 넷플릭스가 공개한 자료 하나가 미국 실리콘밸리를 흔들었다. '우리는 비범한 회사가 되려고 한다'는 문장으로 시작한 '자유와 책임'이라는 제목의 이 자료가 요즘 신생기업(스타트업)들 사이에 들불처럼 번지는 '컬처 덱'(Culture Deck)의 시작이다.넷플릭스가 시작한 컬처 덱은 한마디로 기업문화를 소개하는 자료다. 넷플릭스는 컬처 덱에서  직원들 각자의 자유로운 활동을 보장해 높은 성과를 지향하고 여기 맞춰 업계 최고 대우와 승진 및 자기계발 기회를 제공한다고 소개했다.넷플릭스가 퍼뜨린 불씨특히 넷플릭스가 컬처 덱에서 강조한 것은 보상이다. 넷플릭스는 기업의 참된 가치는 듣기 좋은 구호가 아니라 확실한 보상에 있다고 강조했다. 이를 위해 판단력과 소통 능력, 무엇이든 배우려는 호기심, 논란 가능성이 있는 생각을 말하는 용기, 열정과 정직, 이타적 행동 등 9가지 관점에서 인재를 평가하고 보상하며 승진시킨다고 명시했다.넷플릭스는 컬처 덱 발표 이후 수 많은 인재들의 지원을 받았다. 회사 비전과 가치, 조직 문화를 이처럼 확실하게 소개해 효과를 본 경우는 처음이다. 그래서 페이스북 공동창업자인 세릴 샌드버그 전 대표는 컬처 덱을 "실리콘밸리에서 가장 중요한 자료"라고 평했다.15일 관련업계에서 따르면 국내에서도 컬처 덱을 도입하는 스타트업들이 늘고 있다. 스타트업들이 컬처 덱에 공을 들이는 이유는 인재 확보와 직결되기 때문이다. 기업이 어떤 문화를 갖고 있으며 이를 위해 어떤 노력을 하고 무엇을 중요하게 생각하는지 담아 지원자들이 회사를 고를 때 판단하도록 돕는다. 특히 경력자들은 컬처 덱을 통해 회사를 파악하고 자신의 성장 여부를 가늠해 이직을 결정한다. 그만큼 컬처 덱도 각 기업의 특성을 살려 다양하게 진행한다.클래스101의 기업문화를 담은 컬처 덱 '온보딩 키트'. 클래스101 제공책 만들어 배포하고 대표가 발표회도 가져온라인 교육업체 클래스101은 '온보딩 키트'라는 컬처 덱 자료집을 배포한다. 사내 컬처팀이 입사자에게 이를 나눠주고  멘토처럼 배정된 직원들이 기업 문화를 알려준다. 또 대표가 새로 들어온 직원들과 만남을 갖고 회사 연혁과 지향점을 소개하는 '불꽃 세션'을 따로 갖는다. 이를 통해 이 업체는 '세상 모든 것에 배움이 있다', '모두가 사랑하는 일을 하며 살자'는 회사의 철학을 공유한다. 권정화 클래스101 홍보팀 리드는 "온보딩 키트는 회사의 경영 철학과 문화를 담았다"며 "입사자들에게 회사 생활의 길라잡이 역할을 하며 자긍심을 심어준다"고 말했다.디지털 요양 서비스를 제공하는 실버테크 한국시니어연구소도 노인을 돌보는 기업 특성상 디지털과 대면접촉의 중요성을 강조한 '디지로그' 철학을 담은 컬처 덱 문서를 입사자들에게 제공한다. 디지로그란 디지털과 아날로그의 결합을 통해 새로운 서비스와 가치를 창출하는 것을 말한다. 이진열 한국시니어연구소 대표는 "조직이 지난해보다 3배 이상 성장하면서 퇴사율을 낮추기 위해 노력한다"며 "이런 차원에서 복지만 내세우기 보다 직원들이 회사의 가치와 원칙을 공감할 수 있도록 하는 것이 중요해 컬처 덱을 만들었다"고 설명했다.거주지 중심의 분산 사무실 '집무실'을 운영하는 알리콘도 '자율근무 습득서'라는 컬처 덱을 신규 입사자들에게 제공한다. 여기에 기업 특성을 살린 원격 근무 협업 방법, 원격 근무자에 대한 법적 내용 등을 담았다. 특히 이 업체는 컬처 덱을 통해 원격 근무시 동료와 소통이 줄어들고 소속감이 떨어지며 발생할 수 있는 고립감을 없애는 것에 주안점을 둔다. 따라서 단순 근무 지침이 아닌 이모티콘 사용 등 메시지 전달 방식과 정서적 교류 방법까지 다룬다. 조민희 알리콘 공동대표는 "원격 근무와 관련해 다년간 시행착오를 거치며 터득한 경험을 반영해 자율근무습득서를 계속 갱신하고 있다"고 말했다.한국시니어연구소에서 새로 입사자들에게 제공하는 책자 형태의 컬처 덱. 한국시니어연구소 제공전담 팀 구성하고 앱과 메타버스도 활용금융기술(핀테크) 서비스 '토스'를 운영하는 스타트업 비바리퍼블리카는 기업 문화를 만드는 컬처 에반젤리스트팀이 있다. 새로 입사한 사람들이 기업에 좋은 인상을 받을 수 있도록 3개월 동안 기업의 목표와 문화 등을 교육하고 대표와 다과회 자리 등을 마련한다.핀테크 기업 핀다도 컬처 덱팀 구성과 팀장 선발을 검토 중이다. 이 업체는 지난해 창립 6주년을 맞아 발표한 6가지 핵심가치를 컬처 덱에 담아 홈페이지와 네이버 포스트 등에 공개하고 있다. 핵심 가치 6가지는 '고객 가치를 위해 모든 의사결정을 한다', '회사와 동료의 끝없는 성장을 믿는다', '집요하게 질문하고 도전한다', '목표는 같이 정하고 방법은 자율적으로 한다', '투명하게 정보를 공개한다' 등이다. 차수연 핀다 홍보팀 리드는 "컬처 덱을 중요하게 생각해 사내 피플팀에서 핵심가치를 기반으로 다양한 행사를 기획하고 있다"며 "유명한 강대명 카카오 개발자 등 외부인을 초빙해 개발자들을 위한 강연행사를 15일 갖는데, 이 또한 회사의 자신감과 영향력을 보여주는 컬처 덱의 일환"이라고 설명했다.주류 스타트업 데일리샷은 앱을 통해 컬처 덱을 시도한다. 술을 사랑하는 김민욱 대표가 창업한 이 업체는 각종 술을 앱으로 주문하면 집 근처 식당에서 찾을 수 있는 온라인과 오프라인을 결합(O2O)한 서비스를 한다. 이 업체는 앱에 회사의 정체성과 주류의 역사와 문화 등을 담고 있다. 이를 통해 직원들도 자연스럽게 회사 문화를 이해할 수 있도록 돕는다.이밖에 네이버는 가상공간(메타버스)인 '제페토'를 이용해 기업 문화를 소개하는 '코드데이'라는 특별한 컬쳐 덱을 갖고 있다. 새로 입사한 사원들이 가상 공간에서 아바타로 만나 다양한 온라인 워크숍을 진행한다. 업계 관계자는 "모든 창업자의 가장 큰 고민이 인력 관리"라며 "컬처 덱도 스타트업 CEO들의 공통된 고민이 낳은 산물"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>성장통 겪는 인터넷은행…"수익구조 다변화 절실"</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001053025?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;카카오뱅크, 토스뱅크 같은 인터넷 전문은행들의 성장세가 주춤합니다.도입 취지대로 금융권 메기 효과는 확실히 불러 일으키긴 했는데, 그만큼 시중은행들이 진화하면서 차별성이 사라진 겁니다.생존을 위해서는 또 한번의 혁신이 필요해 보입니다.정호진 기자입니다.&lt;기자&gt;[최훈 / 전 금융위원회 금융서비스국장 (2016년 12월) : 케이뱅크 은행의 은행업 인가를 결정하였습니다 설립 초기부터 자유롭고 창의적인 IT 분야의 성과 중심 문화를 도입하여 미래 금융산업의 시금석으로 기능해 줄 것을 당부했습니다.]은산분리 규제 완화와 창의적인 금융혁신을 목적으로 출범한 인터넷은행. 편의성과 혁신을 내세우며 금융권의 메기로 자리매김할 것으로 평가받았습니다.실제 지난해 8월 상장한 카카오뱅크는 KB금융을 제치고 금융주 시가총액 1위(약 43조 7천억 원) 자리에 오르기도 했습니다.하지만 호시절은 오래가지 못했습니다.카카오뱅크는 6개월여 만에 금융주 시총 1위 자리를 내줬고, 엎친 데 덮친 격으로 국민은행의 블록딜과 카카오톡 송금이 금지될 수 있다는 소식에 한 달 새 23%가량 급락했습니다.카카오뱅크의 부진이 IPO를 앞둔 케이뱅크의 기업가치 산정에도 부정적인 영향을 미칠 것으로 전망되는 가운데, 토스뱅크 역시 올 상반기 1,240억 원대 적자를 기록했습니다.인터넷은행의 약진이 주춤해진 배경으로는 시중은행도 모바일 앱을 강화하고 금리 경쟁에 뛰어들며 강점이 희미해졌다는 점이 꼽힙니다.실제 지난달 은행별 예대금리차는 중저신용자 비중이 높은 인터넷은행의 경우 시중은행 대비 많게는 다섯 배 넘게 컸고, 최근 금융앱 신규 설치 순위에서도 기존 금융사의 약진에 주춤했습니다.일각에선 금산분리 규제 완화 움직임에 인터넷은행의 강점인 산업자본 유치 특혜가 사라지고 성장에 한계가 올 것이란 우려도 나오고 있습니다.하지만 지금의 부침이 성장통에 그칠 것이란 전망도 많습니다.시중은행에 비해 여전히 높은 접근성과 정부의 디지털 금융 육성 정책을 발판으로 꾸준히 시장을 확대해 갈 것이란 설명입니다.현재 부침을 겪고 있는 카카오뱅크 역시 증권가에서는 여전히 성장 잠재력을 높게 평가하고 있습니다.전문가들은 인터넷은행이 현재 예대마진에 의존한 수익구조를 넘어 차별성 있는 수익모델을 발굴해야 한다고 지적합니다.[서지용 / 상명대학교 경영학과 교수 : 수수료 수익을 창출할 수 있는 새로운 외환 서비스라든가 신탁사업에 주력하는 등 수수료 기반의 수익 창출이 가능할 수 있게끔 사업구조를 개선해야 할 것으로 생각됩니다.]인터넷은행이 중소기업·개인사업자 대출을 확대하는 등 포트폴리오를 다변화하는 가운데, 인터넷은행의 제2의 도약에 금융권의 관심이 쏠리고 있습니다.한국경제TV 정호진입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.09.10.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>수익률 높고, 리스크 적어…‘발행어음’ 인기</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000077159?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>매경DB 금리 인상 압력이 거세지고 증시가 조정을 받자 발행어음에 투자자 이목이 집중된다. 금융투자협회에 따르면 8월 말 기준 증권사 발행어음형 종합자산관리계좌(CMA) 잔고는 11조6609억원을 기록했다. 지난해 말 잔고(7조4646억원) 대비 56.2% 증가했다. 한국투자증권이 토스뱅크를 통해 판매한 발행어음 특판 상품은 4일 만에 한도 2000억원을 소진하면서 이슈가 됐다. 이 상품은 연 최대 4.5% 이자를 지급한다.발행어음은 증권사가 자체 신용을 바탕으로 어음을 발행하고 투자자에게 약정금리로 원리금을 지급하는 만기 1년 이내 단기 금융 상품이다. 자기자본이 4조원 이상인 초대형 투자은행(IB)으로 지정된 증권사가 발행한다. 국내 증권사 중에는 미래에셋증권, 한국투자증권, NH투자증권, KB증권 등이 발행어음 사업을 하고 있다.발행어음에 자금이 집중되는 이유는 기준금리 인상에 따라 수익률이 올라서다. 2020년까지만 해도 발행어음 금리는 연 1.55% 수준이었다. 하지만 지금은 4.1~4.15%까지 올라왔다. 자동이체 설정, 신용카드 사용 등 특별한 조건을 충족하지 않아도 높은 금리를 받을 수 있다는 것도 장점이다.다만 예금자 보호법이 적용되지 않는다는 점은 유의해야 한다. 원금과 이자를 합쳐 5000만원까지 보호받을 수 있는 예적금과 다르다. 신용도가 높은 대형 증권사만 발행할 수 있어 부실 위험은 낮지만, 최악의 경우 원금과 이자 모두 잃을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.09.04.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>간편인증서 여러 개 설치하는 부담 줄어든다…'통합모듈' 개발</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013417999?sid=004</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>과기정통부, 13개 주요 간편인증서 모두 지원하는 통합모듈 만들어 보급과기정통부 청사    (서울=연합뉴스) 정성호 기자 = 앞으로는 인터넷 사이트마다 요구하는 '간편인증' 서비스가 달라 여러 개의 간편인증 애플리케이션(응용프로그램)을 설치해야 하는 부담이 줄어들 전망이다.    과학기술정보통신부(과기정통부)와 한국인터넷진흥원(KISA)은 13가지 주요 간편인증 서비스를 모두 지원하는 '간편인증 통합모듈'을 개발하고 이를 민간 인터넷 서비스 기업에 설치해주는 지원 시범사업을 벌인다고 4일 밝혔다.    간편인증이란 인터넷 쇼핑몰이나 뱅킹 서비스 이용 때 긴 비밀번호 대신 PIN(개인식별번호)이나 얼굴 또는 지문 같은 생체정보, 패턴 등 간편한 방법을 통해 전자서명(인증)을 하는 서비스를 말한다.    이런 서비스는 빠르고 편하게 인증을 할 수 있게 해주지만 쇼핑몰, 또는 뱅킹 서비스마다 필요한 간편인증 서비스가 다르다.    예컨대 어떤 쇼핑몰에선 페이코로 간편인증을 할 수 있지만, 다른 모바일 뱅킹에선 패스로 간편인증을 해야 하는 식이다. 이러다 보니 이용자들은 그때그때 새로운 간편인증 앱(인증서)을 설치해 이용해야 했다.    과기정통부와 KISA는 간편인증 통합 인증모듈을 개발해 이런 불편을 없애기로 했다. 간편인증 서비스가 특정 웹사이트에서 작동하도록 하려면 인증모듈이 필요한데 주요 간편인증서 13개를 모두 지원하는 통합 인증모듈을 만드는 것이다.페이코의 로고    이런 통합 모듈이 설치된 쇼핑몰이나 뱅킹 서비스에서는 이용자가 13가지 간편인증 앱 중 어떤 것을 설치했든 간편인증을 이용할 수 있게 된다.    통합 모듈이 지원하는 간편인증 앱은 페이코(PAYCO), 신한사인(Sign), 네이버, KB 모바일 인증서, 토스, 뱅크샐러드, 카카오, 하나 원사인(OneSign), 패스, S-패스, 드림인증, NH 모바일 인증서다.    과기정통부는 통합 모듈의 보급을 위해 인터넷 서비스 기업들로부터 신청을 받아 40곳을 선정한 뒤 통합 모듈 설치를 지원하는 시범사업을 벌인다.     선정된 기업에는 통합 모듈을 쉽게 설치·적용할 수 있도록 원격·현장 방문 컨설팅, 담당자 매뉴얼 교육 등도 제공할 예정이다.    이 통합 모듈은 기업의 서버에 설치되는 것으로, 일반 이용자들은 자신의 PC나 스마트폰에 새로운 소프트웨어를 깔 필요가 없다.    과기정통부 관계자는 "국민들이 여러 개의 간편인증 앱(인증서)을 설치하고 관리할 필요 없이 하나의 인증서만으로 다양한 인터넷 사이트에서 간편인증을 이용할 수 있게 될 것"이라고 말했다.    또 기업들은 기술표준이 다른 여러 간편인증 서비스를 전부 따로따로 연동할 필요 없이 하나의 통합 모듈만 설치하면 다양한 간편 인증서를 이용자들에게 제공할 수 있어 시스템 운영 부담이 크게 경감된다고 과기정통부는 설명했다.    통합 모듈 지원 시범사업은 민간 기업이면 누구나 무료로 신청할 수 있으며 이달 5∼30일 KISA에 이메일(helios914@kisa.or.kr)로 신청서와 관련 서류를 제출하면 된다.    정부는 시범사업 후에도 통합 모듈의 보급을 점차 확대할 방침이다. 다만 구체적인 시기나 대상 등은 아직 결정되지 않았다.    김정삼 과기정통부 정보보호네트워크정책관은 "이번 사업으로 다양한 간편인증 수단을 국민들이 더 쉽고 편리하게 이용할 수 있게 될 것"이라고 말했다.    sisyphe@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스, 새 로고 공개…'새로운 차원의 금융' 포부 담아</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013419258?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>토스, 새 로고 공개하고 리브랜딩 캠페인 시작[비바리퍼블리카 제공, 재판매 및 DB 금지]    (서울=연합뉴스) 조승한 기자 = 모바일 금융 서비스 토스를 운영하는 비바리퍼블리카는 '새로운 차원'이란 의미를 담은 새 로고를 5일 공개하며 리브랜딩 캠페인을 시작했다.    토스의 주 색인 파란색을 유지하면서도 기존 2차원 로고에서 3차원(3D) 디자인으로 바뀐 새 로고는 5일 토스 전 계열사에 적용된다.    새 로고는 파란색 원 모양을 입체적으로 구현한 형태로 고정관념을 깨고 새로운 차원의 금융을 선보이겠다는 의지를 상징한다고 회사는 설명했다.    기존 로고가 '공 던지듯 쉬운 금융'의 의미를 담았다면, 새 로고는 더 넓은 비전을 담기 위해 토스 브랜드 디자이너들이 1년 넘게 작업해 만들었다고 회사는 강조했다.    토스는 로고 변경과 함께 공식 캠페인 홈페이지도 개설한다. 홈페이지에는 3D 애니메이션으로 만든 캠페인 오프닝 영상과 토스 브랜드 변천사 등이 담긴다.    토스는 리브랜딩을 기념해 13일까지 도전 응원카드를 만들어 인스타그램에 업로드하고 토스 공식 인스타그램을 태그한 100명을 추첨해 토스 한정판 티셔츠를 증정하는 이벤트도 진행한다.    토스 이승건 대표는 "토스가 그간 만들어온 혁신에 이어 앞으로도 끊임없이 새로운 차원의 다양한 도전을 이어나가겠다"며 "각자의 상황에 상관없이 모두가 주체적인 금융생활을 할 수 있는 세상을 만드는 데 기여하고자 한다"고 말했다.토스 로고역삼동 비바리퍼블리카 본사의 로고 간판 [촬영 임성호]    shjo@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>금리비교 플랫폼 떴는데...1금융권은 감감 무소식</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002753146?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>금융규제혁신회의 주목고금리에 대환대출 시장 규모가 커지면서 플랫폼업체들의 1금융권 제휴 수요가 높아지고 있다. 연합뉴스    최근 대출금리 상승에 따라 대환대출 시장이 활성화되면서 금리 비교 플랫폼도 성장세를 보이고 있다. 하지만 여전히 1금융권 대출 상품이 연계되지 않아 '반쪽짜리'에 그치고 있다는 지적이 나온다.7일 금융권에 따르면 대출비교 플랫폼의 올 상반기 승인금액은 전년 보다 크게 증가했다. 핀다는 6월 말 기점으로 누적 대출 승인금액이 1000조원을 넘었다. 지난해 3월 100조원을 기록한 것을 감안하면 1년이 조금 넘는 기간 동안 10배(900%) 늘어난 셈이다. 같은 기간 알다의 누적 대출 승인금액은 37조원으로 48% 불었다. 핀크는 올 상반기 별도 기준 대출 승인금액이 48조1000억원으로, 전년 동기 대비 405% 뛰었다.금리 상승기 대출 상품을 비교하려는 소비자가 늘면서 플랫폼을 방문하는 횟수 또한 증가했다. 빅데이터 플랫폼 모바일인덱스에 따르면 핀다의 월간활성이용자수(MAU)는 지난해 6월 약 19만명에서 올 6월 약 54만명으로 폭증했다.이들 플랫폼은 지방은행·저축은행과 제휴를 늘려가고 있다. 현재 핀다는 62개 금융사와 제휴했다. 이 중 1금융권은 하나은행, 토스뱅크, SC제일은행, 광주은행, DGB대구은행, BNK부산은행, BNK경남은행, 전북은행으로 8곳이다.핀크는 전체 47개 제휴사 가운데 하나은행, 광주은행, DGB대구은행, BNK부산은행, BNK경남은행, 전북은행으로 6곳과 손잡았다. 알다를 서비스하는 팀윙크는 전체 31개 제휴사 가운데 BNK부산은행, BNK경남은행, 광주은행과 제휴해 서비스를 하고 있다.플랫폼들은 꾸준히 1금융권 상품 도입을 위한 논의를 이어가고 있지만 어려운 상황이다. 이해관계가 맞지 않는데다 최근 마이데이터 서비스 시행으로 타행 상품을 확인하고 대출 상품을 추천받을 수 있어 제휴 수요가 크지 않기 때문이다.이들 플랫폼은 금융당국이 추진하는 금융규제혁신회의를 주목하고 있다. 지난달 23일 금융규제혁신회의는 제2차 회의를 열고 플랫폼 금융서비스 활성화 방안과 규제 샌드박스 내실화 방안을 심의했다. 이에 따라 하나의 핀테크 플랫폼에서 대출뿐 아니라 예금, 보험, P2P 등 다양한 상품을 비교·추천받을 수 있는 서비스인 온라인 금융상품 판매중개업이 시범 운영된다. 금융위는 오는 10월 혁신성, 소비자 편익 등을 엄격히 심사해 개별 사업자에 대한 혁신금융서비스를 지정할 계획이다. 한 업계 관계자는 "핀테크 플랫폼들이 꾸준히 건의했고 금융당국도 긍정적인 반응을 보이고 있어 기대감이 높아지고 있다"면서 "제휴사가 많을수록 금융 소비자 편익도 커질 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>코픽스 상승에도 변동금리 비중 78.4% ‘8년여 만에 최대’</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003733828?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>7월 가계 대출 잔액 기준 80% 육박2014년 3월 정점 이후 가장 높아고정금리 여전히 0.4%P 더 높은 탓15일 공시 코픽스 3% 돌파 전망변동금리 6%대 중반까지 뛸 듯변동→고정금리로 안심전환대출정부 45조 공급… 비중 72%대 관리전세계적인 금리 상승이 지속 중인 가운데 가계대출 중 변동금리의 비중이 좀처럼 줄지 않고 있다. 정부가 부실 위험을 낮추기 위해 가계대출의 고정금리 전환을 유도하고 있지만, 아직은 별다른 효과가 없는 것으로 나타났다. 코픽스(COFIX·자금조달비용지수) 상승 등의 영향으로 주택담보대출 변동금리는 당분간 오름세를 이어갈 것으로 보인다.  12일 한국은행에 따르면 올해 7월 기준 예금은행의 가계대출 잔액 중 변동금리 비중은 78.4%로, 2014년 3월(78.6%) 이후 8년 4개월 만에 가장 커졌다. 코로나19 발생 직전인 2020년 1월(65.6%)과 비교하면 2년 6개월 만에 12.8%포인트나 상승했다.     12일 서울 시내 한 은행에 내걸린 대출 안내 현수막. 연합뉴스    한은의 가계신용(빚) 통계에 따르면 올해 6월 말 기준 가계대출은 모두 1757조9000억원에 이른다. 은행 외 금융기관의 변동금리 비중도 같다고 가정하면, 한은의 기준금리가 0.25%포인트 오를 때마다 산술적으로 가계대출자들의 이자 부담은 3조4455억원(1757조9000억원×0.784×0.0025) 늘어난다.  이러한 이자 부담에도 대출자들의 변동금리 선호 경향은 오히려 더 강해지고 있다. 7월 예금은행의 가계대출 신규취급액 중 변동금리 비중이 82.2%로 전월(81.6%)보다 0.6%포인트 증가한 셈이다.   가장 큰 원인은 여전히 고정금리가 변동금리보다 약 0.4%포인트 더 높기 때문이다. KB국민·신한·하나·우리은행의 주담대 혼합형(고정형) 금리는 지난 8일 기준 연 4.450∼6.426%, 변동금리(신규 코픽스 연동)는 연 4.070∼6.330% 수준이다. 실제 대출자들이 주거래은행에서 상당 폭의 우대금리를 적용받고 범위 하단에 가까운 금리로 돈을 빌리는 점을 고려하면, 고정금리와 변동금리의 차이는 약 0.38%포인트에 이른다.  KB국민·신한·하나·우리·NH농협은행의 지난 8일 기준 주담대 변동금리는 4.07~6.33%로 집계됐다. 오는 15일 변동금리 산정의 지표가 되는 코픽스가 발표되면 이미 상단이 6% 중반대로 올라선 주담대 변동금리가 또 뛸 수 있는 상황이다.    이달 코픽스는 3%대를 넘어설 것으로 예상된다. 한국은행의 기준금리 인상과 예대금리차 공시 등의 영향에 은행권의 정기예금 금리가 오르고 예·적금 잔액도 늘어서다. 코픽스는 지난달에도 정기예금 및 금융채 금리 상승 등의 영향으로 전월 대비 0.52%포인트 오른 2.90%를 기록했다. 2013년 3월(2.85%) 이후 가장 높은 수준일 뿐 아니라 상승 폭 또한 사상 최대였다.  변동금리 비중을 낮추기 위해 정부와 한은은 출자를 통해 내년까지 2년 동안 45조원 규모의 안심전환대출 상품을 공급할 예정이다. 정부는 안심전환대출 사업이 차질없이 진행되면 가계대출 변동금리 비중(잔액 기준)이 72.7%까지 떨어질 것으로 기대하고 있다.  가계의 이자 부담을 줄이기 위한 정부의 노력에 발맞춰 인터넷전문은행들도 서민금융상품 출시 및 저금리 대환 상품을 잇달아 출시하고 있다. 토스뱅크는 올 하반기 중 서민금융상품인 ‘햇살론뱅크’를 출시할 예정이다. 정부의 햇살론15(금리 연 15.9%)보다 낮은 금리를 제공하는 변동금리 상품으로, 최대한도는 2500만원이다. 앞서 카카오뱅크는 2020년 10월 햇살론15를 출시한 이후 지난달까지 총 1668억원을 공급했다.  케이뱅크와 토스뱅크는 올 하반기에 연 7% 이상의 고금리 대출을 받은 자영업자·소상공인이 연 6.5% 이하 대출로 갈아탈 수 있도록 저금리 대환대출 상품(신용보증기금 지원) 출시도 앞두고 있다. 대환 한도는 개인사업자는 5000만원, 법인 소기업은 1억원이며, 2년 거치 후 3년간 분할 상환할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>"이젠 대출도 인뱅에서"…인터넷뱅킹 일평균 대출이용액 1조원↑</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002041028?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>지난해 말보다 66.8%↑대출 신청 일평균 3만5000건[헤럴드경제=박자연 기자]올 상반기 인터넷뱅킹을 통해 신청된 대출금이 처음으로 하루 평균 1조원을 넘어섰다. 인터넷전문은행이 주택담보대출 등 신상품을 출시한 상황이 영향을 미친 것으로 풀이된다.15일 한국은행에 따르면 올 1∼6월 19개 국내은행·우체국의 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출 신청 금액은 일평균 1조3194억원으로 나타났다. 지난해 말(7908억원)과 비교했을 때 무려 66.8% 증가했다.한은 관계자는 "인터넷전문은행들이 신규 상품으로 주택담보대출을 출시하면서, 이를 중심으로 신청 금액이 늘었다"라고 설명했다.카카오뱅크는 올 2월 말 처음으로 주담대 상품을 내놓았고 케이뱅크 역시 아담대와 전세대출 상품을 취급하고 있다. 토스뱅크는 내년께 주담대 상품을 선보일 예정이다. 이밖에 인터넷은행들은 사업자대출 등을 출시하며 대출 라인업을 확대하고 있는 상황이다.인터넷뱅킹 대출 신청 건수는 하루 평균 3만5000건으로 같은 기간 7.4% 늘었다. 이용 건수는 지속해서 늘며 역대 최고치를 갈아치우고 있다.인터넷뱅킹을 통한 자금 이체 이용 금액과 건수는 일평균 각각 73조7771억원, 1878만건으로, 각각 2.1%, 6.9% 불어났다.이에 따라 대출 신청과 자금 이체 서비스를 모두 합한 인터넷뱅킹 일평균 이용 금액은 75조965억원, 이용 건수는 1882만건이다. 이 또한 지난해 말보다 각각 2.8%, 6.9% 늘었다.모바일뱅킹의 경우 전체 이용 금액이 14조3260억원을 기록했다. 이용 건수는 1603만건으로 전체 인터넷뱅킹 이용 건수 중 85.2% 비중을 차지했다.지난해 말 기준 국내은행의 인터넷뱅킹 등록 고객 수(여러 은행 등록 중복 합산)는 2억명에 육박했다. 인터넷뱅킹 등록 고객수는 지난해 말보다 4.5% 늘어난 1억9950만명이다. 이 가운데 모바일뱅킹 등록 고객은 6.0% 증가한 1억6255만명으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.09.04.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>예탁금 22개월 만에 최저치·ETF설정액 감소…증시 투심 악화</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006315635?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>투자자 예탁금 53조로 올해 최저치,1월 67.3조 대비 18.5% 감소ETF 설정액은 7개월 만에 감소, "투자심리 빠른 회복 가능성 낮아"2일 오후 서울 중구 하나은행 딜링룸 전광. 2022.9.2/뉴스1 ⓒ News1 이승배 기자(서울=뉴스1) 이기림 기자 = 국내 주식시장 투자자들이 세계 경기침체 등 경제 불확실성이 커지자 '안전자산'인 은행 등으로 자산을 이동하고 있다. 증시 대기자금으로 불리는 투자자 예탁금은 최근 올해 최저치를 새로 썼고, 상장지수펀드(ETF) 설정액도 올해 1월 이후 처음 감소하는 등 투자심리가 얼어붙었다. 대신 높은 금리의 은행 예·적금 등으로 돈이 몰리고 있다.4일 금융투자협회에 따르면 지난달 31일 투자자 예탁금은 53조632억8000만원으로 올해 최저치를 기록했다. 2020년 11월6일(51조8990억3500만원) 이후 약 1년10개월 만에 가장 낮은 수준이다. 월별로 보면 지난달 예탁금 평균은 54조9415억원으로, 지난 1월 67조3979억원에 비해 18.5% 하락했다. 2020년 10월 기록한 53조8308억원 이후 1년10개월 만의 최저치이다.투자자예탁금은 투자자가 주식을 사기 위해서나 팔고난 자금을 증권사 계좌에 맡겨둔 돈이다. 언제든 주식 투자에 사용될 수 있어 증시 대기성 자금으로 분류된다. 이에 투자자예탁금의 증감 상태는 투자심리로 여겨진다.최근에는 상장지수펀드(ETF) 시장에서도 하락 소식이 들려왔다. 8월 국내 ETF 설정액이 올해 1월 이후 처음으로 감소(-1조955억원)했기 때문이다. 설정액이 줄어든다는 것은 ETF 시장에서 투자자금이 빠져나갔다는 의미로 풀이된다.김해인 대신증권 연구원은 "주식시장 부진에도 ETF 시장에는 자금이 순유입됐던 기존 상황과 대조적"이라며 "8월 설정액 감소는 투자심리 위축을 어느 정도 반영하고 있다"고 말했다.국내외 경제상황에 대한 불확실성이 커지면서 증시가 흔들리자 투자자들은 '안전자산'으로 이동하는 것으로 보인다. 지난해 말 2977.65였던 코스피 지수는 지난 2일 2409.41로 19.07% 하락했다. 증권사의 예탁금 이용료율(이자)이 낮은 점도 증시 탈출 원인 중 하나로 여겨진다. 지난 5월 연 1%로 이자를 올린 토스증권을 제외하면 0%대에 그치고 있다. 무엇보다 당분간 기준금리 인상이 계속되면서 은행 수신금리 인상으로 안정적이고 수익률이 높은 은행에 돈이 몰리고 있다.은행권에 따르면 KB국민·신한·우리·하나·NH농협 등 5대 시중은행의 8월말 정기 예·적금 잔액은 768조5434억원으로 전달(750조5658억원)보다 17조9776억원 증가했다. 지난해 초만 해도 연 0~1%대였던 시중은행의 정기예금 금리는 3%대까지 올랐다.투자 심리 위축에 따른 '역머니무브'가 이어지는 가운데 증권가에서도 증시 예측이 어렵다고 밝히면서 투자자들의 투심이 쉽게 회복되긴 어려운 상황이다. 김대준 한국투자증권 연구원은 "어느 때보다 시장 흐름을 예상하기 힘든 환경"이라며 "연방준비제도(연준·Fed)의 강한 긴축이 예고돼 투심이 빠르게 회복될 가능성도 낮고, 시장의 이익 모멘텀이 약화된 점도 부담"이라고 말했다.김 연구원은 "지금 당장 지수의 특정 방향을 예측해 포지션을 구축하는 건 쉽지 않다"며 "유가 상승과 장단기 금리차 축소가 나타난다면 시장 방어력이 강하고 수익성과 성장성이 높은 종목에 집중하고, 유가 하락과 장단기 금리차 확대가 보이면 낙폭이 컸던 고평가 종목과 민감주 비중을 늘려야 한다"고 밝혔다.나정환 케이프투자증권 연구원은 "7~8월 베어마켓 랠리는 종료되고 국내 증시는 박스권 흐름을 보일 가능성이 높다"며 "증시의 추세적 상승 조건을 기대하게 어렵다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>KG이니시스, 통합인증에 신한·KB·삼성패스 인증서 추가</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003041259?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>KG이니시스는 자사 '통합인증서비스'에서 신한사인인증서, KB모바일인증서, 삼성패스인증서를 추가 서비스한다고 2일 밝혔다.이에 따라 통합인증서비스는 총 9개 민간인증서를 갖춰 간편인증과 전자서명을 위한 주요 인증서를 폭넓게 제공할 수 있게 됐다.KG이니시스는 작년 6월 업계 최초로 인증서 중계 서비스 '통합인증서비스'를 출시했다. 한 번의 연동으로 네이버, 카카오, 토스, 패스, 페이코 등 다양한 민간인증서 서비스를 통합 제공한다. 웹 기반 API로 쉽고 간편하게 연동 가능하다. 인증서 업데이트 작업 시에도 별도 수정 연동이 불필요하다.KG이니시스는 신한·KB·삼성패스 인증서가 이번 도입으로 제휴처 확대를 가속화할 것으로 봤다. 통신, 쇼핑, 공공기관 등 다양한 업종의 1000여개 기관이 KG이니시스의 통합인증서비스를 채택하고 있다.KG이니시스 관계자는 “통합인증서비스는 별도 프로그램 설치 없이 개인이 자주 사용하는 인증서 애플리케이션 설치만으로 이용 가능하다”며 “이번 서비스 고도화로 이용자가 9개 민간인증서 중 익숙한 인증서를 고를 수 있어 수요가 더욱 확대될 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>이상 외환거래 검사 은행권 확대되나…금감원장 "아직"</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002637481?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>이복현 금융감독원장이 7일 서울 명동 은행회관에서 열린 중소기업 소상공인 차주 연착륙 지원을 위한 금융권과의 간담회에서 발언하고 있다.ⓒ금융감독원[데일리안 = 부광우 기자] 이복현 금융감독원장은 7일 8조원 대의 거액 이상 외환거래 논란과 관련한 검사를 은행권 전반으로 확대할 지 여부에 대해 "지금 단계에서는 말씀드리기 조심스럽다"며 말을 아꼈다.이 원장은 이날 서울 명동 은행회관에서 중소기업 소상공인 차주 연착륙 지원을 위한 금융권과의 간담회를 진행한 뒤 기자들과 만난 자리에서 이같이 말했다.이는 은행권 이상 외환거래의 대부분이 국내 5대 가상자산거래소에서 흘러나온 것으로 추정되는 가운데, 향후 금감원이 가상자산거래소와 실명계좌 제공 계약을 맺고 있는 은행들로 검사 대상을 확대할 계획이 있는지 묻는 질문에 대한 답변이다.그는 "우리은행 및 신한은행에 대한 검사의 경우도 최종 검사 결과가 안 나온 상태이고, 현재 금감원 검사뿐 아니라 검찰, 관세청 등 유관기관의 수사 등도 진행되고 있다"고 설명했다.이어 "각 기관들의 노력이 모이고 있는 상황이어서 전체적인 그림이 드러나면 말씀드릴 기회가 있을 것"이라고 부연했다.아울러 이 원장은 토스의 자회사인 토스플레이스가 15만곳 이상의 신용카드 가맹점주 정보를 동의 없이 수집했다는 논란과 관련해 사실관계를 파악하겠다고 언급했다.그는 "토스 측에서 이야기하는 스크래핑 방식에 대한 의견은 들었다"며 "운영이 적절한 것인지, 주장이 맞는지 이참에 사실 파악을 하도록 담당 부서에 요청해둔 상태"라고 전했다.이는 최근 토스의 신용카드 단말기 제조·공급 업체인 토스플레이스가 100여곳의 밴 대리점과 파트너 서비스 이용약관 등 계약을 체결하는 과정에서 각 밴 대리점이 보유한 각종 가맹점주 정보를 스크래핑 방식으로 동의 없이 수집했다는 지적에 대한 답변이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>'페이깡' 늘어나는데...소액후불결제 적용법도 못 정했다</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004793537?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>금융위원회인터넷 커뮤니티를 중심으로 소액후불결제를 이용한 '페이깡'이 성행하고 있지만 금융당국은 어떤 법률로 '소액후불결제'를 규제할 지 조차 정하지 못한 것으로 나타났다. 페이깡에 대한 우려가 커지는 상황에서 관련 처벌 규정 도입이 더욱 늦어지고 있다는 목소리가 나온다. 12일 금융업권에 따르면 금융위원회는 금융규제 샌드박스를 통해 1년 단위로 소액후불결제업을 허가하고 있다. 지난해 네이버파이낸셜에 이어 지난 3월 토스도 서비스를 시작했다. NHN페이코도 연내 소액후불결제를 선보일 계획이다. 소액후불결제는 고객에게 30만원 한도로 신용카드처럼 후불결제가 가능하도록 하는 혁신금융서비스다. 금융 이력 부족자(신파일러)도 이용할 수 있다. 이들이 성실하게 결제대금을 납부하면 신용점수를 높이는데 기여한다는 장점이 있다.하지만 최근 들어 소액후불결제를 이용한 신종 페이깡이 성행하고 있다. 페이깡이란 소액후불결제를 이용한 '불법 현금 융통(깡)' 행위다. A고객이 소액후불결제로 30만원인 상품을 B고객 주소로 배송하고, 현금 27만원을 B고객으로부터 받는 식이다. 샌드박스로 허가를 받다보니 명확한 처벌 규정도 없다. 반면 비슷한 방식의 '카드깡'은 여신전문금융업법(여전법)에 3년 이하의 징역이나 2000만원 이하의 벌금에 처할 수 있는 규정이 있다. 지난해 김병욱 더불어민주당 의원이 대표발의한 전자금융거래법 개정안에 페이깡 처벌 규정이 담겼지만, 국회에 계류중이다. 개정안에는 깡을 부추긴 업체와 이용고객에 대한 처벌 규정을 포함하고 있다. 일부에선 페이깡 문제를 해결하기 위해 전금법 개정안이 조속히 통과돼야 한다고 주장해왔다. 그런데 최근 소액후불결제를 둘러싼 정체성 논란이 부상했다. 전금법으로 규제할 지, 여전법으로 규제할 지 이견이 생겼다. 금융당국도 소액후불결제에 어떤 법을 적용할 지 확정 짓지 못한 것으로 알려졌다. 카드업계에서는 '동일기능·동일규제'에 따라 소액후불결제를 여전법 내 '스몰 라이선스'로 규제받아야 한다고 주장한다. 소액후불결제 본질적 기능은 신용공여로 신용카드 결제와 같은데, 다른 법에 규제받으면 규체 차익이 발생할 수 있다는 이유에서다. 김영국 국회입법조사처 입법조사관은 "현재 기준으로 판단하기보다 향후 소액후불결제의 발전, 확대 가능성과 경제주체의 실생활에 미칠 영향을 종합적으로 검토해 규율체계를 확립해야 한다"며 "한국의 여전법과 성격이 유사한 일본의 할부판매법에서 소액후불결제를 스몰 라이선스로 운영하고 있는 만큼, 소비자 보호 측면에서 이를 여전법에서 규율하는 게 타당하다"고 말했다. 반면, 핀테크업계에서는 소액후불결제와 신용카드 결제는 '다른 기능'이라며 이를 전금법에 둬야 한다는 입장이다. 소액후불결제는 한도가 30만원으로 소액일뿐 아니라, 이를 통해서는 신용카드 결제처럼 이자 수취도 불가능하다는 이유에서다. 김시홍 법무법인 광장 전문위원은 "소액후불결제는 전금법 상 전형적인 전자금융거래"라며 "이는 포용금융으로서 신파일러에게 맞춤 상품을 제공하는 혁신성 있는 금융데이터사업이라는 측면에서 바라봐야 한다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>"금리 비싸도 편해서"…인터넷은행 3사 대출, 8개월째 늘어 40조 돌파</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005012862?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[사진 = 연합뉴스] 금리 상승기에 전통 은행이 대출을 줄이고 있는 반면, 인터넷은행은 정반대로 대출이 큰 폭으로 늘고 있는 것으로 나타났다. 편리한 비대면 대출 플랫폼을 무기로 인터넷은행이 급성장하고 있으나 인터넷은행이 최근 주로 중·저신용자를 상대로 대출을 늘리고 있어 금융 부실 우려가 커지고 있다. 2일 금융권에 따르면 8월 말 기준 카카오·케이·토스뱅크의 대출 잔액은 43조991억원으로 40조원을 돌파했다. 은행별로 보면 카카오뱅크는 27조1991억원으로 7월 말보다 2487억원 늘었고, 케이뱅크는 9조5000억원으로 같은 기간 3400억원 증가했다. 토스뱅크의 대출 잔액은 6월 말(7월 비공개)과 비교하면 2조2000억원 증가한 6조4000억원이었다. 이는 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출이 8개월째 감소한 것과는 대조를 이룬다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>토스, ‘새로운 차원’ 의미 담은 새 로고 공개…리브랜딩 시작</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003732112?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>모바일 금융 서비스 토스를 운영하는 비바리퍼블리카는 ‘새로운 차원(New Dimension)’이란 의미를 담은 새 로고를 5일 공개하며 리브랜딩 캠페인을 시작했다.   이날부터 토스증권·토스뱅크 등 토스 전 계열사에 적용되는 새 로고는 기존 2차원 로고에서 3차원 디자인으로 바뀐 것이 특징이다. 새 로고는 파란색 원 모양을 입체적으로 구현한 형태로, 고정관념을 깨고 새로운 차원의 금융을 계속 선보이겠다는 의지를 상징한다고 토스 측은 설명했다.   토스는 로고 변경과 함께 공식 캠페인 홈페이지를 공개했다. 해당 홈페이지에서는 3D 애니메이션으로 만든 캠페인 오프닝 영상과 토스 브랜드 변천사가 담긴 브랜드 스토리 등을 확인할 수 있다. 오는 14일에는 토스 리브랜딩 캠페인의 하나로 제작된 브랜드 필름도 공개된다.   이승건 토스 대표는 “토스가 그간 만들어온 혁신에 이어 앞으로도 끊임없이 새로운 차원의 다양한 도전을 이어나가면서 각자의 상황에 상관없이 모두가 주체적인 금융생활을 할 수 있는 세상을 만드는 데 기여하고자 한다”고 말했다.   토스는 리브랜딩을 기념해 오는 13일까지 총 100명을 추첨해 토스 한정판 티셔츠를 증정하는 ‘나만의 응원카드 만들기’ 이벤트를 실시한다. 자신에게 맞는 도전 콘셉트의 응원카드를 뽑은 후 이를 개인 인스타그램에 올리고 토스 공식 인스타그램을 태그하면 응모가 완료된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>한국핀테크산업협회 부회장에 이수형 파인아시아운용 대표</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002285192?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>◆…파인아시아자산운용 이수형 대표     파인아시아자산운용은 이수형 대표가 제4대 한국핀테크산업협회 부회장으로 선출됐다고 6일 밝혔다.   한국핀테크산업협회는 지난달 31일 정기이사회를 통해 이같이 결정했다.   이 대표는 서울대 법학과를 졸업하고 한컴그룹 총괄 변호사를 거친 뒤 2018년 파인아시아자산운용에 경영총괄 상무로 합류했다.   이어 2019년 대표이사로 신규 선임되면서 자산운용업계 첫 30대 여성 최고경영자(CEO)가 됐고 지난해 연임됐다.   이 대표는 "파인아시아자산운용의 투자 역량을 활용해 유망한 핀테크 회사들과 자본시장을 연결하고 인수합병, 상장 등 성장 기회를 제공해 핀테크 생태계 발전에 이바지하겠다"고 말했다.   한국핀테크산업협회는 금융위원회의 설립 인가를 받은 비영리 사단법인으로, 국내 최대의 핀테크 네트워크 기관이다. 네이버파이낸셜, 두나무, 토스, 카카오페이, 빗썸 등 임원사를 비롯해 핀테크 기업 370여 곳이 참여하고 있다.   파인아시아자산운용은 종합운용사로서 주식, 채권, 부동산, 특별자산 등을 활용한 다양한 펀드상품을 시장에 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.09.01.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>T맵서 대출, 은행서 폰 구매…‘빅블러’ 성큼</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003298754?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>T맵·KB국민은행 금융 협업통신3사는 금리혜택 서비스빅테크·금융사 융합 가속화금융위, 금산분리 개선 방침정보 독점·금융 안정성 우려운전 습관 정보를 바탕으로 대출을 받거나 은행애플리케이션(앱)으로 음식을 배달시키고 휴대전화까지 구매하는 ‘빅블러 시대’가 일상으로 성큼 다가왔다. ‘빅블러’는 빅테크와 금융사의 경계가 허물어지는 이종 산업 간 융합을 의미한다. 최근 정부가 금융규제 완화를 외치면서 그 속도가 더 빨라지고 있지만 기업들의 정보 독과점과 금융 안정성 저해에 대한 우려도 함께 나온다.1일 업계에 따르면 가장 쉽게 볼 수 있는 빅블러는 정보기술(IT) 업계와 금융업계 간 협업이다. 모빌리티 플랫폼 T맵모빌리티는 KB국민은행과 손잡고 낮은 신용점수로 금융권 대출을 받기 어려운 대리운전·화물 등 운전 종사자를 위한 대안신용평가 모델을 연내 선보인다. 신용점수가 낮더라도 근무 일수나 고객 평가, 평소 운전 습관 등 T맵모빌리티에서 수집된 데이터를 토대로 보험·대출 금융 서비스를 받을 수 있게 된다. 카카오내비도 DB손해보험과 손잡고 운전자의 평소 운전 습관에 따라 결정되는 안전운전 점수를 토대로 자동차보험료를 할인해 주는 ‘안전운전 할인 특약’을 출시했다.통신 3사는 지난달 SGI서울보증, 코리아크레딧뷰로(KBC)와 전문개인신용평가업 합작투자 계약을 체결했다. 내년 말이면 학생이나 사회초년생, 주부 등 금융 소외계층도 통신 요금을 잘 내 왔다면 대출한도 상향이나 금리 인하 등의 혜택을 받을 수 있다.IT 업계와 금융업계가 서로 상대 영역에 직접 도전하기도 한다. 전자상거래 빅테크 기업 쿠팡은 올 초 ‘쿠팡파이낸셜’을 설립한 데 이어 이달 초엔 여신금융전문업 등록 승인까지 받았다. 반대로 신한은행은 지난 1월 가맹점 수수료를 낮춘 음식 배달앱 ‘땡겨요’를 출시하고 입점한 개인사업자에 대한 대출 상품 등을 선보였다. 토스도 지난달 알뜰폰업체 ‘머천드코리아’를 인수해 알뜰폰 사업 진출 소식을 알렸다.IT 업계와 금융업계의 빅블러 현상이 가속화하는 이유는 자동차 이동 정보, 온라인 쇼핑 등 일상이 플랫폼을 통해 빠르게 디지털화되기 때문이다. 이대기 한국금융연구원 금융혁신연구실 실장은 “양쪽 모두 생활 밀착형 비금융 서비스에서 얻는 데이터를 활용하면 더 긴밀하고 이해도 높은 금융 서비스로 사업 확장을 할 수 있을 것으로 보고 서로 협력하거나 직접 신사업에 뛰어들고 있다”고 말했다. 금융위원회도 최근 대통령 업무보고를 통해 빅블러 현상을 억제해 온 금산분리(금융과 산업의 분리) 원칙에 과감히 손을 대겠다는 의지를 보였다. 다만 참여연대는 “특정 기업의 정보 독과점과 금융 안정성 저해 등에 따른 피해가 고스란히 소비자한테 갈 것”이라며 우려의 목소리를 냈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>한국핀테크산업협회 부회장에 파인아시아운용 이수형 대표 선임</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001052624?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>한국핀테크산업협회는 지난 31일 진행된 정기이사회에서 파인아시아자산운용 이수형 대표를 제4대 한국핀테크산업협회 부회장으로 선출했다고 6일 밝혔다.파인아시아자산운용은 주식, 채권, 부동산, 특별자산 등을 활용한 종합자산운용사로 지난달 말 기준 운용자산(AUM) 1,195억원을 기록 중이다. 이수형 파인아시아자산운용 대표는 한컴그룹 총괄 변호사를 거쳐 2018년 경영총괄 상무로 파인아시아자산운용에 합류했으며, 2019년 대표이사에 올라 지난해 연임에 성공했다.이수형 대표는 “파인아시아자산운용의 투자 역량을 활용하여 유망한 핀테크 회사들과 자본시장을 연결하고, 인수합병 및 상장 등 성장 기회를 제공하여 핀테크 생태계 발전에 이바지 하겠다”고 전했다.한국핀테크산업협회는 금융위원회 설립 인가 비영리 사단법인으로 핀테크 기업의 목소리를 대변하는 국내 최대의 핀테크 네트워크 기관이다. 한국핀테크산업협회 임원은 회장 1명, 부회장 30명, 이사 7명을 포함해 총 38명으로, 이사회를 통해 핀테크 생태계 조성과 산업 발전을 위한 방안을 논의한다.지급결제, 자산관리, 블록체인, 크라우드펀딩, 인슈어테크 등 다양한 분야에서 디지털 금융 혁신을 선도하고 있는 370여 개 핀테크 기업이 회원사로 참여하고 있고, 이번에 참여한 파인아시아자산운용과 함께, 네이버파이낸셜, 두나무, 토스, 카카오페이, 빗썸 등 핀테크 기업들이 임원사로 참여하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>한국핀테크산업협회 부회장에 이수형 파인아시아자산운용 대표</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003732515?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>한국핀테크산업협회는 파인아시아자산운용 이수형 대표(사진)가 협회부회장에 선출되었다고 6일 밝혔다.   한국핀테크산업협회는 이날 보도자료를 통해 이 대표가 지난 31일 진행된 정기이사회에서 4대 부회장으로 선출됐다고 설명했다.     파인아시아자산운용은 종합운용사로서 주식, 채권, 부동산, 특별자산 등을 활용한 다양한 펀드상품을 시장에 제공하고 있으며, AI를 활용한 자산운용상품 기획, 로보어드바이저 솔루션을 이용한 신규상품(펀드) 개발 등 핀테크를 활용한 자산운용 혁신을 위해 노력할 계획이다.     이 대표는 서울대학교 법학과를 졸업한 뒤, 한컴그룹 총괄 변호사를 거쳐 지난 2018년 경영총괄 상무로 파인아시아자산운용에 합류한 뒤 2019년 대표이사로 새롭게 선임되면서, 자산운용업계 최초로 30대 여성 CEO로 뽑히며 주목받았고 실력을 인정받아 2021년 대표이사 연임에 성공했다.   이 대표는 “한국핀테크산업협회의 부회장으로 선출되어 기쁘고 영광스럽다”며 “파인아시아자산운용의 투자 역량을 활용하여 유망한 핀테크 회사들과 자본시장을 연결하고, 인수합병 및 상장 등 성장 기회를 제공하여 핀테크 생태계 발전에 이바지 하겠다”고 전했다.   한국핀테크산업협회는 금융위원회 설립 인가 비영리 사단법인으로 핀테크 기업의 목소리를 대변하는 국내 최대의 핀테크 네트워크 기관이다. 지급결제, 자산관리, 블록체인, 크라우드펀딩, 인슈어테크 등 다양한 분야에서 디지털 금융 혁신을 선도하고 있는 370여 개 핀테크 기업이 회원사로 참여하고 있고, 이번에 참여한 파인아시아자산운용과 함께, 네이버파이낸셜, 두나무, 토스, 카카오페이, 빗썸 등 핀테크업계의 선도적인 회사들이 임원사로 참여하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.09.01.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>[실전재테크]강제저축에 각종 포인트 사냥…전략적 '짠테크'</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005141373?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>高금리·高물가 시대 '푼돈이라도 모으자'불입금액 1000원 수준 장벽 낮고 성취감도 주는 '강제저축' 폐지 값이라도 줍자 현금처럼 사용 가능한 포인트 적립도 인기수도권 거주 직장인 이종화(35·가명)씨는 최근 생전 처음으로 온라인으로 구매한 물건에 '구매평'을 올렸다. 사진을 첨부한 구매후기를 올릴 경우 수 백원의 포인트를 지급한단 이유에서다. 이외에도 이 씨는 최근 이벤트 웹페이지를 방문할 때 마다 건 당 10~15원 가량의 포인트를 지급받는 이른바 '폐지줍기'는 물론, 각종 금융사·핀테크사 애플리케이션을 활용한 '앱테크'에도 적극적이다. 이씨는 "푼돈을 모아 필요한 물건을 구입하는 등 쏠쏠한 재미도 있지만, 소소한 생활비를 줄여보잔 차원"이라고 말했다.  고(高) 물가·고금리 시대가 도래하면서  '짠테크'에 도전하는 금융소비자들이 늘고 있다. 주식·부동산·가상자산 등 자산시장이 부진을 면치 못하고 있는 데다, 치솟는 물가로 주머니 사정이 팍팍해진 데 따른 영향이다. 온라인 상에선 잔돈 강제저축은 물론, 적게는 10원 안팎에 불과한 이른바 온라인 폐지줍기 등으로 생활비를 절감할 수 있는 비법들이 빠르게 공유되고 있다.◆강제저축 = 최근 금융소비자들을 끌어모으고 있는 짠테크 상품으론 '강제저축'이 꼽힌다. 정해진 기간 동안 빠짐없이 저축하면 우대 금리를 제공하는 방식이다. 카카오뱅크의 26주적금, 토스뱅크의 키워봐요 적금, 우리은행의 200일 적금 등이 대표적이다. 위험자산을 통한 '한방 역전'을 추종하는 시대가 금리 인상으로 막을 내리면서 '티클모아 태산' 식의 전통 재테크 방법에 투심이 쏠리는 모양새다.  짠테크 초보자들이 이 같은 상품에 눈독을 들이는 배경은 진입장벽이 낮기 때문이다. 가입 기한이 6개월 수준으로 짧고 최저 가입금액도 월 1000원 수준으로 낮다. 소위 '푼돈'을 모으기만해도 되는 셈이다. 여기에 가입자의 성취감을 자극하는 장치도 탑재됐다. 기한 내 꾸준히 납입하면 우대금리를 제공하는 유인책을 담았다. '작심삼일'을 방지하고 목돈을 모으는 보람을 느끼며 참여를 이끌어냈다는 평가다.또한 기존의 단순 적금 상품과는 달리 재미 요소와도 결합했다. 토스뱅크의 키워봐요 적금은 일종의 애완동물 육성 게임과 같은 형태로 설계됐다. 가입 시 지급된 동물의 알이 이튿날 부화하면서 적금 만기 기간까지 10단계를 거쳐 자라는 식이다. 동물의 성장을 눈으로 확인하면서 목돈이 늘어나는 재미를 느끼는 식이다. 이 상품은 6개월 만기시 최고 3% 금리를 제공한다. 납입한도는 월 최대 100만원이며 매주 1000~20만원까지 납입할 수 있다.카카오뱅크의 26주 적금 역시 납입 때마다 캐릭터 도장을 찍는 시각적 장치를 마련했다. 중도 포기를 막고 돈이 모이는 재미를 느끼도록 한다는 취지에서다. 1000원, 2000원, 3000원, 5000원, 1만원 중에서 첫 주 납입액을 선택하면 매주 그 금액만큼 더해진 금액이 자동으로 저툭되는 상품이다. 26주 동안 자동이체에 성공하면 우대금리 0.5%P를 제공, 최대 연 3.50% 이자를 받을 수 있다.여기에 유통, 인테리어 기업과 제휴한 할인 쿠폰까지 제공한다. 이마트를 시작으로 마켓컬리, 해피포인트, 카카오페이지 등과 함께 제휴를 맺은 바 있다. 최근에는 인테리어 플랫폼 '오늘의집'과 손잡고 카카오뱅크 '26주적금with 오늘의집'을 출시했다. 26주 연속으로 자동이체 납입에 성공하면 총 7회에 걸쳐 3만4000원 상당의 할인 쿠폰을 받을 수 있다. 연속 납입 성공 주차가 늘어날 수록 할인 쿠폰이 늘어나면서 저축 성취감을 자극한다. 이 쿠폰은 오늘의집 플랫폼에서 가구나 가전, 생활용품 등을 구매할 때 사용할 수 있다.이외 우리은행의 200일 적금도 특정 금액을 매일 자동적립하거나, 지정 계좌의 일정 단위 미만 잔돈을 자동으로 입금하는 방식을 택할 수 있도록 하는 등 꾸준히 저축할 수 있도록 설계됐다.이 같은 강제저축 상품은 꾸준히 늘어나는 추세다. 한정판 형태로 출시한 카카오뱅크 26주 적금의 신규 개설 계좌수는 2018년(6~12월) 118만개에서 지난해 367만개로 세 배 가까이 늘어났다. 올해에도 지난 7월말 기준 212만개에 달한다. 올해 6월 토스뱅크 키워봐요 적금도 신규 개설 계좌가 7월말 기준 39만개를 넘어섰다. 우리은행 200일 적금도 첫 출시한 2020년 14만472개(9~12월), 2021년 21만8540개 등 증가세다. 올해 들어서는 지난 8월30일까지 11만1503좌가 팔렸다.◆'티끌 모아 태산' 금융앱테크도 주목 = 물가상승으로 소비자들의 주머니 사정이 악화되면서 최근 온라인상에선 '디지털 폐지줍기'도 활발하다. 특정한 웹페이지에 방문하거나 이벤트에 참여, 적게는 십원 단위에서 많게는 천 원, 만 원 단위까지 포인트를 받는 방식이다. 최근엔 소비 자체가 온라인·플랫폼화 돼 있는 만큼 포인트도 현금에 준하는 성격을 갖고 있고 참여 방식도 간편해 세간의 호응을 얻고 있다.   대표적인 사례가 네이버파이낸셜이 제공하는 '네이버페이 포인트'다. 특정 금융상품의 웹페이지에 접속하는 것 만으로도 10~15원의 포인트가 적립되는 까닭이다. 주요 온라인 커뮤니티 상에는 이같은 이벤트 웹페이지를 정리한 '네이버 폐지줍기' 등이 수시로 업데이트 된다. 이런 이벤트성 포인트는 현금 전환은 어렵지만, 네이버 플랫폼 안에서 다양한 방식으로 활용될 수 있다.  한 발 더 나아가 네이버 플러스 멤버십 서비스(월 4900원)에 가입할 경우 결제금액 1~20만원 구간에선 4%, 20만원 초과 구간에선 1%의 추가적립도 가능하다. 일례로 네이버 스마트스토어에서 10만원 상당의 물품을 구매할 경우, 기본적립률 1%에 네이버 플러스 멤버십 혜택 4%를 포함해 5%에 해당하는 5000포인트를 제공한다. 산술적으로 월 이용금액이 12만2500원을 넘으면 '본전'을 찾을 수 있다.   이같은 앱테크는 다른 간편결제 플랫폼에서도 활발히 전개되고 있다. 토스의 경우 ▲이번 주 미션 ▲만보기 ▲버튼누르기 ▲행운퀴즈 등을 통해 토스 페이머니를 적립해 주며, 010페이는 우리카드와 손잡고 내놓은 010페이 체크카드를 통해 전월 실적·조건 없이 어디서든 결제 할 때마다 최대 10%를 랜덤으로 적립해주는 '행운상자' 이벤트를 실시한다. 이 체크카드는 올 내내 국내 체크카드 중 인기도 1위를 이어가고 있다.   은행이나 카드사들도 이같은 앱테크에 적극적이다. 회사로선 고객들을 록인(Lock-in) 하는 효과, 소비자로선 폐지줍기 처럼 소액이라도 포인트 및 현금성 포인트를 확보할 수 있단 강점이 있다. KB국민은행의 경우 KB스타뱅킹앱 내 'KB매일걷기' 기능을 통해 매주 최대 600포인트리를 제공하며, 하나금융그룹은 그룹 생활금융플랫폼 '하나머니'를 통해 행운상자, 머니사다리 등의 이벤트를 진행 중이다. 신한카드 역시 '신한플레이' 앱에서 출석체크를 할 때마다 3~7 포인트를, 출석일수 10, 30, 50일 달성시 포인트를 랜덤지급(최대 1만 포인트) 하는 이벤트를 실시하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>메타버스·NFT…'웹3.0 개척자'들과 미래기술 여행</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005016072?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>미리보는 제23회 세계지식포럼 세션-테크 트랙사용자 중심으로 바뀌는 게임메타버스 창립자가 핵심 짚어가상인간 기술수준 어디까지법적·윤리적 문제도 함께 고민AI의 SW 분석 가능해지면코딩 수고 사라지거나 최소화◆ 세계지식포럼 ◆  12일 서울 세종대로에 제23회 세계지식포럼을 알리는 현수막이 붙어 있다. [이충우 기자]  '마이너스(-) 44%'.한국 정보기술(IT) 산업을 이끄는 대표 기업 네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)의 올해 초 대비 평균 주가 하락분이다.'맏형' 격인 네이버는 최근 40%가량 주가가 하락했고, 카카오 삼형제(카카오·카카오페이·카카오뱅크)도 주가가 최대 70%가량 떨어졌다. 미국 기준금리 인상·물가 상승에 따른 경기침체 여파로 인해 2000년대 초반 닷컴 버블이 붕괴했던 것과 비슷하게 정보기술(IT) 거품도 꺼지고 있다는 분석이 나온다. 막강한 플랫폼을 구축한 IT 대기업이 이 같은 상황인데, 이마저도 없는 신생 IT 서비스(메타버스, 대체불가토큰(NFT) 등)는 상황이 더욱 열악하다.  올해 세계지식포럼 테크 세션에선 메타버스·NFT가 정말 시기상조인 아이디어였는지, 그리고 향후 기반 기술이 발전된다면 어떤 식으로 사람들의 삶에 영향을 미칠지를 집중 조망한다. 올해 포럼 주제인 '초과회복(SuperCompensation)'에 맞춰 메타버스·NFT로 대변되는 웹3.0이 어떻게 경제에 활력을 불러일으키고 새로운 산업과 비즈니스를 만들 수 있을지도 탐구한다. 웹3.0이란 구글·애플 혹은 네이버와 카카오 등으로 대변되는 'IT 플랫폼'이 데이터를 소유하며 경제적 과실을 다 가져가는 웹2.0 시대를 넘어선 개념이다. 개인이 데이터 소유권을 가지고 있으며, 이를 뒷받침하기 위해 분산 장부인 '블록체인', 대체불가능한 토큰으로서 디지털 자산 소유권을 인증하는 역할을 하는 NFT 등이 활용된다. 올해 세계지식포럼에선 메타버스 창립자로 알려진 필립 로즈데일 린든랩 설립자와 탈중앙 메타버스로 유명한 '더샌드박스'의 세바스티앵 보르제 공동창업자가 한국을 찾는다. 이들은 오는 21일 오전 대중에게 무료로 공개되는 '레전드의 탄생: 웹 3.0 게임의 미래' 세션에 참여한다. 웹3.0 시대엔 개개인의 개성을 반영한 '수많은 웹(인터넷 사이트)과 게임'이 등장한다. 그동안 게임사가 아이템을 판매했다면 앞으론 게임하는 사람이 직접 아이템을 창작하고 소유·판매할 수 있다. 더 나아가 개인은 여러 게임 플랫폼을 오가며 활동할 수 있다. 이를테면 엔씨소프트 리니지에서 개인이 만든 아이템을 카카오게임즈 오딘으로 가져다가 즐길 수도 있다. 그동안 여러 채널을 통해 줄기차게 '탈중앙화'를 주장했던 로즈데일, 보르제 등 업계 구루들이 웹3.0에 대해 어떤 비전을 이야기할지 관심이 주목된다.22일 열리는 '왜 커뮤니티는 웹3.0에서 핵심인가?' 세션에는 북미 지역에서 틱톡의 대항마로 자리매김하고 있는 소셜 음악비디오 플랫폼 '트릴러(Triller)'의 공동창업자인 제이슨 마 OP3N 공동대표가 참석한다. 음원 사용에 대한 대가를 아티스트(창작자)와 공유하면서 유명세를 탄 트릴러는 아티스트와 공생하는 사업모델을 지향한다. 분권화되고 개인이 주인이 되는 웹3.0 시대를 지향하는 제이슨 마 대표가 웹3.0 시대에 어떠한 커뮤니티를 꾸려야 할지 비전을 제시할 예정이다.웹3.0과 관련해 흥미를 끄는 또 다른 강의는 유명 가상화폐 리플(Ripple)에서 기업전략운영 부사장을 맡고 있는 에미 요시카와가 출연하는 'Web3와 가치의 인터넷' 세션이다. 리플은 한국 투자자들이 가장 관심 있게 지켜보는 가상화폐 중 하나다. 교토대 블록체인연구센터의 주요 창립 회원인 요시카와 부사장은 세션에 참가해 웹3.0의 기본이 되는 토큰 경제, 그리고 이 토큰 경제를 움직이는 가치에 대해 설명할 예정이다.이 같은 웹3.0과 메타버스 세계관에서 '디지털 휴먼(가상 인간)'이 어떤 식으로 구성될지, 디지털 휴먼의 법적 지위는 어떻게 설정해야 할지를 논하는 세션도 마련됐다. 22일 오전 대중에게 공개되는 '디지털 휴먼과 메타버스의 비밀'이 그렇다. 디지털 휴먼을 만드는 마크 사가 소울머신스 대표와 증강현실(AR) 스마트글라스를 만드는 아사프 아슈케나지 에브리사이트 창업자가 해당 세션 연사로 참여한다. 이들은 디지털 휴먼의 기술력이 현재 어느 정도 수준이며, 디지털 휴먼이 메타버스 산업 전반에 가져올 혁신과 파급 효과가 얼마나 되는지 설명할 예정이다. 아울러 얼굴과 목소리를 그대로 복제하는 딥페이크(deepfake)로 인해 인공지능(AI) 윤리 문제가 불거진 바 있는데, 이에 대해서 디지털 휴먼이 어떠한 법적·윤리적 문제를 기반으로 제작돼야 하는지에 대해서도 논의할 전망이다.웹3.0 시대정신인 '탈중앙화'에 맞춰 IT에 대한 진입 장벽도 낮아지고 있다. 대표적인 예가 노코드(코딩 없이 앱·프로그램을 개발하는 것), 로코드(코딩을 최소화하는 것)의 확산이다. 아이디어만 있으면 누구나 앱·프로그램을 만드는 시대가 오는 셈이다. 글로벌 시장조사업체 마켓앤드마켓에서 조사한 결과 글로벌 노코드·로코드 시장 규모는 지난해 169억달러(약 21조5000억원)에서 2025년 455억달러(약 58조원)로 크게 성장할 전망이다. 대표적인 노코드·로코드 상품으론 구글 '앱시트', 마이크로소프트 '파워앱스' 등이 꼽힌다. 국내에선 네이버 AI 부문을 총괄했던 김성훈 대표가 창립한 업스테이지가 노코드·로코드 방식으로 AI팩(AI플랫폼)을 만들고 있다. 김 대표는 올해 세계지식포럼 '세상을 바꿀 노코드 AI' 세션에 참석해 AI가 모든 소프트웨어를 만드는 시대를 설명할 예정이다. AI와 관련된 최신 기술 트렌드도 소개된다. 세계 최초 AI대학원을 표방한 아랍에미리트 아부다비의 '무함마드 빈 자이드 AI 전문대학원(MBZUAI)' 총장인 에릭 싱 전 카네기멜런대 교수가 '인공지능에 대한 현재의 딥러닝의 블랙박스 접근 방식을 개선하는 방법' 세션에 참석한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>딜 가뭄에도…‘PE 엑시트’ 알짜 매물 쏟아진다</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002038214?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>MBK 롯데카드· 유니슨 메디트·케이엘앤 맘스터치조 단위 몸값에도 원매자 관심 쏟아져[헤럴드경제=김성미 기자] 금리 인상 등으로 자금 조달이 어려워지면서 인수합병(M&amp;A) 시장이 위축된 상황이지만, 몇몇 알짜 매물이 등장하며 올 하반기 딜 시장을 다시 불 지피고 있다. 사모펀드(PEF) 운용사가 잘 키운 엑시트(투자금 회수) 매물이 주인공이다. 조(兆) 단위 몸값을 자랑하는 이들이 누구의 품에 안길지 업계의 관심이 쏠린다.7일 투자은행(IB) 업계에 따르면 MBK파트너스의 롯데카드, 유니슨캐피탈의 메디트, 케이엘앤파트너스의 맘스터치 등 PEF 운용사의 조 단위 엑시트 매물이 차갑게 식었던 M&amp;A 시장을 뜨겁게 달구고 있다. 매물들은 시장을 이끄는 선도 기업으로 성장한데다 현금흐름 또한 안정적인 것이 특징이다.MBK파트너스가 2019년 1조3810억원에 인수한 롯데카드가 대표적이다. 카드사는 금융당국의 라이선스를 취득해야하는 허가 사업임에 따라 매물의 희소성이 있는데다 MBK의 다양한 밸류업(기업가치 향상) 전략으로 실적 개선세까지 뚜렷해 매각 초반부터 시장의 관심이 집중되고 있다.롯데카드는 인수 당시 694억원에 이르던 순이익은 지난해 2224억원까지 불어났고 올 상반기에는 현대카드를 제치고 업계 4위 자리를 꿰찼다. 매각주관사인 JP모건은 이날 예비입찰을 실시할 예정이다. 원매자로는 롯데카드의 2대주주인 우리금융 외 KT, 하나금융지주, 토스 등이 거론되고 있다.현재 가장 흥행몰이 중인 매물은 치과용 구강스캐너 기업 메디트다. 유니슨캐피탈이 2019년 지분 약 50%를 3200억원에 인수한 메디트는 현재 매출, 이익 모두 3배가량 증가했고 글로벌 구강스캐너 시장점유율 3위로 올라선 것으로 알려졌다. 이에 인수 당시 6400억원에 이르던 기업가치가 현재 3조원이상으로 껑충 뛰었다.GS그룹·칼라일그룹 컨소시엄뿐만 아니라 세계 1위 임플란트 업체 스트라우만, 글로벌 PEF KKR, CVC 등이 인수의향서(LOI)를 제출하면서 인수전을 달구고 있다. 매각 측의 희망가격으로 4조원이 거론되는 가운데 메디트의 매각자문사인 씨티글로벌마켓증권은 조만간 적격인수후보(숏리스트)를 선정할 것으로 보인다. 맘스터치는 국내 최대 매장 수를 확보하는 등 햄버거 대표 프랜차이즈 업체로 성장하면서 식음료 알짜 매물로 주목받고 있다. 케이엘앤파트너스가 2020년 1938억원에 인수한 맘스터치는 인수 2년 만에 매장수는 100개 이상 늘고 영업이익은 2배 이상 증가했다. 3500억원에 이르던 기업가치는 현재 1조원으로 평가되고 있다.지난달 BoA메릴린치를 매각주관사로 선정했으며 조만간 매도자 실사를 마무리하고 원매자들에게 투자안내서(IM) 발송, 다음달 예비입찰을 진행할 계획이다. 버거킹, 한국맥도날드, KFC 등 국내 햄버거 프랜차이즈 전부가 매물로 나온 상황에도 맘스터치에 원매자들의 관심이 가장 높다는 게 업계 전언이다.다만 딜 성사는 ‘가격’이라는데 한 목소리다. IB업계 관계자는 “금리 인상, 환율 변동 등 자본시장이 급변함에 따라 매도자와 인수자의 밸류에이션에 대한 눈높이가 다를 수밖에 없는 실정”이라며 “매력적인 매물에 원매자들이 몰려도 결국 딜 성사로 연결되기 위해서는 가격 조율이 중요할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.09.04.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>중구난방 간편인증, ‘통합모듈’ 개발로 정리될까</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002132011?sid=105</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 과학기술정보통신부(이하 과기정통부)와 한국인터넷진흥원(KISA)이 여러 전자서명 수단 도입을 희망하는 민간 인터넷 서비스 기업을 대상으로 간편인증 통합모듈 지원 시범사업을 추진한다고 4일 밝혔다.   간편인증 통합모듈이란 여러 간편인증 서비스를 통합 중계하기 위해 인터넷 기업들의 시스템에 설치되는 프로그램이다. 여러 간편인증 서비스 중 국민이 희망하는 서비스를 선택·이용할 수 있도록 지원한다.   과기정통부는 2020년 공인인증서 제도가 폐지됨에 따라 여러 전자서명이 활용되고 있으나 인증 서비스마다 각각의 인증모듈을 시스템에 설치해야 하는 부담이 발생하고 있다고 전했다. 이에 13개 전자서명사업자의 간편인증 통합모듈을 개발해 인터넷 서비스 기업 40개를 선정하고 통합모듈 설치를 지원하는 시범사업을 추진한다는 것이 사업의 배경이다.   시범사업에는 민간기업(민간단체·협회 등 포함)이면 누구나 무료로 신청할 수 있다. 오는 5일부터 30일까지 관련 제출 서류를 구비해 KISA에 이메일로 신청하면 된다.   김정삼 과기정통부 정보보호네트워크정책관은 “이번 사업으로 다양한 간편인증수단을 국민들이 보다 쉽고 편리하게 이용할 수 있을 것으로 기대한다”며 “앞으로도 안전하고 신뢰성 높은 다양한 전자서명 수단의 보급과 이용활성화를 지원할 계획이다”고 말했다.   한편 사업에 참여하는 간편인증 사업자는 ▲NHN페이코 ▲신한은행 ▲네이버 ▲국민은행 ▲비바리퍼블리카(토스) ▲뱅크샐러드 ▲카카오 ▲하나은행 ▲SKT·KT(패스(PASS)) ▲한국정보인증 ▲드림시큐리티 ▲NH농협컨소시엄 ▲금융결제원 ▲한국정보인증 ▲코스콤 ▲한국전자인증 ▲한국무역정보통신 등이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>파킹통장 금리 올린 카뱅·케뱅에 토스뱅크 매력 뚝? 인상 합류할까</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000172577?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>토스뱅크 "추이 지켜보며 긍정적 검토 중"인터넷전문은행들이 최근에는 수시입출금이 가능한 '파킹통장'의 금리도 인상하며 수신 확보 경쟁이 치열해지고 있는 가운데 토스뱅크도 금리 인상 대열에 합류할지 관심이 쏠린다. /토스 제공케이뱅크와 카카오뱅크가 입출금이 자유로운 파킹통장의 금리를 잇달라 올리면서 토스뱅크도 금리 인상 대열에 합류할지 관심이 쏠리고 있다. 출범 당시 파격적 금리 수준이었던 토스뱅크의 '2% 파킹통장'이었지만, 한국은행 기준금리 인상분에 대한 반영이 되지 않으면서 매력도가 떨어지고 있다는 평가가 나온다. 이에 토스뱅크도 수신금리 인상을 검토 중인 것으로 확인됐다.15일 금융권에 따르면 케이뱅크는 전날부터 자사의 파킹통장 '플러스박스'의 금리를 연 2.1%에서 2.3%로 0.2%포인트 인상했다. 지난 7월 플러스박스 금리를 기존 연 1.3%에서 연 2.1%로 0.8%포인트 인상한 데 이어 추가 인상한 것이다.이에 따라 케이뱅크의 파킹통장 금리는 은행권 전체에서 최고 수준으로 올라섰다.카카오뱅크도 앞서 지난 8일 자사의 파킹통장인 '세이프박스'의 금리를 기존 연 2.0%에서 2.2%로 0.2%포인트 인상했다. 지난달에도 세이프박스 금리를 0.8%포인트 올렸던 카카오뱅크는 한 달 사이 해당 상품 금리를 총 1.0%포인트 인상했다.케이뱅크와 카카오뱅크의 금리 인상은 한국은행의 기준금리 인상분이 반영된 것으로 풀이된다. 앞서 한은은 올해 1월과 4월, 5월, 8월에 각 0.25%포인트, 7월에는 0.5%포인트의 기준금리를 인상했고, 8월에도 기준금리를 0.25%포인트 올렸다.출범 당시 파격적 금리 수준이었던 토스뱅크의 '2% 파킹통장'이었지만, 한국은행 기준금리 인상분에 대한 반영이 되지 않으면서 매력도가 떨어지고 있다는 평가가 나온다. /더팩트 DB이에 따라 업계 일각에서는 토스뱅크의 파킹통장 경쟁력이 상대적으로 감소했다는 평가가 나온다.토스뱅크는 지난해 10월 출범하면서 연 2%대의 수시입출금통장을 내세우며 큰 인기를 끌었다.출범 당시 기준금리가 낮았던 시기였던 만큼 토스뱅크의 수시입출금 2% 금리는 파격적인 혜택이었지만 기준금리 인상 기조에 맞춰 다른 인터넷전문은행들이 금리를 올리면서 매력도가 떨어진 모양새다.한 은행권 관계자는 "토스뱅크의 수시입출금통장의 경우 '매일 이자받기'라는 기능이 있어 아직까지는 매력도가 존재한다고 본다"면서도 "다만 다른 은행들이 금리를 많이 올린 만큼 토스뱅크 측도 금리를 올리지 않을 수는 없을 것"이라고 말했다.이와 관련 토스뱅크도 수신금리 인상을 검토 중인 것으로 나타났다.토스뱅크 관계자는 "추이를 지켜보면서 수신금리 인상을 긍정적으로 검토하고 있다"며 "구체적인 시기 등은 정해진 것은 없고 내부적으로 논의하고 있는 중"이라고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>모시기 힘든 ‘N년차’ 디지털 인재… 신입 뽑아 키운다</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003298802?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>수요 급증에 끝 모를 ‘IT 인력난’금융당국이 최근 디지털 혁신을 위한 금융규제 개혁을 예고하면서 정보기술(IT) 인력에 대한 금융기업의 수요는 더욱 늘어날 것으로 전망된다. 기업들은 영입전을 벌이는 한편 자체 인재 개발 육성에 나섰고, 정부도 향후 5년간 100만명의 디지털 인재를 양성하겠다는 방안을 내놨지만 디지털화의 속도에 발맞추지 못할 경우 앞으로도 개발자 구인난은 계속될 것으로 보인다.●은행 등 IT인력 비중 0.7%P 늘어1일 금융정보화추진협의회의 ‘2021년도 금융정보화 추진 현황’에 따르면 지난해 말 국내 은행과 금융투자업자, 보험회사, 카드사 등 국내 155개 금융기관의 정보기술(IT) 인력은 총 1만 1541명으로 1년 새 12.4%나 증가했다. 금융회사 전체 임직원 수가 전년 대비 0.7% 감소한 반면 IT 인력이 차지하는 비중은 4.5%에서 5.2%로 크게 늘었다. 금융회사 전반의 디지털 인재 수요가 크게 늘었다는 의미다. 금융위원회가 최근 플랫폼 금융서비스 활성화 방안 등을 통해 관련 규제를 완화한다고 밝히면서 기존 시중은행들도 이전보다 적극적으로 개발자 영입 경쟁에 뛰어들 가능성이 커졌다.●게임업체 크래프톤, 자체 인재 육성반면 정작 실무에 바로 투입될 수 있는 인재가 부족하다 보니 업계에서는 자체 인력 양성에 나선 상황이다. 개발자 수요가 높은 게임업체 크래프톤은 지난달 소프트웨어 인재 양성 프로그램인 ‘크래프톤 정글’ 1기생을 모집했다. 개발자로서 커리어를 쌓거나 전환을 희망하는 60여명을 대상으로 오는 10월부터 서울대 시흥캠퍼스에서 5개월간 합숙 교육을 진행하고, 실력이 뛰어난 교육생들을 채용할 계획이다.가상자산(암호화폐) 거래소 업비트를 운영하는 두나무는 앞으로 5년간 총 5000억원을 투자해 1만개의 신규 일자리를 창출하겠다는 계획을 밝혔다. 여기에는 지역 대학의 IT, 금융, 디지털자산, 블록체인 전문 인력 양성을 지원하는 방안도 담겼다. 토스는 경력 3년 이하 개발자를 공개 채용하는 ‘2022 토스 NEXT 개발자 챌린지’를 진행했고, 하나은행은 지난해 6월 한국과학기술원(KAIST)과 협업해 직원 40명을 대상으로 알고리즘, 소프트공학 등 전산학부 전공과목을 배우게 한 뒤 디지털 관련 부서에 배치했다.●하나銀, 직원 재교육 후 부서 배치향후 디지털 역량을 갖춘 인력의 수요는 더욱 늘어날 것으로 전망된다. 윤석열 정부가 교육부, 과학기술정보통신부 등 부처 합동으로 2026년까지 단계별로 디지털 인력 100만명을 양성한다는 계획을 발표한 것도 이 때문이다. 위정현 중앙대 경영학과 교수는 “우리나라뿐 아니라 전 세계적으로 개발자가 부족한 상황”이라며 “정부가 개발자 양성을 위해 유연한 학사 운영 등 대학의 자율성을 확대할 필요가 있다”고 말했다. 권헌영 고려대 정보대학원 교수는 “전 분야에 걸쳐 전문 개발자 수요가 늘어날 거라 전문 인력은 물론 전공 분야와 디지털 기술을 융합할 수 있는 인재까지 폭넓은 인력이 필요한 상황”이라며 “정부와 기업은 물론 개개인이 역량을 키워야 할 것”이라고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.09.08.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>토스發 개인정보 수집 파장…금감원 칼 빼들까</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011411115?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>기사내용 요약이복현, 토스 정보수집에 "적절한 것인지 사실관계 파악"[서울=뉴시스] 고범준 기자 = 이복현 금융감독원장이 6일 오전 서울 영등포구 켄싱턴호텔에서 열린 '금융감독원장-회계법인 CEO 간담회'에서 발언을 하고 있다. 2022.09.06. bjko@newsis.com[서울=뉴시스] 김형섭 기자 = 토스의 자회사인 토스플레이스가 15만 곳 이상의 신용카드 가맹점주 정보를 동의 없이 수집해 파장이 일고 있는 가운데 이복현 원장 취임 후 금융사고에 강경 대응 중인 금융감독원이 칼을 빼들지 주목된다.8일 금감원에 따르면 이 원장은 서울 중구 은행회관에서 열린 '중소기업·소상공인 차주 연착륙 지원을 위한 금융권 간담회'를 마치고 기자들과 만난 자리에서 토스플레이스의 개인정보 무단 수집 논란에 사실관계를 파악하고 있다고 밝혔다.이 원장은 "토스 쪽에서 얘기하고 있는 스크래핑 방식에 대한 의견은 들었다"며 "그게 과연 운영이 어떻게 됐는지, 적절한 것인지, 그쪽 주장이 맞는지 등 사실관계 파악을 해보라고 담당 부서에 요청해 놓은 상태"라고 말했다.금감원은 이번 논란과 관련해 일단 토스플레이스의 데이터 수집 방식 적절성과 업무 위수탁 범위 내 제3자 정보제공 해당 여부 등을 들여다볼 것으로 알려졌다.금융당국 안팎에서는 이 원장의 언급이 사실관계 파악이 우선이라는 원론적 입장이기는 하지만 검사 출신인 이 원장의 취임 후 행보를 고려할 때 강도 높은 조사가 이뤄질 수도 있다는 전망을 조심스레 내놓는다.특히 시장질서 교란과 불공정·불법 행위 엄단을 천명하며 취임한 이 원장은 금융업계에서 일어난 거액 횡령과 불법 외환거래 등에 엄벌을 시사하고 있어 문제가 적발된 금융사들은 강력한 제재를 받을 것이란 전망이 많다.앞서 일부 언론보도에 따르면 토스의 카드단말기 제조·공급 업체인 토스플레이스는 100여 곳의 밴(VAN·부가가치통신망)대리점과 '토스매장 파트너' 서비스 계약을 체결했는데 이 서비스를 통해 밴대리점이 보유한 1500여 가맹점 정보를 수집한 것으로 추정됐다.토스플레이스는 밴대리점으로부터 넘겨 받은 아이디와 비밀번호를 통해 밴사 홈페이지에서 가맹점주 정보를 스크래핑한 것으로 전해졌다.가맹점과 대표자 이름부터 사업자 등록번호, 전화번호, 주소, 객단가 등의 개인정보인데 이는 동의 없는 제3자 정보제공에 해당된다는 논란이 일었다.이에 대해 토스는 문제가 없다는 입장이다. 토스 관계자는 "(토스매장 파트너' 서비스는) 위·수탁의 범위만 명확하면 문제될 것이 없는 서비스라고 판단한다"며 "다만 (외부에서) 수집과정에서의 스크래핑 방식에 거부감이 있어 수집한 데이터는 삭제할 것"고 말했다.그러나 토스는 과거 회원 동의를 받았다고는 하지만 고객 데이터베이스를 계열사 토스인슈어런스(법인보험대리점)와 개인 보험설계사들에게 유료로 판매해 따가운 눈총을 산 바 있다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.09.04.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>플랫폼 금융 활성화…편익 늘지만 부작용도</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000558891?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>[앵커] 윤석열 정부는 법인세 인하 방침에 이어 규제와 형벌도 줄이는 등 기업활동 제고에 나서고 있습니다. 이 과정에서 금융규제혁신도 급물살을 타고 있는데요. 빅테크 기업들에게도 예금·보험 비교·추천을 할 수 있도록 열어줘 금융 플랫폼을 놓고 기존 금융회사들과 무한경쟁에 돌입할 전망입니다.보도에 장보경 기자입니다.[기자]기업하기 좋은 나라를 내건 현 정부의 규제 혁신 의지는 분명합니다.민간기업이 더 자유롭게 투자하고 뛸 수 있도록 규제심판제도를 도입해 과도한 규제를 줄이고 있습니다.금융규제 혁신에는 더 속도를 붙였습니다.금융회사들이 플랫폼 앱을 통해 은행, 보험, 카드 등 다양한 금융서비스를 제공할 수 있도록 지원하고, 카카오페이, 토스, 네이버파이낸셜 등 빅테크 기업들도 예적금과 보험 상품을 비교 추천할 수 있게 했습니다.&lt;김주현 / 금융위원장(지난달 23일)&gt; "금융 회사, 핀테크, 빅테크 간의 공정 경쟁을 통해 지속적 혁신 일어날 수 있는 새로운 경쟁의 장이 열릴 것을 기대합니다"금융위는 경쟁 속에 소비자 편익이 증진되는 것을 기대합니다.그러나 물밑에선 치열한 영역다툼이 벌어진 모습. 빅테크 업계는 소비자 편익을 위해선 비교 추천 뿐 아니라 판매까지 허용해야 한다고 주장하는 반면, 은행들은 빅테크가 주도권을 가지면 수수료의 급격한 인상이 우려된다는 입장입니다.여기에 보험업계는 결국 빅테크 기업들만 이익을 보는 것 아니냐며 강력 반발하고 있습니다.그러면서 자회사 업종 확대 등 금산분리 완화 관련 정책적 지원을 여당에 요청하고 나섰습니다.&lt;권성동 / 국민의힘 원내대표(지난달 22일)&gt; "보험업계 불편 느끼는 각종 규제를 어떻게 해소할 것인가 완화할 것인가 의견을 듣고 규제 혁파 차원에서 이 문제를 다루기 위해서…"다만 규제 완화에 따른 부작용 우려도 제기됩니다.온라인 플랫폼이 불공정한 알고리즘으로 금융상품을 비교 추천해줄 경우 소비자 피해가 발생할 수 있습니다.또 온라인 플랫폼에 소비자가 종속되거나, 과도한 자금이 쏠리는 금융 안정성 저해 가능성 우려도 나옵니다.이에 금융당국은 알고리즘은 공정성을 검증하고 중개 수수료는 상한을 제한하거나 공시 의무를 부과하기로 한 상태입니다.산업자본과 금융자본의 결합을 금지하는 '금산분리' 규제의 경우 금융위와 국민의힘은 낡은 제도인 만큼 일부 조정 필요성을 내비쳤지만, 민주당은 당 강령에 '금산분리 원칙 견지'를 명시해놓고 있어 반발이 예상됩니다.결국 업종간 경계가 허물어지는 '빅블러' 시대에, 규제완화 못지 않게 갈등과 부작용 관리가 중요해진 모습입니다.연합뉴스TV 장보경입니다. (jangbo@yna.co.kr)#금융규제 #금융서비스 #핀테크 #빅테크 #빅블러연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>[단독] 또래에게 강제 '복싱 스파링'…더 잔혹해진 10대 학폭</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000312700?sid=102</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>[앵커]오늘(5일) 밀착카메라는 10대 아이들의 학교폭력 현장을 집중 취재했습니다. 또래 친구들을 상대로 서로의 얼굴을 때리도록 복싱 스파링을 시키고 물에 강제로 들어가게 하는 등 폭력에 멍든 아이들의 이야기입니다.이상엽 기자입니다.[기자]학생들이 또래 학생들에게 복싱 스파링을 시킵니다.[A군/가해 의심 학생 : 선수 입장. 빨리 (글러브) 껴라. 먼저 쳐버려. {둘 다 세게 해. 알았지? 시작.}]친구를 때리라는 말에 피해 학생들이 망설입니다.그러자 반칙을 쓰라고 다그칩니다.[A군/가해 의심 학생 : 더러운 복싱 해봐. 반칙 다 써도 돼. 자리 바꿔. {지금이야. 쳐.} 이럴 때 봐주지 마. {너도 코피 터뜨려야지.}]직접 나서기도 합니다.[B군/가해 의심 학생 : 규칙 정하자. {한 손으로 해줄게.} 쫄지 말고 때리라고.][A군/가해 의심 학생 : 일어나. 나 이렇게 끝내기 싫어. 빨리 일어나. 10초 안에 안 일어나면 바로 XX 때린다.]폭행은 새로운 방식으로 또 이어집니다.피해 학생들을 밧줄로 묶고 물속으로 들어가게 합니다.[B군/가해 의심 학생 : 그냥 헤엄쳐. {어차피 너네 젖게 돼 있어. 앞에 바닥 다 보인다고. 그냥 가라고.}]물에 빠져 발버둥치는 장면을 보고도 웃습니다.[B군/가해 의심 학생 : {빠지면 너네가 XX인 거야.} 쫄지 마. 쪼니까 안 되는 거야. {진정하고 힘 주지 말라고.}]피해 학생 부모들은 A군과 B군을 경찰에 고소했습니다.폭언과 폭행이 일상이었다고 주장합니다.[피해 학생 아버지 : 어느 날 갑자기 머리카락을 자르고 온 거예요. 면도칼까지 대서…(A군이) 기분 안 좋아서 가위를 가져와 앉혀놓고 자른 다음에 면도칼로 밀었다고.]용돈도 빼앗겼다고 말합니다.[피해 학생 아버지 : 용돈은 월요일 아침에 들어가는 걸 아니까 무조건 자기 통장으로 입금하는 거고요. {휴대전화를 뺏어서 이체하고?} 토스, 카카오를 이용하는데 (비밀번호) 다 알고.]지금 학교도 이 사건을 조사 중인데 심의 결과가 나오지 않아 당장 해결하긴 어렵다고 합니다.[학교장 : 일단 아이들 출석정지를 시킨 거예요. (학교폭력) 심의 나오기 전까지 학교에서 조치할 수 있는 게 없어요.]교육청도 마찬가지입니다.[교육지원청 관계자 : 저희가 심의나 그런 의견을 내세울 수 있는 위치도 아니고 권한도 없어요.]가해자로 지목된 학생들의 부모를 찾아가봤습니다.[A군 아버지 : 잘 놀던 아이들이잖아요. 집에 와서 같이 웃고 놀던 아이들인데 부모가 일을 너무 크게 키우지 않나 싶어요.][B군 어머니 : 졸업까지 지금 80일 남았잖아요. (부모들이) 아이들 화해를 시켜주고. 어른들이 해야 하는 건 이게 아닌가 싶어요. 그런데 이걸 퍼뜨려서…]피해 사실을 자세히 이야기하자, 잘못을 인정하고 사과의 뜻을 전합니다.[A군 아버지 : {바로잡아주는 게 어른 역할이잖아요. 친구를 좋아하는 방법이 이렇게 돼선 안 된다…} 확실히 와닿았습니다. 친구들끼리 그랬으니 이해해주면 안되겠나 생각했었는데.]상처는 여전히 아물지 않았습니다.[피해 학생 : {아버지 걱정하실까 봐 이야기를 못 했던 것도 있을 거고. 어떤 게 가장 힘든지…} 그냥 다 잘 끝났으면 좋겠어요. 어른들이 원하는 대로…]아이는 어른들이 원하는 대로 끝났으면 좋겠다고 말합니다.학교폭력을 선과 악의 대립으로 봐선 안 됩니다.아이의 잘못은 분명히 직시하고 또 아이의 아픔은 온전히 이해해야 깊은 상처가 치유될 수 있을 겁니다.밀착카메라 이상엽입니다.(VJ : 김원섭 / 인턴기자 : 고민주)(충남당진경찰서·충남당진교육지원청)</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>부모님 효도 관광·결혼기념일 케이크까지 회사가 다 해드려요… 개발자님은 근무 중</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003298803?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>‘상전’ 개발자 모시는 금융IT기업인터넷전문은행 토스뱅크에서 근무하는 9년차 개발자 민재슬(34)씨는 한 달에 한 번 사내 헤어살롱에서 커트를 한다. 가끔은 남성용 다운펌을 하고 두피 스케일링도 받는다. 비용은 모두 회사에서 지불한다. 아침에는 회사 커뮤니센터에서 커피를 배달 주문하고, 급할 때는 무료 퀵서비스도 유용하게 쓰고 있다. ‘일 외에는 아무것도 신경쓰지 않아도 괜찮아요. 당신의 모든 생활을 회사가 책임집니다’를 표방한 토스뱅크의 복지정책이다. 민씨는 1일 “부모님 효도 관광 코스를 짜고 싶다고 하면 회사에서 짜 주고, 결혼기념일 축하 케이크가 필요하다면 케이크를 주문해 집까지 배달해 준다”며 “마치 고객의 요구에 맞춰 모든 것을 일괄적으로 서비스해 주는 ‘호텔 컨시어지’ 같다”고 말했다. 재택근무를 할지, 회사로 출근할지도 선택이라 민씨는 주 5일 중 한 번은 재택을 하고 있다.서울 강남구 토스 사옥 안에 있는 직원 전용 헤어숍에서 머리를 손질하고 있는 토스뱅크 직원의 모습.비바리퍼블리카 제공업계 1위 가상자산(암호화폐) 거래소 업비트를 운영하는 두나무는 지난해 기준 임직원 평균 연봉이 3억 9294만원에 달해 주목받았다. ‘억’ 소리 나는 연봉 외에도 두나무는 1년 이상 재직한 직원에게 최대 1억원까지 무이자 대출을 지원하고, 3년을 근무하면 10일의 안식휴가를 제공한다. 직원 본인을 포함해 가족 4인까지 인당 100만원 상당의 건강검진도 받을 수 있다. ‘나와 가족의 건강 걱정은 덜고 일에 집중할 수 있게 하라’는 취지다.●코로나 특수에 개발자 대거 영입이 같은 파격적인 직원 복지정책은 유독 빅테크, 핀테크, 암호화폐 거래소 등 금융·정보기술(IT) 업계에서 두드러진다. 이는 지난 2년간 이어진 코로나19 사태로 비대면 활동이 늘면서 IT를 기반으로 한 산업이 활성화된 덕이다. 개발자 수요는 폭발적으로 증가하는데 공급은 한계가 있다 보니 개발자들의 몸값은 천정부지로 치솟았다. 비대면 시대와 함께 호황을 누리던 빅테크와 핀테크, 암호화폐 거래소는 고액 연봉뿐 아니라 파격적인 복지 서비스를 제시하면서 경쟁적으로 개발자들을 영입했다.최근 거리두기 해제와 경기 침체로 전과 비교해 개발자 영입 경쟁이 줄긴 했지만 실력 있는 개발자는 여전히 귀하신 몸이다. 한 인터넷전문은행의 고위직 임원은 “실력이 좋은 일명 S급 개발자는 혹시라도 이직할까 봐 모든 것을 맞춰 줄 수밖에 없다”고 토로했다. 사내에서 손꼽는 개발자가 이직하자 다른 개발자들까지 우르르 따라 나간 사례도 있었다. 이미 어느 정도 경지에 오른 개발자들은 어디 가서 배울 곳이 없다 보니 자신보다 실력이 뛰어난 개발자를 쫓아다니는 경향이 있다고 한다. 기업 입장에서는 자칫 어렵게 채용한 개발자들이 통째로 나갈 수 있으니 S급 개발자는 채용 후에도 ‘상전’처럼 모실 수밖에 없다는 후문이다.인터넷전문은행 케이뱅크 관계자는 “거리두기가 풀리면서 배달 플랫폼 업체들이 주춤해 개발자 경쟁이 둔화한 것처럼 보이지만 인터넷전문은행들은 한창 성장 중이라 개발자 영입 경쟁을 지속하고 있다”고 말했다. 실제 케이뱅크와 카카오뱅크는 최근 IT 관련 분야에서 두 자릿수 규모의 인력 채용에 나섰다.핀테크 업체들이 이처럼 A급 개발자 확보에 열을 올리는 것은 이들 기업의 속성이 금융보다는 IT 기업에 가깝기 때문이다. 인터넷전문은행들은 기존 전통 은행처럼 수신과 여신 등의 금융 업무를 하고 있지만 인력 구성에서 큰 차이를 보인다. 강민국 국민의힘 의원실이 금융감독원으로부터 받은 ‘국내 주요 금융 업권 IT 인력 현황’에 따르면 지난 3월 말 기준 네이버파이낸셜, 카카오페이, 토스 등 빅테크 계열 금융사의 IT 인력 비중은 50.4%(2136명 중 1077명)에 달했다. 대표 핀테크인 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷전문은행은 42.8%(1879명 중 804명)로 집계됐다. 반면 KB국민·신한·하나·우리은행의 IT 인력 비중은 7.7%(5만 4748명 중 4215명)에 불과했다.●“이젠 실적 통해 증명해야할 때”그렇다 보니 핀테크 업체들은 전체적인 조직문화도 기존 금융사들과 다르다. 개발자들에게 맞춰 유연근무제를 적극 도입하고, 수평적 분위기를 위해 직급 대신 영어 이름을 부르기도 한다. 사장실이나 임원실을 따로 두지 않고, 같은 공간에서 일하는 업체도 많다. 이 같은 조직문화는 하루가 다르게 변화하는 모바일 금융 환경에 발 빠르게 대응할 수 있는 핀테크 업체의 경쟁력이 되고 있다.그러나 한편으로 개발자 비중이 높은 점은 핀테크 업체의 취약점이다. 개발자들은 상대적으로 이직이 잦아 업무 연속성이 떨어질 수 있다. 국내 한 스타트업에 재직 중인 7년차 개발자 정모씨는 “보통 개발자들이 이직하는 주기가 2년 정도라고 보면 된다”며 “시장에서 잘 팔리는 시기가 3년차, 5년차, 7년차쯤 된다”고 귀띔했다. 7년간 네 번 이직한 개발자 김모씨는 “동일한 실력과 경력이라고 할 때 한 회사에서 10년 근속을 한 사람과 10년 동안 몇 번 회사를 옮긴 사람의 연봉이 크게 차이가 나니 개발자들 사이에서는 이직을 안 하면 바보라는 소리가 나오는 것”이라고 말했다.핀테크 업체에서 매번 개발자를 대거 뽑는 것은 그만큼 이직이 많다는 방증이라는 지적도 있다. 한 암호화폐 거래소 관계자는 “개발자 150명을 뽑으면 반 정도는 또 나간다고 보면 된다”고 말했다. 또 고액 연봉을 제시하며 경쟁적으로 개발자들을 영입한 결과 인건비 상승으로 이어져 최근과 같은 경기 침체 분위기에서는 기업들의 부담 요소가 되고 있다. 빅테크 등 일부 기업의 영입 경쟁에 따른 연봉 인플레이션으로 중소 핀테크 업체들의 개발자 인력난은 더 악화했다. ‘부익부 빈익빈’으로 잘나가는 개발자와 아닌 개발자 간 연봉 차이도 크다.무엇보다 성장 가능성을 내세워 파격적인 연봉과 복지를 제공했던 빅테크 업체들도 이제는 실적을 통해 실력을 증명해야 할 때가 다가오고 있다는 점이다. 토스뱅크, 카카오페이 등은 올해 2분기 기준 여전히 적자를 면치 못하고 있다. 금융투자업계 관계자는 “이제까지는 투자자들도 성장 기업을 바라볼 때 현재보다는 미래가치에 중점을 두고 봤지만 갈수록 실적에 대한 잣대가 엄격해질 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.09.10.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>[주간사모펀드] "롯데카드가 3兆?"…MBK 콧대에 원매자들 '손사래'</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000171819?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>앵커PE, 이커머스 1세대 티몬 매각 완료사모펀드(PEF) 운용사 MBK파트너스는 롯데카드 매각가로 약 3조 원을 희망하는 것으로 전해졌다. /더팩트 DB사모펀드(PEF) 운용사 MBK파트너스(회장 김병주)가 매각에 나선 롯데카드가 시장의 관심을 끌지 못하는 분위기다. 유력 원매자들이 발을 빼면서 롯데카드 인수전은 흥행에 실패했다는 평가가 주를 이룬다.◆ 롯데카드 인수전 흥행 '적신호'…하나금융지주 유력시10일 IB(투자은행) 업계에 따르면 MBK파트너스와 매각주관사 JP모간이 지난 7일 시행한 예비입찰에는 하나금융지주를 포함해 3~4곳의 인수 후보가 인수의향서를 제출했다. 하나금융지주의 비은행 부문 경쟁력을 키우기 위해 인수전에 뛰어든 것으로 알려졌다. 하나금융지주는 롯데카드가 처음 매물로 나온 2019년에도 입찰에 뛰어든 이력이 있다.하나금융지주를 제외한 나머지 후보에 관해서는 알려지지 않았다. 다만 우선매수권을 갖고 있는 우리금융지주를 비롯해 KT, 토스, 카카오뱅크 등 참여가 유력시되던 인수 후보들은 대거 불참했다는 전언이다. 우리금융지주는 증권사 인수를 우선 검토한다는 입장이고, 토스와 카카오뱅크 등은 직접 인허가 취득을 추진할 것으로 보인다.이번 매각 대상은 MBK파트너스가 보유한 롯데카드 지분 59.38%다. 앞서 해당 지분을 1조3810억 원에 사들였던 MBK파트너스는 현재 약 3조 원을 희망하고 있는 것으로 알려졌다. 하지만 롯데카드의 시장 지위가 압도적이지 않을 뿐 아니라 카드업의 성장성이 제한적이라 희망가에서의 매매 가능성은 낮게 점쳐지고 있다.한 IB 업계 관계자는 "롯데카드는 부동산PF(프로젝트파이낸싱)가 43%를 차지하는 등 건설·부동산업 관련 비중이 60%에 이른다. 부동산 시장 침체가 이어지며 PF 시장 전반에 위기감이 드리워지는 것을 감안하면 롯데카드가 3조 원의 몸값을 인정받기는 어려워 보인다"고 언급했다.시장에서 이른바 '강성부 펀드'로 일컬어지는 KCGI가 오스템임플란트의 경영권을 노리고 있다는 이야기가 흘러나온다. /뉴시스◆ 제2의 한진칼?…KCGI, 오스템임플란트 경영권 노리나국내 1위 임플란트 업체인 오스템임플란트의 주식을 '기타법인'이 집중적으로 매수 중인 가운데 KCGI(대표 강성부)가 연일 회자되고 있다. 한진칼을 상대로 행동주의 캠페인을 벌였던 KCGI가 이번에는 오스템임플란트를 타깃으로 삼았을 가능성이 높다는 견해다.IB 업계에 따르면 지난달 26일부터 이달 5일까지 기타법인이 오스템임플란트 지분을 598억 원가량 순매수했다. 경영참여형 PEF 운용사의 경우 주식을 장내에서 매입하면 기타법인으로 분류된다. 인수금융을 활용하기 위해 특수목적법인(SPC)을 세워 주식을 사기 때문이다. 아울러 헤지펀드의 매입을 나타내는 ‘사모펀드’도 1주일 동안 오스템임플란트 주식을 147억 원정도 사들였다.다만 KCGI 측은 입을 열지 않고 있다. 오스템임플란트 측에서도 조심스럽다는 반응이다. 오스템임플란트 관계자는 "대량 매입을 주시는 하고 있다"며 "정황상 행동주의 펀드일 가능성이 있기는 해도 아직 실체가 정확히 드러나지 않았기 때문에 섣부르게 움직이거나 입장을 밝힐 상황은 아니다"라고 설명했다.현재 오스템임플란트의 지분율을 보면, 최대주주인 최규옥 회장을 비롯한 특수관계인은 20.64%를 갖고 있다. 미국계 자산운용사 라자드에셋매니지먼트가 7.18%, KB자산운용과 국민연금이 각각 5.04%를 보유하고 있다. KCGI가 7%대의 지분율만 확보해도 단숨에 2대 주주에 오르게 된다.◆ 앵커에쿼티파트너스→큐텐…새 주인 맞은 티몬이커머스 1세대인 티몬이 동남아시아 직구업체 큐텐에 매각됐다. 큐텐은 지난 2일 티몬 투자사로부터 티몬 지분 100%를 인수하는 계약을 체결했다. 티몬의 대주주인 PEF 운용사 앵커에쿼티파트너스(앵커PE‧대표 안상균)와 콜버그크래비스로버츠(KKR)가 보유한 티몬 지분 81.74%, PSA컨소시엄(티몬글로벌)이 보유하고 있는 지분 16.91% 등 총 100%를 큐텐 물류 자회사 '큐익스프레스' 지분과 교환하는 형태다.티몬 경영권 인수는 구영배 큐텐 대표가 주도한 것으로 전해졌다. 구 대표는 2000년 사내 벤처로 설립된 구스닥을 개인 사업자로 물건을 팔 수 있는 오픈마켓(G마켓)으로 변신시킨 주인공이다. 거래액 1조 원을 넘기고 당시 이커머스 1위였던 옥션을 제치며 세간의 이목을 끌었다.티몬은 큐텐과 조만간 새로운 조직 개편과 인사 제도를 안내할 예정이다. 티몬은 계약 체결 이후 사내 공지를 통해 "티몬의 커머스 역량은 큐텐의 비전과 전략에 맞닿아 있다"며 "티몬과 큐텐은 소중한 파트너(동반자)들의 해외진출과 성장을 돕는 한편 고객에게는 수준 높은 크로스보더 커머스 서비스를 제공할 것으로 기대한다"고 밝힌 상태다.한편, 티몬과 큐익스프레스 모두 비상장사인 만큼 정확한 인수 금액 규모는 공개되지 않았다. 그러나 업계는 티몬이 2700억~2900억 원 수준의 가치를 인정받은 것으로 분석하고 있다. 지난 2019년 1조 원대의 매각가를 형성했던 것에 비하면 크게 하락한 규모다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 개인사업자 대출로 제2전성기 맞을까</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005143416?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 조만간 개인사업자 대출을 출시하면서 포트폴리오 확장에 나선다. 금융권 '메기'로 등장했던 초반과 달리 점차 '시중은행화'되고 있다는 평을 받았던 카카오뱅크가 개인사업자 대출로 또 한번 혁신을 보여줄지 업계의 관심이 쏠리고 있다.6일 카카오뱅크에 따르면 개인사업자대출을 이르면 10월, 늦어도 12월 내에는 선보이기 위해 준비 작업이 한창이다. 카카오뱅크는 토스뱅크, 케이뱅크에 비해 늦은 출발이지만 플랫폼 전략으로 차별화된 서비스를 선보일 예정이다. 카카오뱅크 관계자는 "개인사업자 대출 상품뿐만이 아니라 소상공인들이 카카오뱅크 어플리케이션(앱)으로 사업장까지 관리할 수 있게 하는 서비스를 준비하고 있다"라고 말했다.카카오뱅크는 지점 방문이 쉽지 않은 개인사업자들을 위해 비대면 상품을 선보이는 한편 2대 주주로 있는 개인사업자 신용평가사인 한국평가정보와 함께 고도화된 신용평가 모델도 도입한다는 계획이다. 또 사업자금을 관리하는 개인사업자 대상으로 여신뿐만이 아니라 수신 상품도 함께 선보일 계획이다.금리 상승기에도 여신 성장세를 유지하고 있는 인터넷전문은행들은 개인사업자 대출을 출시하면서 영역 확장에 나섰다. 8월 말 기준 카카오·케이·토스뱅크의 여신 잔액은 43조991억원으로 40조원을 돌파했다. 카카오뱅크의 여신 잔액은 27조1991억원으로 전달보다 2487억원 늘었고, 케이뱅크는 9조5000억원으로 같은 기간 3400억원 증가했다. 토스뱅크의 여신 잔액은 6조4000억원으로, 두 달 전인 6월 말과 비교하면 잔액이 2조2000억원 불었다.케이뱅크의 경우 지난 5월 신용보증재단과 손잡고 개인사업자 보증서 대출인 '사장님 대출'을 선보였다. 개인사업자 고객이 지점에 방문할 필요가 없는 100% 비대면 상품이다. 케이뱅크는 기업대출 관련 포트폴리오를 지속적으로 늘린다는 계획이다. 케이뱅크는 지난 7월 경력 공개채용에서도 SME(중소상공인) 관련 대출상품 기획 인력도 모집했다. 토스뱅크도 지난 2월 가장 발 빠르게 '사장님 대출'을 출시해 지난 6월 기준 대출 잔액이 5300억원을 돌파하는 등 선방하고 있다.기업대출 시장은 금리인상기에도 성장세를 유지하고 있는 만큼 향후 인터넷전문은행들의 퀀텀 점프에 중요한 역할을 할 것으로 보인다. 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 8월 말 기업 대출 잔액은 687조4271억원으로 지난해 연말 기업대출 잔액과 비교하면 51조5393억원이 늘어났다. 특히 인터넷전문은행들이 공략하고 있는 자영업자와 소상공인 등이 포함된 중소기업 대출은 꾸준히 늘고 있다. 5대 은행의 개인사업자 대출은 8월말 기준 313조6373억원으로 전달(312조3965억원)대비 1조2408억원 늘었다. 지난해 연말(299조7215억원)과 비교하면 13조9158억원 증가했다.특히 인터넷전문은행의 선두주자 격인 카카오뱅크가 새로운 모멘텀을 맞이할 지가 관건이다. 카카오뱅크는 출시 초반 편리한 앱 사용성과 모임 통장, 자유적금 등 톡톡 튀는 아이디어로 금융 혁신을 보여줬다는 평가를 받았지만 토스뱅크의 등장과 시중은행들의 편의성 제고로 초창기 만큼 새로운 게 없다는 지적을 받고 있다. 이와 관련 윤호영 카카오뱅크 대표는 "개인사업자 대출은 비대면 금융 잠재력이 무궁무진하다"라며 "개인사업자대출 분야도 혁신해나갈 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>글만 썼는데 1만4000원 벌었다…요즘 뜨는 '짠테크' [코주부]</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004095405?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>[티끌모아 먼지라도]토스 만보기·캐시워크·네이버 포인트 비교/KBS 캡처[서울경제] 월급 빼고 다 오르는 잔혹한 시대! 티끌이라도 모아 커피라도 사 먹자는 취지로 종종 여러분을 찾아뵙고 있는 코주부의 숨겨진 코너 &lt;티끌 모아 먼지라도&gt;입니다. 지난 한 달 간 코주부 에디터들은 비밀리에 수익 활동을 펼쳐왔는데요. 바로 ‘앱테크’입니다. 하루 만보 걷기, 구매 리뷰 작성 등 미션을 성공하면 현금처럼 사용할 수 있는 포인트를 주는 어플들 요새 꽤 많죠?이번에 에디터들이 체험해 본 어플은 토스 만보기, 캐시워크, 네이버 포인트(어플은 아니지만, 적극적인 리뷰 활동으로 포인트를 적립할 수 있어 끼워넣어 보았습니다) 이렇게 세 가지 서비스인데요. 과연 누가 누가 더 많이 벌었는지 지금부터 확인해보시죠.━하루 최대치가 140원…물론 땅 판다고 나오는 건 아닙니다만/그래픽=박희민 디자이너우선 비슷한 방식의 토스 만보기와 캐시워크부터 비교해볼게요. 토스 만보기를 통해 하루 적립할 수 있는 최대치는 140원. 막상 해보니 정말 채우기 쉽지 않았다는데요. 특히 20원이나 한 번에 적립해주는 ‘특정 스팟(편의점·올리브영 등) 방문’의 경우 깊은 골목에 있는 경우가 대부분이었다고. 또한 반드시 토스 만보기를 켠 채로 스팟을 방문해야 한다는 점도 불편했다고 합니다. 날씨도 도와주지 않았습니다. 폭염에 폭포 같은 폭우에… 한 달 동안 1만 걸음 리워드는 한 번도 못 받았다고. 그래서 한 달 동안 에디터가 번 돈은… 430원! 담당 에디터는 토스 만보기보다 연 1억원까지 하루만 넣어둬도 금리 2%를 주는 토스 뱅크의 파킹통장을 추천했습니다. 한 달 간 30만원을 넣어두면 세후 이자가 423원이니… 실로 그러하네요.걸으면 포인트를 주는 어플계의 조상님 캐시워크는 어떨까요. 캐시워크는 100걸음당 1캐시를 주는데요. 이것도 그냥 주는 건 아닙니다. 100걸음이 누적될 때마다 화면에 보이는 보물상자를 눌러줘야만 적립 완료! 안그럼 사라지고 맙니다. 캐시워크를 담당한 에디터는 토스 만보기에 비해 상당히 준수한 결과물을 내놨습니다. 한 달간 총 1206캐시를 모은 것! 다만 감안할 점은 1캐시가 곧 1원이 아니라는 점입니다. 참고로 4500원짜리 스타벅스 아메리카노를 구매하려면 6300캐시가 필요합니다. 또한 캐시는 캐시워크 내부 쇼핑몰에서만 사용할 수 있습니다.━쇼핑 리뷰로 1만4000원 적립? 쇼핑한 돈은 얼마냐 물으신다면…사실 네이버 포인트는 네이버 페이로 제품을 구매해야 받을 수 있기 때문에 무에서 유를 창조하는(?) 토스 만보기나 캐시워크와는 조금 결이 다릅니다. 하지만 기왕 쓸 돈(?) 포인트라도 받으면 좀 기분이 낫지 않을까요?네이버 포인트를 모으는 방법은 크게 두 가지입니다. 네이버 페이로 물건을 사고 리뷰를 작성하는 것, 식당 등 오프라인 매장에 방문한 후 영수증을 찍어 리뷰를 올리는 것입니다. 처음엔 영수증 리뷰도 하려고 했지만 요새 영수증을 잘 안 챙기다 보니 쉽지 않더라고요. 그래서 구매한 물건의 ‘리뷰 작성’에 집중하기로 했습니다.지난 한 달 간 네이버 페이 결제와 리뷰 작성 등으로 발생한 적립은 64건, 총 적립 금액은 1만4802원입니다. 대체 돈을 얼마나 쓰고 적립받은 거냐고요? 비밀입니다... 건별로 좀 소개해드리면 적립된 것 중 가장 적은 포인트는 36원, 가장 높은 금액은 2000원이었습니다. 보통 사진을 첨부해 짧은 리뷰를 올리면 150원을 적립 받습니다. 텍스트 리뷰만 남길 경우 50원이니 기왕이면 사진을 꼭 붙이시길. 또 구매 한 달 후 사용기를 리뷰하라는 알림도 오는데요. 한달 리뷰는 포인트를 주는 곳도 있고 안주는 곳도 있으니 꼭 확인한 뒤 참여하세요.━총평 : 리워드보다는 다른 순기능을 찾아보자사실 이러니 저러니 해도 큰 금액은 아닙니다만 나름의 순기능이 있었습니다. 일단 저는 이번 콘텐츠를 만들면서 많은 반성을 했습니다. 지금까지 걸은 걸음 수가 몇 걸음이고 네이버에서 산 물건이 몇 갠데 리뷰 한 번 작성해 본 적 없는 나란 인간! 체험을 시작하고 나서는 어느새 만원 넘게 쌓여버린 포인트를 보며 제가 얼마나 많은 것을 사들이고 있는지 처절히 깨닫게 됐습니다.토스 만보기를 체험한 다른 에디터는 만보기로 돈을 벌긴 힘들 것 같지만, 자신이 하루에 얼마나 걷는지 알게 됐다며 너무 걸음 수가 적은 날엔 조금 더 걸으려고 노력한다고 긍정적인 피드백을 주셨고요. 가장 주목해야 할 후기는 캐시워크를 사용한 에디터입니다. 숨은 앱테크 고수인 그는 “토스 만보기와 캐시워크 둘 중 뭐가 더 좋은가”라는 질문에 “그게 뭐가 중요한가, 어차피 걸을 거 앱을 두개 다 깔면 될 거 아닌가”라는 명언을 남겼습니다. 에디터들의 현실적인 앱테크 후기, 어떠셨나요? 독자님이 알고 계신 앱테크, 짠테크 꿀팁이 있다면 에디터들에게도 좀 나눠주세요…!코주부 뉴스레터 구독하기이 기사는 서울경제의 재테크 뉴스레터 ‘코주부’에 게재된 내용입니다. 코인, 주식, 부동산까지 요즘 가장 핫한 재테크 소식을 알기 쉽게 풀어드리는 코주부 레터. 아래 링크에서 구독신청하시면 이메일로 매주 월, 목요일 아침 8시에 보내드립니다.(무료!)구독 링크와 아카이브 →https://url.kr/kojubu</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.09.01.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>[반갑다 새책] 자연은 우리가 살찌기를 바란다</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000773265?sid=103</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>리처드 J. 존슨 지음, 최경은 옮김/ 시프 펴냄클립아트코리아 제공"21세기를 살아가는 사람들은 가뭄, 에볼라, 알카에다의 공격으로 죽기보다 맥도날드에서 폭식해서 죽을 확률이 훨씬 높다." 세계적 석학 유발 하라리의 말이다.세계보건기구(WHO)에 따르면 1975년 이래 전 세계 비만 인구는 거의 3배가 늘었다. 우리나라도 예외는 아니다. 최근 보건복지부 자료에 따르면 만 19세 이상 비만유병률은 34.8%. 성인 3명당 1명 이상이 비만이다.최근 수십 년 사이 비만 인구가 크게 늘어난 원인에 대해선 많은 분석이 존재한다. 필요 열량보다 많이 먹어서, 이전처럼 강도 높은 육체노동을 하지 않아서 등 다양한 가설이 있지만, 이 책의 지은이는 빙하기 이후 인류가 살이 찌는 체질로 진화했기 때문이라고 주장한다.미국 콜로라도대 의대 교수인 지은이에 따르면 인류의 조상 격인 영장류는 빙하기 지구를 거치며 서서히 지방을 축적하는 체질로 진화했다. 추워진 지구엔 종종 식량이 부족했고 언제 닥칠지 모르는 식량난에 대비하기 위해 인간의 신체는 몸속에 지방을 저장하는 시스템을 갖추게 됐다는 것이다.지은이는 이를 '생존 스위치'라고 부른다. 이런 생존 스위치는 주로 당류의 일종인 프럭토스를 통해 활성화된다. 프럭토스의 주요 특징은 동물이 지방을 저장하도록 돕는 것이다. 먹이를 구할 수 없을 때 동물들은 지방을 분해해서 에너지를 공급받는다.하지만 기원전 7천년쯤 일어난 농업혁명 이후 인간은 전례 없는 문제에 봉착한다. 농경사회가 형성되면서 인간은 탄수화물이 풍부한 농작물로부터 열량을 안정적으로 공급받게 됐지만, 진화론적 관점에서 이는 너무나 급격한 변화였다. 하루 세끼를 규칙적으로 먹을 수 있는 현재까지도 인체는 여전히 지방을 저장하고 있다.그렇다면 살이 찌는 주범인 '생존 스위치' 활성화는 어떻게 하면 막을 수 있을까. 딱히 묘약은 없는 듯하다. 지은이는 빵이나 백미 등 혈당지수가 높은 탄수화물 대신 혈당지수가 낮은 탄수화물을 택하고, 프럭토스의 섭취를 부추기는 염분과 인공감미료의 섭취를 줄이며 물을 많이 마시라고 권한다. 간헐적 단식도 도움이 된다고 한다.과학적 이론을 매개로 비만을 분석한 책이지만, 다이어트를 위한 실용서로도 활용할 만하다. 알려진 건강 식단들의 임상 실험값을 분석해 권장 식단을 제시하는 등 체중 감량과 관련한 다양한 팁을 만날 수 있다. 424쪽, 2만5천원.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.09.10.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>추석용돈 불려줄 짭짤한 은행은 어디…최대 5.15%</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004793244?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>은행 예·적금에 돈이 몰리고 있다. 주식·부동산 시장 조정으로 투자처가 마땅치 않은 가운데 금리가 3%대에 안착하면서 매력도가 올라가서다. 예·적금 가입을 고려하고 있는 소비자는 기본금리와 우대금리 조건, 특판 이벤트 여부 등을 살펴보고, 자신에게 가장 유리한 상품을 선택할 수 있다.━특판 제외 금리 높은 상품은━8일 국내 은행의 예·적금 상품을 조사한 결과, 특별판매(특판)을 제외한 개인 고객 대상 예금 상품 중 1년 만기 기준으로 금리가 가장 높은 상품은 IBK기업은행 'IBK D-Day통장(단기중금채)'으로 나타났다. 우대금리 없이 기본금리가 이날 기준 3.84%, 가입 금액은 최소 100만원·최대 2억원이다. 두 번째로 금리가 높은 예금은 대구은행의 'DGB주거래우대예금(첫만남고객형)'이다. 우대금리를 다 받았을 경우 최고금리는 이날 기준 3.81%다. 우대금리는 최근 1년 이내 대구은행 예금에 가입한 적이 없으면 0.2%포인트(p)를 받는다. 최근 1개월 이내 대구은행 신용·체크카드를 발급했거나 인터넷·모바일뱅킹에 가입했으면 각 0.2%p씩 제공된다. 100만원부터 가입된다.적금 중 금리가 가장 높은 상품은 대구은행의 '쓰담쓰담적금(자유적립식)'이다. 기본금리 2.9%, 최고금리는 5.15%다. 인터넷·모바일뱅킹을 통해 가입하면 0.05%p 우대금리를 받는다. 예금 기간 중 대구은행 신용카드(체크카드 제외) 결제 금액이 예금 입금 누계 금액의 50% 이상인 경우 0.8%p 금리를 추가로 준다. 가입 후 1년 동안 신용카드 결제 금액이 직전 1년 대비 500만원 이상 늘었으면 1.4%p를 더 준다. 월 50만원까지 넣을 수 있다.기업은행 'IBK D-day적금'은 기본금리 3.35%, 최고금리 4.85%다. 기업은행 통장에서 적금 계좌로 3회 이상 자동이체 하고, 만기 전까지 목표 금액 이상 납입한 경우 1%p 우대금리가 적용된다. 상품에 가입할 때 시점이 실명등록일로부터 3개월 이내거나 가입 직전월 기준으로 6개월 동안 수신 잔액이 없는 최초 거래 고객은 0.5%p 추가로 금리를 받는다. 매월 최소 1만원부터 20만원까지 납입 가능하다./사진=뉴스1━특판 적금 금리는 10%대…다만 우대금리 요건 복잡━적금은 특판을 포함하면 금리가 10%대로 훌쩍 뛴다. 다만 최근 일부 상품들이 당첨 방식으로 우대금리를 제공하고 있어 고객별 적용 금리는 천차만별일 가능성이 높다. 카드사 등과 제휴 상품인 경우도 많아 우대금리를 받기가 까다로울 수도 있다. 소비자 입장에서 특히나 특판 가입을 생각하고 있다면 우대금리 요건을 신중하게 살펴봐야 한다.광주은행 '행운적금'은 1년 만기 최고 13.2% 금리를 제공한다. 정액적립식 기준 기본금리 3.2%에 내년 3월까지 실시하는 이벤트를 통해 우대금리 10%p를 제공한다. 고객은 가입 후 처음 도래하는 월요일부터 만기 전까지 매주 월요일에 6개 숫자 조합인 '행운 번호'를 받는다. 금요일에 발표되는 당첨 번호와 일치하면 10%p 우대금리를 받는다. 당첨을 통한 우대금리는 계좌당 한 번만 준다.━'까다로운 우대금리' 싫다면, 기본금리 우선 고려할 수도━복잡한 우대금리 요건을 충족하기 어려워 보인다면 기본금리 자체가 높은 상품을 선택하는 것도 방법이다. 1년 만기 기준으로 Sh수협은행의 '헤이(Hey)정기예금' 기본금리는 3.65%다. 10만원부터 2억원까지 예치할 수 있다. 우리은행 'WON플러스 예금' 기본금리는 3.52%다. 100만원 이상부터 가입할 수 있다.적금 중에서는 케이뱅크의 '코드K 자유적금' 기본금리가 3.7%로 높은 수준이다. 매월 최대 30만원까지 납입할 수 있다. 케이뱅크 신규 고객이 10월31일까지 이 상품에 가입하면 최소 5%, 최대 10% 금리가 적용된다. 신규 고객 10만명에 한해 진행하고 있는 '룰렛 이벤트'를 통해서다. 고객은 상품 가입 시 코드를 받는데 이를 코드 입력란에 입력하면 금리 5, 6, 8, 10% 중 하나에 100% 당첨된다.━미성년자, 군 장병 전용 상품도 다양━은행은 특정 고객의 목돈 마련을 돕는 상품들도 판매하고 있다. 경남은행은 만19세 미만 미성년자 전용 상품 '주니어Dream적금'을 운용 중이다. 기본금리는 1년 만기 기준 3.05%, 최고금리 4.45%다. 첫 거래 고객으로, 경남은행 통장이 없으면 0.8%p 우대금리를 준다. 상품 가입 고객의 형제 자매가 같은 날에 가입하면 0.2%p를 더 얹는다. 가입 기간 중에 스쿨뱅킹 납부 실적이 1회 이상이거나 만기 시점에 경남은행 주택청약종합저축을 갖고 있으면 각 0.2%p 금리를 받는다.신한은행 '신한 장병내일준비 적금'은 군 복무 중인 청년을 위한 상품이다. 현역병, 상근예비역, 의무경찰, 해양의무경찰, 의무소방원, 사회복무요원, 대체복무요원이 가입할 수 있다. 적금 신규일 기준으로 의무 복무 기간이 6개월 이상 남았으면 가입된다. 기본금리 4.5%에 주택청약종합저축을 갖고 있고(0.3%p), 신한은행 신용·체크카드 결제 실적이 있으며(0.2%p) 신한은행 통장에서 자동이체 한 실적이 5개월 이상(0.2%p)이면 금리는 5.2%가 된다.━우대금리, 만기 모두 거슬린다? 파킹통장·수시입출식 통장 활용 가능━만기를 채울 자신이 없거나 거슬린다면 파킹통장이나 수시입출식 통장을 활용할 수 있다. 적금의 경우 만기는 법적으로 6개월 이상으로 해야 한다. 만기 도래 전 예·적금을 해지하면 금리는 하향 적용된다. 파킹통장·수시입출식 통장은 하루만 자금을 예치해도 이자가 붙는다. 만기가 따로 없기 때문에 입출금도 자유롭다.인터넷전문은행들이 높은 금리의 상품을 제공하고 있다. 카카오뱅크 '세이프박스'는 기본금리가 2.2%다. 최대 1억원까지 예치할 수 있다. 케이뱅크 '플러스박스'는 기본금리가 2.1%, 예치 한도는 3억원이다. 토스뱅크의 '토스뱅크통장'은 금리 2%의 수시입출식 통장이다. 1억원까지 2% 금리를 제공한다. 금융권 관계자는 "평균적으로 봐도 은행 예·적금 금리 자체가 지난해 말과 비교해 1%p 이상 올랐다"며 "고금리 상품은 우대금리 요건이 까다롭기 때문에 신중하게 따져봐야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>'너도 나도' 내놓는 PLCC…빛 좋은 개살구?</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000302225?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[최근 여러 카드사에서 다양한 종류의 PLCC를 출시하고 있다.]PLCC로 불리는 '상업자 표시 신용카드'가 늘어나면서 소비자들의 선택권이 넓어지고 있지만, 반대로 PLCC가 무분별하게 쏟아지면서 생기는 피해도 우려되고 있습니다.오늘(12일) 유의동 국민의힘 의원실이 금융감독원으로부터 제출받은 자료에 따르면 올해 상반기 기준 국내 소비자들이 발급해 사용 중인 PLCC는 약 485만장에 달합니다. PLCC 인기가 여전히 높다는 점에서 올해 안에 발급량이 500만장을 넘길 가능성까지 점쳐집니다.카드사 중에서는 지난 2015년 PLCC의 첫 포문을 연 현대카드가 가장 많은 PLCC를 발급하고 있습니다. 발급량 기준 상위 10개 PLCC 가운데 신한카드의 '11번가 신한카드'를 제외한, 나머지 9개 카드는 모두 현대카드가 차지했습니다. 제휴카드와 달리 PLCC는 특정 브랜드의 혜택을 독점 제공한다는 점이 소비자들 사이에서도 차별화된 혜택으로 다가가면서 카드사들도 PLCC 출시에 집중하고 있습니다. 지난 2019년 11종에 그쳤던 PLCC 출시가 2020년 21종에 이어 지난해에는 55종으로 늘어나면서 국내에 PLCC가 처음 등장했던 2015년 이후 100종이 넘는 PLCC가 출시됐습니다.카드사 입장에서도 제휴사의 충성고객들을 흡수할 수 있어 적극적인 홍보나 영업 없이도 고객을 확보하는 등 모집 비용을 줄일 수 있다는 점이 매력적입니다.한 카드사 관계자는 "가맹점 수수료의 지속적인 인하로 카드사의 주요 수익 전략 중 하나는 비용절감"이라며 "PLCC는 특정 브랜드를 선호하는 고객들이 먼저 찾는 경우도 있어 효과적"이라고 설명했습니다.그만큼 소비자들의 선택권도 넓어졌습니다.제휴사도 초기엔 이베이, 코스트코, 11번가와 같은 유통업체 위주에서 최근에는 대한항공, 스타벅스, 토스와 같이 업종도 다양해졌습니다. 심지어 블랙핑크와 같은 한류스타부터 동물훈련사 강형욱, 오은영 박사와 같이 유명 개인 브랜드를 활용한 PLCC까지 나오고 있습니다.하지만 마냥 장점만 있는 것은 아닙니다.PLCC의 인기에 편승해 제휴사에 대한 제대로 된 검증 없이 무분별하게 PLCC 시장에 뛰어들었다가 소비자 피해를 양산할 수도 있습니다. KB국민카드는 지난해 6월 머지포인트와 손을 잡고 연내에 PLCC를 출시하기로 협의했지만, 두 달 뒤 머지포인트 대규모 환불사태가 벌어지자 부랴부랴 관련 절차 진행을 보류한 바 있습니다.특정 브랜드에 혜택이 집중된다는 장점은 반대로 범용성이 떨어진다는 단점이 될 수 있어 휴면카드로 전락할 가능성도 높다는 지적입니다.서지용 상명대 경영학부 교수는 "카드사는 일정 기간 동안 휴면카드를 관리해야 한다는 점에서 부담이 생기게 되고 소비자도 사용하지 않는 카드로 인한 정보 유출 등의 피해를 볼 수 있다"며 "결국 휴면카드 증가는 사회적 비용이 증가하는 일"이라고 말했습니다.차별화를 무기로 내세웠던 PLCC가 그저그런 카드가 돼 차별점이 없어지는 순간을 카드업계는 경계해야, PLCC가 소비자들의 선택권을 늘리면서 제대로 된 혜택을 주는 카드로 자리매김할 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>"연휴 끝, 은행 자소서 써볼까"…하반기 은행권 채용문 '활짝'</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006328665?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>신한은행 하반기 700명 채용, 국민·하나·우리·농협도 세자릿수 채용은행권, 비대면 전환에도 사회적 책임 위해 적극 채용 움직임지난 8월24일 서울 중구 동대문디자인플라자(DDP)에서 열린 2022 금융권 공동채용 박람회가 구직희망자들로 북적이고 있다.ⓒ News1 구윤성 기자(서울=뉴스1) 국종환 기자 = 국내 시중은행들이 추석 연휴가 끝난 뒤 대규모 '하반기 공개채용'을 준비 중이다. 은행들은 금융의 비대면 전환이 가속화하는 상황에도 공적책임을 다하기 위해 최대 세자릿수 채용에 나설 계획이다. 그동안 코로나19로 위축됐던 은행 채용문이 열리면서 취업준비생들의 움직임도 분주해질 것으로 보인다. 12일 은행권에 따르면 신한은행은 일반직 신입행원 공개채용을 포함한 5개 전형에서 총 400명을 선발하는 채용을 진행한다. 신한은행은 이번 신입채용을 포함해 경력직, 전문인력, 퇴직직원 재채용 등 하반기에만 총 700명 규모를 채용할 계획이다.이번 채용은 △일반직 신입행원 공개채용 △디지털·ICT 수시채용 △디지털·ICT 수시채용 삼성청년 SW아카데미 특별전형 △디지털·ICT 수시채용 석·박사 특별전형 △사회적 가치 특별전형으로 나눠 진행된다. 신한은행 채용 홈페이지를 통해 이달 22일까지 접수한다.이중 일반직 신입행원 공개채용은 서류전형과 필기시험(SLT,Shinhan Literacy Test), 1·2차 면접 순으로 진행된다. 신한은행은 전년 대비 채용 규모를 확대하고 필기시험을 개편해 채용의 문턱을 낮춘다는 계획이다. 신한은행 관계자는 "영업환경 변화와 금융시장 불확실성 등에도 불구하고, 미래 직무 인재 수요와 청년고용 창출에 대한 사회적 기대 등을 고려해 전년 대비 더욱 많은 채용 기회를 제공할 계획"이라고 말했다.IBK기업은행도 2022년도 하반기 신입 행원 160명을 공개 채용한다. 상반기 신입 공채 대비 10명 증가한 규모다. 모집 분야는 금융일반, 디지털, 금융전문·글로벌 등이다. 지역인재, 보훈대상자, 고졸인재는 별도전형으로 지원하면 된다. 지원서는 27일까지 기업은행 채용 홈페이지에서 신청할 수 있다.하나은행은 그룹 유튜브 채널을 통해 '2022 하나은행 신입행원 채용' 티저 영상을 공개했다. 영상에는 '하나은행 신입행원 채용 9월 커밍순'이라는 내용이 담겼다. 하나은행은 하반기에 예년과 비슷한 수준인 300명 규모의 채용을 진행할 예정이다.박성호 하나은행장은 지난달 금융권 공동 채용박람회에서 "예년과 비슷하게 300명 수준을 채용하지 않을까 싶다"며 "요즘은 신입채용보다 수시채용을 많이 하는 추세로 바뀌었지만, 저희는 꾸준히 그 수준을 유지해 채용하려고 한다"고 밝혔다.KB국민은행도 빠르면 이달 세자릿수 규모의 하반기 신입행원 공채를 실시할 예정이다. 국민은행은 지난해 하반기 270여명을 채용한 바 있다. 이재근 국민은행장은 금융권 채용박람회에서 "올해도 수백명 규모로 채용을 예상한다"며 "청년들의 기회를 위해선 신입사원의 비중을 더 늘려야 한다는 생각"이라고 말했다.농협은행도 하반기에 예년 수준으로 채용을 계획 중이다. 농협은행은 지난해 하반기 130여명의 신규직원을 채용한 바 있다. 우리은행도 하반기 채용 계획을 검토 중이다.인터넷전문은행들도 하반기 채용을 진행한다. 토스뱅크는 하반기에 100명 이상을 채용할 예정이다. 토스뱅크의 현재 임직원 수는 318명으로, 연말까지 최소 420명 이상으로 확대한다는 계획이다. 카카오뱅크도 전략, 인사, 여신, 수신, ESG(환경·사회·지배구조), 서비스, 디자인, 재무 등 82개 직무에서 수시채용을 진행 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>"은행서 대출 연장시 변경금리 적용 날짜 확인하세요"</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013426431?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>금감원, 금리 상승기에 대출연장시 유의사항 안내 시중은행 창구[연합뉴스 자료사진] 2022.8.25 mjkang@yna.co.kr    (서울=연합뉴스) 심재훈 기자 = 은행에서 대출 연장 시 변경 금리를 적용하는 시점에 따라 소비자에게 불리할 수 있어 유의할 필요가 있다고 금융감독원이 당부하고 나섰다.    금감원은 7일 '금리상승이 대출 연장 시 유의사항 안내' 자료를 통해 금리 상승기에는 변경 금리를 만기일보다 대출 연장 실행일부터 적용받는 것은 더 불리할 수 있다고 지적했다.    예를 들어 A씨는 신용대출 만기일이 지난 7월 27일 도래해 대출 금리를 2.0%에서 3.0%로 인상하는 조건으로 7월 6일에 대출 기간을 1년 연장했다.     A씨는 변경된 3.0% 금리가 만기일인 7월 28일부터 적용될 것으로 기대했으나 은행이 변경 금리를 대출 연장 실행일인 7월 6일부터 적용해 민원을 제기했다.    금감원은 은행들이 대출 연장 시 변경 금리를 적용하는 시점은 만기일, 대출 연장 실행일 중에서 고객이 직접 선택 가능한 방식으로 운영되고 있다고 설명했다.    영업점을 통한 대면 채널의 경우 우리은행 등 12개 사가 만기일, 광주은행과 제주은행은 대출 연장 실행일, 대구은행은 대출 연장 실행일과 만기일 중 선택이 가능하다.    SC은행은 대출 연장 신청이 대면 채널에서만 가능하며 카카오뱅크, 토스뱅크, 케이뱅크는 비대면 채널에서만 대출을 연장할 수 있다.    금감원은 금융사에서 대출 연장 시 변경 금리를 적용하는 날짜를 직원에게 문의하는 등 꼼꼼히 확인해야 하며, 변경 금리를 대출 연장 실행일부터 적용하는 경우 금리 상승기에는 대출 연장 실행일을 만기일까지 가급적 늦추는 게 유리하다고 조언했다.    금감원은 변경 금리 적용 날짜를 선택할 수 있다면 금리 상승기에는 대출 연장 실행일보다는 만기일로 선택하는 것이 유리할 수 있다고 덧붙였다.    president21@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>[G-한가위 이벤트 ⓵] 한가위만 같아라…넷마블 등 이벤트 풍성</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005014279?sid=105</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>◆ 넷마블, 게임 12종서 다채로운 한가위 이벤트 진행넷마블(대표 권영식, 도기욱)은 게임 12종에서 풍성한 혜택을 제공하는 특별 이벤트를 진행한다고 6일 밝혔다.모바일 MMORPG ‘세븐나이츠 레볼루션’에서는 추석을 기념해 오는 9월 14일까지 송편 모으기 이벤트를 진행한다.모바일 MMORPG ‘블레이드 &amp; 소울 레볼루션’에서는 9월 말까지 ‘캠페인 이벤트’, ‘풍성한 한가위 미션 이벤트’를 실시한다. ‘캠페인 이벤트’는 신규 이벤트 지역 ‘달토끼 평야’에서 사냥을 통해 ‘달토끼 주화’를 모아 ‘전설 수호령 선택상자’ 등으로 교환할 수 있다.모바일 MMORPG ‘리니지2 레볼루션’은 오는 15일까지 윷놀이 이벤트를 통해 ‘변신체 강화주문서(3개)’ 등 다양한 보상을 증정하고, 윷판을 완주할 때마다 확장팩 시즌3 관련 아이템을 추가로 제공한다. 감성 모험 RPG ‘제2의 나라: Cross Worlds’는 7일 동안 접속하면 골드, ‘6성 선택 장식함’, ‘신묘한 액막이 인형’, ‘장비/이마젠/수정구 소환 쿠폰’ 등을 증정하는 이벤트를 오는 29일까지 실시한다.모바일 캐주얼 보드게임 ‘모두의마블’에서는 게임에 접속하는 모든 이용자들에게 접속만 해도 최대 ‘10,000 다이아’와 강력한 공격력을 지닌 캐릭터 ‘진화 불멸 루시아’를 증정하는 이벤트를 진행한다. 모바일 야구 게임 ‘마구마구2022 모바일’에서는 오는 21일까지 ‘즐거운 한가위 시즌’ 이벤트를 실시하며 이용자들은 출석과 게임 플레이를 통해 획득한 '한가위교환상자'로 레전드 선수 카드를 얻을 수 있다. 모바일 야구 게임 ‘넷마블 프로야구 2022’에서는 13일까지 ‘추석 송편 박스 이벤트’를 실시한다. 이용자들은 챌린지 모드 등에서 승리하거나 무승부를 기록하면 최고 등급의 ‘다이아몬드 선수카드’ 등 고급 보상이 담겨 있는 송편 박스를 얻을 수 있다.모바일 캐주얼 힐링 게임 ‘머지 쿵야 아일랜드’는9일부터 12일까지 '별조각', '코인', '목재' 등 날아다니는 비행자원을 터치하면 획득할 수 있는 이벤트를 진행한다. 또한 추석 연휴 기간 접속 이벤트를 통해 매일 30젬(게임재화)을 받을 수 있다. 모바일 RPG ‘페이트/그랜드 오더’는 추석을 맞아 7일 연속 로그인 보너스 이벤트를 8일부터 15일까지 진행하고 4일간의 특별 로그인 보너스 이벤트를 통해 보상을 추가로 증정한다.모바일 MMORPG '세븐나이츠2'에서는 오는 15일까지 방치형 필드 이벤트를 진행한다. 이용자들은 방치형 필드를 플레이하고 달빛 송편, 복토끼를 모아 전설플러스 등급 방어구 소환권, 의상 티켓, 개방된 장신구 제작재료 소환상자 등을 제작할 수 있다. 배틀로얄 MMORPG ‘A3: 스틸얼라이브’는 매일 3가지 보상 중 가장 많은 표를 받은 아이템을 증정하는 '추석맞이 선물 이벤트'를 8일부터 13일까지 실시한다.PC 온라인 댄스게임 ‘클럽 엠스타’에서는 오는 7일부터 10월 13일까지 게임에 접속하는 모든 이용자에게 '달놀이&amp;달맞이 한복', '좋아요 의자' 등을 지급하는 '추석맞이 한달 출석보상 이벤트'를 실시한다.PC 온라인 야구 게임 ‘마구마구 리마스터’에서는 7일부터 21일까지 ‘마구마구 빙고 이벤트’를 실시한다. 매일 5개씩 주어지는 게임 접속, 친선경기 플레이 등의 미션을 완료하면 빙고를 오픈해 최상위 등급의 선수카드를 획득할 수 있다.◆라이엇게임즈, LoL서 ‘한가위에는 행복이 가득’ 이벤트라이엇 게임즈는 ‘리그 오브 레전드(League of Legends, 이하 LoL)에서 한가위 연휴를 맞이해 풍성한 혜택을 담은 ‘한가위에는 행복이 한가득’ 이벤트를 진행한다.해당 이벤트는 18일 오후 23시 59분까지 진행되며 RP 및 챔피언 스킨 할인 혜택과 함께 기간 한정 ‘보름달 캡슐’ 판매, ‘한가위 포로 상점’ 운영 등의 다양한 내용으로 구성됐다.이벤트 기간 동안 플레이어는 RP 및 챔피언 스킨 구매 시 할인 혜택을 적용 받을 수 있다. 토스 간편 결제를 통해 RP를 충전한 플레이어는 그 즉시 결제 금액의 10%를 할인 받는다. 한가위 한정 ‘보름달 캡슐'도 판매된다. 무작위 스킨 파편 3개로 구성된 보름달 캡슐을 구매한 플레이어는 최대 3개까지의 신화 정수 및 신화급 온전한 스킨을 획득할 수 있다. ‘별 수호자’ 캠페인 당시 좋은 반응을 얻은 ‘포로 상점’도 돌아온다. 플레이어는 포로 상점을 통해 이벤트 기간 동안 사용한 RP만큼 ‘보름달’ 재화를 얻고, 해당 재화를 다양한 인게임 및 실물 경품으로 교환할 수 있다. ◆넥슨, 넥슨컴퓨터박물관서 ‘추석N박물관’ 이벤트넥슨(대표 이정헌)은 6일 넥슨컴퓨터박물관(관장 최윤아)에서 민족의 명절 추석을 맞아 ‘추석N박물관’ 이벤트를 9일, 11일 이틀간 진행한다.올해의 ‘추석N박물관’ 이벤트는 1988년에 출시된 레트로 게임기, 파워 패드(Power Pad)를 이용해 가을 운동회와 같은 즐거움을 느낄 수 있는 추억의 달리기 이벤트로 진행된다.파워 패드는 DDR(Dance Dance Revolution)이나 펌프잇업(Pump it up) 등과 같이 발로 조작하는 입력 장치의 시초로 불린다. 본 이벤트는 하루 세 번(오전 11시, 오후 2시, 4시) 회당 선착순 40명으로 진행된다.인스타그램 인증샷 이벤트도 연휴 기간 내내 진행된다.‘추석N박물관’ 이벤트는 오는 9일, 11일 2일간 시행되며 10일, 12일은 박물관 휴관으로 진행되지 않는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>토스, 이커머스 스타트업 ‘스토어카메라’ 투자…동남아 확장 시동</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002039731?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>4월 10억원 상당 전략 지분투자본격적인 해외 시장 공략 나서[헤럴드경제=박자연 기자]토스가 국내를 넘어 해외로도 적극적인 시장 확장을 꾀하고 있다. 특히 해외시장 중에서도 동남아시아에 가장 먼저 발을 내딛은 토스는 현지에 법인을 세워 자체적인 사업을 펼치는 것 외에도 현지에 먼저 진출해있는 스타트업에 투자하며 본격적인 시장 확장에 나서고 있다.비버리퍼블리카(토스)의 반기보고서에 따르면, 토스는 올 4월 이커머스 판매자 대상 앱을 개발하는 ‘스토어카메라’에 10억859만원 상당을 투자해 20%의 지분을 확보했다.스토어카메라는 온라인판매자를 위한 모바일 솔루션 서비스를 제공하는 회사다. 스마트폰으로 온라인 업장을 운영하기 쉽게 만들어진 게 특징인데 상품 촬영과 편집은 물론 상품 판매 관리 기능까지 ‘원스톱’으로 가능하도록 했다.스토어카메라는 동남아 시장을 중심으로 사업을 펼치고 있다. 올 초에는 신한 퓨처스랩 인도네시아에 선정되기도 했으며 지난해에는 현지 소상공인에게 금융 서비스를 제공하는 ‘셀러리(Sellury)’ 앱을 출시했다. 셀러리 앱은 사업 자금이 필요한 소상공인 대상으로 금융사 대출을 중개해주는 프로그램을 제공한다.이런 스토어카메라에 토스가 투자를 감행한 이유로 ‘동남아 시장 확장’이 가장 높게 꼽힌다.토스는 2019년 10월 베트남 법인 설치를 시작으로 말레이시아, 인도네시아, 태국, 필리핀, 인도 등 동남아권 위주로 해외 시장에 진출했다. 지난해 말에는 동남아 5개국에서 리워드 서비스를 출시했으며 올해 3월 싱가포르에 글로벌 헤드쿼터를 설립해 동남아 사업을 총괄하도록 했다.적극적인 시장 공략에 나서는 상황에서 현지에 기틀을 닦아 놓은 스타트업에 전략 투자 등을 진행해 동남아 사업 시너지를 확보하려는 셈이다. 토스 관계자는 “최근 토스도 동남아 시장 진출에 속도를 내고 있어, 향후 시너지 기회 등을 감안해 투자를 결정했다”고 설명했다.한편 토스는 스타트업 대상 투자를 이미 여러차례 진행한 바 있다. 지난해 11월 스타트업으로 출발한 미국 비상장 주식 투자 플랫폼 ‘리퍼블릭’에 500만달러68억6600만원)를 지분 투자했고 그보다 한 달 전에는 모빌리티 스타트업 타다를 인수했다. 앞서 같은해 6월에는 쇼핑몰 솔루션을 제공하는 플랫폼인 ‘식스샵’에 80억원 규모의 투자를 했다.다만 토스 자체는 아직 흑자를 내지 못하고 있는 처지다. 토스는 올해 상반기 기준 1630억원 순손실을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>[마켓인]실탄 두둑히 확보한 스타트업들, 해외 진출 박차</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005314659?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>펀딩 통해 기업가치 끌어올려, 사업영역 넓혀 가치 입증해외 법인 설립 및 현지 기업 M&amp;A 통해 글로벌 진출[이데일리 김예린 기자] 최근 대규모 자금 수혈에 성공한 유니콘 기업들이 성장동력과 기업가치를 끌어올리기 위해 해외 진출에 박차를 가하고 있다. 더 큰 시장에 뛰어들어 진검승부를 보겠다는 복안으로, 글로벌 투자 시장이 얼어붙었지만, 기업공개(IPO) 시장이 회복될 시기에 대비해 성장 속도를 끌어올리겠다는 행보다.토스에 투자한 글로벌 투자자들. 사진=토스 누리집 갈무리12일 투자은행(IB) 업계에 따르면, 토스는 최근 총 5300억원 규모의 시리즈G 라운드를 마무리했다. 지난 7월 알토스벤처스와 KDB산업은행, 광주은행, 다올인베스트먼트, 미래에셋증권 등에서 3000억원 규모 투자금을 유치한 데 이어, 지난달 말 굿워터캐피털과 한국투자증권, 토닉프라이빗에쿼티 등으로부터 2300억원 추가 펀딩에 성공한 것이다. 조달한 자금은 토스뱅크와 토스증권 등 계열사들 자본 확충과 신사업 강화, 해외 진출 등에 활용할 계획이다.이미 토스는 2019년 10월 베트남 법인을 세웠고 올 3월에는 싱가포르 글로벌 헤드쿼터(HQ)를 설립하면서 동남아 시장 진출 기반을 닦았다. 작년 말에는 동남아 5개국을 대상으로 리워드 서비스를 출시하기도 했다. 현지 은행과 제휴해 금융서비스를 제공 중으로, 상반기 기준 베트남에서 300만 월간활성사용자수(MAU)를 확보해 현지 금융앱 순위 7위를 기록했다.토스는 이번 프리IPO 펀딩에 나서면서 주주들로부터 양해를 구하고 내년을 목표로 했던 IPO 시점을 미뤘다. 기업가치도 작년 8조 2000억원에서 올해 8조 5000억원으로 소폭 상향했고, 포스트밸류(투자유치 후 기업가치)로는 9조원까지 끌어올렸다. 이번에 확보한 실탄으로 시장 규모가 작은 국내 한계를 깨고 글로벌 성장 가능성을 보여주겠다는 것.온라인 가구·인테리어·커머스 플랫폼 ‘오늘의집’을 운영하는 버킷플레이스도 아시아 시장으로 영역을 넓히고 있다. 오늘의집은 올 상반기 산업은행의 주도 아래 시리즈D 라운드에서 2300억원을 투자받았다. 기업가치는 2조원가량으로 인정받았다. IMM인베스트먼트, 미래에셋캐피탈 등 국내 투자자와 글로벌 투자사 소프트뱅크벤처스, 실리콘밸리 투자사 본드(BOND) 등이 함께 투자했다.오늘의집은 해당 자금을 일본, 싱가포르를 비롯해 아시아 진출 교두보를 쌓는데 활용하겠다는 전략이다. 이미 최근 일본에서 현지법인을 설립하고, 일본어 버전의 홈 커뮤니티 서비스 ‘오하우스(O!House)’의 시험 서비스를 출시한 바 있다. 싱가포르에서는 가구 유통 플랫폼 ‘힙밴’을 인수하면서 현지 진출했다. 국내는 부동산 면적이나 인구 규모 자체가 적어 한계에 직면할 수밖에 없는 만큼, 한국에서 벗어나 더 넓은 시장을 타깃으로 삼겠다는 것. 해외 진출 움직임은 핀테크와 프롭테크뿐 아니라 여행, 조각투자 등 본야룰 막론하고 나타나는 특징이다. 호텔 예약 서비스를 제공하는 온라인 여행사(OTA) 트립비토즈는 올 하반기 싱가포르 법인을 설립했고, 이를 HQ로 활용해 동남아시아 전용 플랫폼 론칭을 준비 중이다.미술품 공동구매 플랫폼 ‘아트앤가이드’를 운영하는 열매컴퍼니 역시 연내 미국에 해외 지사를 설립하고 시장 조사와 인력 확충에 나서, 내년 본업인 미술품 조각투자 서비스를 해외에 선보이기로 했다. 또 국내외 대상으로 실물자산 기반 가상자산 한국형증권형토큰(STO)와 NFT(대체불가토큰) 신사업에 나선다는 방침이다.분야를 떠나 너나할 것 없이 글로벌 시장을 타깃으로 삼는 이유는 성장성을 보다 끌어올리기 위해서다. 벤처케피털(VC)과 사모펀드 운용사(PE)로부터 이미 전 시리즈 단계 투자보다 기업가치를 높였고, 이후 시리즈 라운드 투자 및 IPO를 위해서는 글로벌 확장 가능성을 입증해야 하기 때문이다.국내 한 스타트업 대표는 “규모 차원에서 한계가 많은 내수 시장만으론 이후 라운드나 IPO에서 더 높은 밸류를 인정받기 어렵다”며 “플립(본사 해외 이전), 해외 법인 설립, 현지 기업 M&amp;A나 합작법인 설립 등 다양한 방법으로 초중후기 등 스타트업 생애주기 전반의 글로벌 진출 움직임이 일반화한 이유”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.09.14.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>초고금리 시대...증권사 발행어음 자금 유입 러시</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002638716?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>연 4%대 금리에 발행어음 잔고 12조...올해 60%↑투자자예탁금 28% 감소...한은 추가 금리인상 무게이창용 한국은행 총재가 지난달 25일 금융통화위원회 통화정책결정회의를 주재하고 있다. ⓒ한국은행[데일리안 = 백서원 기자] 금리 인상기를 맞아 발행어음 잔고가 12조원을 넘어섰다. 증권사들이 연 4%대 발행어음을 제공하면서 투자처를 찾지 못한 대기 자금을 빨아들이고 있다. 연내 추가 금리 인상 가능성이 점쳐지는 만큼 발행어음에 대한 투자자들의 관심이 지속될 전망이다.14일 금융투자협회에 따르면 지난 8일 기준 증권사 발행어음형 종합자산관리계좌(CMA) 잔고는 12조1016억원을 기록해 처음으로 12조원을 돌파했다. 국내 증권사가 발행어음 사업을 시작한 2017년 11월 이후 사상 최대치다.지난 1월 3일 잔고(7조5366억원)와 비교해 60.57%(4조5650억원) 급증했다.반면 주식투자 대기 자금인 투자자예탁금은 연초 71조7328억원에서 지난 8일 51조7043억원으로 27.92%(20조285억원) 급감했다.이달 들어 꾸준히 감소하면서 지난 7일(51조8803억원)보다도 줄었다. 투자자 예탁금이 51조원대를 기록한 것은 2020년 11월 6일(51조8990억원) 이후 처음이다.코스피지수와 투자자예탁금 최근 6개월 흐름 추이 ⓒ금융투자협회대내외 악재로 시장 변동성이 높아지면서 개인투자자들은 주식투자에서 자금을 빼는 대신 고금리 금융상품으로 눈길을 돌리고 있다. 이 중 발행어음은 증권사가 자금 조달을 위해 자체적인 신용을 바탕으로 발행하는 만기 1년 이내 단기 금융 상품이다.자기자본이 4조원을 넘는 초대형 투자은행(IB)으로 지정된 증권사만 발행 사업이 가능하다. 현재 미래에셋증권, 한국투자증권, NH투자증권, KB증권 등 4개사가 발행어음 사업을 하고 있다.발행 한도는 자기자본의 200%로 제한된다. 발행어음형 CMA는 증권사가 직접 자금을 운용해 다른 유형의 CMA보다 금리가 높다.특히 발행어음형 CMA로 자금이 몰린 이유는 최근 금리가 오르면서 수익률이 시중은행의 예·적금 상품보다 높아져서다.한국은행이 지난달 25일 기준금리를 기존 2.25%에서 2.50%로 인상하자 증권사들도 발행어음 금리를 줄줄이 높였다. 지난 2020년까지만 해도 증권사들의 발행어음 금리는 연 1.55% 수준에 그쳤지만 현재 평균 연 4.10~4.15%로 조정됐다.발행어음이 인기를 끌면서 증권사가 이벤트로 진행한 4.5% 특판도 빠른 속도로 자금을 모았다. 한국투자증권이 지난달 10일 토스뱅크를 통해 선보인 연 4.5% 발행어음은 나흘 만에 2000억원이 완판됐다.발행어음은 은행과 달리 가입 조건이나 한도 금액이 없다는 장점이 있다. 통상 은행의 고금리 예·적금 상품은 자동이체나 특정 신용카드를 사용해 조건을 충족해야 우대금리를 받을 수 있다. 모바일트레이딩시스템(MTS) 등 비대면으로 가입할 수 있다는 점도 투자 매력을 높였다.다만 원금과 이자를 합쳐 5000만원 한도까지 보호되는 예적금과는 달리 발행어음은 예금자보호법에 따라 보호받을 수 없다는 점에 유의해야 한다. 최악의 경우 원금과 이자 모두 잃을 수 있지만 발행사가 파산하지 않는 한 손실 가능성이 없어 저위험 투자상품으로 꼽힌다.발행어음 상품을 판매하는 한 증권사 관계자는 “이자율이 4%대까지 올라 법인과 개인 모두 관심이 높아졌고 관련 문의 역시 꾸준히 늘고 있는 추세”라며 “한국은행의 추가 금리 인상을 감안하면 발행어음 금리는 더 올라갈 가능성이 높다”고 말했다.금투업계는 한은이 다음달과 11월 두 차례의 금융통화위원회에서 기준금리를 추가 인상할 가능성에 무게를 두고 있다.김지만 삼성증권 연구원은 “이창용 한은 총재가 여전히 물가 중심의 통화정책을 강조하고 있다는 점 등을 감안해 다음달 12일과 11월 24일 금통위에서 각각 25bp(1bp=0.01%p)씩 추가 인상할 것으로 예상, 연말 기준금리로 3.0%로 전망하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>금리 인상에도 변동금리 비중↑ 外 [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003733937?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>정부가 부실 위험을 낮추기 위해 가계대출의 고정금리 전환을 유도하고 있지만, 변동금리 비중이 좀처럼 줄지 않고 있는 것으로 나타났다. 정부 대책에도 아직은 별다른 효과가 없는 셈이다. 세계일보는 13일 경제면에서 금리상승 지속에서의 대출 상황을 짚었다. 아울러 내년도부터 법적으로 의무지출하게 되어 있는 예산 비중이 전체의 절반 이상을 넘게 되는 사실도 짚었다.     12일 서울 시내의 한 은행 영업점에 대출 관련 안내문이 붙어 있다. 뉴스1    ◆7월 가계대출 잔액 중 변동금리 80% 육박   12일 한국은행에 따르면 올해 7월 기준 예금은행의 가계대출 잔액 중 변동금리 비중은 78.4%로, 2014년 3월(78.6%) 이후 8년 4개월 만에 가장 커졌다. 코로나19 발생 직전인 2020년 1월(65.6%)과 비교하면 2년 6개월 만에 12.8%포인트나 상승했다.   한은의 가계신용(빚) 통계에 따르면 올해 6월 말 기준 가계대출은 모두 1757조9000억원에 이른다. 은행 외 금융기관의 변동금리 비중도 같다고 가정하면, 한은의 기준금리가 0.25%포인트 오를 때마다 산술적으로 가계대출자들의 이자 부담은 3조4455억원(1757조9000억원×0.784×0.0025) 늘어난다.   이러한 이자 부담에도 대출자들의 변동금리 선호 경향은 오히려 더 강해지고 있다. 7월 예금은행의 가계대출 신규취급액 중 변동금리 비중이 82.2%로 전월(81.6%)보다 0.6%포인트 증가한 셈이다.   가장 큰 원인은 여전히 고정금리가 변동금리보다 약 0.4%포인트 더 높기 때문이다. KB국민·신한·하나·우리은행의 주담대 혼합형(고정형) 금리는 지난 8일 기준 연 4.450∼6.426%, 변동금리(신규 코픽스 연동)는 연 4.070∼6.330% 수준이다. 실제 대출자들이 주거래은행에서 상당 폭의 우대금리를 적용받고 범위 하단에 가까운 금리로 돈을 빌리는 점을 고려하면, 고정금리와 변동금리의 차이는 약 0.38%포인트에 이른다.     사진=게티이미지뱅크    KB국민·신한·하나·우리·NH농협은행의 지난 8일 기준 주담대 변동금리는 4.07~6.33%로 집계됐다. 오는 15일 변동금리 산정의 지표가 되는 코픽스가 발표되면 이미 상단이 6% 중반대로 올라선 주담대 변동금리가 또 뛸 수 있는 상황이다.   이달 코픽스는 3%대를 넘어설 것으로 예상된다. 한국은행의 기준금리 인상과 예대금리차 공시 등의 영향에 은행권의 정기예금 금리가 오르고 예·적금 잔액도 늘어서다. 코픽스는 지난달에도 정기예금 및 금융채 금리 상승 등의 영향으로 전월 대비 0.52%포인트 오른 2.90%를 기록했다. 2013년 3월(2.85%) 이후 가장 높은 수준일 뿐 아니라 상승 폭 또한 사상 최대였다.   변동금리 비중을 낮추기 위해 정부와 한은은 출자를 통해 내년까지 2년 동안 45조원 규모의 안심전환대출 상품을 공급할 예정이다. 정부는 안심전환대출 사업이 차질없이 진행되면 가계대출 변동금리 비중(잔액 기준)이 72.7%까지 떨어질 것으로 기대하고 있다.   가계의 이자 부담을 줄이기 위한 정부의 노력에 발맞춰 인터넷전문은행들도 서민금융상품 출시 및 저금리 대환 상품을 잇달아 출시하고 있다. 토스뱅크는 올 하반기 중 서민금융상품인 ‘햇살론뱅크’를 출시할 예정이다. 정부의 햇살론15(금리 연 15.9%)보다 낮은 금리를 제공하는 변동금리 상품으로, 최대한도는 2500만원이다. 앞서 카카오뱅크는 2020년 10월 햇살론15를 출시한 이후 지난달까지 총 1668억원을 공급했다.   케이뱅크와 토스뱅크는 올 하반기에 연 7% 이상의 고금리 대출을 받은 자영업자·소상공인이 연 6.5% 이하 대출로 갈아탈 수 있도록 저금리 대환대출 상품(신용보증기금 지원) 출시도 앞두고 있다. 대환 한도는 개인사업자는 5000만원, 법인 소기업은 1억원이며, 2년 거치 후 3년간 분할 상환할 수 있다.   ◆내년 예산 절반 이상 ‘의무지출’…고령화 최대원인   내년부터 국민연금, 공무원연금처럼 법적으로 지급 의무가 있는 지출(의무지출)이 전체 예산에서 차지하는 비중이 절반을 넘어선다. 특히 인구 감소가 ‘최악의 시나리오’로 진행될 경우 2060년에는 의무지출 비중이 80%에 육박할 것이란 전망이다.     기획재정부. 뉴스1    12일 기획재정부가 최근 발표한 2022∼2026년 국가재정운용계획을 보면 내년 예산안 총지출 639조원 중 의무지출은 341조8000억원으로 전체의 53.5%에 달한다.   의무지출은 국민연금·공무원연금·사학연금·군인연금 등 4대 공적연금과 건강보험, 지방교부세, 지방교육재정교부금 등 법에 지급 의무가 명시돼 있어 정부가 임의로 줄일 수 없는 예산이다. 예산 중 의무지출 비중이 커질수록 정부가 정책 의지를 발휘할 수 있는 재량지출은 줄어든다. 재량지출 중에서도 쉽게 줄일 수 없는 국방비, 인건비 등을 제외하면 사실상 ‘재정 여력’은 더욱 쪼그라들 수밖에 없다. 올해부터 2026년까지 의무지출 증가율은 7.5%이지만, 재량지출 증가율은 연평균 1.5% 수준에 그칠 것으로 보인다.   의무지출 증가의 가장 큰 원인은 급격한 고령화에 따른 연금 지출 증가다. 의무지출 비율은 해마다 빠르게 증가할 것으로 보인다. 내년 53.5%를 시작으로 2024년 54.0%, 2025년 54.7%, 2026년 55.6%로 증가한다. 정부는 2020∼2060년 장기재정전망에서 ‘최악 시나리오’ 땐 2060년 의무지출 비중이 78.8%에 달할 것으로 전망했다. 정부의 정책 대응이 없어 현재의 인구 감소와 성장률 하락 추세가 이어진다는 가정하에 나온 수치다.   내년 의무지출 341조8000억원 중 대부분(91.1%)을 차지하는 것은 복지 분야 법정지출과 교부세·교부금 등 지방이전재원이다. 복지 분야 법정지출은 154조6000억원으로 의무지출의 45.2%다. 국민연금(36조2000억원)·공무원연금(22조7000억원)·사학연금(4조9000억원)·군인연금(3조8000억원) 등 4대 연금 지출이 67조7000억원으로 가장 많다.    구직급여(11조2000억원) 등 고용·노동 부문 지출이 22조1000억원, 기초연금(18조5000억원) 등 노인 부문 지출이 20조8000억원이다. 생계급여를 비롯한 기초생활보장제도 지출은 17조9000억원, 건강보험 지출은 12조원이다. 지방이전재원은 156조9000억원으로 의무지출의 45.9%다. 지방교부세가 75조3000억원, 지방교육재정교부금이 77조3000억원이다.   복지 수요와 국세가 늘면서 복지 분야 법정지출과 지방이전재원은 앞으로도 의무지출의 대부분을 차지할 전망이다. 다만 내년에는 지방이전재원이 복지 분야 법정지출보다 많지만, 2024년부터는 복지 분야 법정지출이 지방이전재원을 추월하게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>KG이니시스, 통합인증서비스 고도화</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011399020?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>기사내용 요약신한·KB·삼성패스 추가[서울=뉴시스] 김경택 기자 = 전자결제 전문기업 KG이니시스는 자사 '통합인증서비스'에 신한Sign인증서, KB모바일인증서, 삼성패스인증서를 추가한다고 2일 밝혔다. 이로써 통합인증서비스는 총 9개 민간인증서를 갖춰 간편인증과 전자서명을 위한 주요 인증서를 제공할 수 있게 됐다.KG이니시스에 따르면 회사는 지난해 6월 인증서 중계 서비스 '통합인증서비스'를 출시한 바 있다. 한 번의 연동으로 네이버, 카카오, 토스, 패스, 페이코 등 다양한 민간인증서 서비스를 통합 제공하는 서비스다. 웹 기반의 API(응용프로그램 인터페이스)로 쉽고 간편하게 연동이 가능하며, 인증서 업데이트 작업 시에도 별도 수정 연동이 불필요하다는 장점이 있다.KG이니시스 관계자는 "통합인증서비스는 별도의 프로그램 설치 없이 개인이 자주 사용하는 인증서의 애플리케이션 설치만으로 이용 가능하다"면서 "이번 서비스 고도화로 이용자가 9개 민간인증서 중 익숙한 인증서를 고를 수 있어 수요가 더욱 확대될 것으로 기대한다. 앞으로도 지속적인 서비스 업그레이드로 이용자 편의를 제고할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>“대출 연장할 때 변경금리 적용 날짜 유의하세요”</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003171763?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>A씨는 신용대출 만기일(7월27일)을 앞두고 대출금리를 2.0%에서 3.0%로 인상하는 조건으로 7월6일 대출기간을 1년 연장했다. A씨는 변경 금리(3.0%)가 28일부터 적용될 것으로 기대했으나, 은행은 변경금리를 대출연장이 실행된 6일부터 적용했다. 만기보다 21일이나 먼저 3.0%가 금리가 적용되면서이 기간동안 기존보다 1.0% 금리를 더 부담하게 됐다.금융감독원이 7일 ‘금리상승이 대출 연장 시 유의사항 안내’ 자료를 통해 A씨와 같은 소비자들에게 은행에서 대출을 연장할 때는 변경 금리를 적용되는 시점에 유의할 것을 당부했다. 금감원은 “금리 상승기에는 변경 금리를 만기일보다 대출 연장 실행일부터 적용받는 것은 더 불리할 수 있다”고 밝혔다.대출 연장 시 변경금리가 적용되는 시점은 만기일, 대출연장 실행일 혹은 만기일과 대출연장 실행일 중 고객이 직접 선택 가능한 방식으로 구분된다.대면 채널을 통해 대출 연장을 하는 금융사 중 우리은행 등 12개 사가 만기일을 적용하고 있으며, 광주은행과 제주은행은 대출 연장 실행일을 적용하고 있다. 대구은행은 대출 연장 실행일과 만기일 중 선택이 가능하다. SC은행은 대출 연장 신청이 대면 채널에서만 가능하며 카카오뱅크, 토스뱅크, 케이뱅크는 비대면 채널에서만 대출을 연장할 수 있다.금감원은 “금융기관에서 대출을 연장할 때는 해당 금융기관이 변경금리를 적용하는 일자를 직원에게 문의하는 등 꼼꼼히 확인해야 한다”며 “금융기관이 변경금리를 대출연장 실행일부터 적용하는 경우, 금리 상승기에는 대출연장 실행일을 만기일까지 가급적 늦추는 것이 유리할 수 있다”고 조언했다.비대면(온라인)을 통해 대출연장을 신청하는 경우에도 온라인상의 변경금리 적용일자를 반드시 확인해야 한다. 예를 들어 케이뱅크의 경우 비대면(온라인)화면에서 변경금리를 대출연장 실행시점에 바로 적용하는 방식과 만기일에 적용하는 방식 중에서 소비자가 직접 선택할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>[금융 플랫폼 전쟁]금융사, '슈퍼앱'으로 빅테크 잡을까</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000010365?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>계열사 서비스 한 자리에…지주 운영 가능플랫폼 사업 속도…비금융 융합 관건전통 금융사(은행‧보험‧카드 등)들과 비금융사(빅테크‧핀테크 등)간 금융 플랫폼 전쟁이 시작됐다. 금융당국이 금융 플랫폼 발전을 위해 규제 문턱을 낮추며 각 업계가 원하던 신사업이 가능해졌기 때문이다. 금융규제 혁신으로 금융사들이 갖게 될 신사업 기회와 전망, 향후 과제 등을 알아본다. [편집자]'기울어진 운동장' 지난 몇 년간 금융사들이 정부의 금융정책을 비판할 때 외치던 말이다.금융당국으로부터 신사업에 대한 허가를 얻어야 하는 전통 금융사(은행‧보험‧카드사 등)와 달리 빅테크‧핀테크 기업들은 IT기술을 바탕으로 금융 시장에 손쉽게 진출했다. 금융사 입장에선 가만히 앉아 시장을 뺏긴 셈이다.취임 전부터 금융규제 완화를 통해 금융의 BTS 탄생을 강조한 김주현 금융위원장은 최근 2차 금융규제혁신회의를 갖고 구체적 밑그림을 공개했다. 금융사들이 원하던 신사업 문턱을 낮추고 빅테크‧핀테크 기업과 마찬가지로 통합 서비스앱 운영이 가능해졌다.금융사들은 플랫폼 사업 추진에 동력을 얻은 것으로 평가하며 환영하는 분위기다. 전문가들은 규제 완화 기회를 살리기 위해선 비금융 서비스를 어떻게 결합하느냐가 향후 금융 플랫폼 경쟁력을 결정할 것으로 전망했다.흩어졌던 금융앱, 지주가 묶는다국내 은행들은 그동안 통합 앱 구축으로 계열사 간 연계 서비스 기반을 마련하고 비금융 서비스와 협업을 통해 API 서비스 체계를 확대했다는 평가를 받는다. 반면 빅테크에 비해 오픈형 협업은 제한적이고 금융정보를 활용한 데이터 서비스 범위와 기반을 넓혀야 한다는 과제를 안고 있는 상황이다.이에 금융당국은 '디지털 유니버설 뱅크' 구축이란 구체적 목표 아래 은행들이 플랫폼 사업을 확장할 수 있도록 규제 문턱을 낮추기로 했다. 부수업무 해당여부를 유연하게 해석하고, 통합앱을 통해 보험과 카드, 증권 등 계열사 서비스를 제공할 수 있도록 법적 불확실성을 해소한다.특히 계열사에게 고객정보를 제공할 때 부수‧겸영업무 신고 등 별도 절차 없이 허용하기로 했다. 그동안 빅테크‧핀테크 등은 고객 동의를 받으면 정보 활용이 자유로웠던데 반해 은행은 정보 공유 문턱에 막혀 있었다. 이와 함께 보험은 헬스케어 금융플랫폼 구축 지원을, 카드는 생활밀착 금융플랫폼 지원을 위해 관련 규제를 없애기로 했다. ▷관련기사: '은행도 다른 사업 쉽게'…금융앱 플랫폼으로 키운다(8월23일)/그래픽=유상연 기자 prtsy201@금융권에선 영리사업을 하지 못하던 지주사가 통합앱을 직접 운영할 수 있도록 허용하는 방안에 주목하고 있다. 은행을 중심으로 금융사들은 별도 앱을 운영하거나 통합앱을 운영해도 빅테크‧핀테크에 비해 고객 편의성이 부족하다는 단점이 있었는데, 지주가 통합앱을 직접 운영하면 이같은 단점을 해결할 수 있는 까닭이다.금융위는 지주사가 통합앱 기획‧개발과 관리‧유지 업무 등을 위탁받아 수행할 수 있도록 허용하고, 중장기적으로는 법령 개정으로 통합앱을 직접 운영할 수 있도록 허용하는 방안도 검토할 방침이다.이형주 금융위 금융산업국장은 "지주는 영리업무를 하지 못하는데 (통합앱 운영이)영리업무에 해당하지 않는다면 가능하도록 할 것"이라며 "통합앱 운영이 영리업무에 해당해도 운영이 가능하도록 하는 방안도 추진할 것"이라고 말했다.테크에 밀린 금융사, 따라잡을까그동안 금융사들은 계열사별로 앱이 흩어지고, 고객 정보 공유도 자유롭지 못하다는 점에서 전통 금융사들의 앱은 빅테크‧핀테크와의 경쟁에서 밀려있던 게 사실이다.컨슈머인사이트가 조사한 주요은행 앱 확보고객 비율 결과를 보면 토스가 34.8%로 가장 많다. KB스타뱅킹과 신한쏠(SOL) 등 계열사 앱 서비스 접근성을 높여 경쟁력을 강화하고 있지만 토스와 카카오뱅크 등에는 밀리는 게 사실이다.이같은 상황에서 금융앱의 플랫폼 발전 걸림돌이던 통합앱 운영과 계열사 고객 정보 공유 등이 가능해진 만큼 금융권에선 관련 사업에 추진력을 얻은 것으로 평가하고 있다.한 금융지주 관계자는 "지주사들이 통합앱을 운영할 수 있도록 불확실성을 없앤다는 부분에서 리스크를 줄일 수 있고, 그동안 빅테크‧핀테크 기업들만 가능했던 계열사 간 정보 공유가 가능하다는 점에서 기대가 크다"며 "그동안 규제를 피해 플랫폼 사업을 추진해왔지만 앞으로는 규제없이 플랫폼처럼 나아갈 수 있을 것"이라고 말했다. 금융사들이 규제 완화를 바탕으로 플랫폼 금융 경쟁력을 높이기 위해선 금융을 넘어 플랫폼 상에서 비금융 서비스를 어떻게 접목시키느냐가 관건이 될 전망이다.익명의 한 금융권 관계자는 "금융앱이 제공하는 서비스 범주가 넓어질 수 있다는 점은 기대할만 하다"면서도 "비금융 분야는 어디까지 가능한지 등 구체적인 내용이 나와야 향후 경쟁력을 가늠할 수 있을 것"이라고 설명했다.구본성 한국금융연구원 선임연구위원은 "정보 공유 제약 요인이 없어지면 금융사들의 플랫폼 전환에 있어 효율성과 신속성에 도움이 될 것으로 보인다"며 "다만 플랫폼 특성상 금융 서비스가 출발점은 아닌 만큼 소비자 니즈를 담은 비금융과의 융합이 필요하다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>'농협·신한·우리·BNK' 회추위 계절이 돌아왔다</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000010425?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>경영능력 검증한 손병환…관출신으로 바뀔까조용병 3연임 유력…부회장 신설에 관심법적리스크 벗은 손태승…포트폴리오 완성 과제김지완 떠나는 BNK…후임은 안일까 밖일까일부 금융지주 최고경영자(CEO)들의 임기만료가 다가오는 가운데, 금융지주들이 차기 회장 선출을 위한 회장후보추천위원회를 조만간 출범시킨다. 아직 시간여유가 았지만 롱 리스트를 일찌감치 확보해 차기 회장후보군을 추리기 시작한다는 계획이다. 금융권에서는 뉴페이스가 등장할지 올드보이들의 집권이 이어질지가 관심이다.15일 금융권에 따르면 올해 12월 31일 손병환 농협금융지주 회장의 임기가 종료된다. 이후 내년 3월에는 조용병 신한금융지주 회장, 손태승 우리금융지주 회장, 김지완 BNK금융지주 회장의 임기가 끝난다./그래픽=김용민 기자 kym5380@농협금융지주, 손병환 교체할까 유임시킬까가장 먼저 임기가 종료되는 손병환 농협금융지주 회장의 경우 농협중앙회의 의중이 가장 크게 달렸다는 관측이다.2020년말 김광수 전 농협금융지주 회장이 은행연합회 회장으로 자리를 옮기자 농협금융지주 회추위는 손병환 현 회장을 구원투수로 점찍고 2021년부터 그에게 농협금융지주를 맡겨왔다. 임기는 2년으로 올해 12월 임기가 종료된다. 겉으로 보이는 실적면에서는 합격점을 받을만 하다. 취임 첫 해였던 지난해에는 2조2919억원의 순익을 달성하는데 성공했다. 전년대비 32% 증가하며 연간 기준 최대 실적을 썼다.올해도 승승장구중이다. 올 상반기까지 농협금융지주는 1조3505억원을 벌었다. 반기 기준 역대 최대 실적이다. 특히 지난해 실적 상승을 견인했던 NH투자증권이 올해 상반기 주식시장 한파로 인해 주춤했다는 것을 감안하면 손 회장의 경영능력이 발휘됐다는 평가가 가능하다.그간 농협금융지주는 회장들에게 2+1년의 임기를 보장해줬다. 때문에 실적만 따져본다면 손병환 농협금융지주 회장에게 한차례 연임 기회를 줄 가능성이 있다.관건은 정권이 바뀌었다는 점이다. 농협금융지주는 지분 100%를 가지고 있는 농협중앙회의 의중이 절대적이다. 농협중앙회가 정부와 코드를 맞추기 위해 관 출신 인사를 농협금융지주 회장 자리에 앉힐 가능성이 있다는 분석이다.실제 농협금융지주가 농협중앙회로부터 분리한 이후 회장단의 면모가 이를 보여준다. 첫 농협금융지주 회장에 이름을 올린 신충식 전 회장의 경우 중앙회 출신으로 조직의 안정을 위해 회장자리에 올랐다. 이후 1년도 되지 않아 물러났다.이후에는 줄곧 관 출신 인사가 지주 회장 자리를 맡았다. 신동규(행시 14회), 임종룡(행시 24회), 김용환(행시 23회), 김광수(행시 27회) 전 회장단 대부분이 고위공무원 출신이다. 농협 출신인 손병환 회장의 취임이 오히려 이례적이었다.금융권 고위 관계자는 "농협금융지주가 출범했지만 여전히 농협중앙회의 입김이 강하다"라며 "농협중앙회가 정부와의 소통 강화를 위해 지주 회장에 색깔이 맞는 관 출신 인사를 깜짝 임명할 가능성을 배제하기 힘들다"고 설명했다. 그는 다만 "손병환 회장이 이성희 농협중앙회장의 측근이라는 점은 고려해야 한다"고 덧붙였다.3연임 가능성 높은 조용병…부회장직 신설할까내년 3월 임기가 종료되는 조용병 신한금융지주 회장의 경우 연임이 유력한 것으로 평가받고 있다. 질적으로는 적극적인 M&amp;A로 전 금융권을 아우루는 포트폴리오를 완성시켰다. 양적으로는 신한금융지주의 실적성장을 이끌면서 지난 2분기에는 KB에게 내줬던 리딩금융그룹 자리도 되찾았다.관심은 조용병 회장이 이후 후계구도를 어떻게 만들 것이냐로 쏠린다. 올해 12월이면 신한금융지주의 주력계열사인 진옥동 신한은행장과 임영진 신한카드 사장의 임기가 종료된다. 최근 금융지주 계열사 CEO들이 젊어진다는 점을 고려하면 이들이 좋은 경영실적을 보여줬더라도 연임을 확신하기는 어렵다는게 금융권의 중론이다. 진옥동 신한은행장은 1961년생, 임영진 신한카드 사장은 1960년생으로 다른 금융지주 주요 계열사 CEO보다 2~3살 많다.금융권에서는 조 회장이 경쟁 금융지주처럼 부회장직을 신설해 후계 구도를 만들 것인지 여부를 주목하고 있다. 과거 김정태 전 하나금융지주 회장은 부회장 자리를 3자리로 늘려 능력을 검증했고 그 결과 함영주 현 회장이 자리를 물려받았다. 윤종규 KB금융지주 회장 현재 허인, 양종희, 이동철 3인 부회장 체제를 가동중이다.익명을 요구한 신한금융지주 관계자는 "진옥동 행장과 임영진 사장의 경우 유력한 회장 후보군이지만 조 회장의 연임 가능성이 더 높다"라며 "아직 일선에서 물러나기에는 이른 만큼 다른 금융지주처럼 부회장 자리를 통해 자연스러운 경영 승계프로그램을 만들 가능성도 있다"고 전했다. 법적 리스크 벗어난 손태승, 포트폴리오 강화 과제내년 3월 임기가 종료되는 손태승 우리금융지주 회장 역시 연임을 노리는 것으로 알려진다. 금감원의 중징계에 대해 적극적으로 행정소송에 나선 점 등이 이를 뒷받침한다는 평가다. ▷관련기사 : '마음의 짐' 던 손태승…DLF 중징계 2심서 승소금융당국과의 소송은 일단 승소하면서 법적리스크는 덜어내고 있다. 여기에 더해 일단 금융당국과의 관계도 회복되는 모습이다. 이복현 금융감독원장이 지난달 기자간담회에서 "모든 건에 대한 책임을 묻는다면 정상적인 운영이 안 되고 경영자들이 소극적으로 금융기관을 운영할 수밖에 없을 것"이라고 말하면서다.손 회장은 우리금융지주 설립후 아주캐피탈, 아주저축은행 등 계열사를 강화했다. 우리금융 완전 민영화와 올해 상반기 1조7614억원의 역대 최대 당기순이익을 실현하는 등 경영성과도 좋다. 다만 손 회장이 꾸준히 강조해 왔던 증권사와 보험사의 M&amp;A가 지지부진하다는 점은 아쉬운 지점으로 지적된다. 증시 침체와 금리 상승 등 금융시장 환경이 급변하면서 다른 금융지주들과 경쟁할 포트폴리오 구축 과정에서 신중한 행보를 보인 결과다.금융권 관계자는 "증권사 M&amp;A를 강조한 이후 마땅한 매물이 없으면 우리종합금융의 증권사 전환 등의 차선책이라도 마련하는 움직임이 있어야 했다"며 "카카오페이, 토스 등 빅테크 기업이 증권업계에 진입해 리테일 부분에서 의미있는 실적을 내고 있는 점과 비교될 수 있다"고 전했다.이와관련 손 회장은 올초 같은 한일은행 출신으로 지주사 설립부터 호흡을 맞춘 이원덕 전 우리금융지주 부사장을 우리은행장으로 임명했다. 손 회장과 이 행장이 남은 기간 포트폴리오 강화를 위해 어떤 행보를 보일 것이냐도 주목해야 한다는 관측이다. BNK지주, 코드인사 아니면 부산은행 출신?지방금융지주 중에는 김지완 BNK금융지주 회장의 임기가 내년 3월 종료된다. 김지완 회장이 1946년생의 고령이라는 점을 고려하면 사실상 연임은 어렵다.이에따라 정부와 코드가 맞는 인사가 후임으로 올 것인지, 아니면 금융지주 주력인 부산은행 출신이 기용될 것인지에 관심이 쏠린다.이같은 해석이 나오는 이유는 바로 김지완 회장의 임명이 이례적이었기 때문이다. BNK금융지주의 전신 BS금융지주 초대회장인 이장호 전 회장, 성세환 전 회장 모두 부산은행 출신이었다.이후 2017년 성세환 회장이 물러나면서 BNK금융지주는 김지완 회장을 깜짝 발탁했다. 김지완 회장은 부국증권 대표, 현대증권 대표, 하나대투증권 대표, 하나금융지주 부회장 등을 지낸 정통 금융인이지만 BNK금융지주가 지방금융지주라는 특성에도 불구하고 내부 출신 인사를 기용하지 않았기 때문이다.특히 이 과정에서 김지완 회장이 노무현 전 대통령과 부산상고 동문이었고 문재인 전 대통령의 대선후보 캠프에서 경제고문으로 참여했다는 점을 고려하면 그의 금융이력과 별개로 정치권의 코드인사가 내정된 것이 아니냐는 말이 무성했다.일단 현재 BNK금융 내부에서는 안감찬 부산은행장과 이두호 BNK캐피탈 대표를 유력한 차기 회장 후보로 거론되고 있다. 주력 계열사를 이끌고 있을 뿐만 아니라 금융지주 비상임이사로 지주 전체의 경영에도 참여하고 있어서다.익명을 요구한 BNK금융지주 관계자는 "차기 회장을 두고 벌써부터 말이 무성하다"며 "부산은행 출신을 또 기용할 것인지 아니면 경남은행 출신에게도 기회를 줄 것인지에 대해 의견이 오간다"고 설명했다. 그는 다만 "현재로선 경남은행 출신 인사 중에는 유력인사가 있다고 보기는 어렵다"며 "여당 강세지역인 부산 특성상 정치권 코드인사가 단행될 가능성도 제기되고 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>"플렉스·욜로는 옛말" 무지출챌린지 넘어 강제저축까지</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000850916?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>강제저축 상품이 금융소비자들의 관심을 끌고 있다./사진=이미지투데이 고물가와 고금리가 겹치면서 '무지출챌린지'에 참여하는 사람이 늘고 있다. 이처럼 서민들의 주머니 사정이 팍팍해졌지만 친지 용돈과 선물 구입, 외식비 등 지출이 늘어날 수밖에 없는 추석 명절을 위해 '강제저축'에 나선 금융 소비자들이 늘고 있다.12일 금융권에 따르면 금융소비자들의 인기를 끌어모으고 있는 강제저축 상품은 카카오뱅크의 '26주 적금'이다.카카오뱅크 26주 적금은 1000원부터 1만원까지 총 5가지 적금 시작 금액을 정해 가입하면 26주 동안 매주 첫 납입액만큼 늘어난 금액이 자동으로 저축되는 상품이다. 카카오뱅크는 최근 26주적금 금리를 0.20%포인트 인상해 26주 동안 자동이체 성공 시 0.50%포인트의 우대금리를 제공, 최대 연 3.70%의 금리가 적용된다.가입 기한이 6개월 수준으로 짧은 데다 최저 가입금액도 1000원으로 낮아 금융소비자들이 저축하는데 진입장벽이 낮은 편이다. 여기에 기한 내 꾸준히 납입하면 우대금리를 제공해 강제저축을 할 수밖에 없는 상황을 조성함으로써 목돈을 모으는 보람을 느끼게 했다.토스뱅크의 '키워봐요 적금'도 강제저축 상품으로 눈길을 끌고 있다.  '키워봐요 적금'은 토스뱅크의 출범 후 첫 적금 상품으로 6개월 만기 시 최고 3%의 금리를 제공한다. 납부 한도는 월 최대 100만원이며 매주 1000원부터 20만원까지 납입할 수 있다.'키워봐요 적금'은 가입 시 지급된 동물의 알이 이튿날 부화되면서 6개월 동안 열 단계에 거처 자란다. 동물은 유령, 거북이, 문어, 망아지 네 종으로 랜덤 지급되며 매주 적금 자동이체 달성하면 최종 만기 시 전설의 동물로 진화한다.알이 동물로 진화하는 과정을 보기 위해선 긴 시간 인내하며 목돈을 만들어야 하는 재미 요소를 더했다.우리은행의 200일 적금도 눈여겨볼 만 하다. 이 적금은 200일간 매일 3만원 이하의 금액을 자동 적립하는 상품이다. 해당 상품의 유지 기간과 뱅킹 서비스 가입 유지 등 조건을 모두 충족하는 경우 최대 연 3.1%의 금리를 받을 수 있다.실제로 강제저축 가입 좌수는 꾸준히 늘고 있다. 카카오뱅크 26주 적금의 누적 신규 좌수는 1000만좌로 회사의 대표 상품으로 자리 잡았다. 올 6월 출시된 토스뱅크 키워봐요 적금도 누적 신규 좌수는 40만좌를 넘어섰다.은행권 관계자는 "무지출챌린지를 하면서 여유가 생긴 푼돈을 쏠쏠히 모으는 재미가 있다"며 "작심삼일을 방지하고 가입자의 성취감도 느낄 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>[인사이드 스토리]금융 슈퍼앱 등장?…'숙제가 많아요'</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000010255?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>금융위 '디지털 유니버설 뱅킹' 지원 사격 예고계열사 서비스 통합시 속도 등 구동성 저하 우려 구형 스마트폰 등 범용성 높이기도 난제은행 모바일 애플리케이션에서 계열 보험사, 카드사, 증권사 등의 서비스를 한 번에 누릴 수 있을 예정입니다. 지난달 금융위원회가 국내 금융사의 디지털 경쟁력 강화를 위해 이를 위한 규제를 개선하겠다고 나섰기 때문입니다.은행의 모기업인 금융지주 입장에서는 크게 환영하고 있습니다. 은행, 보험, 증권 등 전 금융권을 아우르는 포트폴리오를 갖고있는 금융지주 입장에서는 한 계열사 고객을 전 계열사로 확장할 수 있기 때문입니다. 이름하여 '금융 슈퍼앱'을 만들 수 있는 겁니다.동시에 고민도 클 겁니다. 다양한 계열사의 서비스를 한 데 모으면서 발생할 수 있는 애플리케이션 속도 저하 등 소위 말하는 '앱이 무겁다'라는 평가를 피해야 하는게 목표가 생겨서입니다. 금융서비스가 '빠르고 쉽고 안전하게'라는 수식어가 달라붙고 있는 만큼 이런 평가가 붙는다면 '금융 슈퍼앱'의 출시가 독이 될 수 있는겁니다.금융위, 금융 슈퍼앱 지원사격 시작금융위원회는 지난달 23일 제2차 금융규제혁신회의를 열고 은행의 '디지털 유니버설 뱅크'로의 도약을 지원하기로 했습니다.유니버설 뱅크란 은행, 증권, 보험 등 금융관련 서비스를 하나의 고객접점에서 제공하는 것을 의미합니다. 현재 우리나라는 같은 계열사간 고객정보 공유가 쉽지 않기 때문에 유니버설 뱅킹 실현이 사실상 불가능했습니다.그런데 금융위원회가 금융 경쟁력 강화를 위해 고객 동의 아래 이러한 정보를 계열사간 이동이 가능하도록 하겠다는 겁니다. 아울러 금융회사는 이를 하나의 애플리케이션에서 제공해 '원스톱 금융서비스'를 제공하는 플랫폼 회사로 도약할 수 있도록 해주겠다고도 했습니다.금융뿐만 아니라 부동산, 자동차 등 비금융업무에도 활용할 수 있도록 하겠다는 게 금융위의 계획입니다. 김주현 금융위원장은 이를 두고 '금융권의 BTS(방탄소년단)를 만들겠다'고 말했습니다. /표=유상연 기자 prtsy201@고민하는 개발자들① 이미 무거운데…금융지주 입장에서는 환영할 만한 일입니다. 그런데 정작 실무진들은 고민이 많다고 하네요. 전 계열사의 금융서비스와 비금융서비스를 하나의 앱에서 제공하면서 △편리하고 △쉽고 △안전하게 라는 세 가지 키워드를 모두 만족시키기가 쉽지 않을 것이란 이유에서입니다.가장 큰 고민은 '무겁다'라는 고객들의 평가라는 전언입니다. 흔히 우리가 스마트폰에 앱을 설치하고 원하는 앱을 실행하는 순간부터 원하는 서비스를 다 누리기까지의 시간이 길어진다면 '무겁다'라는 평가를 합니다. 모바일 앱 개발자는 "통상 앱의 크기가 크거나 사용시 램 점유율이 높아 로딩 시간이 길어지는 경우를 무겁다라고 평가하는데 앱 사용자들이 중요하게 여기는 평가요소 중 하나"라고 설명했습니다.그럼 현재 은행앱은 어떨까요. 현재 은행앱도 결코 가볍지는 않습니다. 특히 오픈뱅킹, 마이데이터 서비스의 시작 등으로 인해 은행앱에서 누릴 수 있는 서비스가 많아지면서 점점 고객들이 '로딩화면'을 바라보는 시간이 길어지고 있습니다.예를 들어볼까요? 램 12GB사양의 스마트폰 단말기에서 주요은행의 뱅킹 앱 실행 이후 램 점유율을 살펴봤습니다. 실행 시에는 사용중인 앱을 모두 정리 한 후 측정했습니다. 이 결과 △신한은행 쏠 377MB △KB국민은행 스타뱅킹 280MB △하나은행 하나원큐 268MB △우리은행 우리WON뱅크 244MB △토스 174MB △카카오뱅크 154MB 수준이었습니다. 물론 개인적인 측정인 만큼 오차는 감안해야 합니다. 감이 안오신다구요? 스마트폰 단말기의 능력을 최대한으로 활용하는 모바일게임과 비교해보면 이 점유율이 어느정도인지 감이오실 겁니다. 9월 5일 구글플레이스토어 최고매출 1위 리니지M부터 9위 로블록스까지 실행시 사용하는 램 점유율은 300MB에서 400MB정도로 확인됐습니다. 다시 말해 은행앱은 웬만한 모바일 게임만큼 스마트폰의 리소스를 활용한다고 볼 수 있겠네요.여기에 더해 은행앱은 금융 서비스를 이용할 때 이미 스마트폰에 설치된 데이터 뿐만 아니라 수많은 기관으로부터 정보를 실시간으로 받아오는 특성도 지닙니다. 이 과정에서 애플리케이션 외에도 다양한 데이터를 쌓아 휴대전화에 저장해둡니다. 저장해둔 자료가 많을수록 불러오는 속도도 더욱 길어지겠지요? 이러한 상황에서 은행외 전 계열사의 서비스를 한 데 모아 제공한다면 자연스럽게 앱의 용량과 램 점유율등이 늘어나게 되고 로딩시간 등이 길어질 가능성이 농후하다는 겁니다. 당장 가장 다양한 서비스를 제공하는 4대은행 모바일뱅킹앱의 램 점유율과 상대적으로 제공하는 서비스가 적은 토스, 카카오뱅크의 램 점유율이 차이가 나는 점이 이를 뒷받침 합니다. 한 앱 개발자는 "기능이 많을수록 앱은 무거워질 수 밖에 없다"라며 "이를 최소화 하기 위해서는 선택과 집중이 필요한데 전 계열사의 서비스를 한 곳으로 모으면서 이 논의가 쉽지는 않아보인다"라고 설명했습니다. 고민하는 개발자들② 모두가 최신 전화 쓰는건 아니야금융앱의 핵심은 '범용적'이어야 한다는 겁니다. 20대부터 60대까지 모바일뱅킹을 쓴다고 하니 모두의 휴대전화에서 원활하게 작동해야 겠지요.스마트폰을 바꾸는 주기가 3년 정도라고하니 10년도 더 된 스마트폰을 쓰는 사람은 없겠다라고 가정하고 앱을 개발할 수도 없습니다. 앞서 말했듯이 금융서비스는 그 누구에게도 접근성이 높아야 하니까요. 구형 스마트폰을 쓰는 고객을 배제할 수 없는 노릇입니다. 현재 은행앱만 해도 안드로이드 OS를 사용하는 경우 삼성전자 단말기 기준 갤럭시S4, 아이폰은 아이폰4S를 사용해야만 사용이 가능합니다. 갤럭시S4는 2013년, 아이폰4S는 2011년 출시됐으니 10년가량 더 된 휴대전화에서도 원활하게 구동되야 한다는 얘기입니다. 현재 모바일 뱅킹앱에 더 많고 다양한 금융·비금융 서비스를 넣으면 구형 휴대전화를 사용하는 고객은 종전 '뱅킹'에만 집중해있던 앱을 사용할 때보다 더 사용환경이 뒤떨어질겁니다. 앱 자체를 구동하는데 필요한 휴대전화의 리소스가 많아지니까요.한때 카카오가 대표 서비스인 카카오톡에 쇼핑 등 다양한 서비스를 탑재하자 일부 소비자들은 "카카오톡이 수익성 확보를 위해 무거운 앱의 사용을 강제하고 있다"라는 불평불만이 나왔다고 합니다.금융 슈퍼앱이 탄생하면 이같은 상황이 되풀이될 가능성이 높습니다. 금융 슈퍼앱을 만들기 이전에 소비자들의 불편을 최소화 할 수 있는 금융회사 고민이 필요한 시점입니다. 지금 시대의 금융은 '편하고 쉽고 빠르고 안전하게' 누려야 하니까요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>토스·두나무의 공통점? 스타트업 투자무대 '디데이' 거쳤죠</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005016192?sid=105</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>100회 맞은 데모데이 디데이스타트업 투자유치 기회의 장유니콘 기업 성장 발판되기도나이·학력 따지지 않고 심사해지난해에만 1669개 기업 지원출전 기업엔 사무공간 등 제공지난달 25일 강원도 양양에 위치한 데스커 워케이션 센터에서 100회 디데이가 개최됐다. [사진 제공 = 디캠프] 우리나라의 대표적인 스타트업 데모데이 '디데이'가 100회째를 맞았다. 디데이는 은행권청년창업재단 디캠프(상임이사 김영덕)에서 2013년 6월부터 매월 진행해 온 스타트업 행사다. 벤처캐피털로 대표되는 벤처투자자들 앞에서 5~6개 스타트업이 투자유치를 위해 발표를 한다. 투자가 절박한 스타트업들에 이 같은 데모데이는 놓칠 수 없는 기회다. 디데이는 '스타트업'과 '데모데이'라는 단어가 생소했던 2013년 6월 시작됐다. 국내에서 가장 오래된 스타트업 데모데이 중 하나로 지금까지 536개 팀이 무대에 올랐다. 다른 데모데이가 액셀러레이터(창업기획자)들이 자신들이 보육한 스타트업을 벤처캐피털들에 공개하는 일종의 '졸업행사'라면 디데이는 국내외 초기 스타트업들이 국내외 투자자들을 대상으로 매월 개최하는 '패션쇼'와 같다. 매월 디데이는 다른 테마와 다른 후원기관으로 운영되기 때문에 특정 분야의 스타트업에만 기회가 한정되지 않는다. 올해에도 3월 디데이는 특허청, 발명진흥회, 기술보증기금과 함께 열렸고 4월에는 부산시, BNK부산은행과 함께 열렸다.   디데이에 등장했던 기업 중에는 유니콘(기업가치 1조원 이상 비상장 스타트업) 기업도 많이 나왔다. 2014년 4월에 출전했던 토스와 10월 출전한 두나무는 한국을 대표하는 유니콘 기업으로 성장했다.은행권청년창업재단의 특성을 살려 우수한 핀테크 기업들도 많이 배출됐다. 토스와 두나무를 포함해 뱅크샐러드(2014년 10월), 8퍼센트(2015년 2월), 삼쩜삼(2015년 11월), 캐시노트(2016년 7월), 핀다(2016년 8월) 등이 디데이를 거쳤다.탈잉(2017년 4월), 프레시코드(2017년 8월), 자란다(2018년 4월), 핏펫(2018년 5월), 구루미(2018년 8월), 더트라이브(2019년 5월), 세줄일기(2020년 2월), 콥틱(2020년 7월), 오늘학교(2021년 6월), 닥터나우(2021년 8월) 등이 디데이 출전 기업이다. 고피자와 엔씽은 디데이에 두 번이나 출전했다. 한국 최초로 설립된 가상화폐 거래소 코빗은 2013년 7월에 출전했고 2017년 넥슨에 인수됐다. 은행권청년창업재단 디캠프는 디데이에 지원하는 대표의 학력, 성별, 국적, 연령을 구분하지 않고 심사하고 있다. 모든 스타트업에 문이 열려 있는 셈이다. 이런 개방성과 함께 디데이의 명성이 높아지면서 지원 기업 수가 점차 늘고 있다. 2013년에는 지원 기업이 106개사에 불과했지만, 지난해 1669개 기업이 지원해 15배 이상 성장했다. 평균 경쟁률은 23대1에 달한다. 디캠프는 지역, 은행권, 대학 등에서 개최되는 데모데이에 참여해 약 2000개의 예비 지원사들을 만나는 중이다. 올해는 8월 기준으로 874개 기업이 디데이에 지원했다.역대 출전 기업을 보면 헬스케어가 54개사(10.2%)로 가장 많았고, 그다음 업무 생산성·비즈니스가 43개사(8.1%), 금융·보험 41개사(7.8%), 교육 31개사(5.9%), 콘텐츠 29개(5.5%) 순이었다. 디데이 출전 조건은 포스트밸류 100억원 미만의 시드~프리A 단계의 초기스타트업이다. 최근 5년간 디데이 본선 진출 294개사 중 절반이 넘는 171개(58%) 기업이 연차 2년 미만이었다.디데이에 출전한 기업은 벤처캐피털로부터 투자를 받는 기회뿐만이 아니라 다양한 특전을 얻을 수 있다. 먼저 디데이에 출전했다는 것 자체가 까다로운 예선심사를 통과했다는 뜻이다. 그 회차에서 우승했다는 것은 스타트업의 사업성을 떠나서 창업팀에는 큰 기쁨이 된다. 디캠프는 디데이 출전기업에 사무공간을 사용할 수 있는 기회를 제공한다. 서울 지하철 선릉역 인근의 디캠프와 공덕역 인근의 프론트원에 입주할 수 있다. 평균 입주 비율은 약 40%로 두 곳은 스타트업들이 가장 선호하는 보육공간이기도 하다. 디캠프, 한국성장금융, KDB산업은행은 올해 '프론트원 펀드'를 출범했다. '프론트원 청년창업리그' 펀드와 '프론트원 디데이리그' 펀드는 프론트원·디캠프와 관련된 기업에 일부를 투자하는 청년창업 초기창업기업 투자펀드다. 두 곳에 입주하거나 디데이에 출전한 기업이면 투자조건을 만족시킬 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.09.08.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[초동시각] 예대금리차 공시로 소비자가 얻은 것들</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005144752?sid=110</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>요즘에야 인터넷은행들까지 생기면서 은행도 여기저기 옮겨 다닌다고 하지만 불과 몇 년 전만 해도 주거래 은행은 좀체 바꾸지 않았다. 대학 캠퍼스 안에 있던 은행, 군 장병 시절 나라사랑카드를 발급받았던 은행, 첫 직장 월급을 넣어준 은행. 어쩌다 인연이 닿은 곳에 한 번 정착하면 10년, 20년을 쓰는 게 기본이었다. 결혼하고 '억' 소리 나는 아파트를 살 때쯤에야 금리 0.1% 따지며 옮겨타야 하나 말아야 하나 고민을 하는, 은행은 딱 그만한 존재였다.보통 사람들과 은행간의 일반적인 관계가 이렇게 형성된 이유는 '은행은 다 거기서 거기'라는 인식 탓이다. 상품도, 금리도, 지점도. 간판만 다를 뿐 그 속은 같다고 생각해 굳이 비교하고 갈아탈 일이 없었다. 그런데 최근 들어 이런 고정관념을 깰 계기가 생겼다. 인터넷에서 물건을 살 때 으레 거치는 '가격비교'처럼, 대출과 예금 금리를 한 화면에 보여주는 예대금리차 공시는 모든 은행이 다 똑같지 않다는 걸 증명했다. 우선 내가 자주 가는 A은행의 금리가 B은행과 C은행에 비해 낮은지 높은지 알 수 있게 됐다. 덤으로 금리의 행간까지 읽을 수 있게 됐다. 예대금리차가 가장 컸던 신한은행은 공시가 나자마자 "신용도가 낮은 취약계층에 연 15.9%의 금리로 대출해주는 햇살론을 은행권 최대 수준으로 공급한 결과"라며 해석을 붙였다. 인터넷은행 중에서 가장 예대금리차가 컸던 토스뱅크도 "중·저신용자 비율이 모든 은행 중 가장 높다"고 주석을 달았다. 누구 한 명 물어보지 않았는데 은행이 먼저 나서서 속사정을 이야기한 것은 전례 없는 일이다.겉은 예쁘지만 속은 신 레몬에 빗대, 중고차 시장의 판매자와 소비자 간 정보 비대칭 문제를 설명한 '레몬 시장' 이론이 있다. 노벨경제학상을 받은 조지 애컬로프 교수는 이 개념을 통해 "정보가 부족하면 효율적으로 자원이 배분되지 않아 시장 실패가 일어난다"고 했다. 그동안 금융 상품 정보를 은행이 독점하고 있었다는 점에서, 예대금리차 공시를 통해 사람들의 금융 생활이 과거와 사뭇 달라질 것이다. 몰랐던 정보를 얻게 되면서 사람들이 시간과 노력을 들여 가장 합리적인 소비를 하려는 '최적탐색행위'가 은행 거래에서도 이뤄질 수 있기 때문이다. 사람들이 정보를 지렛대 삼아 얻은 게 한 가지 더 있다. 은행들의 금리 인하 조치다. 예대금리차 1등만은 피하자는 마음으로 은행들은 어느 때보다 대출금리를 경쟁적으로 떨어뜨리는 중이다. 금리인상기에 최대실적을 낸 은행들이 미운털 박히기 싫어 내놓는 대책들이다. 동시에 지금 같은 경기침체 우려에 이자 부담까지 늘어난 서민들의 발등에 불부터 끌 수 있는 조치이기도 하다.'취약층 대출을 많이 해줘서' '주택담보대출보다 신용대출 수요가 많아서' '고정금리 대출을 권유해서' 그 결과 평균 대출금리가 올라갔고 예대금리차가 커 보이는 착시효과가 생겼다는 은행들의 억울함은 금리 게재 방법을 합리적으로 고쳐서 풀어주면 될 일이다. 사람들이 은행은 다 똑같지 않다는 것을 안 것만으로도 예대금리차 공시는 제 몫을 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.09.04.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>제각각 간편인증, 한방에 해결된다</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003681863?sid=105</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>과학기술정보통신부·한국인터넷진흥원, 13가지 주요 간편인증 서비스 모두 지원 '간편인증 통합모듈' 개발민간 인터넷 서비스 기업에 설치 지원 시범사업 실시 연합뉴스인터넷 사이트마다 각기 달랐던 '간편인증' 서비스를 하나로 통합할 수 있는 '모듈'이 개발됐다.과학기술정보통신부와 한국인터넷진흥원(KISA)은 13가지 주요 간편인증 서비스를 모두 지원하는 '간편인증 통합모듈'을 개발하고 이를 민간 인터넷 서비스 기업에 설치해주는 지원 시범사업을 벌인다고 4일 밝혔다.간편인증이란 인터넷 쇼핑몰이나 뱅킹 서비스 이용 때 긴 비밀번호 대신 PIN(개인식별번호)이나 얼굴 또는 지문 같은 생체정보, 패턴 등 간편한 방법을 통해 전자서명(인증)을 하는 서비스를 말한다.쉽고 편리하지만 각 사이트마다 토스, 페이코 등 간편인증 서비스를 적용해 이용자 입장에서는 해당 간편 서비스 앱을 일일이 설치해야 했다.이번에 과기부 등이 개발한 통합모듈은 이같은 간편인증 서비스를 하나로 통합해  인터넷 서비스 기업의 서버에 설치하는 것으로, 이용자들은 별도의 앱이나 소프트웨어를 깔 필요가 없다.통합 모듈이 지원하는 간편인증 앱은 페이코(PAYCO), 신한사인(Sign), 네이버, KB 모바일 인증서, 토스, 뱅크샐러드, 카카오, 하나 원사인(OneSign), 패스, S-패스, 드림인증, NH 모바일 인증서다.과기부는 통합 모듈의 보급을 위해 인터넷 서비스 기업들로부터 신청을 받아 40곳을 선정한 뒤 통합 모듈 설치를 지원하는 시범사업을 벌인다.선정된 기업에는 통합 모듈을 쉽게 설치·적용할 수 있도록 원격·현장 방문 컨설팅, 담당자 매뉴얼 교육 등도 제공할 예정이다.통합 모듈 지원 시범사업은 민간 기업이면 누구나 무료로 신청할 수 있으며 이달 5~30일 KISA에 이메일(helios914@kisa.or.kr)로 신청서와 관련 서류를 제출하면 된다.정부는 시범사업 후에도 통합 모듈의 보급을 점차 확대할 방침이다. 다만 구체적인 시기나 대상 등은 아직 결정되지 않았다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>[디지털 인재양성 대담] "강사 부족한만큼 교육플랫폼 활용 필수… 기업도 투자 참여해야"</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002753730?sid=105</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>프랑스 에꼴42 도입 '이노베이션 아카데미'로 동료학습 유도스스로 학습·답 찾으면서 '혁신 DNA' 갖춘 개발자로 길러야SW 전환기업은 내부인력 교육·재배치… '인재양성재단' 설립도시민 디지털 역량 길러줄 '평생교육'에는 IT전공·퇴직자 투입"매년 20만명씩 100만 디지털 인재를 키우면 청년실업부터 국민연금까지 모든 문제가 풀린다. 다만 정부뿐 아니라 큰 기업들도 돈을 내야 한다. 정부가 해주는 게 없다고 할 게 아니라 기업이 인재양성에 참여해야 한다." "100만 디지털 인재를 키우려 해도 당장 강사가 부족한 게 문제다. 교수 없는 동료학습과 플랫폼 기반 교육을 표방하는 에꼴42 모델을 유심히 볼 필요가 있다."디지털 인재 부족과 질적 미스매치로 산업계가 아우성을 치는 가운데, 강사가 부족해도 교육이 가능한 혁신 플랫폼을 중심으로 정부와 전통기업, IT기업을 연결하는 협업체계를 만들자는 아이디어가 제시됐다. 이를 통해 정부 '100만 디지털 인재양성 방안'의 빈 구멍인 '강사 부족' 문제를 해결하자는 것이다. 소피 비제 에꼴42 교장, 나연묵 이노베이션아카데미 학장, 조준희 한국SW산업협회장과 지난 1일 서울 강남구 마루360에서 대담을 진행했다.◇사회= 교재·교사·학비 없는 동료학습 방식의 SW(소프트웨어) 개발자 교육기관 이노베이션아카데미가 프랑스 에꼴42의 이념과 프로그램을 도입해 설립된 지 만 3년을 앞두고 있다. 소피 비제 에꼴42 교장의 방한목적과 에꼴42 운영상황이 궁금하다.◇비제 교장= 한국에 진작 왔어야 하는데 코로나 때문에 늦어졌다. 이노베이션아카데미 설립 과정부터 원격으로 지원해 왔다. 이노베이션아카데미(이하 42서울)가 에꼴42의 교육방식에 맞게 운영되는지, 운영에 어려움이 없는지 등을 논의하기 위해 한국에 왔다. 기관 운영과정에서 어려움이 있으면 돕고 협력할 수 있을 것이다. 42서울에서 배워가는 점도 많을 것 같다. 에꼴42는 전세계 26개 국에 47개 캠퍼스를 보유한 세계 최대 디지털 인재 교육 네트워크다. 일반적인 단기 개발자 교육 아카데미가 기술자를 빨리 양성해 공급하는 게 목적이라면 우리는 혁신 DNA를 갖춘 개발자를 양성하는 게 목표다. 이를 위해 기술적 능력뿐 아니라 배우는 방법을 배운다. 상품을 창의적으로 보완하는 능력도 키운다. 이런 것을 배울 수 있는 것은 교육방식이 독특하고 추상적이기 때문이다. 에꼴42의 교수법은 동료학습이다. 이 시스템 안에서 학생들은 스스로 학습하고 답을 찾으면서 협력을 배운다. 커뮤니케이션 능력과 비판적 사고, 문제해결 능력, 스스로 결정하고 조직하는 능력, 타인과 공감하는 능력을 배운다. 이 모든 것이 혁신에 필요한 능력이다. 에꼴42의 매직은 모두에게 열려있다는 점이다. 학교 입학 당시 학력, 나이 재정적 상황과 상관 없이 학생을 선발한다.우리 교육방식은 모여서 커뮤니케이션하고 도울 때 더 성과가 좋았다. 동료학습은 모이는 것이 정말 중요하다. 한국 정부가 IT 강국이 되고자 이노베이션아카데미를 직접 세우고 산업을 지원하는 점을 높이 산다. 한국 정부는 어떻게 미래를 그려나갈 지, 어떻게 투자하고 스타트업을 지원해야 하는지 잘 이해하는 것 같다. ◇사회= 최근 정부가 디지털 100만 인재 양성방안을 내놨는데, 대학과 이노베이션아카데미 교육현장에서 보는 인재 수요·공급 현황과 분위기는 어떤가.◇나연묵 학장= 코로나19로 인해 이노베이션아카데미도 어려움이 있었다. 사회적 거리두기 조치로 교육장이 부족해 학생들이 교대로 출석하기도 하고, 동료학습에도 지장이 있었다. 학생들이 커뮤니티를 만들고 온라인 교육도 진행해 큰 어려움은 피할 수 있었다.다행히 최근에는 상황이 완화돼서 학생들이 더욱 열심히 하고 있다. 개포캠퍼스가 430여 명, 서초캠퍼스가 360명 규모인데 이제 살아있는 캠퍼스라는 느낌이 든다. 현재 8차 교육생 선발을 위한 8기 1차 라피신(4주 집중 교육과정)이 340명의 교육생이 참여한 가운데 서초캠퍼스에서 진행 중이다.에꼴42는 3~5년 과정인데 우리는 2년 과정으로 설계됐다. 전세계 42캠퍼스 학생들이 일주일에 40시간 이상 집중적으로 공부해야 하는데 42서울에서는 더 열심히 해야 한다. 6개월에서 최장 2년까지 공부해야 에꼴42에서 요구하는 공통과정을 마칠 수 있다. 학생들은 서둘러 취업하고자 하는 욕구도 있을 텐데 전공자는 6개월 이상, 비전공자는 1년 6개월에서 2년을 들여 공통과정은 마쳐야 엘리트 개발자가 될 수 있다고 설명하고 있다. 학생들의 열의도 높아지는 것 같다. 기업들은 SW 개발자가 부족하다고 아우성이다. 디지털전환이 본격화되고, 클라우드·AI(인공지능) 같은 신기술 기반 신산업이 폭발적으로 성장하고 있다. 신산업 영역에서는 '네카라쿠배당토(네이버, 카카오, 라인플러스, 쿠팡, 배달의민족, 당근마켓, 토스)' 중심으로 개발자 수요가 급격히 늘어나고, 자동차, 조선 등 일반기업도 디지털전환을 하다 보니 실리콘밸리에서 일어나던 개발자 쟁탈전이 우리나라에서도 본격화되고 있다. 이런 상황에서 이노베이션아카데미에서 기초가 튼튼한 엘리트급 개발자를 양성하는 것은 의미가 크다. 특히 교육시스템이 독특하다. 자기주도적 학습을 통해 스스로 문제를 푸는 인재로 크니 기업들로부터 자기문제 해결 능력이 뛰어나다는 평가를 받는다. 그게 에꼴42가 추구하는 자기주도 학습의 효과라고 본다. ◇사회= SW 산업현장의 개발자 부족현상 정도는 어떤가. 정부가 발표한 100만 디지털 인재 양성방안에 대한 평가도 궁금하다.◇조준희 회장= 인력이 부족한 정도가 아니라 대란 수준이다. 그런 상황에서 정부가 내놓은 디지털 인재 육성방안은 SW산업협회장으로서 너무 환영할 만한 일이다. 초중고의 정보교육 시수 2배 확대와 의무화부터 비전공자 교육까지 망라한 SW 인재양성 방안이 발표된 것은 이번이 처음이다. 국무총리가 직접 챙기고 교육부, 과기정통부, 중기부까지 아우르는 종합대책을 내놓는 것도 SW 정책이나 제도와 관련해 일한 지난 3년 6개월간 처음 봤다. 국무총리가 현장방문을 두번 했는데 그때 건의한 내용도 대부분 반영됐다. 정부가 이렇게 할 수 있구나 하고 놀랐다. 계획이 매우 촘촘하고 거창한 만큼 실행이 관건이다. 2026년까지 100만명을 키우는 것이 정부의 예산 집행과 기업들의 노력으로 어느 정도 되겠지만 당장 강사가 부족한 게 문제다. 돈을 투입해도 강사가 없으면 안 된다. 그런 점에서 에꼴42 모델을 유심히 볼 필요가 있다. 이노베이션아카데미에 강사의 오프라인 교육이 없는 것은 놀랍다. 에꼴42의 교육 모델이 확산된다면 인력난 해소에 크게 기여할 것이다.디지털 전환으로 대기업들이 전부 SW기업이 되려 한다. SW기업이 되려면 많은 SW 인력이 필요한데, 기존 SW업계 종사자들을 데려가려고만 하지 말고 대기업에 있던 엔지니어를 SW 엔지니어로 전환해야 한다. 핵심 인력의 이직은 중소·벤처기업에는 존폐에까지 영향을 미칠 수 있다, 대기업은 기존 인력을 퇴직시키지 말고 디지털 역량을 쌓도록 재교육해 재배치하는 노력도 해야 한다. 현대차를 예로 들면 엔진, 트랜스미션 등을 만드는 기존 엔지니어들에게 SW를 가르치는 것이다. 혹자는 경기위축으로 SW 인력이 더이상 부족하지 않을 것이라고 얘기하는데 착각이다. 현대차만 해도 SW기업을 선언했으니 1000명 정도는 인력이 필요할 거다. 에꼴42가 개발자를 좀더 짧은 기간에 양성하면 기업이 이를 이어받아 추가교육을 하는 프로그램도 좋겠다. ◇비제 교장=인재부족 위기가 심각하지만 인재 양성에는 시간이 필요하다. 그리고 그 시간은 학생들마다 차이가 있다. 에꼴42의 교육철학은 학생들이 배우는 방법을 배우도록 하는 것인데, 우리 시스템에서는 학생들이 각자 리듬대로 배울 수 있다는 장점이 있다. 본인이 원하는 만큼 본인의 리듬대로 성과를 낼 수 있는 시스템이다. 소질이 있으면 공통과정을 2년이 아닌 6개월 만에도 끝낼 수 있다. 우리 사회가 필요로 하는 게 기술자만은 아니라고 본다. 에꼴이 추구하는 것은 혁신을 일으킬 수 있도록 더 멀리 나아가는 것이고, 그 과정에서 어느 정도의 인내가 필요한 것 같다. 산업 수요를 단기간 충족시키고 채용으로 이어지는 것도 필요하지만 정말 뛰어난 인재를 양성하는 게 우리의 목표다. ◇사회= 정부 디지털 인재 양성방안과 관련한 이노베이션아카데미 확대 방안이 궁금하다. ◇나연묵 학장= 42서울에서는 컴퓨터사이언스 학·석사 정도의 실력과 지식을 갖춘 인재를 자기주도적 학습으로 양성하니 시간이 걸린다. 다만 전공 여부에 따라 차이가 있긴 하다. 전공자는 6개월 만에 공통과정을 마친 경우도 있고 비전공자는 1년 6개월 정도 걸린다. 기업들의 평가에 따르면 42서울 출신 학생들의 수준도 차이가 큰데 이는 공통과정을 마치기 전에 취업하기 때문이다. 가능하면 공통과정을 마치고 취·창업을 하도록 권장하고 있다. 더불어 국내 산업현장의 시급한 수요와 에꼴42의 엘리트 인재 양성전략의 절충점을 고민해 보겠다. 이노베이션아카데미는 매년 500명을 선발하는데 올해는 750명으로 늘렸다. 현재까지 1903명 선발해서 현재 999명이 교육을 받고 있다. 올해 250명을 더 뽑으면 2150명 정도 선발하게 된다. 현재 추세라면 5년간 2500명을 양성하는데 100만 양성계획에서 비중은 크지 않지만 전공이나 학력과 상관없이 교육생을 뽑아서 기초가 탄탄한 엘리트를 키워낸다는 점에서 의미가 크다. 우수 강사 확보가 어려운 지역에서도 이노베이션아카데미의 교육에 대한 수요가 매우 높은 상황으로, 정부도 최근 마련한 인재양성 종합방안에서 이노베이션아카데미 지역 확산 계획을 발표했다. 이에 따라 정보통신기획평가원과 협력해 지역산업 수요에 맞는 교육 프로그램 등 세부 계획을 검토하고 있다.◇사회= 엘리트 교육의 대상 인재 풀이 한정돼 있는 게 현실인데, 각 지역 캠퍼스도 같은 시스템으로 엘리트 교육을 지향하는지 궁금하다.◇비제 교장= 엘리트란 단어를 썼지만 엘리트는 각자의 최대치를 이끌어낸다는 의미다. 에꼴42를 끝낸 후 웹마스터로 일할 수도 있고 스티브 잡스 같은 인재가 될 수도 있다. 에꼴42에서는 급속한 기술변화에도 학생들이 적응하고 새로운 기술을 배우는 방법을 알려준다. 에꼴42는 하나의 브랜드인 만큼 모든 캠퍼스가 같은 시스템으로 운영된다. 캠퍼스 간 학생 이동도 자유롭다. 뛰어난 인재를 양성하니 산업 측면에서도 좋고, 비전공자건, 재정 상황이 열악하든 모두에게 열린 학교이니 사회공헌이 될 수도 있다. 사회공헌과 비즈니스를 상반된 개념으로 봐서는 안된다고 생각한다. 다수의 이익을 생각할 때 사회가 더 나아갈 수 있다. 프랑스에는 에꼴42 캠퍼스 7개가 있는데 파리만 3000명 규모다. 스페인과 이탈리아, 포르투갈, 독일은 각각 5개, 2개, 2개, 2개의 캠퍼스가 운영 중이다. 모로코에는 3개 캠퍼스가 있는데 5개로 늘리려 한다. 말레이시아도 1000명을 수용하는 캠퍼스 설립을 추진하고 있다. 프랑스에서는 전국적으로 캠퍼스를 만들면서 캠퍼스간 거리가 너무 가깝지 않도록 고려했다. 또 대도시보다는 소도시에 만들어서 도시가 성장하는 생태계를 만들고자 했다. 물루즈는 산업이 발달했고 앵글렘은 3D과 가상현실, 그래픽을 가르치는 학교가 있어서 캠퍼스를 세웠다. 리옹은 450명 규모이고, 앵글렘과 물루즈, 니스는 100~150명 규모다. 르 아브르와 페르피냥은 설립 승인이 난 상태다. 글로벌 47개 캠퍼스 중 정부 지원은 한국이 유일하다. 대단하다고 생각한다. 프랑스는 지자체가 60%, 기업이 40%의 재원을 댄다. 일본과 네덜란드는 억만장자 기업가들이, 독일은 폭스바겐이, 이탈리아는 루이스대학이 지원한다. 벨기에는 기업 지원만으로 운영된다. ◇조준희 회장= 정부가 전체 재원을 책임지다 보니 1년에 500명 정도만 뽑을 수 있다. 기업이 참여하면 규모를 키울 수 있다. 인재를 키우면 기업에 도움이 되니 기업들이 나서서 인재를 양성해야 한다. 특정 기업이 인재를 키워서 그 인재들을 독점하면 문제지만 ESG(환경·사회·지배구조)나 사회공헌 차원에서 하면 그럴 염려가 없다.기업들이 매출의 일정 비율을 이노베이션아카데미나 다른 교육시스템에 투자해서 사회에 더 많은 SW 인재가 나올 수 있게 해야 한다. 대기업들과 SW기업들이 출연해서 인재양성재단을 만들어서 하면 이해충돌이 없을 것이다. 인재양성의 궁극적 목표를 잊어서는 안 된다. 대전환 시대에는 패러다임을 바꿔야 한다. 매년 20만명씩 100만 디지털 인재를 키우면 청년실업 문제가 모두 해결된다. 하지만 이러한 인재양성을 한정된 정부 지원에만 의존하면 안 된다. 기업이 인재양성에 적극적으로 참여해야 한다. 그렇지 않으면 인재난이 해소되기 어렵다.SW산업협회장으로 취임한 후 기업 채용확정형 SW 교육을 한 결과 교육생의 70~80%는 취업에 성공했다. 거기서 한발 더 나아가야 한다. 정부 돈으로 할 게 아니라 큰 기업들이 돈을 내야 한다. 그렇게 하지 않으면 예산 부족으로 목표한 인재를 키울 수 없다. 인재 한 명을 키우는데 2000만원 정도가 드니 100억원이면  200명을 키울 수 있다. 그런데 기업이 1000만원을 부담하면 400명을 키울 수 있다. 기업이 3분의 2를 내면 600명으로 늘어난다. 정부가 해주는 게 없다고 할 게 아니라 기업들이 참여자가 돼야 한다. ◇사회= 디지털 인재 양성을 위해 대학은 역할을 할 준비가 돼 있다고 보는가.◇나연묵 학장= 대학 현장에서도 변화 조짐이 있다. 혁신적인 교육을 도입해야 한다는 생각이 커지고 있다. 대학은 아직 주입식 교육이 대부분인데 SW중심대학을 통해 변화가 일어나고 있다. SW중심대학이 되면 전교 학생에게 필수로 SW를 가르친다. 산업현장의 수요를 바탕으로 교육 커리큘럼을 바꾸고 융합전공을 만들어 융합인재를 키우는 노력도 하고 있다. 디지털 100만 인재 양성방안에 AI대학원을 늘리고 SW중심대학을 100개까지 선정하는 한편 전문대트랙을 신설하는 내용도 담겼다고 하니 방향이 잘 잡혔다고 본다. 바라는 점은 에꼴42의 혁신적인 교육 플랫폼과 시스템이 대학 교육시스템 혁신에 반영되는 것이다. 일부 교수들의 반대도 우려되지만 각 대학이 이런 혁신적 교육의 필요성을 공감하고 행동한다면 대학교육이 발전할 것이다. 단국대의 경우 티맥스와 협력해 SW 아카데미를 시작했는데 6개월 집중교육 후 채용과 연계하는 프로그램이다. 좋은 시도라고 본다. 디지털 인재 양성 과정에서 대학의 기여가 늘어날 것으로 기대한다. ◇사회= 최근 경기위축이 IT 산업에도 영향을 미치고 있는데, 디지털 인재 수요는 계속 늘어날 것으로 예상하는가. ◇비제 교장= 에꼴42가 추구하는 것은 한가지 기술만 전문으로 하는 기술자가 아니라 어떤 분야에서도 전문가가 될 수 있는 사람을 키우는 것이다. 시대가 변하고 다른 기술을 요구해도 배우는 방법을 배운 사람들은 항상 필요한 인재가 될 수있다. 사람 대신 SW가 SW를 개발하고 AI가 자동화하는 시대가 돼도 자동화시스템을 만들고 AI를 보완하는 엔지니어는 필요하다. 예를 들어 과거 손편지를 쓸 때는 손이 아닌 다른 기술이 생기면 편지 쓰는 데 드는 시간이 줄어들 것으로 생각했지만, 오늘날 우리는 더 많은 이메일을 쓰고 있다. 산업도 같을 것으로 본다. 로봇화가 일어나고 디지털화가 돼도 인력 수요는 계속 있을 것이다. 다만 필요로 하는 능력은 다를 것이다. 그래서 교육이 중요하다. 배우는 방법을 배운 이들은 어떤 사회적 변화가 일어나도 혁신과 변화를 이끌 수 있다. 자동차가 생겼을 때 다른 교통수단은 사라질 것으로 생각했지만 그렇지 않았다. 늘 세상은 변하고 요구하는 인재의 능력이 달라진다. ◇사회= 지역인재 양성, 재교육, 평생교육 등 디지털 인재 저변 확대를 위한 제언을 하자면. ◇비제 교장= 에꼴42 파리에는 56살 학생이 다닌다. 이직을 하거나 직종을 바꾸기 위해 들어오는 이들도 많다. 스스로 평생교육의 기회를 찾는 것이다. 학교에서도 디지털 교육이 강화돼야 한다. 모든 것을 디지털로 해결하는 세상이지만 청년층 중에서도 이를 제대로 사용하지 못하는 이들이 많다. SNS는 사용하면서도 디지털 역량은 갖추지 못한 이들이 많다. 정부가 디지털 정부를 지향해도 시민이 준비가 안 돼 있는 것이다. 이런 젊은이들이 디지털 기술을 잘 이용하도록 돕는 것이 중요하다. 디지털 전환 시대에 청년들이 디지털을 모르는 것은 말이 안 된다. 사실 코딩을 배우는 것은 단순히 코드를 만드는 게 아니라 인터넷이 무엇인지, 디지털이 무엇인지에 대해 이미지를 갖고 배우는 것이라고 생각한다. 학생들이 디지털 사회를 제대로 이해하는 것도 중요하다. 디지털과 관련한 남녀격차를 줄이는 데에도 교육이 중요하다.디지털 기술을 가르칠 강사 부족문제는 교육방식 혁신으로 해결할 수 있다. 우리가 제안해서 프랑스 정부가 실험적으로 시도하려는 것이, 교수 없이 플랫폼과 시스템을 활용해 디지털 교육을 하는 것이다. 8~10세 아이들을 대상으로 3년간 시도할 계획인데, 300개 학교에서 시도한 후 1000개로 늘릴 계획이다. 기존 플랫폼을 변형해서 교육하고, 동료학습으로 안 되는 부분은 교사가 도움을 주는 방식이다. ◇조준희 회장= 오늘 만남을 계기로 협업을 이어가겠다. 디지털 시대에 가장 우려되는 점은 불균형이다. 세상과 산업을 디지털화하는 궁극적인 목적은 인간이 행복해지고 잘 살게 되는 것인데 잘못된 정책과 접근으로 한쪽은 실업자가 늘고 다른 쪽은 새로운 인력수요가 증가하는 식으로 돼선 안 된다. 서로 공존하고 공생하는 세상을 만드는 것이 우리의 의무이자 소명이다. ◇나연묵 학장= 재교육을 위해서는 학생을 가르치는 교사에 대한 교육이 필요하다. 그런데 코딩이나 IT의 원리를 잘 모르는 상태에서 피상적으로 배워서 학생들을 가르칠 경우 위험성이 있다. IT를 전공한 퇴직자나 전공자 등을 활용하는 게 필요하다. 이노베이션아카데미 출신을 강사로 투입하는 것도 좋을 것이다. 직원 재교육이 필요한 기업이 에꼴42에 직접 투자하는 것뿐 아니라 재교육 대상 직원을 에꼴42 학생으로 1~2년 파견하는 것도 고려할 만할 것이다. 우리나라가 취약한 게 평생교육이다. SW중심대학이 44곳 있으니 이들을 지역거점으로 주민 대상 평생교육을 하면 좋겠다. 더 좋은 평생교육 프로그램들을 만들고, 프랑스의 경우처럼 가능하면 에꼴42 플랫폼이 평생교육에도 활용되면 좋겠다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>주식 빼고 ‘발행어음’ 넣고...4%대 금리상품에 뭉칫돈</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002284988?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>발행어음형 CMA에 올해만 4조 유입4사 발행어음 잔고 23조...반년새 40%↑중도해지 시 최대 70% 수수료      기준금리 3%를 앞둔 고금리 시대에 증권사 발행어음이 연 4%대 금리를 내세우며 인기를 끌고 있다. 증시 침체로 투자자예탁금이 줄어드는 가운데 발행어음에는 올해 들어서만 4조원이 넘는 자금이 유입됐다. 다만 발행어음은 원금보장 대상이 아니며 중도해지 시 불이익이 있는 만큼 투자 시 유의가 필요하다.   5일 금융투자협회에 따르면 발행어음형 종합자산관리계좌(CMA) 잔고는 8월말 기준 11조6609억원으로 작년말(7조4646억원) 대비 56.2% 급증했다. 연초부터 유입된 돈만 4조1963억원이다. 반면 같은 기간 투자자예탁금은 67조5307억원에서 53조633억원으로 23.8% 감소했다.   발행어음은 증권사가 고객이 맡긴 돈으로 투자하고, 그 손익을 토대로 원금과 약속한 이자를 제공하는 만기 1년 이내의 단기금융상품이다. CMA/수시형, 약정형(만기형), 적립형으로 구분된다.   자기자본 4조원 이상의 초대형IB(투자은행) 가운데 한국투자증권, NH투자증권, KB증권, 미래에셋증권이 자체 신용(자기자본의 200%)을 바탕으로 발행하고 있다.   이들 증권사의 발행어음 잔고는 상반기 기준 23조3807억원으로 작년말(16조7267억원) 대비 39.8% 증가했다. 반기보고서에 따르면 각사가 발행어음을 통해 조달한 자금(차입부채) 규모는 한국투자증권 10조3683억원, KB증권 5조9366억원, NH투자증권 3조7231억원, 미래에셋증권 3조3527억원 순이다.   증권사별 발행어음 금리는 대동소이하다. CMA/수시형의 경우 4곳 모두 2.55%로 같았다. 수시형은 고객이 직접 발행어음을 매수하는 상품이며 발행어음형 CMA는 계좌 입출금 시 발행어음을 자동 매수·매도하는 상품이다.   약정형(만기형) 금리는 한국투자·KB·NH투자증권은 2.55~4.15%, 미래에셋증권은 2.55~4.10%이며 기간별로 다르다. 6개월 약정의 경우 3.0~3.65% 수준이다.   매달 정해진 금액을 매수하는 적립형은 한국투자증권 4.5%, KB·NH투자증권 4.0%의 이자를 제공하고 있다. 한국투자증권이 지난달 토스뱅크를 통해 내놓은 특판상품은 나흘 만에 2000억원 한도가 소진됨에 따라 금리가 최대 4.2%로 조정됐다. NH투자증권도 지난 3월 농협금융지주 10주년을 기념해 10% 발행어음 특판을 진행한 바 있다.   고환율 장세를 고려해 외화 발행어음을 매수할 수도 있다. KB증권 2.5~3.7%, 한국투자증권 2.45~3.55%, NH투자증권 2.4~3.15% 순으로 금리가 높다.   발행어음의 인기는 당분간 이어질 것으로 보인다. 기준금리는 연말 3%에 이를 것으로 전망되는 만큼 발행어음 금리도 더 높아질 수 있다. 실제로 한국은행이 지난달 25일 기준금리를 2.5%로 올리자 이튿날 증권사들은 기존 2.75~2.90% 수준이던 1년 약정형 금리를 4.10~4.15%로 인상한 바 있다.   다만 증권사 발행어음은 은행 예·적금과 달리 원금 손실 가능성이 없지 않다는 점에 유의해야 한다. 신용등급이 높고 자기자본 4조원 이상인 초대형 증권사가 발행하는 상품이므로 안정성이 높은 것으로 인식되고 있다. 다만 5000만원 한도의 예금자 보호 대상이 아니기 때문에 증권사가 부도·파산할 경우 최대 원금 전액을 잃을 수 있음을 인지할 필요가 있다.   중도해지 시 불이익도 있다. 약정형 상품을 중도에 인출하면 약정수익률의 50%만 지급하고, 적립식의 경우 8회 미만 납입 시 약정수익금(세전)의 70%를 해지 수수료로 부과하는 식이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>年 7% 적금 특판 뜨자 수십 명 '오픈런'...선납이연 '6·1·5' '1·11' 전략 따라 해볼까</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000077198?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>이창용 한국은행 총재가 지난 8월 25일 오전 서울 중구 한국은행에서 열린 기자간담회에서 기준금리 인상 등을 설명하고 있다. 한은 금융통화위원회는 이날 기준금리를 연 2.25%에서 2.5%로 0.25%포인트 인상했다. (사진공동취재단) # 한국은행이 기준금리를 인상한 지난 8월 25일 오전 9시. 새마을금고 안암동 지점은 영업 시작 전부터 대기표를 받으려는 고객 수십 명이 장사진을 쳤다. 1년 만기 7% 적금 특판(선착순 1000명 한정)이 창구 가입 조건으로 판매된다는 소식을 접한 고객들이 앞다퉈 ‘오픈런(미리 기다리다 개점 즉시 달려가 구매)’을 시도한 것. 오전 10시쯤 대기 번호는 100번을 찍었고 당일 특판 접수는 일찌감치 종료됐다. 하루 60명 한정으로 인원 제한을 둬 ‘오픈런’ 가입을 노린 고객이 줄을 이었다는 후문이다. 특판 가입 고객 A씨는 “판매 둘째 날에는 오전 9시 이전 대기 번호가 50번대였다”며 “가족들 상품까지 대리 가입을 처리하느라 직원들도 소위 ‘멘붕’이 온 것 같았다”고 분위기를 전했다. 한국은행이 기준금리를 연이어 인상하면서 은행권 예적금 금리가 줄줄이 오르고 있다. 일부 고금리 특판 상품은 판매 시작과 동시에 ‘오픈런’이 빚어지는 이례적인 현상마저 빚어진다. 고금리 예적금 상품을 노리는 ‘금리 노마드족’의 재테크 전략을 분석한다. 은행권 예적금 금리 인상이 줄을 잇는다. 지난 8월 25일 한국은행이 기준금리 0.25%포인트 인상(연 2.25% → 2.5%)을 결정하자 국내 은행은 예적금 금리를 일제히 올렸다. 현재 시중에 나와 있는 정기예금 상품 중 우대 조건 없이 금리가 가장 높은 곳은 KDB산업은행이다. ‘KDB Hi(하이) 정기예금’은 최고 연 3.6%의 금리를 준다. 국민·신한·우리·하나은행도 줄줄이 예적금 금리를 올렸다. 단, 이들 은행의 최고금리는 상품별로 우대 조건이 제각각이어서 꼼꼼히 살펴야 한다.기초생활수급자, 근로장려금수급자 등 취약계층 자산 형성을 돕는 ‘KB국민행복적금’은 1년 만기 정액적립식 기준 최고금리가 연 5.25%다. ‘KB반려행복적금’은 최고 연 4%의 금리가 제공된다. 신한은행의 6개월 만기 상품 ‘신한 땡겨요 적금’은 0.4%포인트 올라 최고금리가 연 3.6%다. ‘신한 알.쏠 적금’ 1년 만기는 최고 연 3.95%가, ‘신한 쏠만해 적금’은 최고 연 5.5%의 금리가 적용된다. 우리은행의 ‘우리 첫거래 우대 정기예금’은 최고 연 3.6%에서 연 3.8%로 올랐다. ‘우리 200일 적금’은 최고 연 2.6%에서 최고 연 3.1%로 0.5%포인트 올랐다. 하나은행의 ‘369 정기예금’은 1년 만기 기준 최대 연 3.1%의 금리가 적용된다. ‘급여하나 월복리 적금·주거래하나 월복리 적금’은 1년 만기 기준 금리가 최고 3.7%에서 3.95%로, 3년 만기 기준 최고 4%에서 4.25%로 인상됐다. 1금융권 수신금리가 잇달아 오르면서 저축은행 등 2금융권은 바짝 긴장하고 있다. 주요 시중은행이 금리를 꾸준히 올려 저축은행의 상대적인 금리 경쟁력이 약해졌다.    ▶‘20일 규제’ 명심 ▷매월 ‘풍차 돌리기’ 통상 고금리 예적금 상품은 한국은행의 기준금리 인상에 맞춰 출시될 때가 많다. 각종 특판 상품도 이때 집중적으로 출시된다. 고금리 특판 ‘오픈런’에 성공하려면 꼭 알아야 할 것 중 하나가 ‘20일 규제’다. 한번 입출금 통장을 개설하면 모든 은행에서 20영업일간 신규 계좌를 만들 수 없다. 이 때문에 알뜰 재테크족이라면 신규 통장을 만들지 않으면서 20일을 꽉 채워 언제든 ‘오픈런’할 수 있게 만반의 준비를 해둔다. 단, 적금 가입 목적의 경우 지점에 따라 20일 제한에 걸리더라도 가입을 시켜주는 경우가 있어 해당 지점에 미리 문의를 해두면 좋다. 고금리 상품으로 갈아타기를 고려할 때는 상품별로 셈법이 다소 복잡하다. 은행 정기예금 상품은 만기 이전 해지할 경우 약정 이자 전부를 지급하지는 않는다. 은행은 주기적으로 납입되는 예금을 고려해 대출 계획을 세우는데 이 계획이 틀어지기 때문이다. 적금은 셈법이 예금보다 더 복잡하다. 만기가 서로 다른 상품이 많고 적립 방법도 차이가 있어 갈아타기에 따른 기회비용을 명확히 산출하기 까다롭다. 이 때문에 예적금의 가입 기간과 잔여 만기 등의 조건을 다각도로 따져봐야 한다. 가장 중요한 것은 남은 만기와 금리 차이다. 금리만 놓고 볼 경우, 일부 특판 상품을 제외하고는 예적금 금리 차이가 아직 크지 않지만 현재 납입 중인 예적금 금리가 3% 이하일 경우 갈아타기를 권한다. 만기는 천차만별이지만 불입 기간이 80% 이상 남았다면 적극적으로 갈아타기를 고려해도 좋으며 이미 불입한 금액과 기간이 상당하다면 가급적 만기 후 갈아타기를 권한다는 게 전문가 조언이다. 과거 고금리 시절 유행하던 ‘예적금 풍차 돌리기’도 다시 등장했다. 풍차 돌리기는 매월 만기 1년짜리 예적금 상품에 가입해 1년 뒤 순차적으로 월별로 원리금을 받는 방식을 말한다. 예컨대, 월 100만원짜리 정기적금에 가입하는 것이 부담스럽다면 한 달에 1개씩 10만원짜리 적금(1년 만기)에 가입하는 식이다. 이렇게 하면 매달 저축액을 순차적으로 늘릴 수 있어 부담이 덜하다. 1년 뒤 매달 만기가 도래해 받는 원리금의 경우 이자는 생활비로 쓰고 원금만 재예치하거나, 원리금을 모두 재예치해 복리 효과를 노릴 수 있다.  ▶‘선납이연’도 등장 ▷적금 금리 높을수록 유리  드물지만 목돈으로 ‘선납이연’ 전략을 노릴 수도 있다. 선납이연은 예적금을 동시에 활용하는 재테크 전략이다. 일반적으로 정기적금 상품의 금리가 정기예금 상품보다 높다는 점에 착안한 것이다. 원리는 이렇다. 정기적금의 경우 약정한 월 납입액을 미리 불입하면 ‘선납일수’가, 늦게 불입하면 ‘이연일수’가 생긴다. 이연일수가 커지면 만기일이 뒤로 밀리지만, 선납일수와 이연일수의 합이 서로 상쇄돼 ‘0’이 되면 적금 만기일이 바뀌지 않는다. 이 시차를 활용해 이자 이익 극대화를 노린 전략이 선납이연이다.예를 들어, 선납이연에 주로 쓰이는 ‘6·1·5’ 법칙(숫자는 불입 횟수)을 따라 목돈 1200만원을 굴린다고 가정하자. 매월 100만원씩 연 5%짜리 정기적금(1년 만기)에 넣는다면 만기에 이자(세전 기준) 약 32만원을 받을 수 있다. 이 경우, 첫 달에 6개월 치인 600만원, 일곱 번째 달에 한 달 치 100만원, 마지막 달에 나머지 다섯 달 치 500만원을 불입하면 만기일이 지연되지 않고 약정 이자를 받는다. 이때 첫 달에 600만원을 불입하고 남은 돈 600만원을 연 3%짜리 정기예금(6개월 만기)에 넣어 두면 같은 돈으로 예적금을 동시에 든 것과 같은 효과를 누릴 수 있다. 600만원에 붙은 3% 예금 이자 18만원을 더 받을 수 있어서다. 선납이연에 필요한 기간은 각자 자금 사정에 따라 정하면 된다. 꼭 ‘6·1·5’ 법칙을 따르지 않더라도 정기적금에는 첫 달 100만원만 넣고 남은 돈 1100만원(11개월 치)을 6개월 만기 정기예금에 넣는 ‘1·11’ 방식도 가능하다. 적금은 가입하는 순간 이자가 확정되므로 결국 선납이연에서 중요한 포인트는 첫 달 불입 후 남은 돈을 대기 기간 동안 얼마나 효율적으로 굴리느냐다. 선납이연 방식은 통상 적금과 예금 금리 차이가 클수록 유리하므로 새마을금고나 신협 같은 곳에서 적금 특판이 나올 때 많이 쓰인다.이외 정기예금 단리 상품의 경우 가입 시 ‘이자 매월 수령’을 신청하는 것도 요긴하다. 만기 때 한 번에 이자를 받는 것보다 매달 들어오는 이자로 따로 적금을 넣어 굴릴 수 있기 때문이다. 가령, 토스뱅크의 연 금리 2%짜리 파킹통장을 쓰고 있다면 앱에서 ‘매일 이자 받기’도 가능하다. 매일 남은 잔액에 대한 이자를 더하는 일복리 효과가 미미하게나마 생긴다.[본 기사는 매경이코노미 제2175호·추석합본호 (2022.09.07~2022.09.20일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>이복현 "성실상환자 산소호흡기 떼는 건 바람직하지 않아"</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004792525?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>이복현 금융감독원장이 7일 서울 중구 소재 은행회관에서 '취약차주의 금융부담 완화를 위한 금융권 간담회'를 열고 발언하고 있다./사진=금융감독원이복현 금융감독원장은 "장기적으로 성실상환자들의 산소호흡기를 떼는 건 바람직하지 않고 국민 경제도 도움이 되지 않는다"며 코로나19(COVID-19)로 피해받은 소상공인 지원의 중요성을 강조했다.이 원장은 7일 서울 중구 소재 은행회관에서 '취약차주의 금융부담 완화를 위한 금융권 간담회'를 마친 후 기자들과 만나 "예를 들어 오늘 하루 수입이 없더라도 모레 돈을 번다는 생각으로 4만, 5만원씩이라도 당장 이자를 갚으려는 분들이 많다"며 이같이 말했다.9월말 종료 예정인 소상공인 대상 만기연장, 상환유예 등 금융지원의 재연장 가능성도 다시 언급했다. 이 원장은 "개별 차주가 감당하기 어려운 외부 충격의 모든 책임을 개인에게 떠넘기는 게 합당한지에 대한 문제의식이 있다"며 "새출발기금으로 소상공인을 지원하지만 재정으로 지원되지 않는 부분도 있는 만큼 9월말 만기연장 상환유예 (재연장) 논의도 함께 돼야 하는 것 아닌가 생각한다"고 설명했다.이어 "금융당국은 코로나 금융지원 종료와 관련해 만기연장 종료 등의 조치와 관계없이 금융사의 건전성 관리에 만전을 다할 예정"이라고 덧붙였다.앞서 이 원장은 지난 5일에도 소상공인 금융지원의 재연장 가능성에 대해 "여러 가지 가능성을 굳이 배제하지 않고 실질적으로 금융권, 금융당국, 소상공인이 분담해야 할 것들을 분석하고 있다"며 "추석 전후로 금융지원 프로그램이 어떻게 될지 조심스럽지만 말씀 드릴 수 있지 않을까 생각한다"고 답한 바 있다.가상자산거래소에 실명계좌를 내준 은행에 대한 검사와 관련해서는 "신한·우리은행에 대한 1차적인 검사는 끝났지만 최종 검사 결과는 아직 나오지 않았고, 여러 은행에 대한 검사도 진행중"이라며 "점검이 필요하다고 생각하는 부분은 다 챙겨보고 있다"고 답변했다.또 최근 토스의 자회사 토스플레이스가 15만곳 이상의 신용카드 가맹점이 보유한 개인정보를 가맹점주 동의없이 수집한 것에 대해 "담당부서에 사실 파악을 요청해 놓은 상태"라고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>성장 가능성 불구 효과·규제 설익은 디지털 치료제 시장…사용 편이 향상이 관건</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002267160?sid=105</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>사용자 필요 시 당장 현장서 원활 사용토록 개발 이뤄져야주목받는 디지털 치료제(DTx) 시장에서 사용 편이성에 중점을 두고 개발이 이뤄져야 한다는 전문가 견해가 나와 눈길을 끈다.한국보건산업진흥원은 오는 2026년 디지털 치료제 시장은 96억4천만 달러(약 12조원) 규모로 성장하리란 전망을 내놨다. 미국과 유럽을 중심으로 추진 중인 디지털 헬스케어 시장, 그 중에서도 디지털 치료제 분야의 선점을 두고 경쟁이 치열하다. 현재까지 미국이 앞서고 있지만 향방은 알 수 없다. 우리나라도 경쟁 대열에 합류한 상태다.Akili의 소아 ADHD 치료용 비디오 게임 AKL-T01 (사진=한국보건산업진흥원)정신건강 분야에 있어 특히 디지털 치료제 활용이 활발한 편이다. 주의력결핍 과잉행동장애(ADHD)치료를 위한 디지털 치료제가 대표적이다. 워봇헬스는 챗봇을 통해 심리 상담이 실시하고 있다. 비대면 상담앱도 주목받고 있다. 채팅앱을 통해 상담을 하면, 디지털 치료제를 통해 불안과 우울을 감소시키는 방식이다. 실시간 진단과 처방, 치료가 이뤄지는 방식이다.이미 미국에서는 디지털 치료제 분야가 새로운 산업군이 형성되고 있다. 지난 2017년 2월 디지털 치료제 산업의 이해를 대변할 목적으로 비영리 산업협회인 Digital Therapeutics Alliance(이하 DTx Allinace)도 결성되는 등 관련 산업이 시장에 자리매김하고 있는 상태다.전홍진 삼성서울병원 정신건강의학과 교수는 “미국 의대들은 앞 다퉈 디지털 치료기기 임상시험을 실시하는 등 매우 전향적”이라고 설명했다.전 교수는 디지털 치료제가 향후 ‘당뇨’ 분야에 있어 상당한 역할을 할 것으로 전망했다. 물론 아직 기술적 한계가 존재한다. 전 교수는 “당뇨는 혈당 측정이 요하는데, 웨어러블 기기를 통해 측정이 가능하지만 기술적 한계로 아직 혈당 측정이 100% 정확하진 않다”고 지적했다.전 교수는 의료기기와 디지털 치료의 연결에 주목해야 한다고 강조했다. 그는 “디지털 치료제가 소프트웨어 기반이지만, 앱과 하드웨어가 연결되는 방향으로 발전이 이뤄지고 있고, 이에 대한 실질적인 수요가 발생할 것”이라고 전망했다. 비대면 진료의 성숙도에도 디지털 치료제와 전자약이 역할을 톡톡히 할 것이란 게 전 교수의 전망이다.글로벌에서 질환별 디지털 치료제 개발 및 기업 현황. (표=한국보건산업진흥원)그럼에도 디지털 치료제 시장은 아직까지 ‘가능성’에 머물러 있다. 글로벌 경쟁과 규제도 무엇하나 뚜렷한 것이 없어 보인다. 김영 사이넥스 대표는 “디지털 치료제가 치료제의 영역에서 자릴 잡고 있다고 보기 어렵다”며 “현재는 다수 기업이 ‘탐색’하고 있는 상황”이라고 설명했다.김 대표는 미국도 최근에서야 디지털 치료제에 대한 정책과 규제를 설정하고 있다는 점을 지적했다. 소프트웨어로써 의료기기로 분류돼야 하는 디지털 치료제, 특히 모바일앱 형태의 디지털 치료제는 의료기기의 규제틀이 이제 마련되고 있다는 것이다.아직은 설익은 디지털 치료제를 두고 정책과 기술 발전 등 선제되어야 할 점이 많지만 핵심은 얼마나 사용이 편리하냐다. 전 교수는 “디지털 치료제는 응급 시 도움이 될 수 있고 현장에서 사용가능하는 방향으로 개발이 이뤄져야 한다”며 “현재의 디지털 치료제는 앱을 바탕으로 환자에게 지속적으로 너무 많은 정보 입력을 요구하고 있어 사용 편이가 떨어진다”고 지적했다.즉, 치매환자·우울증·고령환자 등의 사용능력이 그리 고려되지 않고 있다는 것이다. 전 교수는 “별도의 노력이 없이도 가능하고 시간을 많이 뺏지 않는 치료제 개발이 요구된다”고 조언했다.관련해 아동 ADHD 디지털 치료제를 개발 중인 이모티브의 민정상 대표는 사용성에 대해 “학습이 용이하고, 사용이 관련 편리한지가 고려돼야 한다”면서도 “이모티브의 경우, 사용자들이 일상을 깨지 않고 접근할 수 있되, 접근이 용이한 ‘게임’을 선택했다”고 설명했다.지난 1일 서울 양재동 더케이호텔서울에서 열린 '디지털 치료제 해외진출 전략 세미나'에는 국내 디지털 치료제 개발사들이 대거 참여하는 등 관련 분야의 뜨거운 관심이 확인됐다. (사진=김양균 기자)한편, 디지털 치료제를 포함한 디지털 헬스케어 분야의 우리기업 현지 진출은 꽤 활발한 편이다. 한국보건산업진흥원은 ‘ICT기반 의료시스템 해외진출 지원 사업’을 통해 우리 기업의 해외 진출을 지원 중이다.이미 에이치디정선은 가톨릭대 산학협력단과 컨소시엄을 맺고 태국에서 ‘태국 의원급 의료기관을 대상으로 클라우드 EMR 보급 모델사업을 진행 중이다. 이대목동병원은 퍼스트디스와 우즈베키스탄에 진출하는 시범사업을 진행 중이다.이밖에도 웨이센-강북상성병원은 베트남에, 양산부산대병원-캡토스는 카자흐스탄, 이대목동병원-하이젠헬스케어은 인도네시아, 유신씨앤씨-가천대 길병원과 우즈베키스탄에서 관련 시범사업을 진행한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>넥슨 ‘블루 아카이브’, 신규 이벤트 스토리 추가</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005014754?sid=105</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>넥슨(대표 이정헌)은 자회사 넥슨게임즈(대표 박용현)가 개발한 서브컬처 게임 ‘블루 아카이브’에 이벤트 스토리 ‘샬레의 해피 발렌타인 순찰’과 ‘코사카 와카모의 침묵과 축연’을 추가했다고 7일 밝혔다.이번 스토리는 발렌타인 데이를 맞이한 ‘키보토스’를 배경으로 축제 현장을 지키기 위해 순찰하는 선생님과 학생들, 갑자기 현장에 난입한 ‘와카모’의 이야기를 담았다.신규 학생 4종도 등장한다. ‘와카모’는 ‘백귀야행 연합학원’ 소속이나 현재는 정학 중인 학생으로 ‘페스 모집’을 통해 획득할 수 있다. ‘와카모’는 적 1인에게 공격력 비례 피해를 가하고 아군이 대상에게 입힌 피해를 10초간 축적해 신비 속성 피해를 주는 ‘EX 스킬’을 구사한다.이벤트 스토리 1화를 클리어하면 획득할 수 있는 ‘후부키’는 ‘발키리 경찰학원’ 소속으로 46초간 공격력이 증가하는 ‘EX 스킬’을 사용한다.‘게헨나 학원’ 소속 ‘세나’는 ‘EX 스킬’ 사용 시 ‘응급돌파 11호’에 탑승해 전투 현장에 등장하며 ‘밀레니엄 사이언스 스쿨’ 소속 ‘치히로’는 적 1인에게 공격력에 비례한 강력한 피해를 가하고 적이 ‘중장갑’ 방어 타입일 경우 추가로 기절시키는 ‘EX 스킬’을 구사한다.넥슨은 업데이트 사전등록 보상으로 총 2400개의 ‘청휘석’과 ‘상급 전술 교육 BD 선택권’, ‘상급 활동 보고서’ 등을 지급한다. 9월 13일까지 접속한 모든 이용자에게 기간 제한 없이 사용 가능한 ‘10회 모집 티켓’을 선물하며 새롭게 추가되는 ‘StartDash 로그인 보너스’를 통해 ‘10회 모집 티켓’과 ‘가구 박스’, ‘반짝이는 꽃다발’ 등을 증정한다.9월 10일부터 열흘간 매일 10회 무료 모집 기회도 제공하며 ‘보름달 아래, 진홍빛 술래잡기’ 이벤트도 9월 8일부터 18일까지 실시한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.09.11.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[슬기로운 통신생활③] 저렴이 알뜰폰 VS 결합할인 이통사</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011413690?sid=105</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>기사내용 요약파죽지세 알뜰폰…2년여 동안 이통사 가입자 야금야금 뺏어와저렴한 요금제로 승부…잇단 금융권 진출로 혜택 다양해져접근성은 이통사가 더 유리…멤버십·결합할인 등으로 차별화[서울=뉴시스] 알뜰폰 스퀘어 (사진=한국알뜰통신사업자협회  제공) 2022.6.8 *재판매 및 DB 금지[서울=뉴시스] 심지혜 기자 = #프로그래머 A씨는 아이폰으로 알뜰폰에 가입했다. 와이파이 사용이 많아 LTE로도 충분하다고 생각한 데다 이통사에서는 평소 사용 패턴에 맞는 요금제가 없어 알뜰폰을 선택했다. 제공량이 같을 경우 알뜰폰이 훨씬 저렴한 요금으로 이용할 수 있다는 점도 알뜰폰을 찜한 이유다.# 최근 결혼한 B씨는 남편과 이통사 요금제로 인터넷까지 묶어 결합 할인을 받고 있다. 25%요금할인에 결합으로 초고속인터넷서비스 할인까지 되니 특별히 다른 이통사로의 이동을 생각하지 않고 있다. 이뿐 아니라 멤버십 혜택으로 매달 피자, 커피 등을 구매할 때 받는 할인도 쏠쏠하다. 알뜰폰의 성장세가 심상치 않다. 2년여 동안 번호이동에서 나홀로 가입자 순증을 이어갔다. 반대로 보면 계속해서 이통3사 가입자를 뺏어온 것이다. 이는 알뜰폰이 요금제를 다양화하면서 인지도를 높여온 결과로 풀이된다. 특히 최근 MZ세대를 중심으로 실속형 요금제를 선택하는 추세가 이어지고 있는 것도 한몫 했다.반면 시장을 지키려는 이통사는 집토끼 지키기 전략으로 맞서고 있다. 멤버십 혜택에 결합할인 등 다양한 서비스로 가입자 이탈을 최소화하고 있다.  이통사, 갤Z4 역대급 예판에도 알뜰폰 번이 순증 굳건</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>[금융뒷담] “일찍 고금리 제공했는데… 더 올리라니” 토스의 하소연</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001551225?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>대출 규제 탓 뒤늦게 수익 창출‘파킹통장(수시입출금통장)’에 2% 금리를 제공해 인기를 끌었던 토스뱅크가 이제는 금융소비자들의 눈총을 받고 있다. 1년도 안 돼 기준금리가 이미 2.50%까지 급등했는데 토스뱅크 이율은 오를 기미가 보이지 않기 때문이다. 5일 금융권에 따르면 제2금융권에서는 토스뱅크 이율을 뛰어넘는 파킹통장이 다수 출시됐다. 웰컴저축은행(3.0%) 페퍼저축은행(3.2%) OK저축은행(3.2%) 등 저축은행 계열이 대부분이다. 제1금융권에서도 KDB산업은행이 2.25% 이율을 제공한다.반면 토스뱅크 통장은 지난해 10월 출시 이후 1년 가까이 2.0% 금리를 유지하고 있다. 토스뱅크 통장이 처음 나왔을 때는 주요 시중은행 수시입출금통장 이율이 0%대에 불과했다. 하지만 한국은행이 수차례 기준금리를 올리면서 상황이 반전됐다. 토스 파킹통장 사용자들은 기준금리보다 이율이 낮은 것을 납득하기 어렵다고 입을 모은다.토스뱅크 측은 억울하다는 입장이다. 기타 제1금융권 시중은행과 비교하면 여전히 준수한 이율을 제공하고 있는데도 비교적 일찍 고금리 혜택을 제공했다는 이유로 비난의 화살이 쏠린다는 것이다.금융당국의 대출영업 규제 탓에 제대로 된 수익구조를 뒤늦게 구축한 것도 애로사항이다. 정부는 지난해 말까지 엄격한 대출 총량규제를 실시했다. 토스뱅크 관계자는 “수신 이자를 지급하느라 비용은 계속 나가는데 대출 영업은 막혀 곤란했다”며 “올해 5월이 돼서야 가까스로 흑자전환에 성공했다”고 말했다.이 관계자는 이어 “최근 파킹통장 이율과 관련된 고객의 목소리를 인지하고 있다”며 “변화된 경제환경에 맞춰 상품 이자율을 조정하는 건을 긍정적으로 검토 중”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>헤세그, ‘넥스터’에 블록체인 메인넷 첫 공급계약 체결</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005014549?sid=105</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>블록체인 메인넷 개발 전문 스타트업 헤세그(Hessegg, 대표 손인식)가 메타버스 플랫폼 서비스 스타트업인 넥스터(Nextor Inc. 대표 전주천)와 전략적인 파트너쉽 체결에 의한 프라이빗 메인넷인 닉토넷(NiktoNet) 기술 공급 계약을 체결했다고 7일 밝혔다.헤세그는 세계적인 추세를 이끌고 있는 레이어1 메인넷인 솔라나, 아발란체, 앱토스 등과 견줄 수 있는 메인넷 개발에 성공한 바 있다. 헤세그가 자체 개발한 닉토넷은 세계 최고 수준급의 앱최적화 블록체인 메인넷(Application-specific blockchain Mainnet)이다.헤세그 손인식 대표는 “이번 기술 공급 계약을 통해 헤세그는 자체 개발한 블록체인 메인넷의 기술력을 당당히 인정받게 되었다. 국내에서 가장 빠른 기업용 프라이빗 메인넷인 닉토넷을 넥스터가 공급받아 메타버스 플랫폼에 적용할 예정이다. 이를 통해 독자적인 개방형 경제 구축, 디지털 소유권 확대, 플랫폼에서 창출된 가치를 공유할 수 있어, 메타버스 생태계를 확대해 나갈 수 있을 것으로 기대된다”고 전했다.넥스터 전주천 대표는 “헤세그의 독자적인 기술력을 인정하여 메타버스 플랫폼의 블록체인 메인넷 기술 공급사로 헤세그를 선택했다. 넥스터는 MZ 유저를 겨냥한 메타버스 플랫폼을 준비 중이다. 넥스터의 메타버스는 유저들이 자유롭게 창작활동과 경제활동을 할 수 있는 현실기반 가상공간을 제공한다. 이를 위해 넥스터는 블록체인 메인넷을 선택이 아닌 필수로 채택했다”고 밝혔다.넥스터는 국내 유명 게임회사 출신들이 모여 인공지능을 활용한 감응형 메타버스 플랫폼 서비스를 개발하고 있는 벤처기업이다. 현실과 매칭된 새로운 디지털 월드를 통해 전 세계의 크리에이터들을 연결하고, 창작물을 공유하며, 이를 통해 경제적 가치를 창출하는 메타버스 서비스 플랫폼을 목표로 하고 있다. 특히 넥스터 전대표는 “보다 혁신적인 메타버스 제공을 위해 인공지능 얼굴 인식, 영상 및 사운드 분석 기술 등도 적용할 예정이다. 이런 기술적용은 많은 유저를 끌어들이고 메타버스를 확장하는데 도움이 될 것으로 예상된다”고 전했다.헤세그는 이러한 기업들의 다양한 니즈에 맞춰 DID, 빅데이터, 보안, NFT 등 각종 솔루션을 개발하여, 최적화된 기업용 블록체인 메인넷과 솔루션을 제공할 예정이다. 이번 닉토넷 공급 계약을 시작으로 보안, 유통, 제조 등 다양한 산업 분야 대상으로 기업용 프라이빗 메인넷 공급을 늘려갈 계획을 세우고 있다. 손대표는 “블록체인 기술 서비스 기업 ‘넷핀’과 협력관계를 통해 국내 영업망을 확대하고 블록체인 메인넷 공급에 속도를 낼 방침”이라고 밝혔다. 매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>AI가 채점하고 선생님은 학생 관리…13兆 사교육 시장 판이 바뀐다</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004750082?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>세계는 지금 DX혁명(4) DX로 신시장 여는 中企에듀테크 스타트업 밀당PT오프라인 교육이 강한 교육 시장인공지능 학습관리 시스템 적용학업 성취도 높여 회원 급증대동 "농업 우습게 보지 말라"스마트팜 테스트 베드 완공농작물 재배 빅데이터 수집생육 레시피 개발 연구에 활용바디프랜드, 헬스케어도 공략 생체 데이터 수집해 질병 예측안마의자와 의료기기 결합 추구에듀테크 스타트업 밀당에듀테크 스타트업 밀당PT의 온라인 강의 완강률(결제한 강의를 끝까지 듣는 비율)은 90%에 달한다. 기존 인터넷 강의(10%)나 오프라인 학원(40%)보다 학습 목표를 끝까지 달성하는 학생 비중이 압도적으로 높다. 오프라인 과외 교사 역할을 대신하는 인공지능(AI) 학습관리 시스템을 적용한 게 학업성취도를 끌어올린 비결이다. 학생이 수업 시간에 딴짓을 하는지, 숙제는 제대로 했는지 ‘대면(對面)’으로 학습을 관리하는 것이 중시되는 과외 시장에서까지 정보통신기술(ICT)을 활용해 기존 시장의 장벽을 뛰어넘은 디지털 대전환(DX)의 성공 사례가 나온 것이다.그래픽=김선우기자 DX, 거대 아날로그 시장을 바꾸다2020년 기준 13조6000억원 규모인 국내 초·중·고 사교육 시장에서 온라인 교육이 차지하는 비중은 3.3%에 불과했다. 하지만 DX는 견고했던 오프라인 교육의 아성에 금을 내기 시작했다.밀당PT는 오프라인 과외의 ‘관리 기능’과 인터넷 강의의 ‘가격 경쟁력’이란 장점을 결합한 초·중·고 내신 교육 서비스를 앞세워 학생들을 온라인 교육 시장으로 끌어당기고 있다. 전체 학습 시간의 약 89%를 실시간 학습 모니터링과 채점 등을 수행하는 AI에 맡긴 덕분에 실제 사람인 ‘온택트 선생님’은 학생을 동시에 8명까지 원격 관리할 수 있다. 2019년 상반기 출시한 이 서비스는 올 들어 월평균 1500명의 신규 회원을 확보하며 회원 수가 연내 2만 명을 돌파할 전망이다. 박찬용 밀당 대표는 “13조원에 달하는 사교육 시장 전체가 잠재 고객”이라고 강조했다.밀당PT의 사례처럼 중소기업이 주도하는 DX는 의류·식품·주거 등 오프라인 시장이 탄탄히 형성된 분야에서 두드러지고 있다. DX가 무(無)에서 유(有)를 창조하듯 없던 시장을 만들어내기보다는 그동안 디지털의 손길이 닿지 않았던 거대 아날로그 시장을 재편하는 데 큰 효과를 볼 수 있어서다. 디지털 기술을 접목해 유통시장의 변혁을 이끌었던 쿠팡, 마켓컬리나 금융시장에 변화를 준 토스가 대표적이다.전형적 1차 산업인 농업도 DX를 거치면서 핵심 미래 산업으로 변모하고 있다. 농업의 DX는 농기계 회사들이 주도하고 있다. 대동은 지난 2월 서울 본사 5층에 629㎡(약 190평) 규모의 스마트팜 테스트 베드를 완공했다. 이 시설에서 농작물을 직접 재배해 농업 관련 빅데이터를 수집하고, 이를 생육 레시피 개발에 활용하는 과정을 연구하고 있다. 최적의 작물 재배 조건과 농기계를 추천해주고, 농작물의 수확 및 유통 정보까지 제공하는 스마트파밍 플랫폼을 구축하는 게 최종 목표다. 보폭 넓히는 ‘중기 DX’중소기업의 DX는 폭넓은 분야에서 진행되고 있다. 이종산업과의 융복합으로 업그레이드하려는 움직임도 활발하다. 바디프랜드는 안마의자와 의료기기를 결합한 디지털 헬스케어 제품을 선보이며 보폭을 넓히고 있다. 2015년 3500억원 규모였던 안마의자 시장이 지난해 1조원을 돌파할 정도로 급성장하면서 신규 성장동력을 찾은 결과다. 올 1월 미국 라스베이거스에서 열린 CES 2022에서 생체 데이터를 수집해 질병을 예측하는 AI 소프트웨어를 시연하는 등 디지털 기술을 접목한 안마의자 분야를 강화하고 있다. 맞춤형 안경 브랜드인 브리즘은 사람 얼굴 데이터를 3차원(3D) 스캐닝으로 분석하고 신체 빅데이터를 활용해 제작한 ‘맞춤형 티타늄 안경’을 선보였다.공조기, 보안장치 등 건물 내 다양한 설비를 제어·점검·진단하는 스마트 빌딩 관리도 주목된다. 건물자산관리 전문회사 동우유니온은 건물 설비에서 얻은 데이터를 외부 클라우드에 저장 및 활용하는 스마트 빌딩 플랫폼을 보급하고 있다. 전국 5만 개 상업용 빌딩을 공략한다는 각오다.가정을 직접 방문하던 전기 검침원도 조만간 사라질 전망이다. 원격검침시스템(AMI) 솔루션 기업 누리플렉스는 전기, 수도 등 생활에너지의 사용량 데이터를 수집, 관리, 분석하는 원격 솔루션을 국내외에 보급하고 있다. 지난해 누적 기준 110만 가구에 AMI를 보급했다. 생산성 증대의 ‘선봉’DX는 AI와 빅데이터, 사물인터넷(IoT) 같은 첨단 기술이 적용된 스마트 제조 시설을 구축해 생산성을 획기적으로 끌어올리고 개별 소비자에게 최적화된 맞춤형 제품을 효율적으로 생산하는 ‘제조 혁신’도 이끌고 있다. 현대리바트는 올 상반기 용인 스마트워크센터(SWC) 3층에 수납장의 크기를 1㎜ 단위로 맞춤 생산할 수 있는 스마트공장을 조성했다. 공정 간 물류 이동까지 자동화한 높은 수준의 스마트 제조 시설을 통해 맞춤형 가구 생산성을 크게 끌어 올렸다.아주산업은 드론을 활용해 골재 재고를 관리하고 있다. 야적된 골재의 높이를 측정해 재고량을 계산하는 기존 방식에서 탈피한 덕분에 재고 오차가 1% 이내로 줄고, 재고 측정 횟수도 증가하는 성과를 거뒀다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>'일잘러' 공식 알려준 美 알토스…스타트업 82개사 150명 모였다</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004791394?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>"데이터를 기반으로 의사결정을 하고 데이터를 갖고 근거를 모두 만들어야 한다. 어떤 문제가 만만해 보인다고 해서 그냥 넘어가도 되겠다는 얄팍한 생각이 들 때가 있다. 이를 경계해야 한다."김성아 토스페이먼츠 프로덕트오너(PO)는 알토스벤처스가 주최한 컨퍼런스에서 "데이터 없이 일하면 팀원들끼리 갑자기 부딪히거나 더 심각하면 무질서하게 따라가다 절벽 밑에 떨어질 수 있다. 큰 후회와 상처를 남기게 된다"며 이같이 말했다. 5일 미국계 벤처캐피탈(VC) 알토스벤처스에 따르면 지난 2일 서울 구글 스타트업 캠퍼스에서 '일 잘하는 사람(일잘러)의 커뮤니케이션'을 주제로 인사이트 컨퍼런스가 열렸다. 이번 행사는 스타트업에서의 건강한 협업 방식과 조직문화 조성을 위한 지식 공유의 목적으로 마련됐다. 약 82개사 150여명에 달하는 알토스벤처스 포트폴리오사 및 스타트업 생태계 관계자들이 참여했다. 1996년 미국 실리콘밸리에서 설립된 알토스벤처스는 2014년부터 한국 스타트업을 위한 펀드 조성을 시작으로 한국에 적극적인 투자를 시작했다. 국내 스타트업 생태계에서는 유니콘(기업가치 1조원 이상 비상장기업)을 발굴·육성하는 '미다스의 손'으로 통한다. 쿠팡과 비바리퍼블리카(토스), 우아한형제들(배달의민족), 크래프톤 등에 투자해 수십 배 이상의 수익을 냈으며 쏘카, 타다, 직방, 지그재그 등 국내에서 성공적으로 자리 잡은 스타트업들이 알토스벤처스의 손을 거쳤다.리처드 송(송경찬) 알토스벤처스 파트너 /사진=알토스벤처스 컨퍼런스의 기조연설에는 리처드 송(송경찬) 알토스벤처스 파트너가 나섰다. 그는 9년간 쿠팡의 최고재무책임자(CFO)로 근무했던 경험을 바탕으로 기업의 확장과정에서 직군별 인재가 고려해야 할 점 등을 이야기했다.  송 파트너는 쿠팡 창업 이듬해인 2011년부터 2020년 1월까지 CFO를 지낸 뒤 같은해 7월 알토스벤처스에 합류했다. 그는 스타트업 성장 노하우에 대해 "고객과 만나며 목소리를 많이 듣고, 중요한 일을 가려내 집중하라"고 조언했다. 이어 윤예나 구글코리아 플랫폼·에코시스템 마케팅팀 헤드는 한국 스타트업 시장의 잠재력과 중요성을 알린 구글 코리아의 '창구 프로그램'을 어떻게 글로벌 본사에 설득해 진행할 수 있었는지 경험을 공유했다. /사진=알토스벤처스 이연주 생활연구소 최고운영책임자(COO)는 생활연구소를 공동 창업한 후 기획자, 오퍼레이터, CS(고객서비스), 매니저 교육 등을 담당하며 B2C 스타트업이 겪는 이용자, 개발자, 청소 매니저 간의 상황을 이해하고 소통에 대처하는 법을 강연했다. 이유진 카카오스타일 채용팀 리더는 '메타인지의 중요성'을 주제로 지그재그 초창기, 스타트업 1인 조직에서 인수합병을 거쳐 약 20명이 근무하는 팀원들과 함께 하기까지의 성장 과정에서 겪었던 협업 노하우 등을 공유했다. 알토스벤처스 관계자는 "창업자와 구성원 모두 일을 잘 해내고 싶은 마음은 같지만 조직의 성장과 세분화 과정에서 커뮤니케이션으로 인한 갈등이 발생한다. 업무 추진에 어려움을 겪고 있는 사람들이 많아 이번 행사를 기획했다"고 했다. 이어 "그동안 좋은 팀들에 투자하고 옆에서 지켜보면서 스타트업의 성장에 필요한 노하우들이 공유될 수 있으면 좋겠다고 생각했다. 이번 행사를 통해 개인과 조직의 성장을 동시에 이뤄낼 수 있는 지혜와 인사이트를 얻었길 바란다"고 덧붙였다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리' 바로가기]</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>토스, 새 로고(CI) 공개…'새로운 차원의 금융' 포부</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002284981?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>모바일 금융 서비스 토스를 운영하는 비바리퍼블리카가 ‘새로운 차원(New Dimension)’의 의미를 담은 새로운 로고를 5일 공개하며 리브랜딩 캠페인을 시작한다고 밝혔다.   토스의 새로운 로고는 평면이 아닌 3차원의 디자인을 구현한 점이 특징이다. 로고의 모양은 파란색 원의 모양을 입체적으로 구현한 형태로, 고정관념을 깨고 새로운 차원의 금융을 계속 선보이겠다는 토스의 의지를 상징한다는 설명이다.   금융 수퍼앱으로 성장해 온 토스의 보다 넓은 비전을 담기 위해 새로운 로고를 찾기 위한 프로젝트가 1년여에 걸쳐 진행됐다. 새로운 로고는 토스의 메인 컬러인 파란색을 유지하면서 토스만의 관점을 담은 새롭고 차별적인 디자인을 목표로 세웠고, 새로운 차원의 금융을 만들어 나가겠다는 포부를 담았다.   토스는 로고 리뉴얼과 함께 공식 캠페인 홈페이지를 공개했다. 해당 홈페이지에서는 3D 애니메이션으로 구현한 캠페인 오프닝 영상 'The Journey'를 확인할 수 있다. 영상은 새로운 별(로고)을 찾아 여러 행성을 여행하며 다양한 도전 속에서도 꿋꿋하게 여정을 이어가는 과정을 동화적인 애니메이션으로 제작했다.   새로운 로고의 다양한 이미지 및 토스의 브랜드 변천사를 확인할 수 있는 브랜드 스토리도 홈페이지에서 확인이 가능하다. 오는 14일에는 토스 리브랜딩 캠페인의 일환으로 제작한 브랜드 필름도 공개할 예정이다.   이승건 토스 대표는 “토스가 그간 만들어온 혁신에 이어 앞으로도 끊임없이 새로운 차원의 다양한 도전을 이어나가면서 각자의 상황에 상관없이 모두가 주체적인 금융생활을 할 수 있는 세상을 만드는데 기여하고자 한다”고 밝혔다.   토스는 2015년 공인인증서가 필요 없는 간편송금을 시작으로 무료 신용점수 조회와 대출비교 서비스 등 새로운 금융 서비스를 잇달아 선보였다. 지난해 3월에는 ‘토스증권’, 10월에는 ‘토스뱅크’를 출범했으며, 올해 말에는 신규 계열사 ‘토스플레이스’를 통해 오프라인 매장관리 서비스라는 새로운 영역으로의 진출을 앞두고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>금리 상승기에도 인터넷은행 대출 8개월째 증가세</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013414472?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>3사 여신 잔액 40조원 돌파…역머니무브 속 수신 규모도 성장금리 상승기에도 인터넷은행 대출 8개월째 증가세 (CG)[연합뉴스TV 제공]    (서울=연합뉴스) 오주현 기자 = 금리 상승으로 가계대출 수요가 줄고 있지만, 인터넷 전문은행 3사(카카오·케이·토스뱅크)의 여신 잔액은 8개월째 증가세를 보이고 있다.    2일 은행권에 따르면 8월 말 기준 카카오·케이·토스뱅크의 여신 잔액은 총 43조991억원으로, 40조원을 돌파했다.    은행별로 보면 카카오뱅크는 27조1천991억원으로 전달보다 2천487억원 늘었고, 케이뱅크는 9조5천억원으로 같은 기간 3천400억원 늘었다.    토스뱅크의 여신 잔액은 6조4천억원이었다. 토스뱅크는 7월 말 기준 여신 잔액은 공개하지 않았지만, 두 달 전인 6월 말과 비교하면 잔액이 2조2천억원 급증했다.    인터넷 은행 여신 포트폴리오의 대부분이 가계대출인 점을 고려하면, 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출이 8개월째 감소세를 보이는 현상과 대조된다.    5대 은행의 8월 말 기준 가계 대출 잔액은 696조4천509억원으로 전달 대비 9천858억원 뒷걸음질쳤다.    인터넷 은행 3사는 각기 다른 장점을 내세우며 여신 성장세를 유지하고 있다.    카카오뱅크 관계자는 "전월세·주택담보대출 등 담보부대출이 증가하면서 총 여신 잔액이 증가했다"고 설명했다.    카카오뱅크는 올해 2월 주택담보대출 상품을 처음 출시한 뒤 지난달 17일 대상 지역을 수도권 소재 아파트에서 전국으로 확대했으며, 금리도 여러 차례 인하해 수요를 견인했다고 설명했다. 8월 말 기준 누적 약정 금액은 5천500억원을 돌파했다.    케이뱅크는 낮은 신용대출 금리를 제공해 경쟁력을 확보했다.    은행연합회 공시에 따르면 지난 7월 신용대출(신규취급, 일시상환) 신용등급별 취급금리 전 구간에서 케이뱅크의 금리가 인터넷은행 3사 중 가장 낮았다.    케이뱅크 신용대출의 신용등급별 평균금리는 연 5.19%로 카카오뱅크(연 6.37%), 토스뱅크(연 7.14%)보다 낮았고, 신용점수 구간별로 비교했을 때도 더 낮은 금리를 제공하는 것으로 나타났다.    케이뱅크 관계자는 "고객들에게 더 낮은 대출금리를 제공하기 위해 꾸준히 신용평가모델(CSS)을 고도화하고 있다"고 말했다.인터넷은행 3사의 신용대출 금리 비교[은행연합회 홈페이지 캡처. 재판매 및 DB 금지]    후발 주자인 토스뱅크는 기존 1금융권에서 대출 승인이 나지 않았던 '신파일러(Thin Filer: 금융이력부족자)'를 위한 중저신용 대출 공급에 주력하고 있다.    토스뱅크 관계자는 "10명 중 4명의 고객이 중저신용 고객"이라며 "1금융권 인터넷 은행 중 가장 넓은 범위의 고객을 포용하고 있다"고 말했다.    시중 자금이 은행으로 되돌아오는 '역(逆)머니무브' 속에 인터넷 은행의 수신 규모도 커지고 있다.    역머니무브는 시중자금이 증시 등 위험자산에서 빠져나와 은행 등 안전한 투자처로 이동하는 현상을 말한다.    8월 말 기준 카카오뱅크의 수신 잔액은 전달보다 5천200억원 급증한 33조1천754억원이었다. 지난달 초 카카오뱅크가 수신 금리를 최대 0.8%포인트 인상한 뒤 자금이 대거 유입된 것으로 풀이된다.    같은 기간 케이뱅크의 수신 잔액도 200억원 늘어난 13조3천500억원이었다.    8월 말 토스뱅크의 수신 잔액은 26조4천억원으로, 지난 1분기 말(21조원) 이후 계속 증가했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.09.09.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>금융권 대안신용평가 개발 키워드는 '장기 전략'</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002637963?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>빅테크・인터넷은행 이어 시중은행 도입포용성・정확도 ‘장점’...프라이버시 등 극복5대 은행 사옥 ⓒ 각 사 제공[데일리안 = 이호연 기자] 최근 카카오뱅크, 토스뱅크와 같은 인터넷 전문은행이나 빅테크 기업은 물론 시중은행까지 앞다퉈 ‘대안신용평가’ 모형 개발에 앞다퉈 뛰어들고 있다. 전통적인 금융 데이터 외의 생활 금융 데이터를 활용해 대출 프로세스를 더욱 정교화시키겠다는 전략이다. 이같은 대안신용평가 모델 도입은 그 확장성으로 관련 시장은 더욱 커질 전망이다. 이와 관련 금융사들의 장기적인 적용 전략이 시급하다는 지적이다.9일 정윤영 하나금융경영연구소 수석연구원은 ‘대안신용평가, 대안이 될 수 있을까’라는 연구보고서를 통해 “금융시장의 불확실성 심화로 전통적인 신용평가 모형이 한계에 직면하면서 비금융정보로 차주의 신용도를 평가하는 대안신용평가가 부상했다”며 이같이 밝혔다.현재 시중은행들은 대출평가 모델 고도화에 공을 들이고 있다. 앞서 네이버파이낸셜, 카카오뱅크, 케이뱅크, 토스뱅크의 같은 곳들은 대부업체 신용데이터, 통신료 납부정보, 상권 변화, 매출 정보 등을 활용한 신용평가시스템(CSS)을 적용중이다.ⓒ 하나금융경영연구소 신한은행은 올해 하반기 은행권 중 처음으로 기업 신용평가 부문에서 ‘비재무 객관화 모형’을 전체 항목에 적용한 바 있다. 신한은행은 롯데멤버스, 카드가맹점 결제와 입출금 계좌 이용 등의 정보를 신용평가 과정에 추가한 모형도 구축한바 있다. 현재 운영중인 배달앱 ‘땡겨요’를 통해 쌓인 정보를 활용해 대안평가모형을 지속 개선하고 새로운 모형도 내놓을 방침이다.KB국민은행 또한 머신러닝 알고리즘을 적용한 소매신용평가 전략 모델을 구축했다. 하나은행은 입출금 통장 거래내역 등 빅데이터 기반의 신용평가 모형을 이용중이다. 우리은행은 지난해 7월 은행권 최초로 BC카드사 가맹점 정보를 신용평가에 반영한 비대면 개인사업자 모형을 개발했다. 기존에 운영중인 ‘비대면 중금리 신용평가 모형’은 통신료 납부정보 등의 비금융 데이터를 추가해 평가 속도를 높이고, 관련 모델을 정교화하는 작업을 진행중이다.전통적 신용평가(크레딧 스코어링) 모형은 과거 금융거래 기록과 유사한 대출건을 그룹화해 항목별로 점수를 부여해왔다. 동일한 금융거래를 기준으로 산출하다보니 위험을 적시에 반영하기 어려우며, 차주의 재정상태에 대한 정보가 부족한 경우 신용도 파악이 제한적이었다. 신용카드, 모기지, 신용조회정보 등이 이에 해당한다.이에 따라 중저신용자 대출을 위해 출범한 인터넷은행을 중심으로 비금융정보로 차주의 신용도를 평가하는 대안신용평가가 제시됐다. 데이터 3법 시행 후 관련 모형 개발이 활성화돼왔다. 국내외 금융사들은 주로 현금 분석이 용이한 SME(중소상공인)차주를 중심으로 관련 상품을 출시해오고 있다. 해외의 경우 홍콩의 PAOB, 중국의 MYbank, 미국의 Kabbage 및 Lending Club은 대안신용평가를 적용해 SME 대출을 시행하고 있다.정윤영 연구원은 “대안신용평가는 적시성, 포용가능성, 정확도 면에서 기존의 신용평가모형을 보완할 수 있지만 데이터 확보, 프라이버시 등은 해결해야 할 문제”라고 언급했다. 모형의 적합성을 높이기 위해서는 양질의 데이터가 필요하지만 데이터 편차가 심한 경우가 많으며, 부정확한 정보를 스크리닝하는 별도의 기술이 필요하다는 설명이다. 특히 개인정보가 포함한 데이터를 이용하는 경우 법적 이슈도 발생 가능할 수 있다.정 연구원은 “금융사의 대안신용평가 시스템 도입은 차주의 변별력을 향상시켜 중금리대출, BNPL(선구매 후결제) 서비스, 맞춤형 대출 서비스를 제공할 수 있어 매력적”이라며 “그러나 단순히 수익다각화, 신규시장 진출 수단으로 대안신용평가에 접근하기 보다 리스크관리와 포용금융 측면에서 지속적인 모형 고도화 방향을 고려할 필요가 있다”고 제언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.09.01.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[단독] 빌 윈터스 SC회장, 이승건 토스 대표 만난다… 두번째 회동</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000848496?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>빌 윈터스(Bill Winters) 스탠다드차타드(SC)그룹 회장/사진=SC그룹 한국을 찾은 빌 윈터스(Bill Winters) 스탠다드차타드(SC)그룹 회장이 이승건 비바리퍼블리카(토스) 대표와 만난다. 2020년 8월 토스뱅크의 출범을 앞두고 이승건 대표와 만난 후 두번째 이뤄지는 회동이다.  1일 금융권에 따르면 빌 윈터스 SC그룹 회장은 오는 2일 서울 역삼동 토스 본사를 방문해 이승건 대표와 만난다. SC제일은행은 현재 8.32%의 지분으로 토스뱅크의 지분을 보유하고 있다. 윈터스 회장은 지난 2020년 홍콩에 인터넷은행 '목스(MOX)'를 설립했고 토스뱅크에 지분을 투자하는 등 인터넷은행에 높은 관심을 보이고 있다.    지난해 10월 출범한 토스뱅크는 이달말 기준 고객 수 440만명을 돌파하며 금융시장에 안착했다는 평가를 받는다. 올 상반기 1243억원의 순손실을 기록했는데 이 가운데 2분기 589억원의 순손실을 내며 1분기(654억원 순손실) 대비 적자 폭을 65억원 개선했다.특히 2분기 충당금 전입 전 이익은 161억원 적자로 1분기보다 적자 폭을 240억원 줄여 재무 안정성이 개선됐다. 윈터스 회장과 이승건 대표의 두번째 회동에선 토스뱅크의 높은 성장세 등을 기반한 협력 관계 강화에 대한 대화를 나눌 것으로 알려졌다. 앞서 윈터스 회장과 이승건 대표는 토스가 해외에 진출할 경우 SC그룹의 글로벌 네트워크를 활용하는 방안에 대해 논의한 바 있다. 토스는 베트남과 인도네시아, 태국에 진출했고 한국의 안정적인 성장을 기반으로 해외 진출 확대를 꾀하고 있다.  SC제일은행 관계자는 "윈터스 회장이 이번주 짧은 일정으로 방한해 국내 지점을 방문하고 다양한 사람을 만나고 활동할 것으로 예상한다"고 말했다. 윈터스 회장은 JP모건 투자은행(IB) 부문 CEO, 영국 독립은행위원회(ICB) 위원, 렌쇼베이 헤지펀드 대표이사 등을 지냈다. 이후 지난 2015년부터 SC그룹 회장을 맡고 있다. 지난달 31일에는 김주현 금융위원장을 만나 국내·외 금융 현안에 대해 의견을 교환했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>'콜라보 맛집' 된 인터넷은행 플랫폼</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004748876?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>케이뱅크서 DB손보 보험 가입토스뱅크는 한투증권 상품 연계인터넷전문은행 케이뱅크가 24시간 아무 때나 케이뱅크 앱에서 여행자보험에 가입할 수 있는 서비스를 13일 출시했다. 단순한 은행이 아니라 ‘금융 플랫폼’을 표방해온 인터넷은행들이 자체 상품 판매에 그치지 않고 다양한 제휴사의 금융상품을 소개하는 데 공을 들이고 있다.케이뱅크는 DB손해보험과 손잡고 케이뱅크 앱에서 ‘DB손해보험 다이렉트 해외여행보험’에 가입할 수 있는 서비스를 선보였다. 해외여행 중에 발생할 수 있는 상해·질병, 휴대품 손해, 항공기 납치 사고 등 각종 비용을 보장해주는 상품이다. 케이뱅크 앱의 ‘보험’ 탭에서 배너를 클릭하면 DB손보 다이렉트 페이지를 통해 실속·표준·고급형 등 유형별 보험료를 즉시 확인할 수 있다. 가입자의 생년월일과 여행 기간만 입력하면 된다. 1991년생은 4박5일 여행을 기준으로 보험료가 5000원~1만원대로 산출된다.은행을 넘어 금융 플랫폼을 겨냥한 인터넷은행들의 행보가 꾸준히 이어지고 있다. 은행의 전통적인 수익 기반인 이자이익뿐 아니라 다른 금융사의 상품 광고를 통해 얻는 플랫폼 수수료 이익까지 노리는 것이다. 카카오뱅크의 올 상반기 플랫폼 수익은 전년 같은 기간보다 15.8% 증가한 469억원을 기록했다. 제휴 증권계좌 개설, 연계 대출, 제휴 신용카드 발급 등의 플랫폼 사업이 확대된 결과다. 카카오뱅크가 인터넷은행 최초로 내놓은 주식계좌 개설 서비스는 올 6월 말 기준 누적 계좌 수 600만 개를 넘어섰다.토스뱅크는 지난달 제휴사의 금융상품을 소개해주는 서비스를 출시하고 그 첫 상품으로 한국투자증권의 ‘퍼스트 발행어음’을 공개했다. 만기 6개월 기준 연 4.3%라는 파격적인 금리 조건에 4일 만에 2000억원이 완판됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>"주담대도 비대면"… 인뱅 거래 하루 평균 1조원대 돌파</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002754232?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>인터넷전문은행에서 신청된 하루 평균 대출금이 1조원을 넘어섰다. 각사 제공    올 상반기 인터넷뱅킹을 통해 신청된 대출금이 처음으로 하루 평균 1조원을 넘어섰다. 각종 서류를 갖고 은행 창구를 방문해야 대출을 받을 수 있었던 시대가 저물고 있는 것이다.15일 한국은행에 따르면 올 상반기(1∼6월) 19개 국내은행·우체국의 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출 신청 금액은 일평균 1조3194억원으로, 지난해 말(7908억원)보다 66.8% 폭증했다. 한은 관계자는 "인터넷 전문은행들이 신규 상품으로 주택담보대출(주담대)을 출시하면서, 이를 중심으로 신청 금액이 늘었다"고 말했다. 앞서 카카오뱅크는 올해 2월 처음 주담대 상품을 선보였다. 케이뱅크도 주담대 상품을 운영하고 있으며, 토스뱅크는 출시를 검토 중이다. 토스뱅크는 올 2월 소상공인을 대상으로 한 '사장님 대출'을 내놔 9개월만에 1조원을 돌파하는 등 가파른 성장세를 보이고 있다.인터넷 전문은행의 대출 신청 건수는 하루 평균 3만5000건으로, 7.4% 늘었다. 이용 건수는 꾸준히 늘며 역대 최대 기록을 갈아치우고 있다.인터넷뱅킹을 통한 자금 이체 이용 금액과 건수는 일평균 각각 73조7771억원, 1878만건으로, 2.1%, 6.9%씩 증가했다.이에 따라 대출 신청과 자금 이체 서비스를 모두 합한 인터넷뱅킹 일평균 이용 금액은 75조965억원, 이용 건수는 1882만건에 달했다. 지난해 말보다 각각 2.8%, 6.9% 늘어났다.이가운데 모바일뱅킹의 경우 이용 금액은 14조원을 넘어선 14조3260억원으로 집계됐다. 모바일뱅킹 이용 건수는 1603만건을 기록, 전체 인터넷뱅킹 이용 건수에서 85.2%를 차지했다.지난해 말 기준 국내은행의 인터넷뱅킹 등록 고객 수(여러 은행 등록 중복 합산)는 1억9950만명으로, 지난해 말보다 4.5% 증가했다. 이 중 모바일뱅킹 등록 고객은 6.0% 늘어난 1억6255만명으로 집계됐다.은행권 '메기'로 등장한 카카오뱅크 케이뱅크 토스뱅크 등 인터넷 전문은행들은 지난 8월말 기준 중저신용자 대출 비중이 각각 22.2%, 24.0%, 36.3%로 집계됐다. 연말 목표치로 카카오뱅크와 케이뱅크는 25%, 토스뱅크가 42%로 제시하고 있다. 하지만 최근 기준금리 인상에 따른 대출 금리 상승으로 대출 성장세에 둔화 조짐이 보이면서 목표치를 달성하기에 쉽지 않은 상황이다. 이에 은행들은 기업 대출 상품 출시, 월간활성이용자수(MAU)를 활용한 서비스 등 비이자이익을 통한 성장을 꾀하고 있다.카카오뱅크는 개인사업자대출을 이르면 10월, 늦어도 연내 출시하기 위해 분주히 움직이고 있다. 카카오뱅크는 소상공인이 카카오뱅크 앱으로 사업장까지 관리할 수 있게 하는 서비스도 함께 준비 중이다.금리 상승으로 가계대출 시장이 주춤거리는 반면 기업대출은 꾸준히 증가 추세다. 5대 은행(국민·신한·하나·우리·농협)의 개인사업자 대출은 8월말 기준 313조6373억원으로 전달(312조3965억원)대비 1조2408억원 늘었다. 지난해말보다 13조 증가한 점을 감안하면 인터넷 전문은행들이 진입할 여지가 충분한 것으로 보인다.카카오뱅크까지 개인사업자대출에 나설 경우 세 은행 모두 개인사업자 대출을 취급하게 된다. 각 은행은 앱 내 편의성과 신용평가모델 고도화로 고객을 끌어들이겠다는 전략이다.다만 무담보로 이뤄지는 인터넷 전문은행 개인사업자 대출 특성상 리스크 관리가 화두가 될 전망이다. 특히 지난해 말부터 영업을 시작한 토스뱅크의 경우 내년부터 연체율 등 건전성 지표가 정확히 집계되면서 업계 관심이 높아질 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.09.03.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>AI 로봇이 삼겹살 구워주고 도시락 배달해주는 회사 [황정수의 테크톡]</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004745636?sid=105</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>네이버 본사 '1784'구내식당 메뉴 중에AI가 구운 고기 등장재택근무 대세 됐지만기업들은 '사옥'에 투자 "첨단 기술의 테스트베드"네이버의 배달로봇 쿠키인공지능(AI) 로봇이 삼겹살을 구워주는 회사가 있습니다. 네이버입니다. 지난 4월 경기 분당에 문을 연 네이버 신사옥 '1784' 직원 식당 메뉴 중에 하나라고 합니다. 'AI 셰프 로봇이 구워주는 진한 풍미의 그릴 요리'라는 설명도 달려있습니다. (SNS 인스타그램에 '네이버 1784'로 검색하시면 로봇이 구워준 고기의 실제 사진 등을 보실 수 있습니다.)푸드테크 스타트업 '비욘드 허니컴'이 내놓은 메뉴입니다. 네이버의 스타트업 투자 조직 'D2SF'로부터 투자를 받은 기업입니다. AI 로봇이 센서를 통해 인간 셰프의 요리법을 48시간 학습하고 이를 토대로 고기를 굽는다고 합니다.  AI 로봇이 고기 굽고 그림도 그려 비욘드허니컴은 미국 라스베이거스에서 지난 1월 열린 'CES2022'에서도 로봇이 구운 연어요리를 선보여 주목을 받았습니다. CES2022를 취재했던 한국경제신문 계열사 한국경제TV 기자가 현장에서 연어요리를 직접 먹어봤는데 '따봉'을 외치기도 했습니다.  AI 로봇이 구운 고기 메뉴는 1784에 적용된 첨단기술 중 하나일 뿐입니다. 네이버는 신사옥 1784에 대해 "첨단 기술의 테스트베드"라고 소개합니다. 곳곳에 첨단 기술을 심었습니다.최근 1784 2층에 방문했을 때 자율주행 배달로봇, 그림 그리는 로봇, 배달로봇을 관리하는 로봇 등으로 빽빽했습니다. 특히 자율주행 로봇 '쿠키'는 네이버 임직원들이 주문한 커피나 도시락을 직접 갖다준다고 합니다. 테슬라가 카메라를 통해 수집한 데이터로 자율주행 기술을 고도화시키듯, 쿠키도 카메라를 활용해 1784 곳곳을 기억하고 이를 토대로 움직인다고 하네요.네이버 신사옥 1784에서 그림 그리는 로봇. 한경DB1784 2층엔 그림 그리는 로봇도 있습니다. 화가처럼 멋진 모습은 아니지만 볼거리는 됩니다. AI 로봇에 그림을 보여주면 로봇 팔이 이를 흉내내서 그리는 시스템입니다. ; 재택근무 시대에도 사옥 투자 활발...두나무는 '강남 빌딩 큰 손'코로나19 여파로 '재택근무'가 대세로 자리잡았음에도 불구하고 네이버 등 기업들은 '사옥'에 대한 투자를 이어가고 있습니다. 대면업무 공간 확보, 부동산 투자 등 전통적인 목적도 있지만 근본적인 원인으론 '기술 고도화'가 꼽힙니다. 기술 융합의 중요성 때문에 다양한 분야의 전문가들이 모여야 할 필요성이 커지고 있다는 얘기입니다.네이버 사옥 1784대면 공간 확보, 부동산 보유 등 전통적인 목적으로 사옥에 투자하는 곳도 적지 않습니다. 서울 강남 빌딩업계의 '큰 손'으로 부상한 두나무가 대표적입니다.이 회사는 지난 6월 리츠를 통해 서울 서초동 에이플러스에셋타워 매입에 나섰습니다. 지난해엔 3000억원을 들여 서울 삼성동 토지와 건물 2개를 매입하기도했습니다. 토스를 운영하는 비바리퍼블리카도 현재 들어가있는 서울 역삼동 사무실을 5300㎡(1600평) 확장했습니다.이미 대규모 사옥을 갖고 있는 대기업들은 '거점오피스' 확장에 적극적입니다. SK텔레콤은 지난달 서울 광장동 워커힐호텔에 네번째 거점오피스를 마련했습니다. 삼성전자는 대구광역시에도 거점오피스를 조성할 계획인 것으로 알려졌습니다.SKT 거점오피스. 한경DB ICT 기업들의 사옥은 앞으로도 살아남을 것으로 보는 전문가들이 많습니다. 기업들이 지속적으로 인력 확충 및 사업확장에 나서고 있기 때문입니다. 한 IT업계 관계자는 "직원들이 계속 늘고 있고, 모든 직원들이 재택근무를 원하는 건 아니기 때문에 공간에 대한 수요는 여전하다"고 설명했습니다. 기술 고도화에 따른 '연결'의 필요성도 제기됩니다. 업계 관계자는 "기술은 연결하고 합쳐져야한다"며 "공간, 기술, 사람, 로봇이 촘촘히 연결돼 융합돼있기 때문에 건물 자체가 '테스트베드'"라고 설명했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.09.08.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[단독]‘책 사고, 택시 탄 이력도 평가’...인뱅, 신용정보 확보 경쟁</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005313014?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>제휴사 넓히며 신용평가모델 고도화씬파일러, 중ㆍ저신용자 대출시 적용[이데일리 전선형 기자] 인터넷뱅크가 비금융정보 확보에 안간힘을 쓰고 있다. 씬파일러(Thin-filerㆍ금융이력부족자)와 중ㆍ저신용자들의 범위를 넓혀 대출 고객을 확보하기 위해서다. 인터넷은행들은 서점에서 책을 사보거나, 택시를 한 달에 몇 번 정도 탔는지, 휴대폰 요금을 얼마를 내는지 등 다양한 비금융정보를 대출 평가 항목으로 넣고 있다. [이데일리 이미나 기자]◇인뱅3사, 씬파일러 위한 대안정보 개발중7일 금융업계에 따르면 카카오뱅크는 연내 대안정보를 활용한 신용평가모형(CSS)을 개발해 적용할 계획이다. 대안정보란 대출이나 카드사용 등의 금융거래 내역이 아닌 통신ㆍ전기ㆍ가스 요급 납부이력 등 비금융정보를 말한다. 대부분 차주의 최신 정보를 반영하기 때문의 특성상 차주의 현황을 실시간 모니터링이 가능하다는 장점이 있다.카카오뱅크는 교보문고와의 제휴를 통해 도서 구입 이력 등을 신용평가 항목에 넣을 예정이다. 또 카카오공동체를 활용해 카카오톡에 있는 ‘선물하기’ 이력, 카카오모빌리티의 택시탑승 및 대리운전 이용내역 등을 신용정보 평가에 넣을 계획이다. 카카오뱅크 관계자는 “씬파일러 등 금융이력이 부족한 사람들의 평가를 위한 보완적 요소로 대안정보를 활용하려는 것”이라며 “현재 개발 중인 단계”라고 말했다. 케이뱅크도 대안정보 수집 범위를 넓히고 있다. 통신요금 및 스마트폰 할부금 이용 데이터를 확보하고, 백화점·마트 등에서 패션, 여가활동, 외식, 생활용품 등에 대한 구매 등 쇼핑정보도 수집해 평가항목으로 넣었다. 지난달에는 IPTV 사용정보, 데이터 사용량 등 통신 사용 행동 정보를 추가했으며 쇼핑 이용정보(시간대별 이용 패턴, 현금 이용 정보 등)을 추가 수집해 전략 모형을 개발했다. 토스뱅크의 경우 카드를 이용한 소비패턴 내용을 분석하고, 계좌 내에서도 송금 내용, 정기적인 보험료 납부 내욕 등을 신용평가 항목이 넣어 씬파일러들의 신용평가를 하고 있다. “중저신용자 고객 확보하라” 목표달성 안간힘인터넷은행들이 대안정보 확보에 열을 올리고 있는 건, 중저신용자 고객 확보를 위한 것이다. 인터넷은행들의 경우 매년 중저신용자 비중 목표를 달성해야하는 의무가 있기 때문이다.지난해 말 기준 인터넷은행들의 중·저신용자 대출 비중은 케이뱅크가 16.6%, 카카오뱅크가 17%, 토스뱅크가 23.9%로 집계됐다. 당초 목표는 지난해 말 기준 케이뱅크가 21.5% 카카오뱅크가 20.8%, 토스뱅크가 34%였다. 지난해 대출규모가 크게 늘었지만, 대부분 고신용자에 집중되면서 목표치를 채우지 못했다. 특히 케이뱅크와 카카오뱅크는 중·저신용자 대출 비중을 높이기 위해 중·저신용자 혜택을 강화하고 고신용자 대출을 일부 제한하는 등 특단의 조치를 취했으나 목표달성은 실패했다. 올해 상반기의 경우 카카오뱅크는 22.2%, 케이뱅크는 24%, 토스뱅크는 36.3%로 목표치에 근접했지만, 연말까지 시간이 꽤 남은 상황이라 인터넷뱅크들은 긴장을 늦추지 않고 있다.인터넷은행들은 내년까지 중저신용자 대출 비중을 30% 이상으로 끌어올려야 한다. 금융당국은 목표 달성을 하지 못한 은행에 ‘금융 신사업 인·허가 과정에서 불이익을 줄 수 있다’며 압박을 가하고 있다. 한 은행권 관계자는 “인터넷뱅크의 경우 대부분 이자수익으로 먹고 사는데, 전반적인 여수신 규모가 늘어야 수익이 나는 구조”라며 “고신용자 대출을 늘리려면, 중저신용자 대출 규모도 함께 늘어야 하기 때문에 대안정보를 집중적으로 수입해 차주 범위를 넓히려는 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.09.11.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>투자 혹한기에도 개발자 채용은 분주…채용시장 다각화</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005145785?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>스타트업 투자 시장 혹한기에도 핵심 개발 인재를 확보하기 위한 기업들의 움직임이 분주하다. 안정적인 사업 모델로 시장에 증명해야 하는 이 시기를 오히려 성장 가능성 높은 인재를 채용, 양성할 수 있는 기회로 삼는 기업들이 많아졌기 때문이다.실무에 투입해도 무리가 없도록 개발자들의 역량을 강화해주는 서비스, 높은 매칭률로 기업과 개발자에게 꼭 맞는 채용을 연계해주는 플랫폼, 직접 개발 인재를 양성하는 유수의 기업까지 등장하고 있다.11일 관련 업계에 따르면 팀스파르타가 운영하는 ‘포트(Port)99’는 복잡한 절차 없이 대규모의 신입 개발자 지원을 받고 간편하게 관리할 수 있는 채용 플랫폼이다. Port99를 이용하는 협력사들은 개발자들의 이력서를 별도 다운로드 없이 직무 및 기술 스택 별로 쉽게 조회할 수 있다.Port99를 이용하는 기업회원은 채용공고 업로드 후 10분 이내로 첫 지원자를 확인할 수 있다. 평균적으로 한 기업당 20개 이상의 입사지원을 받게 된다. 현재 시리즈A 규모 스타트업부터 카카오벤처스 패밀리사를 비롯해 토스, 오늘의집, 우아한형제들 유수의 기업들까지 700개 이상의 기업이 Port99 기업회원으로 함께 하고 있다.IT기업의 탄탄한 역량을 바탕으로 직접 개발자 양성에 나서는 기업도 있다. ‘배달의민족’ 운영사인 우아한형제들은 프로그램 개발자 저변을 확대하기 위해 2019년 개발자 양성 프로그램 ‘우아한테크코스’를 도입했다. 채용 연계 프로그램 ‘우아한테크캠프’도 함께 운영 중이다. 기술적 역량과 더불어 팀 프로젝트를 통해 개발자에 필요한 커뮤니케이션 역량을 갖출 수 있도록 하고 있다.해당 교육은 10주 과정이다. 프로그래밍 기본부터 시작해 심화 과정까지 이어진다. 비전공자들도 프로그래밍 언어를 이해하고, 애플리케이션 개발 공식을 배워 유지하고 관리하는 수준까지 이를 수 있다. 교육은 웹백엔드와 웹프론트엔드 두 가지를 진행한다. 해당 수업에 대한 교육비는 전액 우아한형제들이 부담한다.인덴트코퍼레이션은 서비스 고도화 및 글로벌 진출을 앞두고 개발자 채용을 진행한다. 오픈소스 기여자이자 개발자로 유명한 전수열 iCTO(interim-CTO)를 주축으로 IT 핵심 전력 채용에 나섰다.올해 인덴트코퍼레이션에 합류한 전 iCTO는 기술 리더로 역할을 총괄하며 핵심 역량을 갖춘 IT 인력 채용에 집중, 본격적인 개발팀 구성에 속도를 올릴 계획이다. 채용 직군의 주요 업무는 B2B(기업간 거래) 서비스 ‘브이리뷰’ 및 B2C(기업과 소비자간 거래) 서비스 ‘스프레이(Spray)’의 백엔드 개발 업무를 수행할 예정이다.렌트카 가격 비교 앱 카모아를 운영하는 팀오투에서는 벡엔드 개발자 채용을 진행한다. 카모아 내부 및 외부 API(응용 프로그램 인터페이스) 개발 업무를 수행할 예정이다. 컴퓨터 공학 및 웹서비스 전문성 등 일정 조건을 갖추면 신입부터 지원할 수 있다.로봇 솔루션 및 서비스를 개발하는 클로봇은 연구소 자율주행 개발자, 로봇 응용 SW개발자 부문에서 채용을 진행한다. 신입·경력 무관하게 채용을 진행하며 로보틱스 및 컴퓨터 공학 관련 전공자를 우대한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>클라우드 사업, 아마존 영업이익의 70% 비중</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/037/0000031443?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>국내 클라우드 관리 서비스업계 규모 7조 원대… 낮은 수익률 개선이 과제아마존웹서비스(AWS)와 구글 클라우드 플랫폼(GCP), MS의 클라우드 서비스 애저(Azure) 로고(왼쪽 위부터 시계 방향으로).20년 전만 해도 동네마다 있던 비디오 대여점과 음반 가게가 사라진 지 오래다. 멜론, 아이튠즈, 넷플릭스, 푹(pooq), 유튜브 등 플랫폼이나 온라인 동영상 서비스(OTT)가 기존 오프라인 시장을 대체한 것이다. 이처럼 서버에 각종 데이터와 콘텐츠를 저장해두고 어떤 디지털 기기에서든 연결해 사용할 수 있는 것을 스트리밍 서비스라고 한다. 마치 수도꼭지를 틀면 물이 나오듯 필요할 때 인터넷 서비스를 이용할 수 있게 된 것은 클라우드 기술이 진화한 덕분이다.서비스 중계 ‘클라우드 관리 서비스 제공사’ 부상인터넷 속도가 빨라지고 고객 중심의 온 디맨드(on demand) 서비스가 자리 잡으면서 클라우드에 데이터와 서비스, 애플리케이션(앱)을 설치해 제공하는 방식이 보편화됐다. 특히 디지털 트랜스포메이션을 추진하는 전통 ‘굴뚝 산업’ 기업이 전산시스템을 구축하고 IT(정보기술) 자원을 운용할 때 클라우드는 매력적 선택지다. 자체 네트워크를 마련할 필요가 없어 초기 투자비용을 크게 줄일 수 있기 때문이다. 이처럼 IT 분야뿐 아니라 전통 산업에서도 수요가 폭증해 클라우드 사업은 계속 성장하고 있다. 이미 자리 잡은 클라우드 기업들의 네트워크 효과와 기술 진입 장벽 등으로 신규 업체의 진입도 어려운 편이다. 현재 사업을 영위하는 업체로선 호재인 것이다.클라우드 기술을 비즈니스화해 운영하는 대표 주자가 아마존, MS, 구글 등 빅테크 기업이다. 이들은 미국 나스닥 상장 기업으로 각각 시가총액 순위 톱5에 드는데, 클라우드 비즈니스를 새로운 동력원으로 삼아 성장하고 있다. 가령 아마존의 클라우드 사업부문 ‘아마존웹서비스(AWS)’는 매출 기준으로는 전체 2329억 달러(약 312조 원)의 11%인 257억 달러(약 34조4500억 원)에 불과하지만, 영업이익에 기여하는 비중은 70%가 넘는다. MS와 구글 성장에서도 매출 포트폴리오를 탄탄히 해주는 클라우드 사업의 몫이 적잖다. 국내에서도 클라우드 수요가 늘면서 서비스를 중계하는 업체, 즉 ‘클라우드 관리 서비스 제공사(MSP)’가 주목받고 있다.클라우드 사업 분야는 크게 IaaS, PaaS, SaaS 3가지로 분류된다. IaaS는 고객이 컴퓨터와 네트워크 자원을 필요한 만큼 빌려서 사용할 수 있는 서비스다. SaaS는 MS 오피스 같은 소프트웨어를 구독료를 내고 필요한 수량과 기간만큼 사용하는 것이다. PaaS는 전산 관련 업무에 필요한 각종 솔루션을 제공받아 사용하는 것을 가리킨다. 현재 시장 규모는 SaaS의 비중이 가장 크고 IaaS, PaaS가 뒤를 잇는다. 넷플릭스는 전 세계에 스트리밍 동영상 서비스를 SaaS 형태로 제공하고 있다. 다만 그 인프라는 독자 시스템이 아닌, 아마존 AWS를 이용한다. 배달의민족과 토스 등 국내 인터넷 서비스도 클라우드를 이용해 사업하고 있다.기업들이 클라우드를 도입하는 가장 큰 이유는 무엇일까. 무엇보다 요구사항에 맞는 유연한 시스템을 저렴한 비용에 빠른 속도로 구축할 수 있기 때문이다. 경영 환경이 급변하는 시대에 각 비즈니스에 필요한 시스템을 적재적시에 제공하는 것은 기존 IT 인프라로는 불가능에 가깝다. 가령 코로나19 유행 후 쿠팡이나 마켓컬리 같은 업체는 주문량이 폭증해 IT 솔루션을 대폭 강화해야 했다. 트래픽을 소화할 수 있는 네트워크 인프라 대응은 물론, 고객의 새로운 요구에 발맞춰 앱을 보완하고 백 엔드(back end) 시스템도 개선해야 하는 것이다. 이럴 때 클라우드의 진가가 발휘될 수 있다.클라우드는 네트워크, 인프라, 시스템, 앱에 필요한 다양한 요구사항을 그때그때 지원하는 자원을 구비하고 있다. 마치 수만 개 상품이 진열된 마트와도 같은 서비스다. 필요한 기능을 사용할 만큼 선택해 도입하고 비용도 그만큼만 지불하면 된다. 이 과정에서 클라우드에 진열된 서비스를 기업 요구에 맞게 취사선택할 수 있도록 돕는 것이 MSP의 역할이다. MSP는 클라우드를 구축하려는 기업을 위해 클라우드 전환 컨설팅, 디자인 및 개발, 운영 전반에 대한 자문을 해준다. AWS나 MS의 애저(Azure), 구글 클라우드 플랫폼(GCP) 같은 ‘클라우드 서비스 제공사(CSP)’의 인프라를 이용하는 데 필요한 시스템 구축 및 운영을 대행하는 서비스인 것이다.업계 1위 메가존클라우드 지난해 첫 흑자업계 추산에 따르면 올해 국내 MSP 시장 규모는 약 7조 원에 달한다. MSP 사업 분야의 전통 강자인 메가존클라우드, 베스핀글로벌, 메타넷티플랫폼은 물론, 삼성SDS와 LG CNS, 쌍용정보통신 등이 뛰어들면서 경쟁이 치열해지고 있다. MSP의 사업 영역을 시간대별로 나열하면 △클라우드 도입 컨설팅 △기존 시스템과 클라우드의 연동 및 전면 전환을 위한 인프라 구축 △플랫폼, 앱 개발 △클라우드 중심 체제로 전환 후 운영이다. 사실 클라우드는 고객사 니즈에 따라 컴퓨팅, 인터넷 자원을 취사선택해 사용할 수 있는 구조다. 기업 내부에 전문 인력이 있다면 MSP를 거치지 않고 직접 클라우드를 이용하면 된다. 그러나 비(非)IT기업들은 클라우드 전환 전부터 디지털 인프라를 내재화하지 않고 외주 형태로 운영했다. 클라우드 전환을 전담할 전문 인력이 있을 리 만무하다. 대다수 기업이 안정적인 시스템 운영을 위해 여러 클라우드를 동시에 이용하는 것도 변수다. 서로 다른 종류의 클라우드를 유연하게 운영하려면 전문 인력이 더더욱 필요하다. MSP의 역할이 각광받는 이유다.국내 MSP 시장은 메가존클라우드, 베스핀글로벌, 메타넷티플랫폼 등 3개 기업 주도로 성장했다. 2020년부터 대형 정보 시스템 구축(SI) 기업들의 참여로 시장이 확대되고 있다. 그런데 MSP 사업의 매출은 많지만 CSP 측에 들어가는 비용을 고려하면 수익률 자체는 높지 않다. 실제 업계 1위인 메가존클라우드는 지난해 매출 9000억 원을 달성해 2009년 클라우드 사업 본격화 이후 12년 만에 흑자 전환했다. MSP 2위 사업자인 베스핀글로벌은 여전히 적자를 면치 못하고 있다. 이에 따라 MSP 업계의 고민도 깊어지고 있다. 매출이 대부분 CSP로 가기에 독자적인 매출원 확보를 위한 노력도 병행 중이다. MSP 사업만으론 시장 경쟁력이나 영업이익 확보가 어렵기에 IT 시스템 전반과 클라우드 서비스의 통합 연계 지원이 유력한 대안으로 떠오르고 있다.그렇다면 MSP가 갖춰야 할 역량은 무엇일까. 첫째, 클라우드뿐 아니라 IT 전반에 대한 전문성이 필요하다. 둘째, 클라우드 전환에 필요한 전체 프로세스를 꿰뚫고 있어야 한다. 셋째, MSP 사업자가 CSP에 대해 속속들이 알고 있어야 한다. 기업 요구에 맞는 최적의 CSP 자원을 추천하려면 특정 퍼블릭 클라우드 공급사에 얽매여선 안 되기 때문이다. 국내 MSP 시장은 도입, 성장기를 거쳐 성숙기에 접어든 것으로 보인다. 향후 MSP 사업자 간 인수합병(M&amp;A)이 벌어지고 대형 SI 기업의 가세로 새로운 경쟁 구도가 펼쳐질 전망이다.*유튜브와 포털에서 각각 ‘매거진동아’와 ‘투벤저스’를 검색해 팔로잉하시면 기사 외에도 동영상 등 다채로운 투자 정보를 만나보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>추석, 잔소리를 피하라... 파고다, 명절대피소 온·오프라인 운영</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000848732?sid=102</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>/사진=파고다교육그룹 파고다 교육그룹이 9월 9일 금요일부터 9월 12일 월요일까지 4일간, 명절대피소를 운영한다고 밝혔다. 특히 코로나 시작하고, 온라인으로만 운영하던 것을 약 3년 만에 오프라인으로 오픈한다.파고다는 2015년부터 명절대피소 캠페인을 운영했으며, 명절에 파고다를 방문하면 준비된 학습 공간을 이용하고 간식을 먹으면서, 눈치보지 않고 편하게 공부할 수 있다. 파고다 관계자에 따르면 명절대피소는 명절마다 약 1000여 명이 찾고 있다.첫 번째 대피 방법은 연휴 기간에 파고다 강남학원, 종로학원, 신촌학원, 인천학원, 서면학원, 부산대 학원을 찾으면 된다. 명절 연휴 첫날인 금요일에는 해당 지점 모두 10시에 오픈하며, 요일과 지점에 따라 운영시간이 다르다. 두 번째 대피방법은 '추석 LIVE 스트리밍 이벤트'이다. 9월 9일 금요일에 부산대학원 ELLE박(리얼토익), 강남학원 켈리정(스타토익), 강남학원 Claire 서(올클토스) 강사들이 라이브 스트리밍을 통해 게임을 진행한다. 또, 파고다 명절대피소를 소문내는 이벤트도 진행한다. 오는 9월 12일까지 인스타그램 필수 해시태그와 함께 업로드하고, 파고다 공식 인스타그램을 팔로우한 후, 콘텐츠 URL 주소를 댓글에 남기면 참여가 완료된다. 파고다어학원 관계자는 "명절에도 학습을 이어 나가야 하는 학생 및 취준생들과 친척들의 잔소리를 피하고 싶은 대학생들을 위해 편하게 공부할 수 있는 공간을 마련했다. 파고다 명절대피소에 방문해 명절 스트레스를 덜어내고, 공부에 더 집중하는 데 도움이 되기를 바란다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>“토스·카카오페이증권, 자본부족”</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002037124?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>유안타證  “흑자전환 어려워”밸류에이션 낮춰야 증자 가능유안타증권 제공[헤럴드경제=김상훈 기자] 토스증권과 카카오페이증권 등 인터넷전문증권사들이 빠른 흑자전환을 위해선 신용공여 확대 방안을 모색해야한다는 분석이 나왔다.정태준 유안타증권 연구원은 5일 보고서를 통해 “금융업은 자본이 수익의 재원이기 때문에 기본적으로 흑자 상태가 유지되어야 안정적인 외형성장이 가능하다”며 이같이 밝혔다.그러면서 “인터넷전문증권은 키움증권의 선례와 같이 빠른 모객과 신용공여 확대를 통해 이자손익으로 판관비를 감당할 수 있어야 흑자전환에 성공할 수 있다”며 “다만, 신용공여는 자본의 100% 이내에서 제공할 수 있기 때문에 이는 결국 자본 확대의 문제로 이어진다”고 덧붙였다.토스증권의 경우 해외주식 서비스 시작 이후 이 부분에서 고성장이 이어지며 2분기 당기순손실 65억을 기록했다. 지난해 4분기(-142억원), 1분기(-104억원)에 이어 개선된 흐름이지만, 이자손익은 아직도 이익 기여도가 미미하다는 분석이다. 반면 카카오페이증권은 2분기 당기순손실은 131억원으로, 지난해 4분기(-45억원), 1분기(-109억원)에 이어 실적 부진이 심화되고 있다.정 연구원은 “토스증권은 흑자 전환을 위해서 43억 원의 추가 이자수익이 필요하기 때문에 신용공여금은 약 2000억원, 자본은 900억원이 추가로 필요하다”며 “카카오페이증권은 토스증권보다 이익 체력이 더 낮고 판관비는 더 많아 흑자 전환을 위해 더 많은 자본 확충이 필요하다”고 분석했다.다만 현재 양사의 밸류에이션이 높다는 점은 추가 자본 조달을 어렵게 하는 요소로 꼽힌다. 정 연구원은 “토스증권의 최근 발행가액을 기준으로 산출한 주가순자산비율(PBR)은 7.79배에 이르며, 카카오페이증권은 과거 유상증자 당시 PBR 7.44배로 유사한 수준”이라며 “높은 밸류에이션으로 조달한 사례가 기준으로 잡혀있어 추가 자본확충에 난항을 겪을 가능성이 있다”고 전망했다.이어 “적자가 누적되는 상황에서 시간이 지날수록 자본이 감소해 PBR이 더 상승하고, 그대로 두면 자본잠식으로 이어지기 때문에 발행가액을 낮추는 등의 조치가 나타날 것”이라고 예상했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.09.14.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>K시장 흔드는‘애플페이’… 간편결제 판도 소용돌이</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003301294?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>이르면 연내 시범서비스 시행현대카드 배타적 사용권 계약NFC 단말기 적어 사용성 낮아오프라인 사용 땐 수수료 0.15%아이폰 사용자인 직장인 유모(27)씨는 최근 현대카드를 새로 발급받았다. 현대카드가 애플페이를 지원하면 카드를 발급받으려는 고객이 늘어나 카드를 받기까지 대기 시간이 길어지는 ‘대란’이 벌어질까 우려해서다. 유씨와 같은 아이폰 사용자들이 애플페이 국내 도입을 손꼽아 기다려 온 만큼 실제로 국내 서비스가 시작되면 간편결제시장이 요동칠 것으로 전망된다.13일 카드업계에 따르면 현대카드는 애플페이의 국내 배타적 사용권을 갖는 내용의 계약을 마무리하고 이르면 연내 시범 서비스를 시행할 전망이다. 애플과 같은 휴대폰 제조사인 삼성전자의 삼성페이를 포함해 카카오페이, 네이버파이낸셜, 토스페이먼츠 등 전자금융업자, 금융사까지 뛰어든 간편결제시장은 춘추전국시대를 맞이할 것으로 보인다. 간편결제시장이 해마다 커지면서 사업자 간 경쟁도 치열해지는 모양새다. 간편결제 서비스 하루 평균 이용 금액은 지난해 기준 6065억원으로, 1년 전보다 35%나 늘어났다.전자금융업계 관계자는 “애플페이가 국내 들어오면 간편결제시장에서 가장 무서운 경쟁자로 떠오를 것”이라고 말했다. 넘쳐나는 경쟁자에 업계는 결제를 넘어선 사업 다각화로 고객을 확보하기 위해 분주하다. 중고거래 플랫폼인 당근마켓은 최근 당근페이에 계좌송금 기능을 추가했다. 삼성전자는 삼성페이를 통해 국내 대학 모바일 학생증을 발급하기 시작하면서 신분 증명으로 영역을 확장했다. 학생증 사업은 카드사, 은행 등 금융권에서 고객 유입을 위해 활용하는 수단 중 하나다. 네이버파이낸셜은 오프라인 가맹점을 늘려 외부 결제처 확대에 공을 들이고 있다.애플페이가 국내 도입되려면 근접무선통신(NFC) 호환 단말기 보급이라는 문제를 해결해야 한다. 애플페이는 스마트폰을 NFC 단말기에 갖다 대는 방식으로 결제가 이뤄질 전망인데, 국내 카드 전체 가맹점 300만여곳 중 호환 단말기를 갖춘 곳은 6만~7만곳에 그친다. 카드업계 관계자는 “현대카드가 NFC 단말기 보급을 확대하고자 지원금 형식으로 밴사(부가통신업자)에 일정 규모의 단말기 매입을 약속했을 가능성도 있다”고 밝혔다.일각에서는 고객이 수수료 역풍을 맞을 수 있다는 우려도 제기된다. 오프라인 결제에 수수료를 부과하지 않는 삼성페이나 카카오페이와 달리 애플페이는 결제에 따른 수수료를 0.15% 정도로 책정해 이미 서비스를 시행하고 있는 해외 사업자들의 원성을 샀다. 이러한 수수료 부담이 고객 혜택 축소로 이어질 수 있다는 지적이다. 원달러 환율이 1380원을 넘나드는 강달러 상황도 위험 요소다. 수수료 계산에 쓰이는 환율이 높아지면 현대카드가 부담하는 비용이 늘어날 수밖에 없기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>게임업체들도 추석 이벤트…넷마블 등에서 게임아이템 이벤트 진행</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001173214?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>넷마블은 추석을 맞아 자사 인기 게임 12종에서 특별 이벤트를 진행한다고 6일 밝혔다. 넷마블 제공.게임업체들이 추석 연휴를 맞아 게임에서 사용할 수 있는 아이템 등을 제공하는 이벤트에 나섰다.넷마블은 추석을 맞아 자사 인기 게임 12종에서 특별 이벤트를 진행한다고 6일 밝혔다. 모바일 MMORPG ‘세븐나이츠 레볼루션’에서는 추석을 기념해 14일까지 송편 모으기 이벤트를 진행한다. 장비 및 카드 레벨업 진행, 생도 결투 완료, 룬 모험 던전 클리어 등 게임 내 미션 플레이를 통해 송편을 획득할 수 있고, 모은 송편으로 4성 영웅 소환권, 전설 의상 교환권, 카드 소환권 10장 등 다양한 아이템을 조합할 수 있다. 이 외에도 3대3 영웅전 플레이, 무한 던전 클리어 등 게임 플레이 통해 일일 최대 30만 골드를 획득할 수 있는 이벤트도 14일까지 진행한다.모바일 MMORPG ‘블레이드 &amp; 소울 레볼루션’에서는 9월 말까지 ‘캠페인 이벤트’, ‘풍성한 한가위 미션 이벤트’를 실시한다. ‘캠페인 이벤트’는 신규 이벤트 지역 ‘달토끼 평야’에서 사냥을 통해 ‘달토끼 주화’를 모아 ‘전설 수호령 선택상자’ 등으로 교환할 수 있다. ‘풍성한 한가위 미션 이벤트’는 세력전 참여와 같은 미션을 완료하면 ‘전설 사냥 무기함’ 등 다양한 보상을 획득할 수 있다.모바일 MMORPG ‘리니지2 레볼루션’은 오는 9월 15일까지 윷놀이 이벤트를 통해 '변신체 강화주문서(3개)' 등 다양한 보상을 증정하고, 윷판을 완주할 때마다 확장팩 시즌3 관련 아이템을 추가로 제공한다. 넷마블은 이용자들의 성장을 돕는 송편 아이템을 9월 1일부터 14일까지 증정한다. 송편 아이템은 게임에 접속하면 지급되며, 추석 연휴 기간에는 송편이 추가로 제공된다.모험 RPG ‘제2의 나라: Cross Worlds’는 7일 동안 접속하면 ‘골드’, ‘6성 선택 장식함’, ‘신묘한 액막이 인형’, ‘장비/이마젠/수정구 소환 쿠폰’ 등을 증정하는 이벤트를 9월 29일까지 실시한다.모바일 캐주얼 보드게임 ‘모두의마블’에서는 게임에 접속하는 모든 이용자들에게 접속만 해도 최대 ‘10,000 다이아’와 강력한 공격력을 지닌 캐릭터 ‘진화 불멸 루시아’를 증정하는 이벤트를 진행한다.모바일 야구 게임 ‘마구마구2022 모바일’에서는 21일까지 ‘즐거운 한가위 시즌’ 이벤트를 실시하며, 이용자들은 출석과 게임 플레이를 통해 획득한 ‘한가위교환상자’로 레전드 선수 카드를 얻을 수 있다. 또 ‘고급 강화 복구권’, ‘강화상승권’ 등의 아이템을 거니로 구매할 수 있는 특별 혜택도 제공한다.‘넷마블 프로야구 2022’에서는 13일까지 ‘추석 송편 박스 이벤트’를 실시한다. 이용자들은 챌린지 모드 등에서 승리하거나 무승부를 기록하면 최고 등급의 ‘다이아몬드 선수카드’ 등 고급 보상이 담겨 있는 송편 박스를 얻을 수 있다.모바일 캐주얼 힐링 게임 ‘머지 쿵야 아일랜드’는 9월 9일부터 12일까지 ‘별조각’, ‘코인’, ‘목재’ 등 날아다니는 비행자원을 터치하면 획득할 수 있는 이벤트를 진행한다. 또 추석 연휴 기간 접속 이벤트를 통해 매일 30젬(게임재화)을 받을 수 있다. 기타 넷마블 게임과 관련한 자세한 내용은 넷마블 홈페이지를 통해 확인할 수 있다.펄어비스는 ‘검은사막 모바일’ 추석 이벤트를 6일부터 13일 오전 9시까지 진행한다. 펄어비스 제공.펄어비스도 ‘검은사막 모바일’ 추석 이벤트를 6일부터 13일 오전 9시까지 진행한다. 게임에서 사냥을 통해 송편 반죽, 깨, 콩, 밤을 모아 ‘송편’으로 교환할 수 있는 ‘추석 맞이 송편 빚기’ 이벤트나 ‘추석맞이 매일 임무’ 이벤트를 수행하면 송편이 지급된다. 각 송편을 사용하면 카프라스의 비급서 낱장, 그림자 매듭, 뒤엉킨 시간, 정제수 등을 획득할 수 있다. 접속만 하면 매일 각종 보상을 받을 수 있는 ‘어드벤트 캘린더’와 전투 경험치 및 아이템 드롭 확률 증가 혜택을 누릴 수 있는 ‘추석 핫타임 지원!’도 진행된다. 검은사막 모바일의 추석 이벤트에 대한 자세한 내용은 공식 포럼에서 확인할 수 있다.펄어비스는 ‘검은사막 모바일’에 새로운 공략의 재미를 담은 ’아토르의 시련’ 11~15단계를 추가했다고 밝혔다. 아토르의 시련은 단계마다 배치된 공략 요소를 파악하고 해결하는 도전 콘텐츠다.라이엇 게임즈는 ‘리그 오브 레전드(LoL)에서 ‘한가위에는 행복이 한가득’ 이벤트를 진행한다. 라이엇 게임즈 제공.라이엇 게임즈는 ‘리그 오브 레전드(LoL)에서 ‘한가위에는 행복이 한가득’ 이벤트를 진행한다. 이번 이벤트는 5일 오전 9시부터 18일 오후 11시 59분까지 진행되며, RP 및 챔피언 스킨 할인 혜택과 함께 기간 한정 ‘보름달 캡슐’ 판매, ‘한가위 포로 상점’ 운영 등의 다양한 내용으로 구성됐다.이벤트 기간 동안 플레이어는 RP 및 챔피언 스킨 구매 시 할인 혜택을 적용 받을 수 있다. 토스 간편 결제를 통해 RP를 충전한 플레이어는 결제 금액의 10%를 할인 받는다. ‘영혼의 꽃’ 등 140여 종의 서사급 스킨이 50% 할인된 가격에 판매되며, 혜택이 적용되는 스킨 종류는 기간에 따라 정기적으로 변경된다. LoL ‘한가위에는 행복이 한가득’ 이벤트 관련 자세한 내용은 LoL 공식 홈페이지에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>비즈플레이 "AI로 영수증 처리, 기업 디지털 전환 돕겠다"</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002268179?sid=105</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>"3만여개 이상 기업이 솔루션 도입…B2C 확장은 고민 중"심우진 비즈플레이 실장은 "인공지능(AI)을 기반으로 한 영수증 처리 솔루션으로 모든 기업이 경비를 원활하게 처리하고 기업들의 디지털트랜스포메이션(DX)이 원활해지도록 앱을 꾸준히 발전시키겠다"고 말했다.비즈플레이는 15일부터 3일간 서울 강남구 코엑스에서 열리는 '대한민국 4차산업혁명 페스티벌2022'에 참가해 AI를 통한 영수증 자동처리 솔루션이 도입된 앱 '비즈플레이'를 선보였다.비즈플레이 앱은 법인카드 영수증처리와 출장계획서 작성 등에 특화돼 있다. 비즈플레이는 국내 모든 카드사와 제휴를 맺고 있다. 법인카드를 쓰면 앱이 자동으로 결제내역을 불러들이는 게 특징이다. 사용자는 영수증을 작성하고 지출결의를 올린 뒤, 전자결재를 클릭하기만 하면 된다.심 실장은 "지출 증빙과 영수증 통합관리는 모두 비즈플레이 앱에서 모니터링이 가능하다"며 "최근 투명한 법인카드 처리에 대한 수요가 높아지고 있는 상황에서 비즈플레이도 주목받고 있다"고 설명했다.각 회사의 규정에 맞게 영수증 처리가 이뤄진다는 점도 비즈플레이의 강점이다. 심 실장은 "교통비는 사진을 찍어야 한다는 등 각 기업별로 영수증 처리에 대한 규정이 모두 다르다"며 "각각의 규정을 비즈플레이에 반영할 수 있기 때문에 소비자들은 보다 편하게 영수증 처리를 할 수 있다"고 말했다.출장 등의 업무가 있을 때, 비즈플레이 앱 내에서 예약 업무를 진행할 수도 있다. 비즈플레이는 현재 익스피디아, 여기어때 등과 제휴를 맺고 있다. 심 실장은 "앱에 출장계획서를 불러올 수 있으며 이를 토대로 숙박업소를 바로 예약하고 정산할 수도 있다"고 강조했다.쿠팡에서 비품도 구매할 수 있다. 비즈플레이는 쿠팡과 제휴를 맺고 있어 신용카드 내역서에는 나오지 않는 구매 상세내역까지 찾아볼 수 있다. 심 실장은 "투명한 비품 처리에 효율적이고 직원들이 상세내역을 정리하는 등의 번거로움을 줄였다"고 설명했다.비즈플레이를 도입한 기업들의 만족도도 높은 편이다. 현재 비즈플레이는 금호건설, 하이트진로를 포함해 약 2천500여개의 대기업과 중견기업이 사용하고 있다. 토스, 당근마켓 등 3만여개의 스타트업과 중소기업도 사용 중이다.사업 영역을 B2C로 확장하는 것에 대해서는 내부적으로 고민 중이다. 심 실장은 "아직 B2B 영역에서 확장하는 방향을 고려하고 있으며 아직 B2C로의 확장은 고민 중"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.09.04.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>"신용카드 만들면 즉시 50만원" 이 문자 속지마세요</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002752453?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>특정 카드사 신용카드 모집인을 가장해 고액의 현금 지급을 미끼로 개인정보를 수집하는 등 피싱 사례가 나타나고 있어 주의가 요구된다. 4일 금융권에 따르면 여신금융협회와 각 카드사들은 홈페이지 등을 통해 신용카드 모집인을 가장한 금융사기 피해 주의를 안내하고 있다. 신용카드 모집인을 가장한 이들은 현금 50만원 즉시 지급, 연회비 지원, 제주도 왕복항공권 지급 등 각종 혜택을 준다는 내용의 문자 메시지를 발송하고 있다. 전화나 문자상담은 불가능하다며 카카오톡 대화를 유도하는 것이 특징이다. 이후 카드사 홈페이지나 애플리케이션, 네이버 등을 통해 카드 발급을 유도하고 실물 카드나 계좌번호 등의 결제정보를 요구한다. 이 경우 유효기간과 CVC(카드보안숫자)가 노출돼 부정 결제가 발생할 위험이 있다. 특히 카드를 발급받는 당일에 연 5~8% 금리의 카드론이 가능하다는 내용도 있어 급전이 필요한 취약계층을 노리는 것으로 보인다. 업계는 이런 경제적 이익과 모집방법이 불법이라고 지적한다. 여신전문금융업법 시행령에 따르면 신용카드 모집인은 자신이 등록된 카드모집인이라는 점을 알려야 하며, 신용카드 발급과 관련해 연회비의 10%를 초과하는 과도한 경제적 이익을 제공할 수 없다. 토스, 카카오페이, 네이버페이 등 온라인 플랫폼이나 카드사 홈페이지를 통해 이용자가 스스로 가입해도 카드 발급시 연회비의 100%까지만 경제적 이익을 지급할 수 있다. 연회비가 3만원이면 최대 3만원까지만 지급할 수 있다는 얘기다. 카드사들은 카드 발급 후 일정 수준의 결제가 일어나면 현금성 포인트 지원, 페이백 등의 유인책을 쓰는데, 이 역시 최대 20만원대다. 피싱 문자에서 제시한 '현금 50만원'과는 거리가 멀다. 한 카드사 관계자는 "비대면 발급이 일상화하다 보니 발생한 신종 피싱 수법인 것 같다"고 설명했다. 문제는 이런 문자 메시지를 받고도 금융 사기로 여기지 않을 수 있다는 점이다. 관련법상 정해진 범위를 초과해 경제적 이익을 제공하는 카드 모집인을 찾아 카드를 발급받는 일이 만연하게 벌어지고 있어 이를 특별 이벤트 정도로 여길 가능성이 있기 때문이다. 여신금융협회는 "모집인이 현금을 지급하며 발급을 유도하는 행위는 엄연한 불법 모집"이라며 "모집인과 직접 대면해 카드를 신청하고, 문자·이메일 등으로 개인정보를 전송하지 말아야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.09.14.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>인뱅 비이자이익 축소…'은행권 혁신' 메기 역할 '요원'</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002638723?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>케뱅 51%·카뱅 32% 감소"수익구조 차별화 고민해야"케이뱅크, 카카오뱅크, 토스뱅크. ⓒ각 사[데일리안 = 김효숙 기자] 인터넷전문은행들이 이자가 아닌 다른 사업으로 벌어들인 돈이 점점 줄고 있는 것으로 나타났다. 결국 예금과 대출금리의 차이인 예대마진으로 돈을 버는 시중은행과 별반 다를 바 없는 사업 경향이 짙어지면서 혁신성이 부족하다는 지적이 나온다.14일 금융권에 따르면 카카오·케이·토스뱅크의 올해 상반기 비이자이익(순수수료손익)은 37억원 손실로, 지난해 같은 기간 보다 341억원 감소하며 적자 전환했다.은행별로 보면 카카오뱅크의 올해 상반기 비이자이익은 170억원으로 같은 기간 대비 32.3% 줄었다. 케이뱅크의 비이자이익 역시 41억원으로 51.8% 감소했다. 토스뱅크의 비이자손실은 248억원으로 적자를 지속했다.반면 금리 상승에 따라 인터넷은행의 예대마진, 즉 이자로 벌어들인 이익은 크게 늘었다. 카카오뱅크의 올해 상반기 순이자손익(이자이익)은 4179억원으로 54.1% 증가했다. 케이뱅크의 이자이익 역시 1721억원으로, 토스뱅크도 260억원으로 각각  142.7%와 12900.0% 증가했다.인터넷은행의 수익 포트폴리오에서 이자이익이 차지하는 파이는 이미 절대적인 수준이다.  카카오뱅크의 경우 올해 상반기 영업수익 중 이자수익 비중이 79%에 달했다. 체크카드, 펌뱅킹 등 수수료로 얻는 수익이 14%, 증권계좌개설, 연계대출, 신용카드, 광고 등으로 얻는 플랫폼 수익이 7%다.이 때문에 기존 은행의 한계를 넘어 차별화를 꾀하겠다는 인터넷은행의 수익 구조도 결국 예대마진 사업에 매몰돼 혁신과 거리가 멀어지고 있다는 지적이 나온다.기존 은행의 비이자이익도 20~30%에 그치는 실정이다. 지난해 KB금융과 신한금융의 영업수익 중 비이자부문 비중은 각각 27%, 30%였다. 2019년 국내 은행권 전체 이익 중 이자이익이 차지하는 비중은 86.2%으로, 비이자이익은 13.8%에 그쳤다.이런 수익 구조는 경기대응력에 취약할 수밖에 없다. 경기가 좋을 때는 예대마진 수익을 많이 거둘 수 있지만, 경기가 나빠지고 과잉경쟁과 저금리 상황이 겹치면 예대마진이 줄어들 때 대응력이 떨어지기 때문이다.다른 해외 은행의 비이자이익 비중은 우리나라 은행보다 크다. 한국은행에 따르면 2020년 기준 미국 웰스파고 은행은 비이자이익이 총이익 중 44.5%를 차지한다. 미국의 뱅크오브아메리카와 씨티은행은 각각 46.4%, 36.3%를, 영국의 HSBC은행은 49.9%를 차지한다. 일본의 인터넷 전문은행인 SBI스미신넷뱅크와 소니 뱅크도 2018년 말 기준 비이자수익이 차지하는 비중이 각 39.7%, 39.6%에 달한다.은행권 혁신을 주도하는 인터넷은행이 업종의 한계를 뛰어넘어야 한다는 지적도 나온다. 애초 은행권 '메기'로 탄생한 인터넷은행은 영업채널, 상품 외에도 수익구조에서 차별화를 보여줘야 한다는 얘기다.금융권 관계자는 "손쉽게 이자를 버는 오래된 사업 방식에서 벗어나 새로운 분야에서 금융상품과 서비스를 개발하는 것은 의사소통과 변화가 유연한 인터넷은행이 잘 할 수 있는 일"이라며 "펀드나 보험 판매, 환전·복권·수표·외화송금 등 서비스 품목을 늘려 수수료 수입을 올려야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>금리 올라도 인터넷은행 대출 8개월째 증가세</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001051940?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>금리 상승으로 가계대출 수요가 줄고 있지만, 인터넷 전문은행 3사(카카오·케이·토스뱅크)의 여신 잔액은 8개월째 증가세를 보이고 있다.2일 은행권에 따르면 8월 말 기준 카카오·케이·토스뱅크의 여신 잔액은 총 43조991억원으로, 40조원을 돌파했다.은행별로 보면 카카오뱅크는 27조1천991억원으로 전달보다 2천487억원 늘었고, 케이뱅크는 9조5천억원으로 같은 기간 3천400억원 늘었다.토스뱅크의 여신 잔액은 6조4천억원이었다. 토스뱅크는 7월 말 기준 여신 잔액은 공개하지 않았지만, 두 달 전인 6월 말과 비교하면 잔액이 2조2천억원 급증했다.인터넷 은행 여신 포트폴리오의 대부분이 가계대출인 점을 고려하면, 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출이 8개월째 감소세를 보이는 현상과 대조된다.5대 은행의 8월 말 기준 가계 대출 잔액은 696조4천509억원으로 전달 대비 9천858억원 뒷걸음질쳤다.인터넷 은행 3사는 각기 다른 장점을 내세우며 여신 성장세를 유지하고 있다.카카오뱅크 관계자는 "전월세·주택담보대출 등 담보부대출이 증가하면서 총 여신 잔액이 증가했다"고 설명했다.카카오뱅크는 올해 2월 주택담보대출 상품을 처음 출시한 뒤 지난달 17일 대상 지역을 수도권 소재 아파트에서 전국으로 확대했으며, 금리도 여러 차례 인하해 수요를 견인했다고 설명했다. 8월 말 기준 누적 약정 금액은 5천500억원을 돌파했다.케이뱅크는 낮은 신용대출 금리를 제공해 경쟁력을 확보했다.은행연합회 공시에 따르면 지난 7월 신용대출(신규취급, 일시상환) 신용등급별 취급금리 전 구간에서 케이뱅크의 금리가 인터넷은행 3사 중 가장 낮았다.케이뱅크 신용대출의 신용등급별 평균금리는 연 5.19%로 카카오뱅크(연 6.37%), 토스뱅크(연 7.14%)보다 낮았고, 신용점수 구간별로 비교했을 때도 더 낮은 금리를 제공하는 것으로 나타났다.케이뱅크 관계자는 "고객들에게 더 낮은 대출금리를 제공하기 위해 꾸준히 신용평가모델(CSS)을 고도화하고 있다"고 말했다.후발 주자인 토스뱅크는 기존 1금융권에서 대출 승인이 나지 않았던 '신파일러(Thin Filer: 금융이력부족자)'를 위한 중저신용 대출 공급에 주력하고 있다.토스뱅크 관계자는 "10명 중 4명의 고객이 중저신용 고객"이라며 "1금융권 인터넷 은행 중 가장 넓은 범위의 고객을 포용하고 있다"고 말했다.시중 자금이 은행으로 되돌아오는 '역(逆)머니무브' 속에 인터넷 은행의 수신 규모도 커지고 있다.역머니무브는 시중자금이 증시 등 위험자산에서 빠져나와 은행 등 안전한 투자처로 이동하는 현상을 말한다.8월 말 기준 카카오뱅크의 수신 잔액은 전달보다 5천200억원 급증한 33조1천754억원이었다. 지난달 초 카카오뱅크가 수신 금리를 최대 0.8%포인트 인상한 뒤 자금이 대거 유입된 것으로 풀이된다.같은 기간 케이뱅크의 수신 잔액도 200억원 늘어난 13조3천500억원이었다.8월 말 토스뱅크의 수신 잔액은 26조4천억원으로, 지난 1분기 말(21조원) 이후 계속 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>취임 100일 이복현... 낮은 자세·소통으로 '검사 이미지' 탈피</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004794591?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>이복현 금융감독원장15일(오늘) 취임 100일 맞는 이복현 금융감독원장의 행보는 '낮은 자세'와 '소통'으로 요약된다. 항상 90도로 인사를 하며, 내외부적으로 소통을 강화해 검찰 출신인 탓에 생긴 고압적인 이미지를 씻어냈다는 평가가 나온다. 다만, 예대금리차 공시 개선 과정에서 보였던 강경한 태도 탓에 금융업권은 여전히 긴장의 끈을 놓을 순 없다는 분위기다.이 원장은 취임 후 은행을 시작으로 각 금융업권 대표(CEO)들과 간담회를 가졌다. 공인회계사 자격증이 있고 검사 시절 경제 범죄 수사에서도 두각을 나타냈지만, 파악해야 할 세부적인 금융 현안이 많아서다. 보험, 여신전문금융업(여전업), 상호금융에 이어 네이버파이낸셜, 카카오페이, 토스 등 핀테크 CEO와도 직접 만나 업권의 목소리를 들었다.한 금융사 CEO는 "이 원장은 형식과 절차 등에 크게 구애받지 않고 낮은 자세로 금융업권의 목소리를 들었고, 앞으로도 자주 소통하기로 약속했다"며 "간담회에서도 편안한 분위기 속에서 자유롭게 금융사의 애로사항, 금융혁신 방안 등에 대한 의견을 냈다"고 말했다. 금감원장으로선 이례적으로 서민 친화적인 행보도 이어갔다. 지난 7월 전라북도 전주시의 신중앙시장 방문을 시작으로 추석을 앞둔 지난주에도 서울 양천구의 신영시장에 들러 상인들의 어려움을 직접 들었다. 이 원장은 조직 내부 소통에도 적극적인 모습을 보였다. 전 직원들과 처음 마주하는 자리에서 '면바지에 티셔츠' 차림으로 나타난 그는 지난 5일 금감원의 자율복장 시대를 열었다. 기존에는 금요일에만 일상복을 입을 수 있었지만, 이제는 모든 금감원 직원이 언제든 청바지에 운동화 차림으로 출근이 가능해진 것이다. 최근에는 거액의 이상 외화거래 검사로 고생하는 은행검사국 직원들에게 "다음 달 국회 국정감사가 끝나면 밥 한 끼 사겠다"며 격려의 말을 건넨 것으로도 알려졌다. 불법과 불공정에는 '칼잡이'다운 면모를 보였다. 이 원장은 우리은행에서 700억원대 횡령사고가 났을 당시 즉시 현장검사를 지시했다. 우리·신한은행의 보고로 시작된 거액의 이상 외환거래 검사는 전 은행권으로 확대됐다. 최근에는 자산운용사 경영진의 차명 투자 의혹에 대한 조사를 강화해 강방천 전 에셋플러스자산운용 회장과 존 리 전 메리츠자산운용 대표가 물러났다. 또 금감원 내 공매도조사팀을 신설해 불법 공매도에 대한 조사도 강화했다.다만, 예대금리차 공시 개선 과정에서 강경한 태도로 은행의 지나친 이자 이익 추구를 비판했던 만큼 금융사들은 경계를 늦추진 않는 모양새다. 당시 '관치금융' 논란에도 이 원장은 "헌법·은행법에 은행의 공공적 기능"이 있다며 굽히지 않은 바 있다. 이에 따라 거액 횡령, 이상 외환거래, 불법 공매도 등에 대한 검사가 끝나고, 제재 수위도 예상보다 높게 나올 수 있다는 우려도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.09.14.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>토스, '계속 도전하는 이유' 브랜드 필름 3종 공개</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013437564?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>토스, 리브랜딩 브랜드 필름 3종 공개[비바리퍼블리카 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 조승한 기자 = 모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카는 세 편의 브랜드 필름과 토스의 변화를 담은 인포그래픽을 공개한다고 14일 밝혔다.    토스는 지난 5일 3차원 디자인의 새 로고를 공개하며 리브랜딩 캠페인을 진행하고 있다.    이번에 공개된 필름은 유스·시니어·청년편 등으로 구성됐으며, 토스가 계속 새로워져야 하는 이유인 다양한 사람들의 이야기를 담았다고 회사는 설명했다.토스의 도전 인포그래픽[비바리퍼블리카 제공. 재판매 및 DB 금지]    함께 공개된 인포그래픽에는 ▲ 토스가 송금으로 아낀 약 1억 시간 ▲ 토스가 미리 잡아낸 4천 건 이상의 사기계좌 ▲ 지구에서 화성까지 21번 왕복할 수 있는 토스만보기에 기록된 걸음 수 등 토스 서비스 개시 이후 만들어진 데이터가 담겼다.    영상과 인포그래픽은 토스 리브랜딩 공식 캠페인 홈페이지에서 볼 수 있다.    윤기열 토스 커뮤니케이션 헤드는 "이번 리브랜딩 캠페인을 통해 앞으로도 계속 새로운 차원의 금융을 선보이겠다는 다짐과 함께 더욱 세심한 시선으로 혁신을 위한 도전을 이어 나가겠다는 의지를 전하고자 했다"고 말했다.    shjo@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>생활맥주, 토스 앱 만보기 서비스 프로모션…8일까지</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005141806?sid=103</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>생활맥주는 모바일 금융서비스 토스(Toss)와 제휴를 맺고 토스 애플리케이션(앱) 내 만보기 서비스를 통한 상품권 증정 프로모션을 진행한다고 2일 밝혔다.토스 만보기 서비스는 사용자 휴대폰의 위치 정보와 측정된 걸음 수를 기반으로 보상 혜택을 제공하는 서비스로, ‘걷기 미션’과 ‘방문 미션’을 통해 하루 최대 140원의 토스 포인트를 받을 수 있는 서비스다. 지난해 9월 추가된 ‘방문 미션’ 기능이 이용자의 큰 호응을 얻어 1년간 누적 사용자 수가 850% 이상 늘어난 400만명을 기록했다.생활맥주와 토스가 제휴한 프로모션도 이 ‘방문 미션’ 기능을 활용하고 있다. 현재 내 위치를 기반으로 주위에 있는 생활맥주 매장이 토스 만보기 앱 내 지도에 노출되며 여기에 방문하면 리워드와 함께 생활맥주가 제공한 특별 쿠폰까지 발급받을 수 있다.프로모션은 이날부터 이달 8일까지 일주일간 토스 앱 내 ‘혜택’ 탭에 접속해 확인할 수 있으며, 생활맥주 현장에서 즉시 사용 가능한 3000원 쿠폰이 제공된다. 한편 생활맥주는 이번 제휴 비용과 쿠폰 할인 금액 등 프로모션에 소요되는 모든 금액을 본사 100% 부담으로 진행한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>토스, ‘새로운 차원의 금융’ 포부 담은 새 로고 공개</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000838689?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>모바일 금융 서비스 토스를 운영하는 비바리퍼블리카가 ‘새로운 차원(New Dimension)’의 의미를 담은 새로운 로고를 5일 공개하며 리브랜딩 캠페인을 시작한다고 밝혔다.이날부터 전 계열사에 적용되는 토스의 새로운 로고는 평면이 아닌 3차원의 디자인을 구현한 점이 특징이다. 토스가 사용자를 만나는 접점 대부분이 모바일 앱과 디지털 환경이기에 가능했다는 게 회사 측의 설명이다.토스의 새로운 로고. /토스 제공        로고의 모양은 파란색 원의 모양을 입체적으로 구현한 형태로, 고정관념을 깨고 새로운 차원의 금융을 계속 선보이겠다는 토스의 의지를 상징한다.토스에 따르면 기존 로고는 ‘공 던지듯 쉬운 금융’의 의미를 담고 있어, 더 넓은 비전을 담기 위해 새로운 로고를 찾기 위한 프로젝트가 시작됐다. 토스 브랜드 디자이너들로 구성된 태스크포스(TF) 팀이 조직되어 약 1년여에 걸친 작업 끝에 새로운 로고가 탄생했다.토스는 메인 컬러인 파란색을 유지하면서 토스만의 관점을 담은 새롭고 차별적인 디자인을 목표로 세웠고, 새로운 차원의 금융을 만들어 나가겠다는 포부를 담은 입체적 로고로 최종 결정했다.토스 리브랜딩 캠페인 영상 '여행(The Journey)'의 한 장면. /토스 제공        토스는 로고 리뉴얼과 함께 공식 캠페인 홈페이지를 공개했다. 해당 홈페이지에서는 3D 애니메이션으로 구현한 캠페인 오프닝 영상 ‘여행(The Journey)’를 확인할 수 있다. 영상은 새로운 별(로고)을 찾아 여러 행성을 여행하며 다양한 도전 속에서도 꿋꿋하게 여정을 이어가는 과정을 동화적인 애니메이션으로 제작했고, 인디밴드 ‘실리카겔’과의 협업을 통해 제작한 음악도 함께 공개했다.또한, 새로운 로고의 다양한 이미지 및 토스의 브랜드 변천사를 확인할 수 있는 브랜드 스토리도 홈페이지에서 확인이 가능하다. 오는 14일에는 토스 리브랜딩 캠페인의 일환으로 제작한 브랜드 필름도 공개할 예정이다.이승건 토스 대표는 “토스가 그간 만들어온 혁신에 이어 앞으로도 끊임없이 새로운 차원의 다양한 도전을 이어나가면서 각자의 상황에 상관없이 모두가 주체적인 금융생활을 할 수 있는 세상을 만드는데 기여하고자 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>코로나대출 부분 재연장?…이복현 "중기에 산소호흡기 떼면 안돼"(종합)</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005312793?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>금감원장, 금융협회장·은행장 간담회만기연장·상환유예 9월 말 종료 예정중기 등 대상 한정해 재연장 가능성[이데일리 서대웅 기자] 중소기업과 소상공인을 대상으로 3년째 시행 중인 ‘코로나 대출’ 만기연장·상환유예 조치가 이달 말 종료를 앞두고 있는 가운데, 중소기업에 한해 추가 지원이 이뤄질지 주목된다. 이복현 금융감독원장은 부문적으로나마 추가 연장이 필요하다는 의견을 7일 내놨다. 그간 금융당국이 추가 연장 가능성을 열어놓긴 했지만 연장이 필요하다는 입장을 공개적으로 밝힌 것은 이번이 처음이다.7일 서울 명동 은행회관에서 열린 ‘중소기업·소상공인 차주 연착륙 지원을 위한 금융감독원장-금융권 간담회’ 참석자들이 기념촬영을 하고 있다. 왼쪽부터 황국현 새마을금고중앙회 지도이사, 오한섭 신한은행 부행장, 이원덕 우리은행장, 정희수 생명보험협회장, 정지원 손해보험협회장, 홍진근 수협중앙회 대표, 김광수 은행연합회장, 송재근 신협중앙회대표, 이복현 금감원장, 이재근 국민은행장, 권준학 농협은행장, 오화경 저축은행중앙회 회장, 박성호 하나은행장, 조소행 농협중앙회 대표, 최준석 산림조합중앙회 대표, 오광만 여신금융협회 전무.(사진=금융감독원)이 원장은 이날 서울 은행회관에서 금융협회장, 은행장들과 간담회를 마친 뒤 기자들과 만나 “(경제적) 자립 의지가 있는 분들의 산소호흡기를 떼는 것은 바람직하지 않다”고 말했다. ‘만기연장·상환유예 추가 연장 의견’을 묻는 말에 대한 답변이었다. 그는 ‘금감원장 의견’을 전제로 “오늘 하루 수입이 없어 연체하더라도 내일이나 모레 돈 벌어 이자를 갚으려는 의지가 강한 분들이 많은 상황”이라며 “이분들의 산소호흡기를 떼는 것은 국민 경제에도 도움이 안된다는 생각을 강하게 갖고 있다”고 했다.정부가 내놓는 각종 지원 정책의 사각지대를 보완하기 위해서라도 추가 연장이 필요하다는 뜻도 밝혔다. 그는 “새출발기금의 경우 대상이 소상공인으로 특정해 지원하고 있는데, 조금 더 규모가 큰 중소기업이나 법인 중에선 외부 충격으로 인한 피해가 큼에도 지원되지 않는 부분이 있다”며 “이분들도 어떻게 함께 끌고 갈 수 있는지를 9월 말 만기연장과 함께 논의해야 한다고 생각한다”고 했다.이 원장은 “(최근의) 급격한 금리 인상, 원자재 가격 인상 등 외적 충격의 모든 책임을 차주 개개인에게 넘기는 게 합당한 것인지에 대한 기본적인 문제 의식이 (만기연장 추가 조치) 논의에 깔려 있다”고 설명했다. 다만 그는 “개인 입장에서 결정할 수 있는 문제는 아니기 때문에 제가 취득한 정보나 업권에서 들은 의견을 정부 당국과 논의할 때 적절히 합리적인 방식으로 피력할 생각”이라고 했다. 이와 별도로 그는 “만기연장 종료 등 조치와 관계없이 금융사 건전성 관리에 만전을 다할 예정”이라고 강조했다.금융당국이 이번 만기연장·상환유예 조치에 대한 추가 연장 가능성을 열어놨지만, 이처럼 ‘재연장을 해야 한다’는 의견을 당국 수장이 직접적으로 밝힌 것은 이번이 처음이다. 앞서 김주현 금융위원장은 지난 7월 말 국회 정무위원회 전체회의에서 “(재연장을) 무조건 안 한다는 것은 아니다” 정도로만 언급했었다.금융당국은 금융권을 통해 2020년 2월부터 코로나19 피해를 본 중소기업과 자영업자를 대상으로 신규 대출, 대출 만기연장, 원리금 상환유예 등을 지원하고 있다. 금감원이 국회에 제출한 업무보고 자료에 따르면 2020년 2월7일부터 올해 7월15일까지 총 지원금은 317조7000억원 규모다. 당국은 코로나19 위기 장기화로 만기 연장·원리금 상환 유예 조치를 네 차례 연장하며 이달 30일까지 연장한 상태다.이달 말 만기연장·상환유예 대책을 주가 지원한다면 부문적으로 이뤄질 가능성이 높은 것으로 분석된다. 대상을 중소기업으로 한정할지, 그 중에서도 차주 상태를 얼마나 세분화해 지원할지, 만기연장과 상환유예 중 일부만 추가 연장할지 등 여러 경우의 수에서 제한적으로 지원에 나설 것이란 관측이다. 이날 이 원장이 강조한 점도 새출발기금 등을 통해 지원받지 못하는 사각지대였다.한 시중은행 관계자는 “구체적인 방안이 나와야 하겠지만, 부문적 지원에 대한 필요성엔 공감한다”고 했다. 또 다른 관계자는 “차주 상태를 파악하기 어려운 이자 상환유예만큼은 종료해야 한다고 본다”고 했다.한편 이 원장은 비바리퍼블리카(토스) 자회사인 토스플레이스가 15만곳 이상의 신용카드 가맹점주 개인·신용정보를 가맹점주 동의 없이 수집했다는 논란(본보 7일자 4면 ‘[단독]토스플레이스, ’15만 신용카드 가맹점주 정보‘ 동의없이 수집했다’ 참조)과 관련해 “운영이 적절한 것인지, (회사 측) 주장이 맞는지 등 사실 파악을 하도록 담당 부서에 요청했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.09.01~2022.09.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.09.01~2022.09.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>오페라 '마술피리', 한강 노들섬 야외서 즐긴다</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005316866?sid=103</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>서울문화재단 제작, 내달 1~2일 공연연출가 이회수·지휘자 여자경 등 참여전석 무료…19일 오후 4시 티켓 오픈[이데일리 장병호 기자] 서울문화재단은 모차르트 오페라 ‘마술피리’를 다음 달 1일과 2일 서울 용산구 노들섬에서 야외 오페라로 공연한다.한강노들섬오페라 ‘마술피리’ 포스터. (사진=서울문화재단)한강노들섬오페라 ‘마술피리’는 서울문화재단에 창립 이후 처음 제작하는 야외 오페라다. 평소 쉽게 접하기 힘든 클래식 오페라 작품을 극장이 아닌 야외공간에서 무료로 선보여 일상 속 시민의 문화향유 기회를 확대하고자 마련했다.서울문화재단은 이번 공연을 위해 노들섬 잔디마당에 오페라 ‘마술피리’를 위한 야외특설무대를 제작한다. 계단식 객석을 확장해 약 1200석 규모의 좌석을 조성한다. 영상을 활용한 현대적인 무대를 구현해 노들섬 잔디마당의 야외 정취와 어우러지는 오페라를 선보인다. 공연은 오후 7시 30분 시작해 휴식 없이 100분 동안 진행한다.‘마술피리’는 왕자 타미노가 밤의 여왕 딸 파미나를 구하기 위해 새장수 파파게노와 함께 모험을 떠나는 여정을 담은 동화 같은 줄거리의 작품이다. 베테랑 제작진과 실력파 출연자들이 참여한다. 연출가 이회수, 지휘자 여자경을 비롯해 콜로라투라 소프라노 유성녀(밤의 여왕 역), 테너 이명현(타미노 역), 소프라노 장혜지(파미나 역), 바리톤 최은석(파파게노 역), 소프라노 이세희(파파게나 역), 베이스 박준혁(자라스트로 역), 테너 오정율(모노스타토스 역) 등이 출연한다.이창기 서울문화재단 대표는 “한강노들섬오페라 ‘마술피리’는 팬데믹으로 위축된 시민의 문화향유권을 회복하고자 특별 기획한 공연”이라며 “평소 접하기 힘든 클래식 오페라 공연을 일상 속에서 부담 없이 즐기며 많은 이들이 예술이 주는 감동을 만끽하기를 기대한다”고 말했다.본 공연에 앞서 오후 4~6시엔 ‘음악의 섬’ 노들섬을 테마로 한 다양한 거리예술과 서커스 작품을 선보인다. 공연 관람료는 무료이며 만 5세 이상부터 관람할 수 있다. 19일 오후 4시부터 인터파크를 통해 예약할 수 있다. 보다 자세한 내용은 아트페스티벌 서울 홈페이지, 한강노들섬오페라 공식 인스타그램 및 페이스북에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>대출 연장시 변경금리 적용 시점 '만기일'이 유리</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001173396?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>은행권 가계대출 금리가 4.52%를 기록하면서 9년 4개월 만에 최고치를 기록했다. 7월 신규 취급액 기준 은행 가계대출 가중 평균 금리는 연 4.52%로 한달새 0.29%포인트 상승했다. 사진은 30일 서울의 한 은행 대출 상담창구. 연합뉴스본격 금리 상승기에는 대출을 연장할 때 변경 금리를 연장실행일이 아닌 '만기일'로 적용하는 것이 더 유리하다. 만기일에 앞서 연장실행일을 기점으로 금리를 변경하면 기존보다 높은 금리가 더 빨리 적용돼 불이익을 받을 수 있다.금감원은 7일 '금리상승이 대출 연장 시 유의사항 안내' 보도자료를 통해 이같이 당부했다.예를 들어 A씨는 신용대출 만기일이 지난 7월 27일 도래해 대출 금리를 2.0%에서 3.0%로 인상하는 조건으로 7월 6일에 대출 기간을 1년 연장했다.A씨는 변경된 3.0% 금리가 만기일인 7월 28일부터 적용될 것으로 생각했으나 은행이 변경 금리를 대출 연장 실행일인 7월 6일부터 적용해 민원을 제기했다.금감원은 은행들이 대출 연장 시 변경 금리를 적용하는 시점은 만기일, 대출 연장 실행일 중에서 고객이 직접 선택 가능한 방식으로 운영되고 있다고 설명했다.영업점을 통한 대면 채널의 경우 우리은행 등 12개 사가 만기일, 광주은행과 제주은행은 대출 연장 실행일, 대구은행은 대출 연장 실행일과 만기일 중 선택이 가능하다.SC은행은 대출 연장 신청이 대면 채널에서만 가능하며 카카오뱅크, 토스뱅크, 케이뱅크는 비대면 채널에서만 대출을 연장할 수 있다.금감원은 변경 금리를 대출 연장 실행일부터 적용하는 경우 금리 상승기에는 대출 연장 실행일을 만기일까지 가급적 늦추는 게 유리하다고 조언했다.또 변경 금리 적용 날짜를 선택할 수 있다면 금리 상승기에는 대출 연장 실행일보다는 만기일로 선택하는 것이 유리할 수 있다고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.09.03.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>[고금리 시대 투자①]4%까지 오른 발행어음, 인기 치솟아</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011400644?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>기사내용 요약올해만 4조 넘는 자금 유입…전년비 56%↑연 4.5% 특판, 나흘 만에 전량 소진[서울=뉴시스]신항섭 기자 = 기준금리 3%를 내다보는 고금리 시대에 증권사 발행어음의 인기가 치솟고 있다. 연 4% 이상의 이자에 힘입어 발행어음 잔고가 올해 4조원 넘게 증가했다. 증권사가 이벤트로 진행한 4.5% 특판에는 빠르게 자금이 몰리는 현상도 벌어졌다.3일 금융투자협회에 따르면 지난달 말 기준 증권사 발행어음형 종합자산관리계좌(CMA) 잔고는 11조6608억원으로 집계됐다. 이는 지난해말 잔고(7조4646억원) 대비 4조1962억원(56.21%) 증가한 수준이다.발행어음은 자기자본 4조원 이상의 초대형 투자은행(IB)으로 지정된 증권사가 자체 신용을 바탕으로 발행하는 만기 1년 이내의 어음이다. 국내 증권사 가운데 미래에셋증권, 한국투자증권, NH투자증권, KB증권 등이 발행어음 사업을 하고 있다.발행어음의 잔고규모가 빠르게 늘어난 이유는 고금리 시대의 영향이다. 지난 2020년까지만 해도 증권사들의 발행어음 금리는 연 1.55% 수준에 불과했다. 후발주자였던 일부 증권사가 공격적으로 2%에 가깝게 상품을 내놓았지만 역마진으로 손실을 볼 수 있다는 우려까지 나왔었다.하지만 현재 이들 증권사의 1년 만기 발행어음 금리는 평균 연 4.10~4.15%까지 올라갔다. 1년 만기 기준으로 한국투자증권과 NH투자증권, KB증권 등 3개사가 4.15%의 이자를 지급하고 있고 미래에셋증권은 4.1%다. 6개월 약정으로는 연 3.0~3.65%의 이자를 제공하고 있다. 발행어음의 가장 큰 장점은 은행과 달리 가입 조건이 없다는 점이다. 통상 은행의 고금리 예·적금 상품은 자동이체나 특정 신용카드를 사용해 조건을 충족해야 우대금리를 받을 수 있다.실제로 지난달 한국투자증권이 토스뱅크를 통해 내놓은 연 4.5% 금리의 발행어음은 나흘만에 한도 2000억원이 판매됐다. 출시 첫날에는 286억원이 판매됐으며 3일차에 판매액 1000억원을 넘겼다. 이후 입소문을 타면서 4일차에 전량 소진됐다. 일평균 판매액은 약 500억원으로 집계됐고, 토스뱅크를 통해 한국투자증권 뱅키스 신규 계좌를 개설한 고객이 약 1만명에 달했다.당시 특판 발행어음의 가입자 연령대별 비중은 40대가 28%로 가장 높았고, 50대 비중은 27%로 집계됐다. 가입자의 평균 연령은 44세였다.발행어음의 인기는 당분간 지속될 것으로 예상된다. 기준금리 인상시 발행어음의 금리가 더 높아질 수 있기 때문이다. 현재 기준금리와 발행어음 금리 등을 감안할 때, 기준금리가 3%까지 오른다면 5%를 넘는 발행어음도 나타날 가능성이 있다.다만 손실이 발생할 수 있다는 점에서 주의가 필요하다. 예·적금과 달리 예금자 보호 대상이 아니기 때문이다.한 증권사 관계자는 "만기 전 중도 인출시 약속받았던 것 대비 30~50% 수준의 수익률만 받아 주의가 필요하다"면서 "적립식 발행어음의 경우, 중도해지 수수료가 별도로 부과되기도 한다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>인터넷뱅킹 일평균 대출신청액 1조원 돌파···인뱅 주담대 출시 영향</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003173138?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>연합뉴스올 상반기 인터넷뱅킹을 통해 신청된 대출금이 처음으로 하루 평균 1조원을 넘어섰다. 인터넷전문은행들이 주택담보대출을 출시하면서 대출 신청 금액이 큰폭 늘어난 것으로 풀이된다.한국은행이 15일 발표한 ‘2022년 상반기중 국내은행 인터넷뱅킹서비스 이용현황’을 보면 올 1∼6월 19개 국내은행·우체국의 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출 신청 금액은 일평균 1조3194억원으로, 지난해 말(7908억원)보다 66.8% 증가했다. 일평균 대출 신청 금액이 1조원을 넘어선 것은 이번이 처음이다. 대출 신청 건수는 하루 평균 3만5000건으로 지난해 말보다 7.4% 늘면서 증가세를 지속하고 있다. 한은 관계자는 “인터넷전문은행들이 신규 상품으로 주택담보대출을 출시하면서, 이를 중심으로 신청 금액이 늘었다”고 설명했다. 카카오뱅크는 지난 2월 말 주담대 상품을 출시했고, 케이뱅크 역시 주담대를 취급하고 있다. 토스뱅크는 향후 출시를 검토 중이다.인터넷뱅킹을 통한 자금 이체 이용 금액과 건수는 일평균 각각 73조7771억원, 1878만건으로 지난해 말보다 각각 2.1%, 6.9% 불었다. 이에 따라 대출 신청과 자금 이체 서비스를 모두 합한 인터넷뱅킹 일평균 이용 금액은 75조965억원, 이용 건수는 1882만건이다. 지난해 말보다 각각 2.8%, 6.9% 늘었다.인터넷뱅킹에서도 모바일뱅킹 비중은 계속 확대되고 있다. 올 상반기 모바일뱅킹 일평균 이용 금액은 14조3260억원, 이용 건수는 1603만건을 기록했다. 전체 인터넷뱅킹 이용 건수에서 모바일뱅킹이 차지하는 비중은 85.2%로 늘었다.지난해 말 기준 국내은행의 인터넷뱅킹 등록 고객 수(중복 합산)는 1억9950만명으로, 지난해 말보다 4.5% 늘었다. 이 가운데 모바일뱅킹 등록 고객은 6.0% 늘어난 1억6255만명으로 집계됐다. 올 6월 입출금 및 자금이체 거래 건수 기준으로 인터넷뱅킹이 차지하는 비중은 77.4%로 늘어난 반면, 은행 창구가 차지하는 비중은 5.0%까지 낮아졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>디파이·NFT 다음은?…메타發 '레이어1 블록체인'에 돈몰린다</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006313557?sid=105</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>디파이·NFT서 블록체인 인프라로 옮겨 간 관심…레이어1 주목도 높아져앱토스·수이 등 메타(페이스북) 개발진이 만든 레이어1 플랫폼 주목앱토스 미디엄 블로그 갈무리(서울=뉴스1) 박현영 기자 = 탈중앙화 금융(디파이), 대체불가능 토큰(NFT)에 몰렸던 블록체인 투자사들의 관심이 최근 레이어1 플랫폼 프로젝트로 옮겨가고 있다. 서비스 단계인 디파이 및 NFT에 한차례 붐이 일어난 후, 이 서비스들을 뒷받침해줄 인프라 단계로 다시 이목이 쏠리고 있다는 평가다.특히 메타(구 페이스북) 출신 개발자들이 개발한 앱토스(Aptos)와 수이(Sui)가 주목을 받으면서 이 같은 현상이 두드러지고 있다. 앱토스와 수이 모두 블록체인을 기반으로 서비스를 개발할 수 있도록 하는 레이어1 플랫폼 프로젝트들이다. ◇4700억원 모은 레이어1 등장에…다시 '블록체인 인프라' 인기2일 관련 업계에 따르면 최근 앱토스가 실리콘밸리 벤처캐피탈(VC) 및 크립토펀드로부터 1억5000만달러(약 2035억원)에 달하는 시리즈A 투자를 유치한 이래 레이어1 블록체인 플랫폼 프로젝트들이 투자를 유치하는 사례가 늘고 있다. 앱토스는 지난 7월 말 앤드리슨 호로위츠, 멀티코인 캐피탈, FTX 벤처스 등 유명 VC로부터 1억5000만달러 규모 시리즈A 투자를 유치했다. 올해 3월 2억달러(약 2714억원) 규모 시드 투자를 유치한 지 불과 4개월만이다. 누적 투자 규모는 3억5000만달러(약 4749억원)에 달한다. 앱토스 사례 이후 레이어1 플랫폼 프로젝트에 대한 관심은 한 층 높아졌다. 레이어1 블록체인 플랫폼인 세이(Sei)는 지난달 31일 멀티코인 캐피탈, 코인베이스 벤처스 등 유력 크립토펀드로부터 500만달러 투자를 유치했다고 밝혔다. 역시 레이어1 플랫폼인 인젝티브(Injective) 역시 지난달 4000만달러 규모 투자를 유치했다. 이에 한동안 디파이, NFT 프로젝트에 몰렸던 VC 자금이 다시 블록체인 인프라 프로젝트로 넘어가고 있다는 분석이 제기된다. 국내 크립토펀드 관계자는 "최근 디파이, NFT 같은 서비스 분야에서는 기존에 존재하는 서비스들을 포크(일부 수정)한 것들만 많이 나오고 혁신적인 모델을 찾기 어려워졌다"며 "2018~19년에는 서비스들이 부족했는데, 이제는 서비스들이 넘치다 보니 다시 성능을 높인 인프라 분야로 눈이 쏠리는 추세"라고 분석했다. ◇메타가 탄생시킨 레이어1 플랫폼들…앱토스 vs 수이 대결 구도 주목수이 미디엄 블로그 갈무리.이런 가운데 전 세계의 주목을 받았던 메타의 디엠(구 리브라) 프로젝트에서 두 개의 레이어1 플랫폼 프로젝트들이 파생되면서 두 플랫폼 간 대결 구도도 형성되고 있다. 대규모 투자를 유치한 앱토스는 디엠 프로젝트에서 파생된 디엠BFT(비잔틴장애허용) 합의알고리즘을 채택하고, 프로그래밍 언어로 디엠 팀이 개발한 무브(Move)를 채택했다. 무브는 메타의 디엠 팀이 개발했던 프로그래밍 언어로, 이더리움의 언어인 솔리디티와 보안성이 뛰어나다는 평가를 받고 있다. 또 다른 레이어1 플랫폼인 수이(Sui)도 디엠 출신 개발진들이 개발한 플랫폼이다. 앱토스는 보안, 확장성, 탈중앙화라는 블록체인의 트릴레마를 해결해 안정적인 블록체인 플랫폼을 구축하는 데 초점을 둔 반면 수이는 블록체인을 기반으로 다양한 서비스를 설계할 수 있도록 하는 데 더 초점을 뒀다. 역시 디엠에서 파생된 만큼, 앱토스처럼 프로그래밍 언어로 무브를 채택했다.수이는 지난해 말 3600만달러(488억원) 규모 투자를 유치, 투자금 규모는 앱토스에 비해 많이 떨어진다. 하지만 지난 7월 코인테스트가 보도한 바에 따르면 수이 개발사 미스틴랩스는 최소 2억달러 규모 시리즈B 투자를 유치하고 있으며, 이미 FTX벤처스 주도 하에 1억4000만달러 규모 투자를 유치했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>'코로나대출' 재연장 굳히나…이복현 "산소호흡기 떼면 안돼"</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005312707?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>금감원장, 금융협회장·은행장 간담회만기연장·상환유예 9월 말 종료 예정"성실 차주 '산소호흡기' 떼선 안돼"[이데일리 서대웅 기자] 이복현 금융감독원장이 이달 말 종료 예정인 중소기업·소상공인 대상의 ‘코로나 대출’ 만기연장·상환유예 조치를 추가 연장해야 한다는 의견을 7일 내놨다. 그간 금융당국이 추가 연장 가능성을 열어놓긴 했지만 연장이 필요하다는 입장을 공개적으로 밝힌 것은 이번이 처음이다. 만기연장 등 조치가 6개월 더 시행될 것이란 관측에 힘이 실릴 전망이다.7일 오전 서울 명동 은행회관에서 열린 ‘중소기업·소상공인 차주 연착륙 지원을 위한 금융감독원장-금융권 간담회’ 참석자들이 기념촬영을 하고 있다. 왼쪽부터 황국현 새마을금고중앙회 지도이사, 오한섭 신한은행 부행장, 이원덕 우리은행장, 정희수 생명보험협회장, 정지원 손해보험협회장, 홍진근 수협중앙회 대표, 김광수 은행연합회장, 송재근 신협중앙회대표, 이복현 금감원장, 이재근 국민은행장, 권준학 농협은행장, 오화경 저축은행중앙회 회장, 박성호 하나은행장, 조소행 농협중앙회 대표, 최준석 산림조합중앙회 대표, 오광만 여신금융협회 전무.(사진=금융감독원)이 원장은 이날 서울 은행회관에서 금융협회장, 은행장들과 간담회를 마친 뒤 기자들과 만나 “(경제적) 자립 의지가 있는 분들의 산소호흡기를 떼는 것은 바람직하지 않다”고 말했다. ‘만기연장·상환유예 추가 연장 의견’을 묻는 말에 대한 답변이었다. 그는 ‘금감원장 의견’을 전제로 “오늘 하루 수입이 없어 연체하더라도 내일이나 모레 돈 벌어 이자를 갚으려는 의지가 강한 분들이 많은 상황”이라며 “이분들의 산소호흡기를 떼는 것은 국민 경제에도 도움이 안된다는 생각을 강하게 갖고 있다”고 했다.정부가 내놓는 각종 지원 정책의 사각지대를 보완하기 위해서라도 추가 연장이 필요하다는 뜻도 밝혔다. 그는 “새출발기금의 경우 대상이 소상공인으로 특정해 지원하고 있는데, 조금 더 규모가 큰 중소기업이나 법인 중에선 외부 충격으로 인한 피해가 큰데도 지원되지 않는 부분이 있다”며 “이분들도 어떻게 함께 끌고 갈 수 있는지를 9월 말 만기연장과 함께 논의해야 한다고 생각한다”고 했다.이 원장은 “(최근의) 급격한 금리 인상, 원자재 가격 인상 등 외부 충격의 모든 책임을 차주 개개인에게 넘기는 게 합당한 지에 대한 기본적인 문제의식이 (만기연장 추가 조치) 논의에 깔려있다”고 설명했다. 다만 그는 “개인 입장에서 결정할 수 있는 문제는 아니기 때문에 제가 취득한 정보나 업권에서 들은 의견을 정부 당국과 논의할 때 적절히 합리적인 방식으로 피력할 생각”이라고 했다. 그는 또 “만기연장 종료 등 조치와 관계없이 금융사 건전성 관리에 만전을 다할 예정”이라고 강조했다.금융당국이 만기연장·상환유예 조치에 대한 추가 연장 가능성을 열어놨지만, 이번 처럼 ‘재연장을 해야 한다’는 의견을 당국 수장이 직접적으로 밝힌 것은 처음이다. 앞서 김주현 금융위원장은 지난 7월 말 국회 정무위원회 전체회의에서 “(재연장을) 무조건 안 한다는 것은 아니다” 정도로만 언급했다.이 원장이 ‘금감원장 의견’을 전제로 입장을 밝혔으나, 관계부처와 뜻을 나눈 결과라는 분석도 나온다. 이 원장은 이날 기자들과 만나 “9월 말 종료 시점이 얼마 안 남은 시점에서 이번주 고위급 회의에서도 그렇고, 타부처(중기부)에서 초대해주신 (간담회에서) 목소리를 들은 가운데 여러 느낀 점을 이날 금융권과 공유했다”고 말했다. 이 원장이 소개한 ‘고위급 회의’는 지난 5일 개최된 비상 거시경제금융회의인 것으로 보인다. 당시 거금회의엔 추경호 경제부총리 겸 기획재정부 장관, 이창용 한국은행 총재, 김주현 위원장, 이 원장, 최상목 대통령실 경제수석 등 경제 수장들이 총출동했다.이날 간담회가 그간 만기연장 종료 한달 전 개최한 금융권 간담회와 모습이 유사하다는 분석도 나왔다. 2020년 4월 이후 6개월마다 재연장을 결정할 때마다 종료 한달 전쯤 중소기업·소상공인, 금융협회장, 정책금융기관장, 금융지주회장 등과 릴레이 간담회를 연 뒤 당정 협의 과정을 거쳤다. 그간의 간담회와 이번 간담회의 차이점은 금융위원장이 간담회를 주재하지 않았다는 점이다.한편 이 원장은 비바리퍼블리카(토스) 자회사인 토스플레이스가 15만곳 이상의 신용카드 가맹점주 개인·신용정보를 가맹점주 동의 없이 수집했다는 논란(본보 7일자 4면 ‘[단독]토스플레이스, ’15만 신용카드 가맹점주 정보‘ 동의없이 수집했다’ 참조)과 관련해 “운영이 적절한 것인지, (회사 측) 주장이 맞는지 등 사실 파악을 하도록 담당 부서에 요청했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.09.14.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>[르포] "주식이 뭐예요?"… 베트남 증권시장, 韓에 열려있다</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000851419?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>[머니S리포트-다시 뛰는 신남방, 'K금융' DNA 심는다④] '기회의 땅'으로 다시 주목 받는다[편집자주]베트남은 인도와 싱가포르, 태국, 인도네시아 등 한국 정부가 경제협력을 강화하고 있는 신남방 11개국 중에서 가장 중요한 국가다. 한국 기업들은 2021년 기준 9895만명의 인구와 IMF(국제통화기금) 추정 경제성장률 6.6%를 기록한 베트남에 크게  공을 들이고 있다. 베트남은 중국, 미국에 이어 한국의 3위 교역국이기도 하다. 국내 금융사들도 금융 서비스 노하우를 무기로 현지 시장을 적극 공략하고 있다. 한국의 ICT(정보통신기술)를 바탕으로 휴대전화를 통한 금융거래, 결제 서비스도 현지인들에게 충분히 통할 것으로 보고 있다. K-금융은 베트남 경제수도인 호찌민을 조용히 물들이고 있다. 조만간 베트남 금융시장이 한복으로 갈아입을 것이란 기대감도 크다.미래에셋증권 베트남법인./사진=전민준 기자 ◆기사 게재 순서① "코리아뱅크 굿" 한국 은행들, 베트남 홀렸다② 베트남, 국민 중 절반만 은행 계좌 보유… 갈길 먼 디지털 금융③ "서류 내고 돌아서니 보험금 '뚝딱'… 베트남과 달라요"④ "주식이 뭐예요?"… 베트남 증권시장, 韓에 열려있다⑤ 예영해 삼성화재 베트남법인장 "베트남 기업보험 개척자… 로컬기업과 협업에 신규 채널 확보까지"⑥ 이의철 신한라이프 베트남법인장 "텔레마케팅, 안된다고?… 신한라이프 베트남, 차별화로 대박쳤다"⑦ 강규원 신한베트남은행 법인장 "3년 안에 베트남 12위권 은행으로… 2030년엔 톱10 안에"⑧ 박원상 한국투자증권 베트남법인장 "베트남 톱티어 증권사 될 것"… 글로벌 도전장⑨ 강문경 미래에셋증권 베트남법인 대표 "MTS 베트남 최고 수준이라 자부… 올해의 화두는 디지털화"⑩ 정희균 토스베트남 PO "젊고 빠른 성장세, 베트남의 매력"호찌민(베트남)=전민준 기자 지난 8월24일 오후 2시 베트남 호찌민 1군에 있는 호찌민증권거래소. 거래소 정문은 거래전표를 손에 쥔 채 거래소를 오고가는 수많은 젊은이들로 발 딛을 틈조차 없이 복잡하다.이들을 따라 거래소 내부로 가보니 100여명의 젊은이들이 전광판을 뚫어지게 응시하고 있었다. 복잡한 객장을 지나 사무실로 보이는 듯한 곳으로 들어서니 이번에는 여러 줄로 대기하고 있는 사람들이 보인다. 새로 계좌를 개설하기 위해 기다리고 있는 사람들이었다. 베트남 주식시장의 현주소다.미래에셋증권, 한국투자증권 등 한국 대형 증권사들은 베트남 증권시장 성장잠재력에 주목하고 있다.이날(24일) 오후 3시에 방문한 호찌민 미래에셋증권 베트남 현지법인 본사 영업부. 리버뱅크타워 7층에 위치한 이곳에서는 뚜띠엠 신도시를 한눈에 내려다볼 수 있다.뚜띠엠 신도시는 호찌민이 중국 상하이 푸둥지구를 벤치마킹해 동남아를 대표하는 베트남 경제허브로 개발하고 있는 지역이다.  이날 뚜띠엠을 바라보는 강문경 미래에셋증권 베트남법인장의 눈빛도 사뭇 남달랐다. 강 법인장은 "1억명에 가까운 베트남 인구 중 증권계좌를 가지고 있는 인구는 절반에도 못 미치는 것으로 추정하고 있다"며 "나머지 절반 이상의 수요에 증권사들은 주목하고 있다"고 강조했다.  현재 미래에셋증권 베트남 법인은  온라인 계좌개설, 비대면 마케팅 등 신속한 디지털 전환으로 시장점유율 상위권을 유지하고 있다. 50여명의 직원이 근무하는 본사 영업부에서도 열기가 느껴졌다.  호찌민증권거래소 맞은편에 있는 한국투자증권 베트남법인 분위기도 마찬가지였다. 이헌우 한국투자증권 베트남법인 이사는 "신종 코로나바이러스 감염증(코로나19) 사태 속에서 증권계좌를 개설하는 인구가 급격히 늘어나며 성장잠재력을 또 한 번 체감했다"며 "증권계좌 개설은 5~7월 다소 주춤했지만 8월부터 살아나는 분위기"라고 말했다. 한국투자증권은 지난 2010년 증권사 최초로 베트남에 진출한 이후 2025년까지 현지 '톱3' 증권사로 도약하기 위해 움직이고 있다.다만 휴대폰 등을 통한 디지털화 속도는 더디다는 게 현지 관계자들의 중론이다. 강 법인장은 "대면거래에 익숙한 베트남인들은 굳이 비대면거래를 찾지 않는다"며 "디지털화를 위해 신규 시스템을 구축할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.09.09.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>저축은행, 금융사고 예방‧보안기능 강화 ‘눈길’</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002638025?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>보이스피싱 피해 예방‧금융 서비스 확대ⓒ연합뉴스[데일리안 = 이세미 기자] 신종 코로나바이러스 감염증(코로나19) 사태 후 3년 만에 사회적 거리 두기 해제된 첫 명절을 맞은 가운데 저축은행들이 명절 특수를 노린 보이스 피싱 등 금융사기 예방에 만전을 기하고 있어 눈길을 끈다.9일 금융권에 따르면 JT친애저축은행은 '여신금융법(가칭) 위반 협박 보이스피싱'의 수법을 쉽게 이해할 수 있도록 돕는 이미지를 제작해 홈페이지 메인 화면에 띄우고, 자사 사칭 불법 대출 영업 전화의 특징을 자세히 공지하고 있다.앞서 JT저축은행은 보이스피싱 금융 범죄 예방을 통해 고객의 자산을 보호하고 이 같은 공로를 인정받아 금융감독원으로부터 감사장을 받은데 이어, 고객의 이상 거래 징후를 포착해 금융 범죄 피해를 사전에 예방한 바 있다.페퍼저축은행은 홈페이지 고객센터의 금융사기주의 안내 게시글을 통해 금융사기 관련제도, 주의 사항 등을 안내하고 있으며, 웰컴저축은행과 OK저축은행은 고령자 개인정보 탈취 후 명의도용 대출 실행 등 고령자 대상 최신 보이스피싱 사례와 예방법 등 고령층의 금융사기 예방을 위한 금융교육을 진행했다.앱 고도화 등을 통해 금융사기 예방에 나서는 저축은행도 있다. 웰컴저축은행은 한국인터넷진흥원으로부터 정보보호관리체계(ISMS) 인증을 받고 인공지능 기반 악성앱 탐지 기술을 모바일 앱에 도입해 불법 악성앱의 피해로부터 고객을 보호하고 있다.SBI저축은행은 안심이체서비스를 통해 송금 받는 계좌 명의자와 휴대전화 번호 명의자가 동일인인지 검증하고, 문자 인증 코드를 이용해 받는 사람의 거래 의사를 확인한 후 송금하는 서비스를 제공 중이다.모아저축은행은 인공지능을 기반으로 출처가 불분명한 앱, 가짜 앱, 변조된 앱을 차단하는 보이스피싱 앱 탐지 솔루션 ‘페이크파인더’를 도입해 금융사고를 예방 중이다.저축은행중앙회는 금융감독원과 소비자피해 예방을 위해 79개 저축은행 보이스피싱 업무담당자를 대상으로 온라인 교육을 진행하고 악성앱 탐지 서비스 도입 및 이상금융거래 탐지 시스템 (FDS) 고도화 등도 추진 중이다.'보이스피싱' 이미지 ⓒ게티이미지 뱅크고향을 찾지 못해 가족에게 용돈으로 마음을 전하고 싶다면, 저축은행중앙회와 연계한 네이버페이, 토스 등 핀테크 간편 송금 서비스를 이용할 수 있다. 급하게 현금 인출이 필요한데 수수료가 걱정이라면 GS25 편의점을 찾으면 된다.저축은행 체크카드 또는 현금카드가 있는 고객은 GS25 편의점 내 효성티엔에스 ATM(자동현금입출금기) 및 CD(현금출납기) 기기에서 24시간 무료로 출금 서비스를 이용할 수 있다. 현금 인출이 가능한 GS25 편의점은 전국 1만여 개에 달한다.저축은행 고객이라면 연휴에도 모바일 앱을 통해 서비스 이용이 가능하다. JT저축은행의 모바일앱 ‘JT저축은행’은 자동심사 프로세스를 기반으로 대출 상품 조회부터 즉시 심사 유무를 확인해 자금 송금 등 전반적인 여신 서비스를 이용할 수 있다.이밖에 SBI저축은행의 ‘사이다뱅크’, 웰컴저축은행의 ‘웰컴디지털뱅크’, JT친애저축은행의 ‘JT친애모바일뱅킹’ 상상인계열저축은행의 뱅뱅뱅, 크크크 등 다양한 저축은행이 자사 모바일 앱을 통해 비대면 서비스를 지원하고 있다.저축은행 업계 관계자는 “추석 연휴 고객 불편을 최소화하기 위해 모바일 앱 및 송금 이체 서비스는 물론 지능화된 금융사기 피해를 예방할 수 있도록 최선을 다하고 있다”며 “연휴 기간 저축은행 서비스를 미리 숙지하셔서 잘 활용하시길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>생활맥주, 토스와 상품권 증정 프로모션 실시</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011399135?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 김동현 기자 = 생활맥주가 모바일 금융서비스 토스와 제휴를 맺고 토스 앱 내 만보기 서비스에서 상품권 증정 프로모션을 진행한다고 2일 밝혔다. 토스 만보기 서비스는 사용자 휴대폰의 위치 정보와 측정된 걸음 수를 기반으로 보상 혜택을 제공한다. '걷기 미션'과 '방문 미션'을 통해 하루 최대 140원의 토스 포인트를 수령할 수 있다. 프로모션은 방문 미션 기능을 활용한다. 현재 내 위치를 기반으로 주위에 있는 생활맥주 매장이 토스 만보기 앱 내 지도에 노출되고 생활맥주 매장에 방문하면 리워드와 함께 특별 쿠폰까지 발급받을 수 있다.생활맥주 관계자는 "전국 200여개 생활맥주 매장 중 현재위치와 가까운 매장으로 방문을 유도할 수 있는 토스 만보기 서비스와의 시너지 효과가 클 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.09.01.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>[성공예감] 불황이라면서 스타트업 M&amp;A는 증가하는 이유 –조가연 슈미트 수석팀장</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011331642?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>■ 인터뷰 자료의 저작권은 KBS라디오에 있습니다.  인용 보도 시 출처를 밝혀주시기를 바랍니다.■ 프로그램명 : 성공예감 김방희입니다■ 방송시간 : 8월 31일(수) 09:05-10:53 KBS1R FM 97.3 MHz■ 진행 : 김방희 소장 (생활경제연구소)■ 출연 : 조가연 수석팀장 (슈미트)- 최근 벤처업계 투자, 개점휴업 늘어... 작년과 비교했을 때 절반 가까이 감소- 유니콘 기업, 후발주자와 격차를 벌리기 위해 적극적 인수합병과 투자 이어가- 토스, 모빌리티 서비스 타다와 알뜰폰 사업자 인수 등 일련의 밸류체인 만들어- 앱 하나로 생활의 많은 부분 영유할 수 있는 ‘슈퍼 앱’ 선점 경쟁 증가- 국내 가상자산거래소 2위 빗썸, 매각 진행중... 가상화폐 호황기에는 몸값 2조원이었지만, 인수 여부와 금액 지켜봐야- 온라인과 오프라인을 묶는 O2O 기업... 여기어때, 야놀자를 필두로 숙박 관련 분야 많아- 야놀자 볼트온 성장... 동종 업계를 계속 인수하면서 시장 지배력을 키우고 가치 상승시키는 전략- 2012년 부동산 중개업으로 시작한 직방, 18년부터 활발한 M&amp;A 나서... 프롭테크 유니콘으로 확장 중- 투자 심리 보수적으로 바뀌어... 돈줄 막히면서 매각하는 경우도 증가- 최근에는 켄타우로스, 즉 내실 있고 안정적 성장 가능한 기업들이 살아남는 상황◇김방희&gt; 본격적으로 2부 시작해 보죠. 국내외 증시가 겨울이죠. 그보다 더한 엄동설한에 시달리고 있는 게 벤처투자 시장입니다. 돈이 돌지 않으니까 고사당할 위기의 벤처기업들이 많습니다. 그런데 이 틈을 타서 새로운 생존 전략을 마련한 기업들도 있는데요. 활발하게 인수합병 M&amp;A를 추진하거나 새로운 스타트업에 투자하면서 이때를 기회로 삼고 있는 기업들인데. 이런 기업들을 한 10년 후에 보면 틀림없이 네이버나 카카오 같은 곳의 길을 다시 밟을 가능성이 있습니다. 그래서 미래 생활 사전 시간에 잘 나가는 기업들의 M&amp;A를 속속들이 들여다보도록 하겠습니다. 본격적인 옥석 가리기가 시작됐다, 이렇게 볼 수 있을 텐데요. 슈미트의 조가연 수석팀장과 함께하죠. 어서 오십시오.◆조가연&gt; 네, 안녕하세요.◇김방희&gt; 투자가 많이 줄긴 했죠, 이쪽이.◆조가연&gt; 정말 많이 줄었습니다.◇김방희&gt; 그렇죠. 인플레이션도 그렇고 경기 침체 우려가 나오면서 리스크 자체를 싫어하게 되거든요. 비관주의가 팽배해지면서. 어느 정도 수준이에요? 예전에 우리 스타트업 업계 벤처업계도 어려운 시기를 겪었으니까 그때하고 비교하면.◆조가연&gt; 저희 업계가 보통 월요일에 소위 기업 소개라고 하는 IR을 갖고 투자심의위원회들을 보통 월요일에 하는데요. 전에는 시간을 잡지 못해서 바빴다면 요즘에는 거의 개점휴업인 곳들이 적지 않습니다. 이게 수치적으로 보면 글로벌 시장조사기관 피츠버그를 보면 올해 1분기 미국 내에서 스타트업 투자가 우리 돈 89조 원 정도인데, 이게 전 분기 대비 거의 25% 정도가 줄어든 거고요. 작년 같은 기간과 비교하면 거의 절반 이하로 떨어진 상황입니다. 국내 같은 경우도 지난 5월 기준으로 스타트업 투자가 한 7600억 원 정도가 이뤄졌는데, 이게 많다고 느끼실 수는 있겠지만 작년 같은 5월과 비교했을 때는 거의 3800억 정도. 그러니까 34% 정도가 감소한 수치이기 때문에 숫자적으로도 그렇고 저희가 체감하기로도 정말로 지갑을 닫고 있다고 하는 표현이 과언은 아닙니다.◇김방희&gt; 저희도 가끔 말씀드리는데 꼭 스타트업 업계뿐만 아니라 이렇게 불황기가 닥치거나 코로나 같은 이상기가 도래하면 의외로 현금 여력이 있는 기업들이 인수합병 M&amp;A판을 벌인다. 큰 판이 벌어진다. 이런 말씀을 종종 드리는데. 실제로 기업가치 1조 원 이상인 유니콘 기업들 가운데는 오히려 M&amp;A에 더 열을 올리는 곳들이 많더군요.◆조가연&gt; 이게 좀 냉정하지만 또 위기가 기회가 되기도 하니까요. 유니콘 기업들 같은 경우는 후발주자들과의 격차를 벌리기 위해서 적극적으로 인수합병이나 투자 같은 것들을 이어가고 있습니다. 사실 불황기인데도 왜 인수합병이 증가하냐라고 물어보신다면 작년 초까지만 해도 불황기가 닥치기 전에 굉장히 벤처 시장에 돈이 많이 풀려 있었고 소위 유동성이 풍부했던 시장이었고요. 또 그런 호황기에 몇 천억 몇 백억 정도의 대규모 투자 유치를 한 유니콘 기업들이 이미 현금을 보유하고 있는 편입니다. 그렇다 보니까 자신들이 처음에 진입했던 초기 공략 시장에서 어느 정도 시장 점유율을 정했고 여기에서 어떤 사업이나 매출을 다각화하기 위해서 인접 영역들 또는 좀 더 장기적으로 또 전략적으로 인수를 할 만한 곳들을 찾아서 좀 몸값이 싸진 기업들을 인수하려고 나서는 모양새입니다.◇김방희&gt; 그렇게 해서 가장 성공적이었던 사례를 보자면 옛 페이스북 지금 메타라고 합니다마는 거기도 잠재적 경쟁업체들을 자신들이 가진 풍부한 자금으로 다 사들여서 지금 모체가 어려워졌는데 오히려 그 덕으로 먹고 살지 않습니까? 인스타그램 같은 것도 인수했기 때문인데 지금 신생 스타트업은 돈줄 말라서 고사 직전이고 오히려 잘 나가는 스타트업 기업들은 M&amp;A와 기술, 기타 투자를 늘리고 있다는 건데 우리 쪽도 그렇습니까? 오히려 지갑을 열고 있습니까?◆조가연&gt; 국내 같은 경우도 IT 유니콘들 또는 IT 스타트업들을 중심으로 인수합병 사례가 증가하고 있고요. 사실은 이게 최근의 이야기가 아니라 코로나19 이전인 2018년도, 2019년도부터 이런 모양새들은 증가가 됐었습니다. 가장 주목받았던 인수 건들 중에 하나를 꼽자면 일단 토스라고 하는 금융 플랫폼을 운영하고 있는 비바리퍼블리카가 작년 10월에 모빌리티 서비스를 제공하는 타다를 인수했죠. 정확하게는 쏘카라고 하는 최근에 상장한 상장사가 보유한 타다 운영사 VCNC의 지분 60%를 인수한 거고요. 결국 타다의 최대주주가 된 건데요. 토스 같은 경우는 그전에 LG유플러스가 가지고 있던 결제 대행 사업부 보통 PG 사업부라고 부르는 것도 인수를 하고 또 알뜰폰 사업자도 인수를 하면서 토스 앱 안에서 어떤 결제 대행, 알뜰폰 요금제 검색, 요금 납부까지 일련의 금융 밸류 체인을 만들어가고 있다고 이해하시면 좋겠습니다.◇김방희&gt; 그러니까요. 이 토스라는 곳이 인수하는 사업들을 보니까 그 앱 하나로 생활의 많은 부분들 단순히 금융 생활뿐만 아니라 라이프 스타일을 영유할 수 있도록 만들겠다는 목표를 가지고 움직이는 것 같은데 그걸 슈퍼 앱이라고 부른다고 한번 소개해 주셨잖아요. 국내에서도 이런 슈퍼 앱 선점을 두고 경쟁이 벌어지고 있는 겁니까?◆조가연&gt; 거의 모든 앱 기반의 서비스들이 어느 정도 시장을 점유하게 되면 슈퍼 앱을 하고 싶어 합니다. 페이스북 같은 경우도 여기에 광고를 붙이고 뭔가 커뮤니티를 붙이고 하면서 어쩌면 온라인과 오프라인 커뮤니티로서 슈퍼 앱을 만들고 싶어 하고 있는 분위기가 보이고요. 타다를 인수한 것 그 배경을 보면 한국 같은 경우 택시 시장 연간 매출액으로 한 10조 원에서 12조 원 정도가 추정이 됩니다. 그런데 요즘에 길가를 보시면 사실 대부분의 승객들이 카카오 앱이라든지 이 모바일을 가지고 호출을 하잖아요. 이게 사실 연령별로 다르기는 한데 그렇다 보니까 토스 같은 경우도 본인들이 타다를 인수하고 여기에 결제를 붙인다면 중장기적으로는 카카오T나 우티와 같은 것과 직접 경쟁할 수 있는 금융과 모빌리티 간의 어떤 시너지가 이루어질 수 있다고 보고 있는 거고 LG유플러스의 결제 사업부나 알뜰폰을 인수를 한 것도 우리가 단순히 송금으로 시작했지만 증권과 예금 보험, 결제 대행, 휴대전화까지 1년의 종합금융 플랫폼이 되겠다. 슈퍼업이 되겠다라고 기치를 내건 게 아닌가 추정이 되고요. 아주 유사하게 동남아에 있는 그랩이라고 하는 스타트업도 처음에는 차량 공유로 시작을 했지만 여기에 결제 서비스를 붙이고 음식 배달을 붙이고 하면서 모빌리티 금융 배달까지 1년의 어떤 생활 속 슈퍼 앱으로 자리를 잡았습니다. 토스 같은 것도 비슷한 성장을 한번 꿈꿔보지 않나라고 볼 수 있겠습니다.◇김방희&gt; 그랩이라는 곳이 동남아판 우버로 시작했는데 거의 슈퍼 앱으로 자리 잡고 있는데 일전에 한 번 쏘카 IPO 과정에서 비교 대상을 동남아 그랩으로 정해서 상당한 논란이 있었죠. 그 정도냐 하는 논란이었는데 말씀하신 슈퍼 앱이 지금 라이프스타일에서 중요해지고 있다고 느끼는 게요 저 같은 사람도 휴대폰 앱을 정리하기 시작했거든요. 너무 많으니까 여러 가지 용량이나 이런 문제가 발생해서 뭘 살려둘 것이냐? 그게 슈퍼 앱이 될 잠재력이 큰 앱들이니까 상당히 고민이 되더군요. 어떤 게 가장 필요할까를 따져야 되니까 이 핀테크 분야라고 그러죠. 기술과 금융이 결합된 분야가 3, 4년간 정말 그야말로 엄청난 투자가 이루어졌는데 그리고 국내뿐만 아니라 국경을 넘는 글로벌 M&amp;A 지금 추진 중이던데 언론 보도가 많이 됐습니다마는 우리나라 빗썸이라는 가상자산 거래소 이거 다른 나라에 넘어갑니까?◆조가연&gt; 일단 보도상으로는 협상이 진행 중이라고 하는데 빗썸이 국내 2위의 가상자산거래소입니다. 지난 7월에 업계가 보도하기로는 글로벌 4위 가상자산 거래소인 FTX와 매각 협상을 진행하고 있다고 이야기가 나왔고요. 사실 이 빗썸의 매각 시도는 최근의 일은 아닙니다. 지난 수년 동안 경영권 매각을 추진해 왔었고 이게 2018년도에도 한 번 시도가 됐다가 자금 조달에 실패하면서 무산됐다는 기사가 있고요. 또 2020년도에는 빗썸이 직접 상장을 하거나 경영권 매각을 하겠다고 동시에 검토했는데 당시에도 잘 마무리되지 않았습니다.◇김방희&gt; 그런데 가상자산의 가격은 부침이 큽니다마는 요즘은 크립토 윈터라고 그래서 가상자산에 겨울이 왔다고들 얘기하고 있습니다마는 거래소 자체의 영업에 큰 문제가 없을 텐데 왜 경영권을 넘기려고 하는 거죠?◆조가연&gt; 이걸 실적을 보면 빗썸이 사실 실적은 나쁘지 않습니다. 2020년도에 연매출이 2100억 원이고 작년 같은 경우는 1조 원을 넘겼거든요. 그러니까 지난 2년 동안 워낙 코인 가상자산 시장이 커지다 보니까 거래소들마다 수수료 이익을 굉장히 많이 냈는데요. 빗썸 같은 경우는 일단 1위 거래소 자리를 두고서 경쟁을 하는 과정에서 복잡한 경영권이나 지배구조 이야기들이 나왔었고 정확하게 매각을 하는 원인은 아직은 나오지는 않았습니다. 다만 최근에 유력하게 이야기 되고 있는 외국계 FTX라고 하는 가상자산 거래소가 여기가 2019년도에 만들어져서 올해에만 관련된 인수합병을 7건 정도 진행을 해왔는데요. 알려지기로는 아주 오래 전부터 한국 시장에 들어오고 싶었고 그렇다 보니까 국내 2위 거래소인 빗썸에 먼저 접촉했다고 알려지고 있습니다.◇김방희&gt; 가상화폐 시장에서 한국이 차지하는 위치가 독보적인 면이 좀 있기 때문에 해외 거래소로서는 한국에 진출하고 싶어 할 텐데 몸값 자체는 얼마 정도로 평가를 받아요? 업계에서는?◆조가연&gt; 인수하는 몸값은 아마도 협상 당사자들 간의 이야기가 되겠지만 일단 작년 초에 가상화폐 호황기 때 빗썸이 경영권 프리미엄을 포함해서 이야기되던 몸값이 약 2조 원 수준이었습니다. 물론 이 몸값을 모두 다 인정받느냐? 그리고 실제 인수가 이루어지느냐는 좀 더 지켜봐야 될 것 같습니다.◇김방희&gt; 별개의 문제겠죠. 1위 가상자산 거래소 그러면 두나무인데 이쪽은 비교적 국내 투자에 주력하는 느낌이죠?◆조가연&gt; 업비트는 투자와 인수를 굉장히 적극적으로, 다각적으로 활용하고 있고요. 국내 최대 가상자산거래소 업비트를 운영하고 있는 몸체는 두나무이죠. 두나무 같은 경우는 가상자산 관련된 신사업 외에도 굉장히 2종 업계에 투자나 인수로 활발하게 활동을 하고 있습니다. 온라인 스포츠, E스포츠라고 하는 곳들 중에서 레이싱 대회를 주최하는 스타트업, 그리고 중고 명품 시계를 파는 플랫폼, 비상장 스타트업들의 주주 명부를 관리하는 서비스 등에도 투자나 인수를 하고 있고요. 기사로 잘 알려졌겠지만 하이브라고 하는 엔터테인먼트사 같은 경우도 지분의 한 5.57%를 7000억 원에 매입을 하면서 글로벌 시장을 대상으로 한 어떤 IP 자산과 가상자산의 거래인 NFT 같은 것들도 해보겠다고 이야기를 하고 있고...◇김방희&gt; BTS 소속사 사서.◆조가연&gt; 맞습니다. 사실 이렇게 굉장히 거침없는 M&amp;A급의 지분 투자가 이루어질 수 있는 것은 당연히 많은 현금을 가지고 있기 때문입니다. 작년 매출이 3조 7000억 원이었는데 이 중에 3조가 영업이익이기 때문에요. 이 3조 원을 가지고서 앞으로도 적극적인 사업 확장을 하지 않을까 점쳐보고 있습니다.◇김방희&gt; 하기는 가상자산 거래소라는 게 초기에 투자해서 플랫폼을 갖추고 나면 엄청난 비용이 추가되는 건 아니니까 영업이익률이 참 무시무시하더군요. 기존 제조업체들 보고 깜짝 놀라요. 영업이익률 보면. 온라인, 오프라인을 묶는 이른바 오투오 기업들이라고 하는데 여기도 지금 인수합병에 적극적이던데 여기는 궁극적으로 뭘 하고자 하는 겁니까? 온라인과 오프라인을 왜 연결하고자 하는 겁니까?◆조가연&gt; 역시나 우리도 슈퍼 플랫폼, 슈퍼앱이 되겠다는 건데 처음에 숙박 관련된 오투오가 상당히 많이 있습니다. 그 중에 현재 대표 주자는 여기어때와 야놀자 아마 매스미디어 광고도 많이 보셨을 텐데요. 여기어때 같은 경우는 2019년도부터 인수를 해오고 있습니다. 맛집을 검색하는 플랫폼인 망고플레이트라고 하는 스타트업을 2019년도에 인수를 했고 작년 10월에는 해외여행을 하는 플랫폼도 지분을 인수를 했고요. 이렇게 계속해서 인수를 해 온 덕에 여기어때가 2014년도에 설립됐는데 올해 기업가치 1조원 유니콘에 이름을 올렸고요. 사실은 여기가 2019년도에 이미 영국 사모펀드의 지분은 팔려 있습니다. 당시에 기업 가치가 3,000억 원이었는데, 지금 2019년도 3,000억 원이 올해 같은 경우에는 1조 원까지 올라온 거고요. 굉장히 적극적으로 M&amp;A를 하고 있고 또 매출 상승도 같이 기여를 하는 것 같습니다.◇김방희&gt; 숙박 플랫폼 양대 산맥이 말씀해 주신 여기어때 하고 야놀자인데. 야놀자는 K유니콘의 대명사처럼 불리고 있는데 여기도 많이 인수하고 있죠.◆조가연&gt; 야놀자야말로 볼트온 성장의 주요 사례라고 할 수 있겠습니다.◇김방희&gt; 볼트온 성장 이라는 게 뭡니까.◆조가연&gt; 그니까 볼트온이라고 하는 게 동종 업계를 계속 인수를 하면서 시장 지배력을 키우고 또 회사 가치를 상승시키는 전략인데, 야놀자가 2006년에 설립됐는데 2016년도부터 계속해서 플랫폼들을 인수를 해 왔습니다. 호텔 공실 정보를 제공하는 호텔나우나 액티비티 플랫폼 레저큐 , 심지어 동남아 호텔 체인 같은 것들까지 인수를 하면서 작년 초까지 거의 10개 정도의 스타트업을 인수를 했고요. 이후에 자금을 확충하면서 굉장히 대규모 인수를 시작했는데 작년 10월에 거의 3,000억 원을 들여서 국내 티켓 예매 1위 플랫폼 인터파크를 인수하고, 올해에도 여행 가이드 플랫폼으로 가장 앞서 나가 있는 트리플를 합병했습니다. 이런 방식으로 인수를 가지고서 숙박 예약과 항공권, 맞춤형 여행까지 그러니까 1년의 종합 여가 슈퍼앱이 되겠다는 목표를 좀 보이는 것 같습니다.◇김방희&gt; 그렇군요. 그야말로 인수합병 전쟁인데. 말씀해 주신 게 숙박 플랫폼 얘기였고, 부동산 중개 플랫폼 가운데 직방이라고 있는데 이 브랜드명을 말씀드릴 수밖에 없는 이유가 이게 M&amp;A 흐름이기 때문에요. 단순히 그간의 트렌드나 역사를 설명드리는 겁니다. 4~5년 전부터 직방이라는 데가 인수에 열을 올려서 언론에서도 많이 거론됐는데 부동산 중개 플랫폼을 선점하려는 겁니까?◆조가연&gt; 직방도 역시나 스타트업 볼트온 전략으로 유니콘까지 올랐다고 평가받고 있는데요. 여기가 2012년도에 직방이라고 하는 부동산 중개앱으로 시작을 했습니다. 그러다가 첫 M&amp;A가 2018년도부터 이뤄졌는데, 아파트 실거래가 정보를 제공하는 호갱노노를 한 200억에 인수했고요. 셰어하우스도 인수를 하고 상업용 부동산 플랫폼도 인수를 했습니다. 최근 같은 경우는 국내 1위 IT 서비스 기업인 삼성SDS로부터 홈 IOT 사업 부문도 인수했는데요. 이제 결국에는 단순히 어떤 작은 소형 부동산 매물 정보 공개부터 아파트까지 확장을 하고, 이제는 사업을 더 확장해서 IOT까지 하겠다. 여기도 말씀해 주신 것처럼 우리가 프롭테크 분야에서는 유니콘이 되겠다는 걸 명확하게 보여주고 있습니다.◇김방희&gt; 잠깐 스타트업 업계의 용어 설명드리자면. IOT는 사물 인터넷 얘기하는 거고 프롭테크는 부동산 관련 부동산과 기술이 결합된 분야를 프롭테크라고 하는데요. 이렇게 움직이는 이유는 알겠어요. 왜냐하면 시장을 선점하는 게 중요하고 이 플랫폼 경제에서는 특히 정부와 사람이 많이 몰리는 쪽에 또 실제 돈과 사람 관심이 더 집중되니까, 이렇게 인수하는 건 이해가 되는데, 돈이 많이 드는, 돈들이 어디서 나와서 이렇게 인수합니까.◆조가연&gt; 직방의 삼성SDS IOT 부문 인수가 인수 금액이 최대 1,000억 원 정도로 알려져 있습니다. 결국 이 돈이 어디서 나오냐, 당연히 투자 유치가 첫 번째이기도 하고요. 실제로 올해 6월에 직방이 1,000억 원 정도 투자 유치를 했고, 누적 투자금이 한 3,200억 원 정도가 됩니다. 사실 되게 올해 6월이면 굉장히 벤처업계가 불황이었는데도 투자 유치를 성공한 사례고요. 12건 정도 인수를 했던 야놀자 같은 경우는 2015년도에 100억 원 투자 유치를 시작해서 거의 매년 수천억 원 규모까지 투자를 이어오고 있기 때문에, 결국 자금의 출처는 대규모 투자, 그리고 약간의 외부 대출 등이 이뤄지고 있다고 보시면 좋겠습니다.◇김방희&gt; 투자 유치가 주 자금원인데 그런데 지금 말씀해 주신 것 가운데 여행업 같은 경우는 코로나19 때문에 많이 어려웠기 때문에 이게 쉽지 않을 것 같기도 한데요.◆조가연&gt; 여행업으로 가장 타격을 많이 받은 곳들이 오프라인 대리점을 운영하는 전통적인 여행업들 그리고 해외여행에 집중했던 여행사들인데, 사실은 야놀자나 여기어때는 해외보다는 국내 여행이나 숙박 연결 비중이 높았습니다. 오히려 국내 관심이 늘어나면서 양쪽 다 MAU 그러니까 월간 활성 사용자 수가 늘어났거든요. 여기가 2020년도에 야놀자랑 여기어때 월간 활성 사용자가 각각 250만 명, 200만 명이었는데. 올해 5월을 보면 380만 명, 320만 명입니다. 오히려 성장을 했습니다. 야놀자 같은 경우는 사실은 작년에 소프트뱅크 비전펀드에서 2조 원을 유치하면서 막강한 현금을 보유하게 됐고요. 추가로 어떤 볼트온을 할지 좀 주목이 되긴 합니다.◇김방희&gt; 야놀자는 사실 쿠팡에 이어서 두 번째로 큰 규모로 비전 펀드 손정의 펀드의 자금을 유치하지 않았습니까. 그런 점에서 보면 M&amp;A 시장의 큰 손으로 부각되는 게 당연하기도 한데. 그런데 투자자 입장으로 한번 돌아와 보면, 우리 조가연 팀장도 투자자를 대행하는, 대리하는 입장이니까 요즘 분위기 어떤지 모르겠어요. 이렇게 큰돈을 투자해서 굴리는 게 나은지, 아니면 오히려 몸 사리고 있는 게 나은지 투자자 입장에서는 어때요.◆조가연&gt; 저도 그 답을 찾고 싶은데요. 그런데 대체적으로 글로벌 공통적인 현상은 일단 큰돈을 쓰는 것들은 굉장히 보수적으로 이루어지긴 하고요. 그리고 작은 초기 단계 투자 같은 경우도 전반적으로 투심이 보수적으로 바뀌긴 했습니다. 실리콘 밸리를 대표한다고라도 할 수 있는 세콰이어 캐피탈 같은 경우는 이제 호황기 끝났다, 스타트업 호황기 끝났고 경제 회복 빠르게 안 될 거다 무조건 현금 절약하고 빨리 움직여라 그리고 확실하게 수익이 나는 기업에 투자하겠다는 이야기를 대놓고 얘기하고 있고요. 해외 외신 보도들을 보면 우리 매각할게요라고 하는 매각 의향을 밝힌 스타트업들이 작년 대비 3배 정도가 늘었다고 이야기를 하고 있어서,◇김방희&gt; 돈 줄이 말랐으니까 매각이라도 해야 되겠죠.◆조가연&gt; 네, 투자 유치를 하지 못한다면 매각이라고 하는 게 어쩌면 유일한 선택지가 될 수도 있겠습니다.◇김방희&gt; 그렇죠. 실제로 M&amp;A를 했다가 오히려 다시 되파는 것도 있던데 이건 단기 수익을 노려서 그랬던 건가요, 아니면 원래 계획이 무산돼서 그런 건가요.◆조가연&gt; 일단 사례마다 다르겠지만 지금 말씀드리려고 하는 사례는 시너지가 좀 달라졌다는 분석을 하고 있고요. 국내 전자도서로 유니콘에 올라있는 리디라고 하는 회사가 있습니다. 이제 여기가 작년 10월에 기업 가치 1조 5천억 원을 인정받으면서 국내 유니콘으로 등극해 있는데 여기가 지난 2018년도에 아웃스탠딩이라고 하는 IT 전문 콘텐츠 스타트업을 인수를 했습니다. 그리고 인수 후 3년 4개월 만인 올해 초에 다시 이걸 경제 콘텐츠를 만들고 있는 삼프로TV 운영사에 재매각을 했고요. 사실상 어떤 차익을 노린 것보다는 최근에 아웃스탠딩 창업자가 밝힌 내용들을 보면, 사업 전략이 서로 바뀌면서 협업할 수 있는 게 바뀌었다. 그래서 이럴 경우에는 언제든지 인수합병을 하고 사업 파트너를 바꿀 수 있다라는 이야기를 하고 있고요. 전자책 유니콘인 리디 같은 경우는 그 외에 OTT 서비스 애니메이션사 아니면 온라인 도서광고회사 같은 조금 더 시너지를 낼 수 있는 곳들을 인수를 하면서 다른 성장 동력을 고려하는 것 같습니다.◇김방희&gt; 다른 스타트업 기업을 인수해서 더 나은 시너지를 내고 싶었는데 그렇게 뜻대로 안 되는 경우도 많으니까. 마치 합종연횡처럼 서로 연결됐다 떨어졌다 하고 있는데, 실제로 꼭 같은 분야가 아니어도 성격이 조금씩 다른 플랫폼들끼리 합종연횡까지도 이루어질 것 같은데요.◆조가연&gt; 일단 색깔이나 영역은 조금씩 다르지만 토스 같은 경우도 타다를 인수한 것도 굉장히 다른 것들이죠.◇김방희&gt; 초기에는 그래서 논란이 많았죠. 그게 시너지가 가능한가 그랬는데.◆조가연&gt; 다만 그 속내들은 우리가 하고 있는 분야에서 인접한 영역, 인접하지 않더라도 어떤 협업을 할 수 있는 또는 시너지가 날 만한 분야들을 인수하고 확장하고 있는 모양새고요. 오늘의집이라고 하는 인테리어 쇼핑 플랫폼을 운영하고 있는 버킷플레이스 같은 경우도 작년에 집을 수리하는 서비스 제공 회사, 그리고 싱가포르에 있는 온라인 가구 커머스 플랫폼도 인수를 했습니다. 이제 이렇게 어쩌면 조금 다를 수 있는 곳들을 인수를 하고 있고. 무신사 같은 경우도 국내 1위 패션 플랫폼인데, 약간은 고객층이 다른, 여성 패션 플랫폼들을 인수를 했습니다. 작년 5월에 인수 대금 한 3,000억 정도의 스타일쉐어라고 하는 여성 패션 플랫폼. 그리고 생활용품 플랫폼인 29CM라고 하는 곳을 인수했고요. 이것 역시 고객군을 확장하면서 약간은 다른 색깔의 패션 플랫폼을 인수한 사례라고 볼 수 있겠습니다.◇김방희&gt; 보통 인수합병을 하면, 화학적 결합은 둘째 치더라도 일단 물리적 결합을 하거든요. 합쳐서 운영을 하게 되는데, 무신사 같은 경우는 인수하고도 서비스는 별도로 운영하는데, 그게 더 낫다는 판단 때문입니까?◆조가연&gt; 이게 물리적 결합이 반드시 시너지를 내는 건 아니다라는 판단을 잘 하신 것 같습니다. 무신사 같은 경우는 스트리트 패션이나 남성 고객이 굉장히 강한 플랫폼이고요. 앞서 말씀드린 스타일쉐어나 29cm 같은 경우는 여성향 플랫폼 그리고 좀 독특한 디자인 플랫폼으로 알려져 있는데 이걸 억지로 합병시키지 않고 개별 플랫폼의 특성을 살려서 운영을 하고 있고요. 이렇게 할 경우에는 그동안 익숙해졌던 단골 고객들의 어떤 반발심을 줄일 수 있는 것도 가능할 것 같습니다.◇김방희&gt; 인수합병하고 나면 특히 플랫폼 같은 데서는 단골 고객들이 반발하면서 떠날 수 있으니까 이걸 무척 신경 쓰는군요. 슈미트의 조가연 팀장과 함께 지금 스타트업 업계의 M&amp;A 현황을 들여다보고 있는데요. M&amp;A가 아니라 아예 신생 스타트업에 투자를 하겠다. 이런 유니콘 기업들도 좀 나타나고 있지 않습니까?◆조가연&gt; 중고 거래로 유니콘에 올라와 있는 당근마켓 같은 경우는 작년에 오프라인 모임 플랫폼인 남의집이라고 하는 곳에 10억 정도를 투자를 했습니다. 이 남의집이라고 하는 플랫폼이 와인이나 글쓰기같이 약간 취향이 비슷한 사람들이 모일 수 있는 플랫폼을 만들고 있는데요. 여기도 일단 투자를 하면서 당근마켓 이용자랑 이 서비스 이용자를 연결하고 사업을 확장해보겠다는 모양을 보이고 있고요. 오늘의 집을 운영하고 있는 버킷플레이스 같은 경우도 폐기물 수거 서비스에 투자를 한다거나 토스 운영사 비바리퍼블리카도 스타트업 경진대회를 개최를 해서 우리가 많게는 10억까지 투자를 할게요, 라고 이야기를 하고 있습니다. 사실은 그 외에 알려지지 않았지만 적지 않은 유니콘 기업들이 내부의 전략 투자를 위한 조직들을 만들고 있어서 이제는 어쩌면 돈의 전쟁일 수도 있겠다라는 생각이 듭니다.◇김방희&gt; 그러네요. 돈이 좀 있는 곳에서는 신생 스타트업 기업 중에 우리 사업과 협업이 가능하거나 시너지를 낼 수 있는 곳에 왜 투자를 안 하겠습니까? 그럼 직접 투자 회사를 세우는 편입니까? 아니면 돈을 남에게 맡겨서 운용합니까?◆조가연&gt; 둘 다 이뤄지고 있는데요. 두나무 같은 경우는 이미 2018년도에 두나무앤파트너스라고 하는 투자 전문 자회사를 만들었고요. 직방 같은 경우도 2019년도 말에 브리즈인베스트먼트라고 하는 벤처 투자 회사를 만들었습니다. 무신사 같은 경우도 무신사 파트너스를 가지고 있어서 절반 정도는 직접 투자도 하지만 이런 곳들은 아예 투자 자회사를 만들어서 전문적인 투자 운영도 하고 있습니다.◇김방희&gt; 조 팀장 입장에서는 라이벌 회사가 늘어난 면도 있고 혹은 개인적인 커리어만 생각하면 취업 기회가 확대된 면도 있고 물론 제가 내용을 정확히는 모릅니다만 어쨌든 벤처캐피탈로 변신하는 그런 스타트업, 잘 나가는 유니콘들이죠. 이런 곳들이 늘고 있다는 얘기인데 돈줄 자체가 지금 마르고 있는데 왜 이런 판단이나 선택들을 하고 있다고 보세요?◆조가연&gt; 전통적인 대기업들이나 어느 정도 성장한 기업들이 새로운 먹거리나 미래 성장 동력을 찾기 위해서 소위 기업형 벤처캐피탈 CVC라고 하는 걸 만들기 시작했고 이건 코로나 이전부터 굉장히 추진되어 왔고요. 다만 벤처 불황기의 영향은 함께 받는 것 같습니다. CB인사이트라고 하는 글로벌 조사기관 결과를 보면 올해 2분기 기업형 벤처캐피탈 투자금이 전 분기 대비해서 한 10% 정도가 줄었고요. 거래 건수는 10년 만에 가장 크게 줄었습니다. 그러니까 이게 사실은 신규 먹거리나 성장 동력을 찾기 위해 만들었는데 이런 것들이 보이지 않는다면 오히려 스타트업 침체기에 굳이 투자를 적극적으로 할 필요가 있느냐라는 판단을 하는 것 같기도 하고요. 결국에는 투자 회사이기 때문에 일반적인 민간 벤처캐피탈과 유사하게 시장을 보고 있는 것 같습니다.◇김방희&gt; 글쎄요, 앞으로 이런 유니콘 기업들, 잘 나가는 기업들의 인수합병이나 투자 이런 움직임이 계속될까요. 어떻게 전망하세요?◆조가연&gt; 미국 외신들을 많이 보면 불황형 M&amp;A의 시대가 왔다는 이야기를 많이 합니다. 이게 자금이나 어떤 성장성이 부족한 스타트업들이 신규 투자를 유치하지 못한다면 결국 파산을 해야 하는데 파산보다는 다른 곳들에 인수합병 되는 게 더 좋은 선택지일 것이고요. 그리고 작년까지 현금이나 투자금을 상당히 보유해 놓은 유니콘들이나 스타트업들은 당연히 인수 협상 과정에서 우위를 점할 수밖에 없습니다. 그렇다 보니 망할 바엔 인수가 되겠다는 불황형 M&amp;A가 늘지 않을까라는 전망을 하고 있고 실제로 미국에 이런 정리해고를 집계하는 조사 결과를 보면 올해 5월까지 거의 50여 개의 기술 기업들이 정리해고를 하겠다, 또는 서비스를 중단하겠다고 밝혔는데 이게 2021년도 같은 기간보다 두 배가 많습니다. 결국에는 이런 투자 정책위가 계속되면 많은 회사들이 투자 유치가 어려워질 거고 더 저렴한 몸값에 인수합병이 될 가능성도 늘어날 것 같습니다.◇김방희&gt; 우리 대기업들을 보더라도 외환위기나 글로벌 금융위기 같은 당시에 상당히 손바뀜 현상이 벌어졌거든요. 늘 불황의 큰 판에 M&amp;A 인수합병이 벌어지는데 또 하나 지금 스타트업 기업들 IPO, 기업 공개 자체도 어려울 뿐만 아니라 해도 제대로 된 평가를 받기가 쉽지 않은 상황이었는데 최근에 쏘카의 예도 있습니다마는 IPO 시장이 지금 서서히 다 치고 있는 것도 이렇게 스타트업 간 M&amp;A에 영향을 줍니까?◆조가연&gt; 미국 같은 경우는 IPO 성공하는 회사가 작년에 비해서 80%가 줄었습니다. 한국 같은 경우는 너무나 많은 곳들이 상장 철회를 한다든지 체감을 하고 계실 텐데요. 전통적인 스타트업 생태계에서 이야기했던 성공 방정식이 사실은 창업을 하고 빠르게 성장을 하고 연속적으로 대규모의 투자 유치를 하면서 상장까지 이어지는 방정식이 있었는데. 이게 이제는 없어진 겁니다. 특히나 IPO 시장이 붕괴가 되고 상장하는 그 선택지가 사라진다면 다른 투자금을 조달하지 않는 한 M&amp;A 인수합병이 유일한 통로일 수도 있고요. 실제로 작년에 전 세계 인수합병 규모가 7000조 원 인데 이게 관련 통계를 집계한 40여 년 만에 최대치라고 알려져 있습니다. 그런데 그렇다 보니까 어쩌면 이 위기 속에서 현금을 가지고 있는 것들은 기회를 찾을 거고요. 또 어려운 곳들은 M&amp;A 같은 선택지를 고려를 할 텐데 사실은 몇 년 전만 해도 한국에서 M&amp;A가 안 된다고 지적을 했던 분들이 요즘에는 M&amp;A 이거 싼 값에 M&amp;A 하는 곳들이 너무 많다고 또 지적도 하시는데 이런 과정을 통해서 앞에서 말씀하셨던 옥석 가리기가 이루어지지 않을까라고 기대를 해보고 있습니다.◇김방희&gt; 이런 M&amp;A나 투자가 집중되면 각 분야, 각 영역별로 플랫폼 한두 개만 살아남고 나머지는 다 사라지는 건가요? 플랫폼 경제에서 상당히 중요한 새로운 단계로 진입하게 되는 건가요?◆조가연&gt; 그러니까 이게 위너 테이크 올이라고 하는 이야기가 어쩌면 좀 현실화되지 않을까 싶기는 한데 안타깝지만 그동안 굉장히 많은 유동성을 가지고서 우후죽순처럼 등장했던 스타트업들이 실적을 내지 못한다면 시장경제에서는 냉정하지만 도태될 수도 있을 것 같고요. 그래서 요즘에는 유니콘이 아니라 켄타우로스다 그러니까 이게 켄타우로스가 반인반마 상상속의 동물인데.◇김방희&gt; 변이 이름으로도 쓰이고 있고 말이죠.◆조가연&gt; 네, 그러니까 유니콘 같은 경우에는 매출은, 실속은 적은데 몸집만 키웠다는 지적이 있다면 이 켄타우로스는 땅에 발을 딛고서 차근차근 성장을 한다, 안정적으로 성장을 한다라고 하는 이야기도 나오고 있습니다. 이것처럼 결국에는 최대한 현금을 절약하면서 반복적으로 또 안정적인 수익을 낼 수 있는 기업들이 살아남는다는 분석은 하고 있습니다.◇김방희&gt; 스타트업계에서 내실이 중요하다는 인식이 퍼지고 있다는 반증일 텐데 그런 반인반마 켄타우로스까지 등장했다는 얘기는 이게 영원하지 않습니다. 제 경험으로도 보면 또 겨울이 지나면 봄이 오고 그렇습니다. 슈미트 조가연 수석 팀장과 함께 했습니다. 고맙습니다.◆조가연&gt; 네, 감사합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>'알짜' 롯데카드 인수전에 쏠리는 눈…후보군 어딘가 보니</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000170701?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>KT·토스 등 인수 후보군으로 거론…관건은 매각가사모펀드 운용사인 MBK파트너스와 매각주관사인 JP모건은 오는 7일 롯데카드 매각 예비입찰을 실시하는 것으로 알려졌다. /더팩트 DB카드업계의 '알짜'로 알려진 롯데카드가 매물로 나온 가운데 경영권 매각 절차를 본격화한다. 업계에서는 KT그룹, 토스 등이 인수 후보로 거론되고 있다.5일 금융권에 따르면 사모펀드 운용사인 MBK파트너스와 매각주관사인 JP모건은 7일 롯데카드 매각 예비입찰을 실시할 예정인 것으로 알려졌다.롯데카드 측은 매각 일정, 계획 등에 대해서는 알 수 없다는 입장이지만, 업계에서는 매각 주관사 선정 등 시기상 맞아떨어지는 만큼 오는 7일 예비 입찰을 할 가능성이 높다고 보고 있다.업계 4위인 롯데카드는 '알짜 매물'로 꼽힌다.롯데카드는 올해 상반기 1172억 원의 당기순이익을 올렸다. 이는 전년 동기(1086억 원) 대비 63.2% 증가한 규모다.업계 안팎에서는 롯데카드 인수 후보군으로 KT그룹, 토스 등이 거론되고 있다.KT는 BC카드를 자회사로 두고 있다. 갈수록 자체망 구축을 통해 제휴관계가 느슨해지는 BC의 입장을 생각하면 롯데카드 인수는 고려해볼 수 있는 카드라는 평가다. 카드 사업의 경쟁력을 강화하는 데 확실한 발판이 될 수 있기 때문이다.최근에는 토스도 다크호스로 떠오르고 있다. 앞서 토스는 토스뱅크를 통해 신용카드업 진출 의사를 밝혔다. 롯데카드를 인수할 경우 그동안 쌓인 롯데카드의 방대한 고객 데이터를 확보할 수 있다. 또한 현재 포화 상태인 카드 시장에서 신규 라이선스로 시장에 진출하기 보다는 기존 카드사를 인수하는 편이 현실적이라는 분석도 나온다.롯데카드 매각 성공 여부는 '매각가'가 될 것으로 보인다. /더팩트 DB우리금융그룹도 롯데카드 인수의 유력 후보군으로 계속해서 거론되고 있지만 업계에서는 가능성이 낮다고 보고 있다.우리은행은 지난 2019년 MBK파트너스와 컨소시엄을 이뤄 롯데카드를 인수하며 지분 20%를 확보했다. 공개입찰 전 롯데카드 인수를 우선 검토할 수 있는 권한도 갖고 있다.그러나 우리금융은 증권업과 보험업 진출을 우선순위에 두고 있어 롯데카드를 인수할 여력은 부족할 것이라는 게 업계의 중론이다.롯데카드 매각 성공 여부는 '매각가'가 될 것으로 보인다.업계에서는 롯데카드 인수가를 3조 원 수준으로 추정하고 있다. 다만 일각에서는 롯데카드의 인수가가 과대 책정돼, 인수의 걸림돌이 될 수 있다는 주장도 제기된다.한 금융권 관계자는 "MBK파트너스가 롯데카드를 1조3810억 원에 인수했는데 3년 전보다 매각가가 2배 이상 올랐다"라며 "이런 점이 인수자들에겐 부담으로 작용할 수 있다"라고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.09.04.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>[사설]카카오뱅크, 새롭게 출발해야</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003041662?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>카카오뱅크 출범 당시 많은 이가 전통금융의 틀을 타파하는 '혁신 뱅크'로 환호했다.높은 고금리 장사와 예대마진으로 높은 수익을 올리고, 상품 또한 거기서 거기인 전통은행 수준을 뛰어넘는 정보기술(IT) 기반 메가뱅크 탄생에 박수를 보냈다.그 덕분인지 카카오뱅크 인지도와 서비스 가입자는 크게 늘었다. 주식 시장에 데뷔하면서 은행 대장주로 등극했고, 지점이 없는 모바일 뱅크의 영향력은 더욱 확대됐다.하지만 그 인기도 잠시, 현재 카카오뱅크는 전통 금융사와 다를 바 없다는 비판에 직면했다.카뱅이 기존 은행과 차별화 포인트로 강조했던 수익 다각화 모습은 온데간데 없고, 이자 장사로 많은 수익을 올리고 있다. 인터넷전문은행 출범 당시 정부와 약속했던 중금리 대출 또한 소극적인 모습으로 일관하며 지탄을 받았다. 오히려 후발주자인 케이뱅크, 토스뱅크에도 밀리는 구도가 됐다.이에 더해 계열사인 카카오페이 경영진 스톡옵션 먹튀 사태와 함께 최근에는 전금법 개정 추진에 따른 간편송금 제약 소식에 카카오뱅크는 기약 없는 추락을 하고 있다.은행주 평가 기준으로 삼는 주가순자산배율(PBR)도 곤두박칠쳤다. PBR는 주가 대비 순자산가치로 숫자가 클수록 고평가임을 뜻한다. 상장 당시 인정받은 카뱅 PBR는 3.7배였는데 현재는 2.5배 수준까지 하락했다.증권가도 카카오뱅크가 너무 과대평가됐다며 평가절하에 나섰다. 이제 카카오뱅크는 초심으로 돌아가 처음부터 서비스와 조직, 미래 비전을 다시 설정해야 한다. 수익을 많이 내는 것이 기업의 숙명이지만 카카오뱅크에 거는 기대는 혁신과 메기 그리고 불편한 금융을 걷어내는 포용금융에 있었다.그 모습을 찾을 수 없다. 오히려 전통 금융사보다 고금리 장사에만 열 올리는 모습이다. 경영진들은 이 같은 소비자 비판을 진지하게 들어야 할 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>주택담보대출 출시에 인터넷뱅킹 일평균 이용액 1조원 돌파</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003685506?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>올해 상반기 대출 신청 금액 하루평균 1조3194억원한은 "주택담보대출 출시로 신청 금액 크게 늘어"연합뉴스인터넷전문은행이 주택담보대출을 출시하면서 올해 상반기 인터넷뱅킹을 통해 신청된 대출금이 처음으로 하루 평균 1조원을 넘어섰다.15일 한국은행에 따르면 올해 1~6월 19개 국내은행·우체국의 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출 신청 금액은 하루 평균 1조3194억원으로 집계됐다. 지난해 말(7908억원)에 비해 66.8% 증가한 액수다.대출 신청 서비스의 일평균 이용 금액이 1조원을 넘어선 것은 이번이 처음이다.한은 관계자는 "인터넷전문은행들이 신규 상품으로 주택담보대출을 출시하면서 이를 중심으로 신청 금액이 늘었다"고 설명했다.앞서 카카오뱅크는 지난 2월 말 처음으로 주담대 상품을 내놨다. 케이뱅크 역시 주담대를 취급하고 있으며 토스뱅크는 출시를 검토 중이다.대출 신청 건수는 하루 평균 3만5천건으로 7.4% 늘었다. 이용 건수는 지속해서 늘며 역대 최대 기록을 경신하고 있다.인터넷뱅킹을 통한 자금 이체 이용 금액과 건수는 일평균 각각 73조7771억원, 1878만건으로 각각 2.1%, 6.9% 늘었다.이에 따라 대출 신청과 자금 이체 서비스를 모두 합한 인터넷뱅킹 일평균 이용 금액은 75조965억원, 이용 건수는 1882만건으로 집계됐다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>새마을금고도 PLCC 카드 출시 검토, 디지털 역량 시험대</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002131917?sid=105</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 새마을금고중앙회가 상업자 표시 신용카드(PLCC) 사업 검토에 나섰다. 2일 관련업계에 따르면 새마을금고중앙회(이하 새마을금고)는 PLCC 사업 추진 컨설팅 사업을 발주하고 사업자 선정에 나섰다. 새마을금고중앙회는 이번 컨설팅을 통해 PLCC 사업 추진을 위한 세부 업무 수행 방안과 함께 전산시스템 개발 전략 등을 수립할 계획이다. 새마을금고는 현재 삼성카드와 협력해 신용카드를 선보이고 있으며 카카오페이 체크카드, 언택트 혜택을 강조한 꿀카드 등 체크카드를 서비스하고 있다.하지만 새마을금고는 보다 대중적인 카드 전략을 통해 틈새시장 공략 등에 나선다는 계획이다. PLCC는 특정 기업 브랜드를 카드 전면에 내세우고 해당 기업의 서비스에 특화된 혜택을 제공하는 것이 특징으로 최근에는 유통 등 이커머스를 넘어서 빅테크 업체도 뛰어드는 등 각광을 받고 있다.  새마을금고중앙회의 PLCC 사업 구조는 중앙회, 새마을금고, 대행사의 수익/비용 분담 구조 및 적정 분담 비율 검토를 통해 사업 후 5개년간의 손익 분석 및 사업 후 기대효과를 산출할 계획이다. PLCC 전산시스템 구축을 위한 요건도 도출한다. 정산구조 및 정보공유 등에 따른 전산 개발 항목 도출과 구축 사업 관련 예산 규모를 산정할 계획이다. PLCC 사업 활성화 전략도 수립한다. 정보(회원정보, 사용정보, 가맹점정보 등) 공유 계획 및 유의사항 검토를 중심으로 ▲정보 분석 방안 및 활용 마케팅 전략 ▲중앙회 특화 PLCC 사업 방향성 제시 ▲중장기 사업추진 단계별 추진 목표 및 과제 ▲국내외 PLCC 사업의 유사 사례분석을 통한 전략 수립 등을 추진한다.카드상품 출시를 위해 카드상품 포트폴리오 수립과 함께 새마을금고 수신, 여신, 공제상품 연계방안 수립도 진행한다는 계획이다. 한편 최근 PLCC 출시는 잇따르고 있는 상황이다. 이디야커피가 하나원큐페이 결제 확대 및 PLCC 출시를 통해 디지털 금융 경험과 더불어 다양한 혜택과 결제 편의성을 제공할 계획을 밝혔고 인터넷전문은행인 카카오뱅크와 토스뱅크 역시 PLCC 출시를 통해 카드 서비스에서 재미를 본 상황이다. 이들 인터넷은행은 자체적인 신용카드 라이선스 기반 사업도 현재 추진하거나 준비중에 있다.여기에 신한카드도 더존비즈온과 기업고객 전용 PLCC 출시를 검토하는 등 PLCC는 금융사의 디지털 전략과 경쟁력과도 점점 밀접한 관계를 이어나가고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.09.01.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>이번 연휴엔 '책' 정주행 어때요?</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/145/0000016942?sid=103</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>쏟아지는 영상에 피로감을 느낀다면 올 추석엔 ‘독서 정주행’을 시도해보는 것은 어떨까. 영풍문고는 명절을 맞아 ‘2022 추석 기념 도서 기획전’을 준비했다. 몰아보기 좋은 시리즈 소설부터 아이들을 위한 책 선물까지 전 세대가 공감할 수 있는 주제로 기획됐다.■연휴에 몰아보기 좋은 시리즈 소설 모음올해도 소설·문학에 대한 관심이 지속되고 있다. 2022년 1월부터 8월까지의 베스트셀러 50위 중 문학 도서가 30% 이상을 차지했다. 영풍문고는 문학 베스트셀러 순위를 토대로 연휴에 보기 좋은 문학 도서 8권을 추천했다. 2021년 연간 베스트셀러 1위를 기록했던 ‘달러구트 꿈 백화점(이미예·팩토리나인)’, 2022년 상반기 베스트셀러 1위 ‘불편한 편의점(김호연·나무옆의자)’ 등이 포함됐다.특히 지난해 8월 출간 이후 꾸준한 사랑을 받아온 ‘불편한 편의점(김호연·나무옆의자)’의 후속편 ‘불편한 편의점2(김호연·나무옆의자)’는 베스트셀러 6위를 차지하며 여전한 인기를 증명하고 있다. 1편에서 예측불허의 웃음과 따스한 온기를 건넸다면 2편에서는 위트와 속 깊은 시선을 이어가며 깊이 있는 이야기를 선사한다. 전 세계를 감동시킨 이민진 작가의 화제작 ‘파친코(이민진·인플루엔셜)’도 8권에 들었다. ‘파친코’는 4대에 걸친 재일조선인 가족의 이야기를 그린 베스트셀러 도서로, 일제강점기부터 한국전쟁, 일본 버블경제에 이르기 까지 4대에 걸친 가족사를 역사적 흐름에서 다루고 있다. 2022년 애플TV에서 8부작 드라마도 제작·방영되어 화제가 된 바 있다. 33개국에 번역 수출됐으며 75개 이상의 주요 매체에서 ‘올해의 책’으로 선정됐다.■선물하기 좋은 유아동 베스트 도서이번 추석 연휴 기간 아이들에게 ‘책 읽는 즐거움’을 알려주는 건 어떨까. 영풍문고가 추석 선물하기 좋은 유아동 베스트 도서 8권을 소개한다. 매 시리즈마다 꾸준한 인기를 보이는 흔한남매부터 에그박사, 그리고 캐치티니핑 캐릭터 도서까지 다양한 장르 도서 등이 리스트에 올랐다.‘흔한남매11(흔한남매,백난도·아이세움)’은 지난 7월 출간 이후 연일 고공행진을 보이며 8월 어린이 베스트셀러 1위를 차지했다. 특히 이번 11편에는 ‘왁자지껄 흔한 물총싸움,’ ‘흔한남매의 시골 생활’ 시리즈 등이 수록돼 있어 늦여름부터 추석 명절과 잘 어울린다. 독서에 흥미가 없는 아이들이라면 인기 도서부터 차근차근 시작하길 추천한다.재미있는 말장난으로 은유와 비유를 배울 수 있는 ‘읽으면서 바로 써먹는 어린이 수수께끼: 공포특급(맛있는공부49)(한날·파란정원)’도 추천한다. 검은머리귀신의 저주에 걸려 수수께끼 결계에 뒤덮인 도시와 아이들을 구하기 위해 찹이와 친구들이 모험을 떠나는 줄거리다. 오싹한 내용과 대조되는 아기자기한 캐릭터가 두려움을 한층 누그러뜨린다. ‘나우드림’ 서비스를 이용하면 당일 바로 도서를 수령할 수 있다. 이는 온라인 할인가로 구매한 뒤 주문한 매장에서 수령하는 방식이며, 전국 매장에서 이용 가능하다. 더불어 북클럽 회원 가입 시 등급별 추가 적립 혜택까지 받을 수 있다. 온라인 홈페이지 내에서 토스페이 2만원 이상 결제 시 2천원 캐시백, 페이코 2만원 이상 결제 시 1천원 할인, 소원을 이루어주는 신비한 추석 도서교환권 이벤트도 함께 진행 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>하루만 예치해도 고금리 이자…파킹 통장 인기 좋네</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000020144?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>케이뱅크 2.3%로 인상, 카카오뱅크 2.2% 인상에 맞대응BNK저축은행은 현행 2.2%에서 0.1~0.2% 인상 검토 중가장 높은 금리는 OK저축은행 1000만 원 한도 최대 3.3%토스뱅크 파킹통장 모습. 독자 제공파킹통장의 인기가 급상승하고 있다. 하루만 예치해도 일정 수준의 금리가 제공되는 데다 고객 확보를 위해 이자도 꾸준히 상승하고 있기 때문이다. CMA통장과 달리 5000만 원까지 예금자보호가 가능한 것도 장점이다.15일 금융권에 따르면 케이뱅크는 14일 수시입출식 보통예금 상품인 ‘플러스박스(3억 원 한도)’ 금리를 연 2.1%에서 연 2.3%로 0.2%포인트 올렸다. 한 달 동안 3억 원을 플러스박스에 넣어두면 세후 약 48만 원의 이자를 챙길 수 있다. 지난 8일 카카오뱅크가 파킹통장 상품인 ‘세이프박스(1억 원 한도)’의 금리를 연 2.2%로 0.2%포인트 인상하자 맞대응에 나선 것이다. 두 상품 모두 매월 넷째 토요일에 이자를 지급한다. 토스뱅크는 1억 원 한도로 연 2.0%의 이자를 지급한다. 다른 금융권에 비해 금리는 낮지만 매일 이자를 지급해 월 단위 또는 3개월 단위로 이자를 지급하는 곳에 비해 자금 활용도가 높고, 일복리 개념이라 미미하지만 금리 상승 효과도 있다.BNK저축은행은 금융권의 파킹통장 금리 인상 분위기에 따라 금리를 0.1~0.2% 정도 올릴 것으로 전망된다. 타이거파킹통장은 현재 우대금리(마케팅 동의시 0.2% 추가) 적용 시 500만 원까지 연 2.2%, 500만 원 초과분은 0.7%의 이자를 지급하고 있다. 명형국 BNK저축은행 대표는 “타 금융권으로 예치금이 유출되지 않도록 금리 인상을 검토하고 있다. 인상 시기와 폭은 아직 정해지지 않았다”고 말했다.금리가 가장 높은 상품은 지난 8일 출시한 OK저축은행의 OK세컨드통장으로 1000만 원 한도로 최대 3.3%, 1000만 원 초과분은 1.0%(우대금리 미적용 시 각각 3.0%, 0.7%)를 준다. 기존 OK e-웃통장(최대 3.2%) 사용자는 가입하지 못하며 시중은행과 증권사에 세컨드통장 오픈뱅킹 약정시 익일부터 우대금리가 적용된다. 매월 셋째 일요일에 이자를 지급한다.SBI저축은행은 사이다뱅크를 통해 최대 1억 원까지 연 2.2%, 1억 원 초과분은 0.2% 금리를 매달 1일 제공한다. 페퍼저축은행의 페퍼룰루파킹통장은 300만 원 이하는 2.2%, 300만 원 초과분에는 1.7%의 금리를 지급한다. 이자는 3·6·9·12월 등 3개월 단위로 셋째주 일요일에 지급된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.09.10.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>대출연장시 변경금리 적용시점 은행마다 다르다?</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004097601?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>금리상승기, 만기일 적용 유리5대 은행, 만기일 기준 적용제주은행, 실행일··· 케뱅, 선택 가능서울의 한 은행 앞 대출 현수막.연합뉴스[서울경제] #A씨는 신용대출 만기일인 27일을 앞두고 대출금리를 2%에서 3%로 인상하는 조건으로 지난 6일에 대출 기간을 1년 연장했다. A씨는 당연히 변경된 금리가 당초 만기일 이후인 28일부터 적용할 것으로 예상했다. 그러나 은행은 대출연장 실행일인 6일부터 적용했다. 1%포인트 오른 이자를 만기일보다 앞서 부담하게 된 A씨는 은행의 문제라며 민원을 제기했다.금융감독원은 A씨의 사례처럼 금리 상승기 대출을 연장할 때 적용 시점에 따라 소비자에게 유불리가 발생할 수 있다며 주의를 촉구했다. 금리 상승기에 대출을 연장하는 경우 변경금리를 만기일 전인 대출연장 실행일부터 적용하는 것보다 만기일부터 적용하는 것이 소비자에게 더 유리하다. 반대로 금리 하락기에는 대출연장 실행일부터 적용해야 저금리를 보다 일찍 적용할 수 있어 더 유리하다.은행들은 대출연장 시 변경금리를 적용하는 시점으로 △만기일 △대출연장 실행일 △금융 소비자가 둘 중 선택하는 방식으로 구분해 운영하고 있다. 국민·신한·하나·우리·농협은행 등 5대 시중은행과 기업은행, 산업은행, 수협은행, 부산은행, 전북은행은 대면 채널과 비대면 채널 모두 대출연장 시 금리 변경 시점이 만기일을 기준으로 한다. SC제일은행은 대출연장 신청이 만기일 기준으로 대면 채널에서만 신청 가능하다. 카카오뱅크, 토스뱅크는 비대면 채널에서 만기일 기준으로 적용된다.대출연장 실행일을 기준으로 하는 곳은 대면 채널에서 광주·제주은행, 비대면 채널에서 제주·경남은행이 있다. 대출연장 실행일과 만기일 중 선택할 수 있는 은행으로는 대구은행(대면채널), 케이뱅크(비대면채널)이 있다.금감원은 금융소비자가 신용대출을 받은 은행에 따라 대출 연장 시 해당 금융기관이 변경금리를 적용하는 일자가 대출연장 실행일인지 만기일인지 직원에 확인할 것을 당부했다. 가령 최근과 같이 금리가 상승하는 시기에 광주·제주·경남은행에서 신용대출을 받은 고객이라면 대면·비대면채널을 통해 대출 연장을 만기일까지 최대한 늦추는 것이 유리하다. 소비자가 대구은행, 케이뱅크 고객이라면 변경금리 적용 일자를 대출연장 실행일보다는 만기일로 선택할 수 있다.금감원 측은 “금융기관이 대출 연장 시 변경금리의 적용 시점에 대해 금융 소비자에게 제대로 전달할 수 있도록 변경금리의 적용 시점에 관한 사항을 약관과 비대면 거래의 온라인 화면 등에 명확히 기재하도록 할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>신한라이프 베트남 "텔레마케팅, 안된다고?… 차별화로 대박쳤다"</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000851810?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[머니S리포트-다시 뛰는 신남방, 'K금융' DNA 심는다⑥]  이의철 법인장, 철저한 현지화와 사전조사가 실적 개선 지름길[편집자주]베트남은 인도와 싱가포르, 태국, 인도네시아 등 한국 정부가 경제협력을 강화하고 있는 신남방 11개국 중에서 가장 중요한 국가다. 한국 기업들은 2021년 기준 9895만명의 인구와 IMF(국제통화기금) 추정 경제성장률 6.6%를 기록한 베트남에 크게  공을 들이고 있다. 베트남은 중국, 미국에 이어 한국의 3위 교역국이기도 하다. 국내 금융사들도 금융 서비스 노하우를 무기로 현지 시장을 적극 공략하고 있다. 한국의 ICT(정보통신기술)를 바탕으로 휴대전화를 통한 금융거래, 결제 서비스도 현지인들에게 충분히 통할 것으로 보고 있다. K-금융은 베트남 경제수도인 호찌민을 조용히 물들이고 있다. 조만간 베트남 금융시장이 한복으로 갈아입을 것이란 기대감도 크다.이의철 신한라이프 베트남법인장./사진=전민준 기자 ◆기사 게재 순서① "코리아뱅크 굿" 한국 은행들, 베트남 홀렸다② 베트남, 국민 중 절반만 은행 계좌 보유… 갈길 먼 디지털 금융③ "서류 내고 돌아서니 보험금 '뚝딱'… 베트남과 달라요"④ "주식이 뭐예요?"… 베트남 증권시장, 韓에 열려있다⑤ 예영해 삼성화재 베트남법인장 "베트남 기업보험 개척자… 로컬기업과 협업에 신규 채널 확보까지" ⑥ 이의철 신한라이프 베트남법인장 "텔레마케팅, 안된다고?… 신한라이프 베트남, 차별화로 대박쳤다" ⑦ 강규원 신한베트남은행 법인장 "3년 안에 베트남 12위권 은행으로… 2030년엔 톱10 안에"⑧ 박원상 한국투자증권 베트남법인장 "베트남 톱티어 증권사 될 것"… 글로벌 도전장⑨ 강문경 미래에셋증권 베트남법인 대표 "MTS 베트남 최고 수준이라 자부… 올해의 화두는 디지털화"⑩ 정희균 토스베트남 PO "젊고 빠른 성장세, 베트남의 매력"호찌민(베트남)=전민준 기자 베트남 시장은 대표적인 보험 불모지로 꼽힌다. 개인들은 물론이고 단체들도 보험에 가입하지 않은 사례가 부지기수다. 베트남 인구수는 9895만명으로 1억명에 육박하지만 2021년 보험 가입률은 불과 5%다. 현재 한화생명과 미래에셋생명 등 수년 전 진출한 생명 보험사들도 매년 고전을 면치 못하고 있는 상황이다. 하지만 지난 8월 25일 오후 베트남 호찌민에 있는 신한라이프 현지법인에서 만난 이의철 법인장은 보험 가입률이 저조한 게 오히려 기회라는 입장이다. 이 법인장은 "어려운 코로나 환경에서도 올해 1월 영업을 개시하고 2개월 만에 13억3400만원의 영업수익을 올린 것이 잊을 수 없는 순간"이라며 이야기를 시작했다.그러면서 "베트남에서 텔레마케팅(TM)으로 성공할 수 있겠느냐는 타 보험사들의 우려와 달리 신한라이프는 1만원 이하의 저가 보장성 상품을 TM으로 판매하며 상당한 성과를 거뒀다"며 "올해 초 성대규 사장이 격려사를 통해 밝힌 것처럼 TM영업은 베트남에서 신한라이프만의 강점으로 최소 20년 이상 유지할 수 있을 것"이라고 말했다. 신한라이프 베트남은 베트남에서는 19번째 생명보험사이자 7년만에 생긴 신생 보험사다. 지난해 2월 베트남 정부로부터 설립 인가를 받은 신한라이프 베트남은 인가와 동시에 본격적인 영업 준비에 들어갔다. 법인은 현지 보험업법 시행령에 따라 1년 이내에 영업을 시작해야 했다. 즉 2022년 2월 중엔 공식 영업활동에 들어가야 했던 것이다. 하지만 2021년 7월 신종 코로나바이러스 감염증(코로나19) 사태로 베트남 정부가 호찌민을 포함한 남부지역에 봉쇄 조치를 내리면서 신한라이프 베트남도 난관에 봉착했다. 당시 베트남 정부는 생필품 구매나 공공기관, 은행 이용 등 이외 외출을 금지했고 기업인과 공장 근로자는 사업장 안에서 숙식 해결을 권고했다. 대면으로 상품 개발, 인력 확충 등을 준비하겠다는 신한라이프 베트남의 계획에 다소 차질이 생긴 셈이다. 다행히 지난해 연말부터 봉쇄조치가 서서히 완화되며 올해 2월 신한라이프 베트남은 정식 영업을 시작할 수 있었다. 이 법인장은 "처음 봉쇄령이 내렸을 때 (우리가) 영업을 시작할 수 있을까라는 생각에 걱정이 앞섰다"며 당시를 회상했다. 이어 "당시 40여명의 직원이 화상으로 만나며 정식 영업에 차질이 생기지 않도록 최선을 다했다"며 "앞으로도 모회사가 가지고 있는 장점을 베트남 실정에 맞게 활용해 생명보험 강자가 될 것"이라고 말했다. 신한라이프 베트남법인 기획부서 직원들이 근무하고 있는 모습./사진=전민준 기자 ━저가 보장성보험으로 중산층 고객에 인기몰이━신한라이프 베트남은 신한라이프의 100% 자회사로 자본금은 1억달러다. 신한라이프는 2015년 하노이 사무소를 설립해 현지 진출 기회를 탐색하던 중 현 성대규 사장의 의사결정으로 법인설립을 확정했다. 베트남 생명보험시장의 성장잠재력이 크다고 판단한 성 사장은 현지 진출을 서둘렀다.  현재 신한라이프 베트남은 신한은행베트남, 신한베트남파이낸스 등 그룹 계열사들과 협업을 추진하는 것과 동시에 자생력을 갖추기 위해 TM영업을 진행하고 있다. 신한은행, 신한카드와 진행하는 방카슈랑스 판매에 의존하지 않겠다는 것이다. 이 법인장은 "베트남 생명보험시장을 이끈 방카슈랑스는 최근 출혈경쟁이 심해진 상황이어서 여기에 집중하면 비용만 늘어나고 수익은 줄어들게 될 것"이라고 말했다. 영업 전략은 '철저한 현지화'다. 올해는 신한라이프 고유의 TM영업 모델을 베트남 현지에 맞게 구축할 계획이다. 이 법인장은 "2023년 이후 지속해서 성장하기 위해선 올해 기반을 다져놔야 한다"며 "신한라이프의 또 다른 강점인 대면 영업 노하우를 활용해 설계사를 통한 대면영업 진출도 준비 중이다. 약 1억명 인구 중 월 1만원 이하를 내며 보험에 들 수 있는 사람은 최소 1000만명이며 이들을 고객으로 확보할 것"이라며 포부를 밝혔다. 현재 베트남에선 생명보험에 대한 인식이 부정적이다. 이 법인장은 "베트남 생명보험은 고객이 낸보험료를 보험사와 설계사가 거의 다 나눠 갖고 고객에게 지급하는 보험금은 상당히 제한적"이며, "취약한 보험료 수취구조로 인해 연납 방식을 고수하고 있어 고객들은 1년치 보험료를 한꺼번에 납부해야 하므로 상당한 부담을 느끼고 있다"고 설명했다. 이 법인장은 이 같은 구조가 신한라이프 베트남에 기회가 될 것으로 판단했다. 이 법인장은 "보험료를 낮추고 월납으로 판매를 한다면 더 많은 중산층 고객을 가입시킬 수 있을 것이다. 이는 베트남 내의 새로운 경험으로 나타날 것"이라고 전했다.그러면서 이 법인장은 "올해 매출 목표는 34억원이었지만 현 추세대로라면 40억원을 넘길 것"이라며 자신감을 내비쳤다.━"타 보험사와 차별화 한 대면영업 조직까지"━신한라이프 베트남법인에서는 자유롭고 편안한 복장을 입고 있는 40여명의 베트남 직원들을 볼 수 있었다. 지난해 2월 출범 당시 10명이 채 안 됐던 직원을 1년 반 만에 4배 이상 불린 것이다. 이 법인장은 현지화 방안 중 하나로 인력을 공격적으로 채용하고 있다. 이 법인장은 "텔레마케터를 올해 150명, 내년엔 300명까지 늘릴 것"이라고 설명했다. 신한라이프 베트남은 중장기적으로 대면 영업도 진행할 계획이다, 대면 영업도 혈연이나 지연 등을 활용한 '연고판매'나 '비전문적 설계사'를 지양하고 신한라이프 강점인 전문직·전업설계사 강점을 살린다는 것이다. 이 법인장은 "TM영업이나 그룹사를 통해 확보한 고객들을 대상으로 대면 영업을 펼칠 계획"이라며 "내년 하반기 대면용 상품을 판매하기 위해 태스크포스를 꾸렸으며 여기에 맞게 대면설계사 조직도 구성할 것"이라고 말했다. 이어 "현재 베트남 대면설계사들은 대부분 투잡(겹벌이)을 뛰고 있어 전문·전업설계사로 보기 어렵다. 신한라이프는 전문직·전업설계사만 채용해 대면 영업 시장에서도 혁신을 일으킬 것"이라고 강조했다. 이 법인장은 앞으로 베트남 생명보험시장에선 보장성보험 비중이 커질 것으로 내다봤다. 그는 "베트남 재무부가 소비자 보호를 목적으로 저축성 상품에 과도하게 부가된 사업비를 제한하기 시작했다"며 "코로나 팬데믹 상황을 겪으면서 보장성 보험에 대한 물밑 수요가 생겨나기 시작했다"고 말했다. 그러면서 "이 같은 움직임들이 비대면 채널을 중심으로 손보사에 주도적으로 일어나고 있다"며 "베트남 보험시장에서 고객의 수익률이 담보되지 않은 사업비가 부과된 저축성 보험상품이 설 땅이 점점 없어지고 보장성으로 바뀌어 가고 있는 초기 단계"라고 설명했다. 사회공헌활동에도 적극적이다. 올해 초 신한라이프 베트남은 호찌민 시민들을 대상으로 백혈병 진단비를 보상해주는 보험을 무상으로 제공했다. 마지막으로 이 법인장은 "기업이 영리를 추구하는 목적도 있지만 국민이 없으면 생존이 어렵다"며 "국민 복리후생에 이바지하고 브랜드를 알리는 활동도 이어 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.09.01.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>“우리애 100일 기념 적금 만들자” 은행권 본격 논의</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003713403?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>‘現 6개월 만기→1개월’ 단축 돌입							은행권이 적금 상품 만기를 최소 6개월 이상으로 묶어둔 한국은행 규정을 개정하기 위한 작업에 본격적으로 착수했다.31일 금융권에 따르면 KB국민·신한·하나·우리·SC제일·카카오뱅크·토스뱅크·수협 등 8개 은행은 최근 은행연합회에서 회의를 갖고, 적금 최소 만기를 현행 6개월에서 1개월로 단축해야 한다는 데 의견을 모았다. 장기 납입을 꺼리는 20~30대 성향과 금리 인상기에 만기를 짧게 가져가야 이득인 저축 트렌드를 고려해 초단기 적금을 내놓을 수 있도록 규제를 풀어달라는 것이다. 지방 은행과 인터넷전문은행 중심으로 개정 요구 목소리가 컸던 것으로 전해졌다. 이들은 취합된 의견을 정리해 이번 주 내로 한은에 제출할 예정이다.시중은행 ATM기기의 모습.										1995년 개정된 한은의 ‘금융기관 여수신 이율 등에 관한 규정’은 은행 적금 만기를 최소 6개월 이상으로 정하고 있어 시대에 맞지 않는다는 비판을 받았다. 은행과 달리 저축은행은 이런 규제를 적용받지 않아 형평에 어긋난다는 지적도 있었다.적금 만기 규제가 풀리면 다양한 초단기 적금 상품이 쏟아질 것으로 보인다. ‘자녀 탄생 100일 기념 적금’, ‘커플 100일 기원 적금’, ‘연말 휴가비 마련용 3개월 적금’ ‘4주 적금’ 등 소액을 굴리며 재미까지 맛볼 수 있는 재기 발랄한 상품들이 나올 수 있게 되는 것이다.은행권 일각에서는 적금 최소 만기를 1개월로 단축하는 데 그치지 말고, 규정 자체를 전면 폐지해야 한다는 목소리도 나오고 있다. 한 은행 관계자는 “초단기 적금을 내놓을 수 있게 허용해준다면 굳이 ‘1개월’ 제한을 둘 필요가 있느냐”며 “은행이 창의적인 신개념 초단기 적금을 내놓을 수 있도록 적극적으로 길을 터줬으면 좋겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.09.14.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>보험 비교 플랫폼 사업 참여...카카오·네이버 등 9개社 “저요”</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002040422?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>금융위 참여의향 수요조사 진행실제신청은 논의 결과 따라 진행10월 중 개시 예정인 보험 비교·추천 플랫폼서비스에 카카오와 네이버, 토스 등 9개 업체가 참여 의향을 밝힌 것으로 파악됐다.14일 금융당국에 따르면 금융위원회가 지난달 23일 금융규제혁신위원회 개최 전 빅테크 업체를 대상으로 수요조사를 진행한 결과 예금비교 플랫폼 서비스에는 9개 업체가, 보험 비교·추천 플랫폼서비스에도 9개 업체가 사업 지원 의향을 밝혔다. 금융규제혁신위는 지난달 첫 회의를 열고 규제 샌드박스를 통해 빅테크업체의 예금, 보험 비교 추천 서비스를 허용하겠다고 했다.보험 비교·추천 플랫폼 서비스에는 빅테크 업체 외에도 자체 플랫폼이 있는 금융회사도 관심을 가지고 있는 것으로 알려졌다. 실제로 KB국민카드는 지난달 한국핀테크지원센터에 일정 등을 문의하기도 했으며, 다른 카드 회사들도 이를 놓고 자체 논의를 진행하고 있는 것으로 알려졌다.핀테크 업체 뿐만 아니라 기존 금융권들이 새로운 시장에 관심을 표하고 있지만 이들이 실제 사업 신청서를 제출할지는 금융당국과 이해 당사자간의 협의 결과가 나와야 알 수 있을 전망이다.현재 금융당국과 보험업계, 빅테크 업체 등은 서비스 대상 상품 등을 놓고 협의를 진행하고 있다. 금융위는 지난달 발표 시 종신보험, 외화보험, 변액보험 등을 비교·추천에서 제외되는 상품의 예로 들었는데, 논의 과정에서 제외 상품군이 늘어날 가능성이 있다. 특히 이들은 게시되는 보험상품에 보장금액 제한하는 방안을 놓고도 논의를 진행하는 것으로 알려졌다. 2021년부터 금융서비스중개업제도를 시행한 일본의 경우 보험금액이 1000만 엔을 초과하는 생명보험, 보험금액이 2000만 엔을 초과하는 손해보험, 보험금액이 600만 엔을 초과하는 제3보험은 제공할 수 없도록 했다.이와함께 자체 플랫폼을 보유한 대형보험사들이 빅테크 기업에 자신들의 보험상품을 제공할지 여부도 관심사다. 일부 보험사 내부에서는 네이버나 카카오 등에 ‘시장 우위’를 뺏길지 모른다는 우려로 참여에 부정적인 기류가 있는 것으로 알려졌다.한편 금융위는 지난 10월부터 예금, 보험 추천 비교 서비스를 개시하겠다고 밝혔지만 협의가 길어지면서 일정이 변경될 가능성이 크다. 한국핀테크지원센터는 당초 이달 6일까지 1차 신청서를 받아 금융위에 제출하겠다는 계획이었는데, 14일 현재까지 혁신금융 지정 신청서를 제출한 업체는 없다. 한국핀테크지원센터는 20일 한 차례 더 지원서를 받아 금융위에 제출할 계획인 것으로 알려졌다. 빅테크 업체들이 한국핀테크지원센터를 통해 사업 계획서를 제출하면 심사를 통해 ‘혁신금융’으로 지정돼 사업을 진행할 수 있다. 박병국 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>차기 여신금융협회장에 정완규 전 한국증권금융 사장 내정(상보)</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004792071?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>정완규 전 한국증권금융 사장정완규 전 한국증권금융 사장이 차기 여신금융협회 회장에 내정됐다. 정 전 사장은 다음달 개최 예정인 협회 회원사 임시총회를 거쳐 최종 선임될 예정이다. 여신금융협회는 6일 오후 회장후보추천위원회(이하 회추위)를 열고 차기 회장 후보자로 정 전 사장을 단독 추천키로 했다. 회추위는 정 전 사장을 비롯해 남병호 전 KT캐피탈 대표, 박지우 전 KB캐피탈 대표 등 숏리스트(압축후보군) 후보자에 대한 면접 심사를 거친 뒤 투표를 통해 정 전 사장을 최종 후보자로 낙점했다.정 전 사장은 공직자윤리위원회 취업심사와 오는 10월 초 개최 예정인 협회 임시총회 의결을 거쳐 임기 3년의 제13대 여신금융협회장으로 최종 선임될 예정이다. 정 전 사장이 과거 몸담은 한국증권금융은 정부 공직자윤리위원회가 지정한 '공직유관단체'에 해당되지만, 공직자윤리위원회 승인을 받으면 취업심사대상기관에 취업이 가능하다.1963년생인 정 전 사장은 전남대학교 사범대학 부설고등학교와 고려대학교 행정학과를 졸업했다. 행정고시 34회로 공직에 입문해 금융위원회에서 중소서민금융정책관, 금융정보분석원장 등을 지냈다.2018년 3월부터 지난해 3월까지는 한국증권금융 사장을 역임했다. 올해 5월부터는 토스뱅크 사외이사로 활동했다.정 전 사장은 여신업권에 대한 높은 이해도와 금융당국과의 원활한 소통 능력에서 높은 평가를 받은 것으로 전해진다. 이날 회추위에 참가한 한 카드사 CEO(최고경영자)는 "정 전 사장이 중소서민금융에 대한 이해도가 높을 뿐 아니라 관(官) 출신으로서 대외협상력에서도 높은 평가를 받았다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>[성금내역]중국에서 넘어와 한국에 겨우 정착했는데 하루아침에 다리 못쓰게 된 탈북민 조충복 씨에 2,066만원 전달</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000773705?sid=102</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>가정폭력에 시달리다가 독립해 갖은 일 다 했는데 하반신 마비에 암까지 걸린 구혜성 씨에 3,771만원 성금대구의 한 대학 병원에 입원 중인 조충복(36) 씨의 간호를 위해 남편 김청송(47) 씨가 방문했다. 김세연 기자◆중국에서 넘어와 한국에 겨우 정착했는데 하루아침에 다리 못쓰게 된 탈북민 조충복 씨에 2,066만원 전달매일신문 이웃사랑 제작팀은 중국에서 넘어와 한국에 겨우 정착했는데 하루아침에 다리 못쓰게 된 탈북민 조충복((매일신문 8월 23일 자 10면) 씨에 2천66만9천원을 전달했습니다.이 성금에는 ▷(합)오토렌트카대구지점(이대철) 8만5천원 ▷문심학 15만원 ▷김영관 10만원 ▷라선희 3만3천원 ▷이강준 3만원 ▷이병규 2만5천원 ▷신종욱 2만원 ▷김강현 1만1천원 ▷이영수 1만원 ▷전지원 1만원 ▷윤인주 5천원 ▷이진기 5천원 ▷문민성 4천원 ▷이장윤 2천원 ▷'지원정원' 3만원 ▷'따스한햇살' 5천원이 더해졌습니다. 성금을 보내주신 모든 분들께 진심으로 감사드립니다.구혜성(36) 씨가 입원 중인 병실에서 하반신 마비가 온 다리를 잡고 움직여보고 있다. 김세연 기자◆가정폭력에 시달리다가 독립해 갖은 일 다 했는데 하반신 마비에 암까지 걸린 구혜성 씨에 3,771만원 성금어린 시절부터 가정폭력으로 고통받다가 하반신 마비에 폐에 암까지 전이된 구혜성 씨(매일신문 8월 30일 자 10면) 씨에 59개 단체, 430명의 독자가 3천771만3천256원을 보내주셨습니다. 성금을 보내 주신 분은 다음과 같습니다.▷건화문화장학재단 200만원 ▷㈜대구은행 100만원 ▷역삼동 열정부동산 100만원 ▷피에이치씨큰나무복지재단 100만원 ▷㈜태원전기 50만원 ▷다우약품 50만원 ▷세무법인송정김천 50만원 ▷신라공업 50만원 ▷한라하우젠트 50만원 ▷㈜태린(박기태) 40만원 ▷삼성기공(장태종) 30만원 ▷㈜신행건설(정영화) 30만원 ▷한미병원(신홍관) 30만원 ▷합정약국 30만원 ▷㈜동아티오엘 25만원 ▷㈜백년가게국제의료기 25만원 ▷크로스핏힘 23만원 ▷(재)대백선교문화재단 20만원 ▷금강엘이디제작소(신철범) 20만원 ▷대창공업사 20만원 ▷대흥분쇄기(한미숙) 20만원 ▷성암 20만원 ▷㈜구마이엔씨(임창길) 10만원 ▷㈜우주배관종합상사(김태룡) 10만원 ▷㈜이구팔육(김창화) 10만원 ▷㈜태광아이엔씨(박태진) 10만원 ▷경주천마자동차전문 10만원 ▷김영준치과 10만원 ▷동양자동차운전전문학원(최우진) 10만원 ▷봉란옥(이순자) 10만원 ▷세움종합건설(조득환) 10만원 ▷우리들한의원(박원경) 10만원 ▷원당교회(박인정) 10만원 ▷원일산업 10만원 ▷효민약국(최순희) 10만원 ▷하빈오뚜기마트 8만2천원 ▷건천제일약국 5만원 ▷골든유통청도(임우영) 5만원 ▷극동특수중량(김형중) 5만원 ▷다빈치커피대명마루점 5만원 ▷명ＥＦＣ(권기섭) 5만원 ▷베드로안경원 5만원 ▷삼보엔지니어링(이병호) 5만원 ▷세무사김기욱사무소(김기욱) 5만원 ▷수가성식당 5만원 ▷알밤공방 5만원 ▷이전호세무사 5만원 ▷전피부과의원(전의식) 5만원 ▷제이에스테크(김혜숙) 5만원 ▷창성공업사(남정복) 5만원 ▷채성기약국(채성기) 5만원 ▷칠곡한빛치과의원(김형섭) 5만원 ▷두산에너빌(한창우) 3만원 ▷매일신문구미형곡지구(방일철) 3만원 ▷청산(우창하) 3만원 ▷대원전설(전홍영) 2만원 ▷본죽(이종숙) 2만원 ▷서성상회(박형근) 2만원 ▷하나회 1만원▷김상태 이춘란 전태경 각 100만원 ▷이정추 90만원 ▷김지훈 김진숙 조성택 각 50만원 ▷김미자 엄순귀 이신덕 각 30만원 ▷고세경 박지영 박행숙 진민지 각 20만원 ▷곽용 김경아 김규빈 김보경 김보미 김선경 김성재 김수민 김순향 김열희 김영진(기업) 김이수 김진숙 김진희 김희옥 박용환 박태영 배예원 신현욱 유광영 윤미영 윤순희 윤정호 이내용 이수진 이은주 이은화 이재일 이지연(하나) 이혼주 임우진 장서현 장정순 장지호 전시형 정군표 정기열 정미숙 정승혜 정은정 정하봉 조득환 차경란 최순열 최창규 추향자 허창옥 각 10만원 ▷전해룡 9만원 ▷서지현 8만원 ▷김재용 박민철 각 7만원 ▷고선앵 고형호 구경희 구신애 구율원 권민정 권현주 김경호 김리나 김만구 김민주 김소희 김영수 김영진(신협) 김자헌 김정호 김제성 김주도 김지원 김혜정(농협) 김희정 나수미 민영란 박재하 박종천 박통희 배태경 변대석 서정오 손윤옥 손호식 심영숙 안대용 안정훈 양은심 양재원 오경미 오남열 오정희 우만제 위혜영 유희숙 윤규원 윤명희 윤선희 윤순영 윤재국 이남경 이미연 이미화 이석영 이승호 이종하 이준수 이지안 이태성 이현숙(IM뱅크) 이형구 이형규 임채숙 장미향 장성국 장우영 장인진 전재복 정원수 정정애 정형석 최종호 최한태 각 5만원 ▷강기백 강대홍 고미순 권규돈 권두형 권순애 권정림 김경희 김낙훈 김대식 김미영(농협) 김복만 김성하 김소정 김은경 김은진 김지휘 김태훈 김혜경 민수진 박미오 박신영 박옥환 박유선 박지연 박진녕 박현애 박환운 변현택 성건창 손정희 신광련 신기숙 신숙희 염정원 오정수 유지윤 윤종학 이대성 이두섭 이서연 이석우 이승남 이응섭 이재열 이종완 임희정 장인숙 전미연 정미경 정서연 정소영 정승은 조만수 조진우 주상훈 최동옥 최미나 최성국 최수임 최정인 최지유 최춘희 하경석 하윤정 각 3만원 ▷공민경 권진숙 김도환 김순미 김은숙 김정희 김지아 김태욱 김한철 김호정 남경혜 류동렬 류휘열 문민성 박근희 박덕 박재숙 박준 박준우 방태표 서부영 서숙영 서은희 서진옥 손희정 신옥섭 신유창 신진철 여현지 옥금희 유귀녀 유은영 윤현길 이강희 이경범 이병순 이선미 이슬이 이영록 이운호 이재민 이정민 이정우 이해수 이희진 조민지 주강숙 차정혜 최우식 편재민 홍준표 각 2만원 ▷박재만 1만3천원 ▷ 강선영 고성빈 공종례 권경미 권오현 김대휘 김두리 김미향 김미화 김삼수 김상일 김순애 김유경 김윤희 김은미 김인희 김준환 김진선 김태림 김태상 김태천 김혜정(하나) 김혜화 김화경 김효정 박건우 박상민 박새빈 박애선 박연덕 박인배 박채운 박태용 박혜란 박홍선 백경렬 서지혜 성영아 성해연 신재민 신정호 안병하 안세영 안영숙 안인호 양태연 양태희 우순화 우철규 유광호 유명희 유영호 유지민 유현우 윤성영 윤인주 이사라 이예한 이원형 이은정 이은혜 이정현 이주원 이지연(신한) 이지영 이현숙 장문희 장은애 장은정 전지원 정미아 정승현 정준홍 정진선 정채린 조영란 조용식 지호열 최경철 최문경 최성진 최웅환 하정희 한정화 한지호 허영주 황상범 황인수 각 1만원 ▷이현주 7천원 ▷강동석 김도환 김미영 (토스) 남윤재 서형덕 송은민 송정현 유정은 이은지 전일구 조미영 최민정 한인자 각 5천원 ▷권두영 이성주 각 3천원 ▷김서연 2천원 ▷한동규 1천원▷'정인채(구혜성후원)' 100만원 ▷'구혜성님 완쾌하세요' '리서동희(구혜성씨앞)' 각 50만원 ▷'홍종배베드로' 30만원 ▷'구혜성씨앞으로' '구혜성에게' '박명숙(구혜성후원)' '부처님의가피를.' '사랑나눔６２４' '예수' '예수님을부르세' '응원합니다' '익명' '주님사랑' '쭈니맘' '최윤희(구혜성)' '호산나' 각 10만원 ▷'Chang Hwan' '구혜성님힘내요' '구혜성씨도와주세요' '권은성(구혜성님께)' '김다마소' '김영숙-구혜성씨후원' '김재연힌내세요' '류인갑.류현수.류미' '영서힘내세요' '유익한마음' '이웃사랑성금(국민)' '주님의위로가' '후원금(구혜성)' '희망잃지말아요!!' '힘내세요' 각 5만원 ▷'하반신마비에암까지' 3만8천원 ▷'구혜성님힘내세요♥' '구혜성씨 모금' '예수님사랑' '이종윤**하나님 구혜성군을 구원해주세요' '황인성-구혜성도움' '힘내세요' 각 3만원 ▷'수연' 2만5천256원 ▷'구혜성님께' '구혜성님힘내세요.' '구혜성씨화이팅' '사랑해요' '석희석주' '이웃사랑성금(카뱅)' '전액 구혜성씨께' '해만진주이안' '힘내세요' '힘내세요' 각 2만원 ▷'.' '구혜성님힘내요(모바일)' '구혜성씨 힘내세요' '구혜성씨힘내요' '구혜성후원(신한)' '꼭일어서시길 간절히' '무명' '무진. 청안입니' '송반야화' '송송이（구혜성님께）' '이웃사랑' '지현이동환이' '편안해지길' '포항여중김채영' '한동엽 기부' '힘내세요!!(카뱅)' '힘내세요!!(우체국)' '힘내세요전호정' 각 1만원 ▷'구혜성후원(우리)' '이웃사랑' 5천원 ▷'지성이' '채영이' 각 2천원</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>현대카드, 애플 콧대 감당할까…단말기·수수료 과제</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003301200?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>연내 애플페이 도입 전망“간편결제 무서운 경쟁자”업계는 사업 다각화 분주현대카드 사옥 전경. 현대카드 제공아이폰 사용자인 직장인 유모(27)씨는 최근 현대카드를 새로 발급받았다. 현대카드가 애플페이를 지원하면 카드를 발급받으려는 고객이 늘어나 카드를 받기까지 대기 시간이 길어지는 ‘대란’이 벌어질까 우려해서다. 유씨와 같은 아이폰 사용자들이 애플페이 국내 도입을 손꼽아 기다려 온 만큼 실제로 국내 서비스가 시작되면 간편결제시장이 요동칠 것으로 전망된다.13일 카드업계에 따르면 현대카드는 애플페이의 국내 배타적 사용권을 갖는 내용의 계약을 마무리하고 이르면 연내 시범 서비스를 시행할 전망이다. 애플과 같은 휴대폰 제조사인 삼성전자의 삼성페이를 포함해 카카오페이, 네이버파이낸셜, 토스페이먼츠 등 전자금융업자, 금융사까지 뛰어든 간편결제시장은 춘추전국시대를 맞이할 것으로 보인다. 간편결제시장이 해마다 커지면서 사업자 간 경쟁도 치열해지는 모양새다. 간편결제 서비스 하루 평균 이용 금액은 지난해 기준 6065억원으로, 1년 전보다 35%나 늘어났다.전자금융업계 관계자는 “애플페이가 국내 들어오면 간편결제시장에서 가장 무서운 경쟁자로 떠오를 것”이라고 말했다. 넘쳐나는 경쟁자에 업계는 결제를 넘어선 사업 다각화로 고객을 확보하기 위해 분주하다. 중고거래 플랫폼인 당근마켓은 최근 당근페이에 계좌송금 기능을 추가했다. 삼성전자는 삼성페이를 통해 국내 대학 모바일 학생증을 발급하기 시작하면서 신분 증명으로 영역을 확장했다. 학생증 사업은 카드사, 은행 등 금융권에서 고객 유입을 위해 활용하는 수단 중 하나다. 네이버파이낸셜은 오프라인 가맹점을 늘려 외부 결제처 확대에 공을 들이고 있다.애플페이가 국내 도입되려면 근접무선통신(NFC) 호환 단말기 보급이라는 문제를 해결해야 한다. 애플페이는 스마트폰을 NFC 단말기에 갖다 대는 방식으로 결제가 이뤄질 전망인데, 국내 카드 전체 가맹점 300만여곳 중 호환 단말기를 갖춘 곳은 6만~7만곳에 그친다. 카드업계 관계자는 “현대카드가 NFC 단말기 보급을 확대하고자 지원금 형식으로 밴사(부가통신업자)에 일정 규모의 단말기 매입을 약속했을 가능성도 있다”고 밝혔다.일각에서는 고객이 수수료 역풍을 맞을 수 있다는 우려도 제기된다. 오프라인 결제에 수수료를 부과하지 않는 삼성페이나 카카오페이와 달리 애플페이는 결제에 따른 수수료를 0.15% 정도로 책정해 이미 서비스를 시행하고 있는 해외 사업자들의 원성을 샀다. 이러한 수수료 부담이 고객 혜택 축소로 이어질 수 있다는 지적이다. 원달러 환율이 1380원을 넘나드는 강달러 상황도 위험 요소다. 수수료 계산에 쓰이는 환율이 높아지면 현대카드가 부담하는 비용이 늘어날 수밖에 없기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.09.03.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>브레이크 없는 '플랫폼 기업' 성장세…문어발식엔 경계령 [탐사보도 뉴스프리즘]</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000558876?sid=102</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>[오프닝: 이광빈 기자]시민의 눈높이에서 질문하고, 한국 사회에 화두를 던지며, 더 나은 내일을 만들어 가는 &lt;뉴스프리즘&gt; 시작합니다! 이번 주 &lt;뉴스프리즘&gt;이 주목한 이슈, 함께 보시죠.[영상구성][오프닝: 이광빈 기자]코로나 사태 뒤 '비대면'은 경제활동의 핵심 키워드가 됐습니다. 배달은 물론 쇼핑, 영상까지 의식주 모두 플랫폼에 의존하는 시대가 됐는데요.그만큼 새로운 시장 장악을 위한 플랫폼 기업들의 경쟁도 치열해지면서, 이러다 경제 전체가 플랫폼에 지배당하는 게 아니냐는 우려까지 나옵니다.한지이 기자입니다.[택시부터 금융까지…"플랫폼 없인 일을 못해요" / 한지이 기자]쇼핑과 음식 배달은 물론 길거리에서 택시를 잡을 때도&lt;카카오택시 영상&gt; "가겠네 일찍 가겠어"집 근처에서 중고 상품 거래를 할 때도 &lt;당근마켓 영상&gt; "저 이거 진짜 몇 번 안탔거든요. 예쁘다" 예능부터 드라마, 실시간 방송 시청까지 &lt;웨이브 영상&gt; "웃음이 고플 때 멀리 갈 필요 뭐 있나요?"코로나19 이후 일상 회복이 본격화하면서 6월 온라인 쇼핑 거래액은 16조7천여억원을 넘으며, 관련 통계가 작성 이후 분기 기준 가장 큰 성장세를 보였습니다.이러한 변화에 따라 시장은 플랫폼 사업자 중심으로 재편됐고 이제 뗄래야 뗄 수 없을 정도로 우리 생활 속에 너무도 자연스럽게 스며들었습니다.소비자들의 플랫폼 의존도가 높아지면서 이제 중소상공인은 물론, 대기업까지 플랫폼에 의지하지 않고는 거래가 어려울 수밖에 없는 구조가 형성됐습니다.&lt;이기재 / 소상공인연합회 플랫폼공정화위원장&gt; "지금 플랫폼 없으면 거의 사업이 안 되고 장사가 안 되고 할 정도로 굉장히 심하고 통계로 보면 우리나라가 세계에서 중국 다음으로 두 번째 플랫폼 의존도가 큰 국가입니다. 새로운 플랫폼들이 많이 진출해서 서로 경쟁할 수 있게끔…"올해 2분기 네이버, 카카오 등 기업들의 플랫폼 부문 매출은 모두 성장세. 최근에는 금융은 물론, 메타버스 등으로 확장을 시도하고 있습니다.전문가들은 플랫폼에 기반한 경제가 성장하려면 공급자와 참여자가 동시다발적으로 늘어나 플랫폼의 가치를 서로 증대시키는 교차 네트워크 효과를 키워야 한다고 조언합니다.&lt;서용구 / 숙명여대 경영학부 교수&gt; "B2B와 B2C가 동시에 서로 선한 상호작용을 하면서 교차 네트워크 효과가 발휘되면서 힘을 받는 거거든요. 플랫폼 기업의 독주는 계속 될 것이고, 스마트폰을 활용하는 비즈니스에서 이상적인 모델로 자리 잡고 있다고 보여 집니다."새로운 시장 선점을 위해 무한 경쟁에 돌입한 플랫폼 기업들…기술적 발전과 시장 확장도 중요하지만 기존 산업과의 상생 선순환 생태계도 점검해봐야한다는 지적이 나옵니다.연합뉴스TV 한지이입니다.[이광빈 기자]윤석열 정부 들어, 플랫폼 기업의 금융 분야 진출 규제가 급속히 완화되는 흐름입니다. 빅테크 기업들에게도 예금·보험 비교·추천을 할 수 있도록 열어줘 금융 플랫폼을 놓고 기존 금융회사들과 무한경쟁에 돌입할 전망입니다.보도에 장보경 기자입니다.[플랫폼 금융 활성화…편익 늘지만 부작용도 / 장보경 기자]기업하기 좋은 나라를 내건 현 정부의 규제 혁신 의지는 분명합니다.민간기업이 더 자유롭게 투자하고 뛸 수 있도록 규제심판제도를 도입해 과도한 규제를 줄이고 있습니다.금융규제 혁신에는 더 속도를 붙였습니다.금융회사들이 플랫폼 앱을 통해 은행, 보험, 카드 등 다양한 금융서비스를 제공할 수 있도록 지원하고,카카오페이, 토스, 네이버파이낸셜 등 빅테크 기업들도 예적금과 보험 상품을 비교 추천할 수 있게 했습니다.&lt;김주현 / 금융위원장(지난달 23일)&gt; "금융 회사, 핀테크, 빅테크 간의 공정 경쟁을 통해 지속적 혁신 일어날 수 있는 새로운 경쟁의 장이 열릴 것을 기대합니다"금융위는 경쟁 속에 소비자 편익이 증진되는 것을 기대합니다.그러나 물밑에선 치열한 영역다툼이 벌어진 모습. 빅테크 업계는 소비자 편익을 위해선 비교 추천 뿐 아니라 판매까지 허용해야 한다고 주장하는 반면, 은행들은 빅테크가 주도권을 가지면 수수료의 급격한 인상이 우려된다는 입장입니다.여기에 보험업계는 결국 빅테크 기업들만 이익을 보는 것 아니냐며 강력 반발하고 있습니다.그러면서 자회사 업종 확대 등 금산분리 완화 관련 정책적 지원을 여당에 요청하고 나섰습니다.&lt;권성동 / 국민의힘 원내대표(지난달 22일)&gt; "보험업계 불편느끼는 각종 규제를 어떻게 해소할 것인가 완화할 것인가 의견을 듣고 규제 혁파 차원에서 이 문제를 다루기 위해서…"다만 규제 완화에 따른 부작용 우려도 제기됩니다. 온라인 플랫폼이 불공정한 알고리즘으로 금융상품을 비교 추천해줄 경우 소비자 피해가 발생할 수 있습니다.또 온라인 플랫폼에 소비자가 종속되거나, 과도한 자금이 쏠리는 금융 안정성 저해 가능성 우려도 나옵니다.이에 금융당국은 알고리즘은 공정성을 검증하고 중개 수수료는 상한을 제한하거나 공시 의무를 부과하기로 한 상태입니다.산업자본과 금융자본의 결합을 금지하는 '금산분리' 규제의 경우 금융위와 국민의힘은 낡은 제도인 만큼 일부 조정 필요성을 내비쳤지만,민주당은 당 강령에 '금산분리 원칙 견지'를 명시해놓고 있어 반발이 예상됩니다.결국 업종간 경계가 허물어지는 '빅블러' 시대에, 규제완화 못지 않게 갈등과 부작용 관리가 중요해진 모습입니다.연합뉴스TV 장보경입니다.[코너 :　이광빈 기자]각 영역에서 플랫폼 기업이 공룡화되고, 이익을 독점하는 현상이 두드러지다보니 플랫폼 기업들의 사회적 역할론에 대해 꾸준히 문제가 제기되고 있습니다. 플랫폼 기업은 배달 사업을 제외하고는 고용 창출에 기여하는 바는 크지 않습니다. 플랫폼 기업 자체가 고용을 하긴 하지만 일자리 숫자가 많지 않은 반면, 하향세를 걷는 기존 오프라인 시장에서 일자리가 대폭 줄어들기 때문입니다.  기존 기업들의 일자리가 줄어들고 밀려나는 자영업자들이 생기는 것이죠. 배달의 경우도 사실 안정적이고 고소득의 일자리는 아닙니다. 이제는 포털, 전자상거래, 배달, 부동산 거래에 이어 금융 분야로까지 플랫폼 기업이 진출하거나 새로 생기고 있습니다. 그러다보니, 급속히 성장하고 이윤을 창출한 플랫폼 기업이 사회에 기여의 폭을 획기적으로 넓혀야 한다는 목소리도 커지고 있습니다. 플랫폼 기업이 성장하게 된 기반에는 시민의 세금으로 만든 정보통신 인프라와 정부의 지원이 뒷받침돼 있습니다. 물론, 미국과 비교해 우리 정부의 규제가 플랫폼 기업을 옥죄는 경우도 있고, 이 때문에 사업을 포기하게된 경우도 있습니다. 그러나, 여러 선진국들과 비교해도 우리 정부는 상당히 벤처투자 육성과 디지털 기업 지원 등을 해왔습니다. 더구나 독점적인 플랫폼 기업이 사실상 또 하나의 생활밀착형 인프라로 작용하다 보니, 시민들이 일상적으로 이용하게 되는데요. 개인들의 데이터도 플랫폼 기업에 집중됩니다. 플랫폼 기업들은 개인정보들을 활용해 개인들의 취향과 서비스 이용실태를 파악할 수 있습니다. 그만큼 새로운 비즈니스를 만들어낼 수 있는 것이죠. 그런데, 막상 플랫폼 기업에 입점한 자영업자들은 이런 정보에서 소외됩니다. 개인정보 취급에 대한 법상으로도 자본력과 규모를 갖춘 플랫폼 기업에 당연히 유리합니다.플랫폼 기업의 형태 자체가 투자에 비해 이익이 극대화되는 고부가가치 사업일 가능성이 큽니다. 그만큼, 플랫폼 기업이 국민에게 보상을, 사회에 이익 환원을 해야 한다는 주장도 제기돼왔습니다.이런 이유로 '플랫폼세', '데이터세'를 도입해야 한다는 목소리도 조금씩 나옵니다. 굉장히 논쟁적인 주장이기도 한데요. 옮고 그름을 넘어 이런 제안까지 나오는 것은, 그만큼 플랫폼 기업의 사회적 역할론이 커진다는 의미입니다.플랫폼 산업의 고성장은 노동시장에서 적지 않은 부작용도 낳고 있습니다. 각종 노동 보호장치의 사각지대가 생겨나고 있습니다. 한 예로 음식 배달 플랫폼 업체의 우월적 지위 속 배달원들은 위험을 무릅쓰고 운전대를 잡기도 하는데요. 배달 수수료도 자영업자들에게 큰 부담으로 다가오고 있습니다.곽준영기자가 이들을 만나봤습니다[불안정한 노동자·밑지는 자영업…플랫폼의 그늘 / 곽준영 기자]3년째 오토바이로 배달일을 하는 길기운 씨는 지난달 기록적인 폭우가 내렸던 당일 배달 플랫폼 업체의 연락을 받았습니다.평소 대비 요금을 1.5 배 줄테니 서울 강남의 침수 지역으로 음식 배달을 가라는 요청이었습니다.&lt;길기운 / 라이더유니온 강남지회장&gt; "진짜 어렵다고 저기 침수 지역이라고 그렇게 했더니 자꾸 몇 번을 더 부탁을 하더라고요. 그래서 그럼 알겠다 가겠다고 하고…"물에 잠긴 도로 위를 달려 목적지인 아파트 단지에 도착했지만 허리 높이까지 차오른 빗물로 진입은 불가능했습니다. 결국 배달을 완료할 수 없었고, 배달비는 원래 받기로 했던 요금의 절반에도 못 미치는 금액만 지급됐습니다.&lt;길기운 / 라이더유니온 강남지회장&gt; "너무하네 여기 제가 오기 싫다는 거 한번만 부탁한다고 해서 이렇게 온 건데 진짜 여기 강남 상황 차도로는 아예 오토바이 못 다녀요."&lt; A배달 플랫폼 관계자&gt; "저희도 매뉴얼상 진행된 상황이라 양해 부탁드립니다. 배달 완료하신 상태가 아니셔서 배달비 지급은 어렵습니다."김 씨는 앱을 통해 배달건을 선택하기도 하지만 플랫폼 업체가 직접 일감을 주는 경우 거절하기 힘든 게 현실이라고 말합니다.&lt;길기운 / 라이더유니온 강남지회장&gt; "거절한다고 했을 때 플랫폼에서 말하기는 페널티가 없다고는 하는데 저희 라이더 입장에서는 그렇지가 않습니다. 나중에 배차 제한이 정말 없을까 혹시 나한테 손해 나는 게 없을까 이런 두려움 때문에" 배달 플랫폼을 이용하는 식당과 주점 업주 등 자영업자들도 올해 들어 오른 수수료에 불만이 커지고 있습니다.&lt;윤영희 / 식당 운영&gt; "수수료와 배달팁 그리고 재료비와 배달 비품, 배달 용품까지 다 했을 때 저희한테 남는 건 한 그릇 갔을 때는 한 10%도 안 됩니다. 정말 울며 겨자 먹기로 배달을 할 수밖에 없는 상황이고…"상황이 이렇자 배달앱을 이용하지 않겠다는 자영업자들도 늘어나고 있습니다.&lt; A식당 사장&gt; "어떻게 보면 배달로 해서 (지출)할 비용을 차라리 우리는 그냥 홀에서만 하겠다는 생각을 하시는 점주 사장님들도 많으시죠"플랫폼 사업에 관한 규제를 민간 자율에 맡긴 정부가 보다 적극적으로 요금 정책 등에 개입해야한다는 목소리도 나옵니다.&lt;이은희 / 인하대학교 소비자학과 교수&gt; "시장 지배적 사업자의 권리 남용 행위가 있는가 없는가 또 자영업자에게 부당한 피해를 강요하지 않는가 그런 것들을 적극적으로 감시해서 적절한 조치를 취해야…"이런 상황에서 대형 배달업체 두 곳이 현재 무료인 포장 중개 수수료의 유료화 전환을 예고하고 있어 자영업자들의 더욱 큰 반발이 예상됩니다.연합뉴스TV 곽준영입니다.[클로징: 이광빈 기자]플랫폼 기업이 소비자들과의 거래에서 책임을 회피하고, 입점 업체들을 상대로 '수수료 갑질'을 하는 것에 대해 규제 입법이 추진되고 있지만, 아직 구체적인 입법 논의가 이뤄지고 있지는 않습니다.사람들의 소비 및 행동 양식을 바꾸는 기술 변화에 따라 기업군들의 흥망성쇠가 이뤄질 수밖에 없습니다. 시대적 흐름을 거스를 수는 없지만, 플랫폼 기업들의 문어발식 확장을 막는 등 부작용을 최소화하면서 기업의 사회적 기여를 높일 수 있는 방안을 모색해야 합니다. 특히 미래는 플랫폼 비즈니스의 확장을 넘어 인공지능, AI 시대입니다. 전세계적으로 디지털세, 로봇세에 대해 전향적으로 바라봐야 한다는 목소리가 커지는 이유이기도 합니다. 배달 수수료, 거래 수수료를 둘러싼 논쟁부터 차근차근 들여다볼 수 있는 사회여야지, 이런 미래 시대흐름에 대응할 수 있지 않을까요. 이번주 뉴스프리즘은 여기까지입니다. 시청해 주신 여러분 고맙습니다.#플랫폼 #배달라이더 #비대면연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>인터넷은행 포용금융 확대…햇살론 출시·저금리 대환 사업 참여</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013433048?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>토스뱅크 하반기 '햇살론뱅크' 출시…카카오뱅크 이어 두 번째케이·토스뱅크, 소상공인 대상 저금리 대환 프로그램 동참하기로서민 정책금융상품 햇살론제작 김민준    (서울=연합뉴스) 오주현 기자 = 인터넷 전문은행들이 서민금융상품을 출시하고, 정책금융기관이 지원하는 저금리 대환(대출 갈아타기) 프로그램에 동참하는 등 '포용금융' 확대에 나선다.    12일 은행권에 따르면 토스뱅크는 하반기 중 서민금융상품인 '햇살론뱅크'를 출시할 예정이다.    햇살론은 저소득·저신용 탓에 정상적으로 금융권 대출을 이용할 수 없는 서민에게 서민금융진흥원의 보증을 바탕으로 공급하는 정책금융 상품이다.    특히 토스뱅크가 출시를 앞둔 햇살론뱅크는 연 15.9%의 고정금리로 대출해주는 상품인 '햇살론15'보다 낮은 금리를 제공하는 변동금리 상품으로, 최대한도는 2천500만원이다.    대상 차주는 새희망홀씨, 미소금융, 햇살론15, 햇살론17 등 정책서민금융상품을 이용한 지 6개월 이상 지나고, 부채나 신용도가 개선된 저소득·저신용 서민이 지원 대상이다.    토스뱅크 관계자는 "햇살론뱅크를 비대면으로 편리하게 이용할 수 있도록 준비하고 있다"고 전했다.    인터넷 전문은행에서 햇살론을 출시하는 것은 토스뱅크가 두 번째다.    그동안 인터넷 은행에서는 카카오뱅크만이 연 15.9% 고정금리 상품인 '햇살론15'를 취급해왔다.     카카오뱅크는 2020년 10월 햇살론15를 출시한 이후 지난달까지 총 1천668억원을 공급했다.인터넷 전문은행 3사 CI    올해 들어 기업대출에 진출한 케이뱅크와 토스뱅크는 하반기에 신용보증기금이 지원하는 자영업자·소상공인을 위한 저금리 대환대출 상품 출시도 앞두고 있다.    이는 정부의 '자영업자·소상공인 맞춤형 금융지원 방안'에 따라 추진되는 프로그램으로 연 7% 이상의 고금리 대출로 빚 상환 부담에 시달리는 소상공인이 연 6.5% 이하 대출로 갈아탈 수 있도록 지원하는 것이다.    저금리 대환 프로그램의 지원을 받으려면 코로나19로 피해를 본 정상 차주로서 개인사업자 또는 법인 소상공인·소기업이어야 하며, 현재 정상적인 경영활동을 영위하고 있어 저금리 대환자금을 상환할 수 있는 능력이 있어야 한다.    대환 한도는 개인사업자는 5천만원, 법인 소기업은 1억원이며, 2년 거치 후 3년간 분할 상환할 수 있다.    케이뱅크 관계자는 "지난 5월 신용보증재단과 손잡고 보증서 대출인 '사장님 대출'을 선보이며 보증시스템을 완비해 정부 지원 상품에 참여할 수 있게 됐다"며 "포용금융에 앞장서겠다"고 말했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>신용카드보다 1666배 빠른 비트코인 네트워크가 있다고? [한경 코알라]</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004745889?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>백훈종의 알쓸₿잡 &lt;46&gt;9월 5일 한국경제신문의 암호화폐 투자 뉴스레터 '코알라'에 실린 기사입니다. 주 3회 아침 발행하는 코알라를 받아보세요!무료 구독신청 hankyung.com/newsletter  비트코인 소액송금 기술, 라이트닝 네트워크비트코인에는 현재 두 가지 종류의 네트워크 효과가 동시에 상호작용하고 있다. 하나는 전통 금융 네트워크가 사람들의 프라이버시를 침해하면 할수록 더욱 강력해지는 탈중앙 네트워크로서의 힘이다. 다른 하나는 기본 레이어가 지닌 탈중앙성을 잃지 않으면서, 동시에 신용카드 속도에 버금가는 빠른 거래 체결 속도와 거의 무료에 가까운 비용의 이점을 제공하는 2단 레이어 네트워크로서의 힘이다. 오늘은 이 둘 중 후자인 2단 레이어 네트워크에 대해 자세히 알아보고자 한다. 바로 비트코인의 레이어 2 솔루션인 ‘라이트닝 네트워크 (Lightning Network)이다.라이트닝 네트워크를 이해하기전에 먼저 비트코인 네트워크의 작동방식을 살펴볼 필요가 있다. 비트코인 네트워크는 비트코인이 거래될 때마다 거래 기록을 담은 장부 전체를 통째로 업데이트하는 시스템이다.비유를 하자면 이렇다. 한 마을에서 A와 B가 돈 거래를 한다고 치자. 이때 거래 기록(장부)은 두 사람이 각각 한 부씩 보관한다. 이 경우 둘 중 누군가가 장부를 조작해 거짓말을 하면 사실관계를 확인하기 쉽지 않다. A가 B한테 돈을 받고도 안 받았다고 하거나, B가 돈을 주지도 않고 줬다고 우길 수도 있다. 둘 다 각자 갖고 있는 장부를 보여주며 자신의 말이 옳다고 주장할 것이다.그런데 만일 A와 B가 거래하면서 마을의 모든 사람에게 장부를 한 부씩 나눠줬다면 어떨까? 최소한 마을 사람들을 과반수 이상 끌어들이지 않는 이상 장부를 조작하기 어렵다. 비트코인은 거래가 일어날 때마다 해당 거래를 기록한 장부를 네트워크에 참여하고있는 모든 노드들에게 공유하는 방식을 쓴다. 누군가 비트코인을 보내놓고 안보낸척 한다거나, 안 보내놓고 보냈다고 우기는 일은 발생할 수 없다.은행 같은 제3자가 개입하지 않고도 거래의 신용을 담보할 수 있도록 설계됐다는 점은 매우 혁신적인 기술임과 동시에 비효율적이기도 하다. 단 100원어치의 비트코인을 거래하더라도 그때마다 전체 네트워크 데이터를 통째로 업데이트하기 때문이다. 네트워크의 혼잡도에 따라 그때그때 다르지만 만원 이하의 소액 거래라면 수수료가 더 많이 나올 것이고 거래 시간은 기본 10분에서 많게는 한 시간 이상씩 걸리기도 한다. 이게 모두 A가 B에게 비트코인을 보냈다는 간단한 사실을 네트워크 노드 모두가 알고 공유해야하기 때문에 발생하는 비효율이다.사실 금액이 큰 비트코인 거래일수록 수수료는 별로 문제가 되지 않는다. 하지만 소액 거래엔 문제가 될 수 있다. 비트코인으로 스타벅스 커피 한잔을 사먹는데 수수료가 커피값 만큼 나올 수 있다. 내가 결제를 하는 시점에 비트코인 네트워크 사용량이 폭증하면서 갑자기 수수료가 치솟을 수 있는것도 문제다. 예컨대 10만원 짜리 물건을 사려고 비트코인을 보내는데 수수료가 10만원 이상이 나오는 황당한 일이 벌어질 수 있다. 거래에 드는 시간도 마찬가지다. 암호화폐 정보업체 코인마켓캡(CoinMarketCap)에 따르면, 비트코인 거래에 소요되는 시간은 평균 10분 정도다. 우리나라처럼 바쁜 게 미덕인 나라에서 커피 한 잔 값을 결제하기 위해 10분을 기다려줄 수 있는 사람은 아마 없을 것이다.이를 해결하고자 탄생한 것이 바로 라이트닝 네트워크다. 쉽게 말하면 비트코인 네트워크와는 별도로 비트코인 네트워크에 연결할 수 있는 네트워크를 하나 더 만든 것이다. 라이트닝 네트워크를 이용하면 비트코인 소액 결제를 쉽게, 수수료 없이, 즉각적으로 실행할 수 있다.방식은 이렇다. 자주 거래하는 특정인 간의 거래인 경우 매번 비트코인 네트워크 장부에 올리지 않는다. 여러 번 거래한 이후 한꺼번에 정산해 마지막 한 번만 장부에 올린다. 예컨대 A와 B 사이에 비트코인 거래를 100번 한다고 치자. 라이트닝 네트워크에서 100번의 거래가 이뤄지도록 한 다음, 최종 정산해 둘이 얼마를 거래했는지 비트코인 네트워크에 전송한다. 이렇게 하면 메인 네트워크에서 장부를 업데이트할 때 발생하는 수수료를 한 번만 내면 된다. 둘 사이에 수백 차례 거래해도 사실상 수수료 없이 거래할 수 있게 되는 것이다. 메인 네트워크에 주는 부담도 줄일 수 있다. 속도도 ‘라이트닝’이라는 이름에 어울리게 번개처럼 빠르다.비트코인 관련 기술 개발사인 블록스트림의 연구 결과에 따르면 현재 라이트닝 네트워크의 초당 처리 건수 (TPS) 는 4000만 건에 달하며 이는 비자카드(2만4000건)보다 약 1660배나 빠른 수준이다. 겨우 193건을 처리하는 페이팔에 비해서는 거의 20만 배나 빠를 만큼 압도적인 처리 속도를 자랑한다.  LNbits로 라이트닝 네트워크 활용하기LNbits는 오픈소스 서비스로 일종의 라이트닝 네트워크 확장 프로그램 모음 사이트이다. 크롬 브라우저 확장 프로그램을 떠올리면 쉽게 이해할 수 있을 것이다. 크롬 브라우저에 확장 프로그램을 설치하면 더욱 다채롭고 편안한 인터넷 이용이 가능해지듯, LNbits도 라이트닝 네트워크라는 시스템을 더욱 다채롭게 이용할 수 있게끔 여러가지 확장 프로그램들을 제공한다.LNbits는 무료 서비스이지만 그렇다고 아무나 이용할 수는 없다. 마치 90년대 천리안, 하이텔, 나우누리 등 PC통신에 접속하기 위해서 먼저 모뎀을 켜야 했듯, LNbits에 접속하려면 먼저 라이트닝 노드를 켜야한다.라이트닝 노드는 비트코인 네트워크의 장부를 라이트닝 네트워크로 가져와 동기화하는 역할을 한다. 어렵게 생각할 것 없이 개인 서버를 직접 운영한다고 이해하면 된다. 비트코인 네트워크의 장부를 동기화하면 비트코인 노드, 라이트닝 네트워크의 장부를 동기화하면 라이트닝 노드인 셈이다. 개인이 라이트닝 노드, 즉 개인 서버를 직접 운영하면 LNbits와 같은 오픈소스 앱을 자체 호스팅할 수 있게된다. 쉽게 말해 타인에게 돈을 송금하기 위해 이제 꼭 카카오페이나 토스 앱을 이용하지 않아도 된다는 뜻이다. 개인대 개인, 서버대 서버의 거래이므로 전 세계에 있는 누구에게든 아무런 제한없이 돈을 송금할 수 있게된다. 진정한 ‘Internet of Money (돈의 인터넷)’이다.필자처럼 집에 직접 기기를 설치하여 노드를 운영하는 방법도 있지만, Voltage처럼 대신 노드를 운영해주는 호스팅 서비스를 이용하는 방법도 있다. Voltage 홈페이지에서 간단히 이메일과 비밀번호를 입력하고 계정을 만들면 바로 라이트닝 노드를 개설할 수 있다. 노드 개설 비용까지는 공짜이지만 해당 노드를 이용하여 실제 라이트닝 네트워크에 트랜잭션을 태우면 비용이 발생한다. ‘스탠다드' 요금제 기준으로 시간당 $0.043로 책정되어 있으니 한달 내내 사용해도 대략 $30 정도이다. 물론 정액제가 아니기 때문에 사용한 만큼만 지불하면 된다.Voltage에서 'brianhoonjong'이라는 이름의 라이트닝 노드를 개설한 모습 / https://nodes.voltage.cloud이제 라이트닝 노드가 준비 되었으니 본격적으로 LNbits를 사용할 수 있다. LNbits는 많은 종류의 확장 프로그램을 제공하지만, 오늘은 그 중에서 일반인들이 쉽게 이해할 수 있고 실생활에 바로 접목해볼 수 있는 기능을 2개만 소개하려고 한다.이벤트 티켓말 그대로 이벤트 티켓, 즉 입장권을 생성하고 비트코인으로 티켓값을 결제 받을 수 있는 기능이다. 얼마전 성황리에 종료된 Korea Blockchain Week 2022 행사를 통해 알 수 있듯, 코로나로 인한 거리두기가 풀리자 블록체인 산업에서 다시 대규모 오프라인 이벤트들이 세계 도처에서 열리는 추세다. 특히 요즘은 메인 행사장 근처에 작은 공간을 빌려서 유료 이벤트나 전시를 열고 프로젝트를 홍보하는 기업들이 늘고있는데, 아마 이 기능을 유용하게 사용할 수 있을 것이다.방법은 간단하다. LNbits의 ‘Events’ 메뉴에서 ‘새로운 이벤트 만들기’ 버튼을 누르면 입장권에 대한 상세정보를 입력할 수 있다. 필자는 이벤트 이름을 ‘샌드뱅크 취업설명회'로 입력하고, 입장권은 9월 29일까지만 판매, 이벤트는 9월 30일부터 10월 1일까지 이틀 동안만 열리는 것으로 설정했다. 총 몇 장의 입장권을 발행할 것인지, 그리고 입장권 가격은 장당 얼마인지도 설정할 수 있다.이벤트 티켓 상세내역 입력화면 / 출처: LNbits상세내역을 입력한 후 하단의 ‘이벤트 생성' 버튼을 누르면 샌드뱅크 취업설명회에 참석할 구직자가 티켓을 구입할 수 있는 웹사이트 링크가 생성된다. 이벤트에 참여하고 싶은 사람은 이 링크에 접속하여 이름과 이메일 주소를 적고 QR 코드를 통해 비트코인으로 티켓 비용을 납부할 수 있다. 참고로 필자가 사전에 설정한 티켓 가격은 1000 sats 이다 (약 273원). 이름과 이메일을 입력하면 비트코인으로 티켓 비용을 납부할 수 있다. / 출처: LNbits이름과 이메일을 입력하면 비트코인으로 티켓 비용을 납부할 수 있다. / 출처: LNbits샌드뱅크는 행사 당일 입구에서 참여자들의 입장권 소지여부를 검사할 수 있다. 각 입장권에는 고유 QR코드가 있으며 한번 스캔되면 자동으로 출석이 체크되어 입장권의 중복 사용을 막을 수도 있다. 오프라인 샵행사장 주변에서 이벤트나 전시를 여는것 외에도 자기가 만든 물건을 팔고싶은 사람도 있을 것이다. 필자는 작은 트럭을 빌려 커피나 레모네이드를 만들어 팔면서 자사 브랜드를 홍보하는 기업도 본 적이 있다. 만약 이렇게 오프라인에서 물건을 팔고 댓가로 비트코인을 받고 싶다면 LNbits의 ‘오프라인 샵' 기능을 이용하면 좋다. 이 기능은 판매자가 포스기나 신용카드 단말기가 없어도 쉽게 오프라인 매장을 열 수 있게 해준다. 심지어 판매할 물건에 가격표가 붙어있지 않아도 괜찮다. 필자는 탄산수를 판매목록에 추가해봤다. 판매할 제품명과 간단한 설명, 제품 이미지를 첨가할 수 있다. 개당 가격은 5000 sats (약 1367원)로 정해봤다.'탄산수'를 판매물품 목록에 등록하는 화면. 제품 설명, 이미지, 가격을 기입할 수 있다. / 출처: LNbits판매자는 원하는 만큼 판매할 제품을 생성하여 판매목록에 추가할 수 있다. 각 제품별로 위에서 기입한 정보가 담긴 QR 코드를 프린트한 뒤 마치 가격표처럼 부착해서 사람들이 구경을 하다가 바로 결제하게 할 수도 있고, 계산대로 가져오게 한 뒤 스마트폰을 스캔하여 결제하게 할 수도 있다. 판매할 제품의 QR 코드를 프린트하면 제품명 '탄산수'와 가격도 함께 표시된다. / 출처: LNbitsLNbits는 이 외에도 다양한 기능을 제공한다. 마치 카카오톡 선물 교환권처럼 QR 코드를 받은 사람이 비트코인을 미리 설정된 금액만큼 출금해갈 수 있는 기능도 있고, 동영상을 보거나 음악을 들으려면 먼저 비트코인을 지불하게 만드는 ‘Paywall’ 기능도 있다. 결국 모두 라이트닝 네트워크라는 글로벌 결제망을 이용해 편안한 결제를 가능하게 하는 기능들이다. 언뜻 들어보면 별로 특별할 것도 없다는 생각이 들수도 있다. 그도 그럴것이 이벤트 티켓과 물건 가격표를 디지털 형태로 만드는 것은 그 전에도 가능했기 때문이다. 그러나 라이트닝 네트워크와 LNbits에는 좀더 특별한 구석이 있다. 바로 제 3자에게 의존하지 않고 나만의 결제 시스템을 만들 수 있다는 점이다.독자적인 탈중앙 결제 시스템이 꼭 필요한 사람들은 세상에 넘쳐난다. 세계은행이 불과 2017년에 발표한 바에 따르면, 아직 은행계좌도 갖지 못한 사람의 수가 전 세계에 17억명에 달한다. 심지어 미국에서도 아직 전체 가구의 5.4%에 해당하는 710만 가구가 은행계좌를 하나도 보유하고 있지 않은것으로 집계되고 있다. 이런 사람들을 모두 내버려 두는것이 옳을까, 아니면 비트코인과 라이트닝 네트워크를 가르쳐 활용하게 하는것이 옳을까.비트코인을 기본 결제수단으로 삼는 순환경제가 형성되면 제 아무리 금융 인프라가 낙후되고 독재 정부에 의해 자유가 억압당하는 지역이라도 다시 희망이 싹틀 것이다. LNbits가 제공하는 라이트닝 네트워크 기반 확장 프로그램들은 이런 사람들에게 그동안 당연히 누려야했지만 제대로 누리지 못한 금융 포용성을 제공하는데 일조할 것으로 기대된다. 만약 앞으로 열릴 대규모 블록체인 행사에서 뭔가 이벤트를 기획하고 있다면, 이 기회에 LNbits를 활용해 보는것은 어떨까. 어쩌면 우리 눈에 보이지 않지만 도움이 필요한 사람들에게 더 빨리 비트코인의 존재를 알려주는 계기가 될 수도 있으니 말이다. 백훈종 샌드뱅크 COO는…안전한 크립토 투자 앱 샌드뱅크(Sandbank)의 공동 창업자 겸 COO이다. 가상자산의 주류 금융시장 편입을 믿고 다양한 가상자산 투자상품을 만들어 투자자에게 제공하는 샌드뱅크를 만들었다. 국내에 올바르고 성숙한 가상자산 투자 문화를 정착시키기 위해 각종 매스컴에 출연하여 지식을 전파하고 있다.▶이 글은 암호화폐 투자 뉴스레터 구독자를 대상으로 다양한 관점을 제공하기 위해 소개한 외부 필진 칼럼이며 한국경제신문의 입장이 아닙니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 1억 넘게 맡겨도 연 2.2% 금리 준다</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002267581?sid=105</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>세이프박스 금리 인상카카오뱅크가 파킹 통장으로 쓸 수 있는 '세이프박스'의 금리를 올렸다.7일 카카오뱅크는 8일부터 모든 세이프박스 계좌에 기존 금리보다 연 0.20%p 인상한 연 2.20% 금리를 제공하겠다고 밝혔다.인터넷전문은행 3사(케이뱅크·카카오뱅크·토스뱅크) 중 파킹 통장 금리가 가장 높게 책정된 셈이다.카카오뱅크판교오피스특히 카카오뱅크는 토스뱅크가 1억원 한도 내로 연 2.0%를 지급한다는 점을 감안해 1억원이 넘더라도 연 2.20%의 금리를 적용한다고 부연했다.1개의 세이프박스의 한도는 1억원이지만 1개의 수시 입출금 통장마다 1개의 세이프박스를 만들 수 있어 1억원 이상까지 보관할 수 있다는 게 카카오뱅크 측 설명이다.이번 카카오뱅크의 파킹 통장 금리 인상으로 연 2.0% 지급 통장을 내세웠던 토스뱅크가 금리 인상으로 대응할 지 귀추가 주목된다.한편, 카카오뱅크는 이날 26주 적금 금리는 연 0.20%p 인상해 최대 연 3.70%의 금리를 적용하고 1년 만기 정기예금(최대 연 3.30%), 1년 만기 자유적금(최대 연 3.70%) 로 연 0.20%p 금리를 인상했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.09.08.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>고금리에 수시입출금통장도 3%대…금리경쟁↑</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005144895?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>저축은행부터 인터넷은행, 외국계까지 속속 금리↑예금은행 정기예금 평균금리와 맞먹어기준금리가 가파르게 오르면서 하루만 맡겨도 이자를 받을 수 있는 '파킹통장'에 대한 관심이 커지고 있다. 인터넷전문은행들은 물론 저축은행들까지 경쟁에 나서면서 시중은행 정기예금과 맞먹는 3%대 상품까지 등장할 정도다. 한도와 우대 금리 조건을 꼼꼼하게 살필 필요가 있다는 조언이 나온다.8일 금융권에 따르면 저축은행들은 연 3%대 금리 파킹통장 상품을 속속 내놓고 있다. 웰컴저축은행의 ‘웰컴 직장인사랑 보통예금’이 대표적이다. 급여이체, 자동이체 등의 조건을 충족하면 5000만원 한도 내에서 연 3% 이자를 받을 수 있다. OK저축은행은 수시입출식 보통예금인 ‘OK e-읏통장’의 최고금리를 다음 달 1일부터 최고 3.3%까지 제공하기로 했다. 시중 파킹통장 중 최고 수준이다. 페퍼저축은행의 '페퍼스파킹통장'도 예치금 5000만원까지 별다른 조건 없이 연 3.2% 이자를 준다. 유동성 관리가 어려운 보통예금임에도 시중은행의 정기예금 평균 금리 수준을 내건 것이다. 은행연합회에 따르면 19개 예금은행의 정기예금 평균 금리는 12개월 기준 3.23% 수준이다.인터넷전문은행들도 속속 파킹통장 금리를 올리고 있다. 카카오뱅크는 이날부터 한도 1억원 규모 파킹통장인 '세이프박스' 상품의 금리를 연 2.0%에서 연 2.2%로 인상했다. 케이뱅크의 파킹통장 상품 '플러스박스' 연 2.1%의 금리를 제공한다. 최대 납부 한도는 3억원으로 은행권 중 최고 수준이다. 외국계 은행인 SC제일은행도 최근 참전했다. 비대면 전용 수시입출금식 상품인 '제일EZ통장'의 첫 거래 고객에게 6개월간 최고 연 2.5% 금리를 제공하기로 한 것이다. 첫 거래를 한다면 별다른 조건 없이 최고 금리가 적용된다.정작 파킹통장 열풍을 불러일으킨 토스뱅크는 잠잠하다. '토스뱅크통장'은 여전히 1억원까지 연 2%, 1억원 초과분에 대해선 연 0.1% 금리를 제공 중이다. 다만 '일복리'라는 차별화가 강점이다. 매일 이자를 정산받을 수 있기 때문에 복리효과로 이율을 더 키울 수 있다. 금융소비자들 사이에서도 이 같은 '성취감'이 인기로 작용했다. 정기적금 상품만 있을 뿐 별도 정기예금 상품이 없는 토스뱅크 수신 잔액 중 토스뱅크통장의 비중은 90% 이상일 정도로 절대적인데, 토스뱅크의 수신잔고는 지난달 말 기준 26조4000억원으로 지난 1분기 21조원 대비 5조4000억원가량 늘어났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>[이웃사랑] 세 가족 중 두 명이 발달장애…아프단 말도 못해 끙끙 앓는 모습 보면 가슴 아파</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000773912?sid=102</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>중매로 만난 아내, 뒤늦게 장애 사실 알았지만 책임지기로 결심태어난 아들 유난히 말 없어 병원 검사…엄마와 같은 발달장애 진단아내·아들 병간호로 일자리 못 구해…유일한 소망은 자유롭게 사는 것이상호(가명·64), 김미희(가명·54)씨 부부가 발달 장애인 아들 이해준(가명·23)을 돌보고 있다. 김세연 기자거실에 있던 이상호(가명·64) 씨는 문득 적막한 집안에 이질감을 느꼈다. 항상 소리를 지르며 시끄럽게 뛰어다니는 아들 이해준(가명·23) 씨가 조용할 리가 없었다. 이 씨는 다급하게 방안으로 뛰어 들어갔고 피투성이로 쓰러진 아들을 발견했다. 찢어진 이마에서 흘러내린 피는 해준 씨의 얼굴 전체와 감싸 쥔 양손을 전부 흥건하게 물들였다. 아프다는 말도 제대로 못 해 바닥에 누워 끙끙 앓는 아들을 보며 이 씨는 사색이 됐다. 20살을 훌쩍 넘은 아들이지만 아직 어린아이 그대로인 해준 씨는 3살 당시 발달 장애 판정을 받았다.◆지체 장애 아내와 아들 돌보느라 일도 관둬경북 한 마을에서 태어난 이 씨는 어린 시절부터 부모님을 따라 농사일을 배우며 자랐다. 20살이 넘어서는 독립을 결심하고 집을 나와 배달일, 심부름을 하며 이곳저곳 떠돌아다녔다. 30살에는 공장에 취업했지만 일은 만만치 않았다. 새벽 일찍 출근해 쉬는 시간도 없이 하루 종일 일했다. 그렇게 10여 년 공장에서 일하던 이 씨에게 평소 알고 지내던 지인이 중매를 서겠다며 제안해왔다. 이 씨는 지인으로부터 건네 받은 주소로 찾아가 지금의 아내 김미희(가명·54) 씨를 만났다.김 씨는 지체장애인이지만 중매를 선 지인은 이 사실을 이 씨에게 알리지 않았다. 뒤늦게 김 씨가 장애인이라는 사실을 알았지만, 이 씨는 김 씨를 책임지기로 마음먹었다. 이 씨는 가족들에게도, 일하는 식당에서도 구박받는 김 씨가 안쓰러웠다. 김 씨는 이불 하나만 손에 들고 이 씨를 찾아왔고 그렇게 두 사람은 1995년에 결혼했다. 5년 뒤, 아들 해준 씨가 태어나면서 세 가족은 행복한 미래를 꿈꿨다. 하지만 고난은 끝이 아니었다.3살이 된 해준 씨는 또래보다 유난히 말이 없었다. 이를 이상하게 여긴 이 씨는 대학병원으로 해준 씨를 데리고 가 정밀 검사를 받았다. 그 결과, 아들 역시 엄마와 같은 발달장애라는 사실을 알았다. 별다른 치료 방법이 없다는 의사의 절망적인 진단에 이 씨는 아들을 살리고 싶지 않다고까지 생각했다. 장애를 가지고 앞으로 살아갈 아들이 겪을 고난을 생각하면 극단적인 생각마저 들었다. 그럼에도 김 씨는 두 사람을 포기할 수 없었다.◆아내 피부괴사로 입원, 계속 다치는 아들아들 해준 씨는 눈도 잘 보이지 않을 뿐더러 귀도 잘 들리지 않고 말도 할 수 없다. 종일 집안을 뛰어다니며 소리를 지르는 탓에 가족과 함께 외출 한번 하기도 힘들다. 집안에서도 이 씨가 잠깐이라도 눈을 떼면 혼자서 뛰어다니다가 여기저기 부딪히며 다치기 일수다. 최근에도 집에서 넘어지면서 이마가 찢어져 20바늘 이상을 꿰맸다.아내 이 씨의 건강 상태도 좋지 않다. 이 씨는 결혼 전 식당 일을 했을 때 고용주에게 폭언과 폭력에 시달렸던 트라우마로 현재까지 정신과 약을 복용 중이다. 최근에는 쓰레기를 버리러 나갔다가 교통사고를 당해 허벅지 피부 조직이 괴사했다. 치료를 위해 입원까지 했지만 답답함을 견디지 못한 김 씨는 충분한 치료를 받지 못한 채 퇴원했고, 결국 이 씨가 전적으로 김 씨를 돌보고 있다.수시로 다치는 아들과 아픈 아내를 돌봐야 하는 이 씨는 제대로 된 일자리도 구할 수 없다. 현재 세 가족은 아들과 아내 앞으로 나오는 장애인 연금 68만원과 이 씨가 폐지를 모아서 파는 돈으로 생활하고 있다. 아내와 아들의 병간호로 이 씨는 경제활동은 전혀 할 수 없는 상황이다. 현재 이 씨의 유일한 소망은 자신이 살아있는 동안에는 아들이 자유롭게 살았으면 하는 것이다.*매일신문 이웃사랑은 매주 여러분들이 보내주신 소중한 성금을 소개된 사연의 주인공에게 전액 그대로 전달하고 있습니다. 개별적으로 성금을 전달하고 싶은 분은 하단 기자의 이메일로 문의하시길 바랍니다.※ 이웃사랑 성금 보내실 곳대구은행 069-05-024143-008 / 우체국 700039-02-532604예금주 : (주)매일신문사(이웃사랑)▶DGB대구은행 IM샵 바로가기(https://www.dgb.co.kr/cms/app/imshop_guide.html)[성금 내역]◆중국에서 넘어와 한국에 겨우 정착했는데 하루아침에 다리 못쓰게 된 탈북민 조충복 씨에 2,066만원 전달매일신문 이웃사랑 제작팀은 중국에서 넘어와 한국에 겨우 정착했는데 하루아침에 다리 못쓰게 된 탈북민 조충복((매일신문 8월 23일 자 10면) 씨에 2천66만9천원을 전달했습니다.이 성금에는 ▷(합)오토렌트카대구지점(이대철) 8만5천원 ▷문심학 15만원 ▷김영관 10만원 ▷라선희 3만3천원 ▷이강준 3만원 ▷이병규 2만5천원 ▷신종욱 2만원 ▷김강현 1만1천원 ▷이영수 1만원 ▷전지원 1만원 ▷윤인주 5천원 ▷이진기 5천원 ▷문민성 4천원 ▷이장윤 2천원 ▷'지원정원' 3만원 ▷'따스한햇살' 5천원이 더해졌습니다. 성금을 보내주신 모든 분들께 진심으로 감사드립니다.◆가정폭력에 시달리다가 독립해 갖은 일 다 했는데 하반신 마비에 암까지 걸린 구혜성 씨에 3,771만원 성금어린 시절 아버지와 친척집 전전하며 가정폭력 당하다가 하반신 마비에 폐에 암까지 전이된 구혜성 씨(매일신문 8월 30일 자 10면) 씨에 59개 단체, 430명의 독자가 3천771만3천256원을 보내주셨습니다. 성금을 보내 주신 분은 다음과 같습니다.▷건화문화장학재단 200만원 ▷㈜대구은행 100만원 ▷역삼동 열정부동산 100만원 ▷피에이치씨큰나무복지재단 100만원 ▷㈜태원전기 50만원 ▷다우약품 50만원 ▷세무법인송정김천 50만원 ▷신라공업 50만원 ▷한라하우젠트 50만원 ▷㈜태린(박기태) 40만원 ▷삼성기공(장태종) 30만원 ▷㈜신행건설(정영화) 30만원 ▷한미병원(신홍관) 30만원 ▷합정약국 30만원 ▷㈜동아티오엘 25만원 ▷㈜백년가게국제의료기 25만원 ▷크로스핏힘 23만원 ▷(재)대백선교문화재단 20만원 ▷금강엘이디제작소(신철범) 20만원 ▷대창공업사 20만원 ▷대흥분쇄기(한미숙) 20만원 ▷성암 20만원 ▷㈜구마이엔씨(임창길) 10만원 ▷㈜우주배관종합상사(김태룡) 10만원 ▷㈜이구팔육(김창화) 10만원 ▷㈜태광아이엔씨(박태진) 10만원 ▷경주천마자동차전문 10만원 ▷김영준치과 10만원 ▷동양자동차운전전문학원(최우진) 10만원 ▷봉란옥(이순자) 10만원 ▷세움종합건설(조득환) 10만원 ▷우리들한의원(박원경) 10만원 ▷원당교회(박인정) 10만원 ▷원일산업 10만원 ▷효민약국(최순희) 10만원 ▷하빈오뚜기마트 8만2천원 ▷건천제일약국 5만원 ▷골든유통청도(임우영) 5만원 ▷극동특수중량(김형중) 5만원 ▷다빈치커피대명마루점 5만원 ▷명ＥＦＣ(권기섭) 5만원 ▷베드로안경원 5만원 ▷삼보엔지니어링(이병호) 5만원 ▷세무사김기욱사무소(김기욱) 5만원 ▷수가성식당 5만원 ▷알밤공방 5만원 ▷이전호세무사 5만원 ▷전피부과의원(전의식) 5만원 ▷제이에스테크(김혜숙) 5만원 ▷창성공업사(남정복) 5만원 ▷채성기약국(채성기) 5만원 ▷칠곡한빛치과의원(김형섭) 5만원 ▷두산에너빌(한창우) 3만원 ▷매일신문구미형곡지구(방일철) 3만원 ▷청산(우창하) 3만원 ▷대원전설(전홍영) 2만원 ▷본죽(이종숙) 2만원 ▷서성상회(박형근) 2만원 ▷하나회 1만원▷김상태 이춘란 전태경 각 100만원 ▷이정추 90만원 ▷김지훈 김진숙 조성택 각 50만원 ▷김미자 엄순귀 이신덕 각 30만원 ▷고세경 박지영 박행숙 진민지 각 20만원 ▷곽용 김경아 김규빈 김보경 김보미 김선경 김성재 김수민 김순향 김열희 김영진(기업) 김이수 김진숙 김진희 김희옥 박용환 박태영 배예원 신현욱 유광영 윤미영 윤순희 윤정호 이내용 이수진 이은주 이은화 이재일 이지연(하나) 이혼주 임우진 장서현 장정순 장지호 전시형 정군표 정기열 정미숙 정승혜 정은정 정하봉 조득환 차경란 최순열 최창규 추향자 허창옥 각 10만원 ▷전해룡 9만원 ▷서지현 8만원 ▷김재용 박민철 각 7만원 ▷고선앵 고형호 구경희 구신애 구율원 권민정 권현주 김경호 김리나 김만구 김민주 김소희 김영수 김영진(신협) 김자헌 김정호 김제성 김주도 김지원 김혜정(농협) 김희정 나수미 민영란 박재하 박종천 박통희 배태경 변대석 서정오 손윤옥 손호식 심영숙 안대용 안정훈 양은심 양재원 오경미 오남열 오정희 우만제 위혜영 유희숙 윤규원 윤명희 윤선희 윤순영 윤재국 이남경 이미연 이미화 이석영 이승호 이종하 이준수 이지안 이태성 이현숙(IM뱅크) 이형구 이형규 임채숙 장미향 장성국 장우영 장인진 전재복 정원수 정정애 정형석 최종호 최한태 각 5만원 ▷강기백 강대홍 고미순 권규돈 권두형 권순애 권정림 김경희 김낙훈 김대식 김미영(농협) 김복만 김성하 김소정 김은경 김은진 김지휘 김태훈 김혜경 민수진 박미오 박신영 박옥환 박유선 박지연 박진녕 박현애 박환운 변현택 성건창 손정희 신광련 신기숙 신숙희 염정원 오정수 유지윤 윤종학 이대성 이두섭 이서연 이석우 이승남 이응섭 이재열 이종완 임희정 장인숙 전미연 정미경 정서연 정소영 정승은 조만수 조진우 주상훈 최동옥 최미나 최성국 최수임 최정인 최지유 최춘희 하경석 하윤정 각 3만원 ▷공민경 권진숙 김도환 김순미 김은숙 김정희 김지아 김태욱 김한철 김호정 남경혜 류동렬 류휘열 문민성 박근희 박덕 박재숙 박준 박준우 방태표 서부영 서숙영 서은희 서진옥 손희정 신옥섭 신유창 신진철 여현지 옥금희 유귀녀 유은영 윤현길 이강희 이경범 이병순 이선미 이슬이 이영록 이운호 이재민 이정민 이정우 이해수 이희진 조민지 주강숙 차정혜 최우식 편재민 홍준표 각 2만원 ▷박재만 1만3천원 ▷ 강선영 고성빈 공종례 권경미 권오현 김대휘 김두리 김미향 김미화 김삼수 김상일 김순애 김유경 김윤희 김은미 김인희 김준환 김진선 김태림 김태상 김태천 김혜정(하나) 김혜화 김화경 김효정 박건우 박상민 박새빈 박애선 박연덕 박인배 박채운 박태용 박혜란 박홍선 백경렬 서지혜 성영아 성해연 신재민 신정호 안병하 안세영 안영숙 안인호 양태연 양태희 우순화 우철규 유광호 유명희 유영호 유지민 유현우 윤성영 윤인주 이사라 이예한 이원형 이은정 이은혜 이정현 이주원 이지연(신한) 이지영 이현숙 장문희 장은애 장은정 전지원 정미아 정승현 정준홍 정진선 정채린 조영란 조용식 지호열 최경철 최문경 최성진 최웅환 하정희 한정화 한지호 허영주 황상범 황인수 각 1만원 ▷이현주 7천원 ▷강동석 김도환 김미영 (토스) 남윤재 서형덕 송은민 송정현 유정은 이은지 전일구 조미영 최민정 한인자 각 5천원 ▷권두영 이성주 각 3천원 ▷김서연 2천원 ▷한동규 1천원▷'정인채(구혜성후원)' 100만원 ▷'구혜성님 완쾌하세요' '리서동희(구혜성씨앞)' 각 50만원 ▷'홍종배베드로' 30만원 ▷'구혜성씨앞으로' '구혜성에게' '박명숙(구혜성후원)' '부처님의가피를.' '사랑나눔６２４' '예수' '예수님을부르세' '응원합니다' '익명' '주님사랑' '쭈니맘' '최윤희(구혜성)' '호산나' 각 10만원 ▷'Chang Hwan' '구혜성님힘내요' '구혜성씨도와주세요' '권은성(구혜성님께)' '김다마소' '김영숙-구혜성씨후원' '김재연힌내세요' '류인갑.류현수.류미' '영서힘내세요' '유익한마음' '이웃사랑성금(국민)' '주님의위로가' '후원금(구혜성)' '희망잃지말아요!!' '힘내세요' 각 5만원 ▷'하반신마비에암까지' 3만8천원 ▷'구혜성님힘내세요♥' '구혜성씨 모금' '예수님사랑' '이종윤**하나님 구혜성군을 구원해주세요' '황인성-구혜성도움' '힘내세요' 각 3만원 ▷'수연' 2만5천256원 ▷'구혜성님께' '구혜성님힘내세요.' '구혜성씨화이팅' '사랑해요' '석희석주' '이웃사랑성금(카뱅)' '전액 구혜성씨께' '해만진주이안' '힘내세요' '힘내세요' 각 2만원 ▷'.' '구혜성님힘내요(모바일)' '구혜성씨 힘내세요' '구혜성씨힘내요' '구혜성후원(신한)' '꼭일어서시길 간절히' '무명' '무진. 청안입니' '송반야화' '송송이（구혜성님께）' '이웃사랑' '지현이동환이' '편안해지길' '포항여중김채영' '한동엽 기부' '힘내세요!!(카뱅)' '힘내세요!!(우체국)' '힘내세요전호정' 각 1만원 ▷'구혜성후원(우리)' '이웃사랑' 5천원 ▷'지성이' '채영이' 각 2천원</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>금리 상승기에도 인터넷은행 잘나가네...대출 8개월째 증가세</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005012500?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[사진제공=카카오뱅크] 금리가 가파르게 오르면서 가계대출 수요가 줄고 있지만, 인터넷 전문은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 여신 잔액은 8개월째 증가하고 있는 것으로 나타났다.2일 은행권에 따르면 8월 말 기준 카카오·케이·토스뱅크의 여신 잔액은 총 43조991억원으로, 40조원을 돌파했다.은행별로 보면 카카오뱅크는 27조1991억원으로 전달보다 2487억원 늘었고, 케이뱅크는 9조5000억원으로 같은 기간 3400억원 늘었다.토스뱅크의 여신 잔액은 6조4000억원이었다. 토스뱅크는 7월 말 기준 여신 잔액은 공개하지 않았지만, 두 달 전인 6월 말과 비교하면 잔액이 2조2000억원 급증했다.인터넷 은행 여신 포트폴리오의 대부분이 가계대출인 점을 고려하면, 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출이 8개월째 감소세를 보이는 현상과 대조된다.5대 은행의 8월 말 기준 가계 대출 잔액은 696조4509억원으로 전달 대비 9858억원 뒷걸음질쳤다.한편, 카카오뱅크는 지난해 8월 코스피 시장에 상장했다. 케이뱅크는 연내 유가증권시장 상장을 목표로 하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>후발주자 가세 '마이데이터 통합인증' 선두 경쟁</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003042901?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>카카오 진입…네이버와 격돌SKT·KT·하나銀·NH농협銀 합류7곳서 12곳으로 대폭 늘어나금보원 중계시스템 개통 한몫올해 신규 인증서 추가가 거의 없었던 마이데이터 통합인증 시장에 새로운 인증서가 대거 추가된다. 카카오, SKT, KT, 하나은행, 농협은행이 자체 개발 인증서로 마이데이터 통합인증 시장에 진입한다. 7일 서울 중구 하나은행 본점에서 전자서명인증 사업부원들이 오는 19일 하나은행 마이데이터 통합인증 서비스 오픈을 앞두고 최종 테스트를 진행하고 있다. 박지호기자 jihopress@etnews.com다음 달부터 마이데이터(본인신용정보관리업) 통합인증 시장에 새 인증서가 대거 추가된다. 카카오 인증서가 새롭게 진입해 시장을 선점한 네이버 인증서와 맞경쟁을 펼친다. SKT와 KT가 각자 인증서로 시장에 진입하고, 전자서명인증사업자에 새롭게 선정된 하나은행과 NH농협은행도 후발주자로 뛰어든다.마이데이터 통합인증에 사용되는 사설인증서가 현재 7개에서 최대 12개로 늘어난다. 네이버 인증서가 초기 마이데이터 시장을 장악했으나 올 하반기에 카카오 인증서가 새롭게 진입함에 따라 시장 선두 자리를 놓고 경쟁을 벌일 것으로 전망된다. 마이데이터 통합인증은 사용자가 마이데이터 서비스 이용을 위한 기관 연결 시 인증 한 번으로 선택한 전체 기관을 연결하는 것이다.현재 마이데이터 통합인증은 네이버, 금융인증서(금융결제원) NHN페이코, 뱅크샐러드, 토스(비바리퍼블리카), KB국민은행, 신한은행 인증서가 적용됐다. 네이버 인증서를 채택한 정보제공기관이 압도적으로 많은 가운데 금융인증서, 토스인증서 등이 뒤를 잇고 있다.카카오는 지난해 11월 과학기술정보통신부와 한국인터넷진흥원으로부터 전자서명인증사업자 인정을 획득했다. 이후 마이데이터 통합인증 시장 공략을 준비해 왔다. 카카오 인증서는 지난달 말 기준 사용자 3500만건을 돌파했다. 네이버 인증서는 약 3300만건(4월 기준)이다. 막강한 플랫폼 경쟁력을 바탕으로 국세청의 연말정산 간소화 등 다양한 공공서비스에 적용, 두터운 사용자층을 확보했다.마이데이터 통합인증은 네이버 인증서가 먼저 진입해 안정적으로 시장을 선점했다. 카카오는 마이데이터 본시행 직전에 전자서명인증사업자 인정을 받아 초기 시장에 진입하지 못했다.이동통신사인 SKT와 KT는 패스(PASS) 인증서로 마이데이터 통합인증 시장에 새로 뛰어든다. 패스 인증서는 지난달 말 기준 통신 3사 기준 약 3600만건이 발급돼 빅테크 인증서에 맞설 사용자 기반을 갖췄다. 높은 브랜드 인지도와 경험을 바탕으로 마이데이터 통합인증 시장에서 네이버·카카오와 경쟁할 것으로 전망된다.KB국민은행과 신한은행에 이어 하나은행·NH농협은행이 마이데이터 통합인증 시장에 신규 진입, 사용자 저변 확대를 꾀하는 것도 눈길을 모은다. 하나은행은 '하나 원 사인' 인증서로 지난해 12월, 농협은행은 'NH모바일인증서'로 지난달 전자서명인증사업자 인정을 각각 획득했다. 신규 인증서가 다음 달 대거 마이데이터 통합인증에 적용되는 것은 새로 개통하는 '마이데이터 통합인증 중계시스템' 영향이 크다.현재 새로운 인증서가 도입되면 정보제공자는 해당 인증기관과 개별 연동을 해야 한다. 약 70개 정보제공자가 개별 사설인증기관과 각자 연동해야 하는 불편이 컸다. 이런 문제로 나중에 진입하는 사설인증서의 도입을 꺼리는 문제가 생기자 금융보안원이 '마이데이터 통합인증 중계시스템' 신설을 준비해 왔다.통합인증 중계시스템이 가동하면 정보제공자와 인증기관은 1회 연동만으로 복수의 신규 인증수단과 정보제공자 연동을 할 수 있게 된다. 금융보안원은 클라우드 기반 응용프로그램개발환경(API) 플랫폼 형태로 올해 중순부터 시스템 신설을 준비해 왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.09.12.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>'자본과 부채 사이' RCPS 투자…핀테크 스타트업에 족쇄될 수도</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004793527?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>/사진=임종철 디자이너이제 막 사업을 시작한 스타트업은 자체적으로 창출할 수 있는 매출이 낮고 들어가는 비용은 많아 성장을 위해선 투자유치가 필요하다. 투자금을 바탕으로 사업 모델을 고도화하고 고객을 모으며 손익분기점(BEP)에 도달하는 과정을 거치게 된다. 스타트업의 투자유치에 있어서 반드시 접하게 되는 단어가 'RCPS'다. RCPS는 △교환할 수 있고(Redeemable) △전환 가능한(Convertible) △이익배당, 잔여재산에 대해 보통주보다 우선권을 갖는(Preference Shares), '상환전환우선주'라는 뜻을 담고 있다. 기업들은 일반적으로 보통주와 우선주로 나눠 주식을 발행하게 된다. RCPS의 경우 만기가 되면 투자금 상환을 요구할 수 있는 '상환권', 우선주를 보통주로 전환할 수 있는 '전환권'이 모두 있는 종류주식이다. ━스타트업 투자 방식 대세는 'RCPS'━[서울=뉴시스] 이영환 기자 = 16일 오후 서울 강남구 코엑스에서 '넥스트라이즈 2022 서울'이 열리고 있다. 2022.06.16.두 가지 권리를 가진다는 측면에서 흔히 접하는 보통주, 우선주와는 차이가 있다. 투자사들 입장에서는 상환권이나 전환권을 선택해서 행사할 수 있기 때문에 RCPS를 통한 지분확보를 가장 선호한다. 실제로 한국벤처캐피탈협회가 발행한 벤처투자 동향에 따르면 지난해 집행된 신규 투자의 73.4%가 우선주 투자였으며, 대부분 RCPS 형태인 것으로 조사됐다. 벤처캐피탈의 우선주 투자 비중은 2017년 50.5%를 기록한 이후 매년 5~10% 상승해왔다. 보통주 투자 비중은 2017년 23.9%를 기록한 이후 꾸준히 감소했다. 지난해는 2017년 대비 6.1% 하락한 17.8%였다. 이밖에 전환사채(CB), 신주인수권부사채(BW), 조건부지분인수계약 등 나머지 유형의 투자 비중도 해마다 축소됐다. RCPS는 회사가 부도나면 투자사도 100% 손실을 각오해야 한다. 회사가 망해도 상환 권리가 있는 CB보다는 위험한 투자 방식이다. 대신 회사가 기대치에 못 미치는 성장을 했거나 낮은 가격에 인수합병(M&amp;A)되면 투자사는 보통주보다 안전하게 투자금을 회수할 수 있다. ━미래 성장성으로 투자금 조달하는 방법━(서울=뉴스1) 임세영 기자 = 한덕수 국무총리가 17일 오전 서울 강남구 코엑스에서 열린 투자애로·규제개선·벤처·스타트업 현장 간담회에서 모두발언을 하고 있다. 2022.6.17/뉴스1   RCPS는 스타트업 입장에서도 현재 실적보다 미래 성장성을 어필해 자금을 조달할 수 있고 보통주에 비해 적은 수의 RCPS 발행으로 원하는 규모의 투자를 유치할 수 있어 지분희석 정도가 낮으며, 기업가치를 더 크게 만들 수 있다는 장점이 있다. 다만 비상장기업이 주로 적용하는 한국회계기준(K-GAAP)에 따르면 RCPS가 '자본'으로 인식되는 반면, 국제회계기준(K-IFRS)에서는 기업의 상환의무, 전환 조건 등을 고려해 '부채'로 인식된다는 점은 명심해야 한다. RCPS는 전환권이 행사되면 보통주로 전환된다는 점에서 자본의 성격을 갖는 동시에, 상환권을 행사하면 기업이 상환을 해야하는 의무가 생겨 부채의 특성도 갖고 있다는 얘기다. 국내 모든 상장기업은 K-IFRS를 적용하도록 규정돼있기 때문에 기업공개(IPO)를 예정하고 있는 비상장기업이라면 기존에 작성해오던 재무제표를 K-IFRS로 전환하는 작업이 필요하다. 일례로 투자유치 과정에서 RCPS를 활용해왔던 마켓컬리(컬리)는 IPO 추진을 위해 지난해 말까지 RCPS를 전량 보통주로 전환한 바 있다. 이를 통해 자본총계를 급격히 늘리며 자본잠식 이슈를 해소했다. ━RCPS에 좌초 위기 겪을 뻔한 '토스뱅크'━윤창호 금융위원회 금융산업국장이 16일 오전 서울 종로구 정부서울청사에서 인터넷전문은행 신규인가 심사 결과를 발표하고 있다. /사진=강민석 기자 msphoto94@특히 RCPS는 자기자본 요건이 엄격한 금융업과 같은 산업에 진입하려고 할 때는 장애물로 작용할 수 있다. 실제로 토스(비바리퍼블리카)의 경우 RCPS로 인해 사업에 좌초 위기를 겪을 뻔했다. 토스는 2019년 3월 인터넷 전문은행 예비인가를 신청했을 당시 자본금의 75%가 RCPS로 구성돼 자본 안정성이 떨어진다는 이유로 예비인가에서 탈락했다. 투자사가 상환을 요청하면 원금을 돌려줘야 하므로 실질적인 자본으로 볼 수 없다는 게 금융당국의 판단이었다. 이에 토스는 주주사들을 설득해 RCPS에서 상환권(R)을 떼어낸 전환우선주(CPS)로 전량 전환했다. 금융당국이 지적한 자본 안전성 문제를 해소하면서 인터넷 전문은행 인가를 받아냈고 '토스뱅크'가 출범할 수 있었다. 핀테크 스타트업 관계자는 "토스처럼 주주 전원이 기존 투자계약을 변경하는 것은 매우 드문 사례"라며 "금융업 등 엄격한 규제산업에서 활동하려는 스타트업은 부채 성격을 갖는 RCPS 투자 방식에 유의해야 한다"고 했다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.09.04.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>카카오뱅크 주가 상장 후 -70% 폭락…영욕의 1년</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003041543?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>그야말로 영욕의 1년이었다. 카카오뱅크는 지난해 8월 주식시장 데뷔와 동시에 은행주 대장주에 등극하면서 영예를 누렸지만 이후 주가가 고점 대비 70% 이상 폭락하는 아픔을 겪었다.지난 2일 카뱅 주식 종가는 2만5850원으로 역대 최저를 기록했다. 종가 기준 최고점인 지난해 8월 19일 9만2000원에 비하면 약 72%나 하락했다.상장 초반 분위기는 좋았다. 카카오뱅크는 상장 첫날(2021년 8월 6일) 따상(시초가가 공모가 2배로 시작해 상한가 기록)에는 실패했지만 공모가 3만9000원 대비 178.9%나 주가가 뛰어오르며 당시 KB금융지주, 신한지주보다 높은 시가총액을 기록했다. 절정에 이를 땐 시총 순위 톱 10에 들기도 했다.하지만 기쁨도 잠시, 주가가 속절없이 떨어져 이제는 공모가에도 한참 못 미치는 수준에 이르렀다.주가 폭락 배경엔 글로벌 경기 침체로 인한 하락장과 성장주에 대한 과도한 기대가 꺾인 점이 있지만 잇따르는 블록딜과 오버행(잠재적 대기 물량) 우려, 같은 카카오 계열사인 카카오페이 경영진의 스톡옵션 처분, 전통 은행과 별반 다를 바 없는 수익 구조, 카카오톡 송금 금지 이슈까지 악재에 악재가 쌓이는 악순환의 고리가 이어졌다.우선 주요 주주들이 카뱅 주식을 매도하고 있다. 상장 직후인 지난해 9월 우정사업본부가 1조원 규모 주식을 블록딜했고, 지난달에도 KB국민은행이 카뱅 주식 1476만주를 주당 2만8704원에 블록딜 매각했다. 시장에선 주요 주주들이 회사의 성장성에 의문을 제기하는 게 아니냐는 의구심을 보내고 있다.새로운 경쟁자 등장도 카뱅 주가 하락을 부추겼다. 지난해 10월 5일 토스뱅크 공식 출범일에 카뱅 주가는 하루 새 8.4% 하락했다. 인터넷전문은행은 카뱅, 토스뱅크뿐 아니라 케이뱅크까지 3개사가 있다.카카오페이 경영진이 스톡옵션을 행사해 주식을 팔아치운 것도 카뱅 주가 하락에 영향을 미쳤다. 지난해 12월 벌어진 이 '먹튀' 사건으로 카뱅은 1개월 넘게 하락세를 면치 못했다. 또 상장 직후 임원 5명이 주식을 대량 매도한 사실도 뒤늦게 드러나면서 후폭풍을 맞았다.카뱅이 기존 은행과 차별화 포인트로 강조했던 수익 다각화도 공허한 메아리로 치부되고 있다. 카뱅 실적 발표 자료에 따르면 올 상반기 번 영업수익 중 플랫폼 수수료 수익은 5.8%에 불과했다. 나머지는 기존 은행처럼 이자수익 등으로 벌었다.최근엔 전자금융업법이 개정되면 카카오톡 송금과 유사한 청소년 대상 금융서비스 '카카오 미니'가 금지될 수 있다는 소식에 주가가 급락했다.은행주 평가 기준으로 삼는 주가순자산배율(PBR)도 곤두박칠쳤다. PBR는 주가 대비 순자산가치로 숫자가 클수록 고평가임을 뜻한다. 상장 당시 인정받은 카뱅 PBR는 3.7배였는데 현재는 2.5배 수준까지 하락했다.증권가에선 카뱅에 대한 부정적 시각을 계속 언급하고 있다. 주가가 70% 이상 떨어졌는데도 여전히 고평가돼 있다는 분석도 나온다. 김도하 한화투자증권 연구원은 “금산분리 완화가 진행되면서 신규 사업으로 영역을 확장한다면 투자 매력이 제고될 수 있지만 아직 예정된 바는 없다”며 투자 판단을 유보했다.[표]카카오뱅크 주가 추이</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>지난 2분기 은행 BIS 자본비율 15.29%…전분기비 0.23%p↓</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000696192?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>KB·하나·신한·우리은행 등 보통주자본비율 하락지난 2분기 국내 은행의 국제결제은행(BIS) 자본비율은 전분기 대비 소폭 하락했지만, 모든 은행이 규제비율을 상회하는 등 자본적정성은 양호한 것으로 나타났다.금융감독원이 7일 발표한 '2022년 6월 말 은행지주회사·은행 BIS기준 자본비율 현황(잠정)'에 따르면 지난 2분기 말 국내 은행의 총자본비율은 15.29%로 전분기 대비 0.23%p 하락했다. 총자본비율이 높을수록 건전성이 좋다는 의미다.지난 2분기 기준 국내 은행의 BIS 총자본비율은 15.29%로 나타났다. 사진은 금융감독원 사옥 전경. [사진=아이뉴스24 DB]보통주자본비율과 기본자본비율도 전분기보다 각각 0.29%p, 0.28%p 떨어졌다. 기업대출 증가 등으로 위험가중자산이 증가했으나, 채권평가손실로 인한 자본(기타포괄손익누계액) 감소로 자산증가율(2.4%)이 자본 증가율(0.9%)을 넘어선 영향이다.지난 6월 말 기준 모든 국내 은행이 규제비율을 상회했다. 규제비율은 보통주자본 7.0%, 기본자본 8.5%, 총자본 10.5%, 단순기본자본비율 3.0%(은행지주는 미도입)이다. 다만 토스뱅크의 경우 내년까지는 바젤Ⅰ 적용으로 완충자본·단순기본자본비율 규제가 미적용된다.자난 6월 말 기준 국내 은행의 자본비율은 전분기 말 대비 하락했으나, 모든 은행의 자본비율은 규제비율을 상회하는 것으로 나타났다. 사진은 국내은행의 자본비율 현황. [사진=금융감독원]내부등급법을 승인받은 JB금융지주는 위험가중자산 규모가 감소해 보통주자본비율이 전분기말 대비 큰 폭 상승했다. 위험가중자산 증가율이 보통주자본 증가율을 상회한 13개 은행(케이·SC·농협·KB·하나·수출입·신한·DGB·우리·수협·씨티·기업·BNK)은 보통주자본비율이 하락했다.금감원 관계자는 "대내외 경제 충격에도 은행이 건전성을 유지해 본연의 자금중개기능을 충실히 수행하도록 은행의 손실흡수능력 확충을 지속적으로 유도할 예정"이라며 "이를 위해 은행의 자본비율 관리 강화를 지도하고, 자본비율이 취약한 은행에 대해 필요시 증자 등 자본 확충을 유도하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.09.01.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>[단독] '알짜' 롯데카드 인수전 스타트…7일 예비입찰</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004094479?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>우리금융·KT·하나금융 3파전 거론카뱅·토스 등도 다크호스로 꼽혀실적 급등 속 업계 4위 부상해 관심 ↑조좌진(왼쪽) 롯데카드 대표가 2020년 5월 18일 서울 중구 콘코디언 빌딩에서 MBK파트너스 관계자 등 내빈을 상대로 사옥 이전에 대해 설명하고 있다. 사진 제공=롯데카드[서울경제] 실적 급등세에 카드 업계 4위로 올라선 롯데카드가 7일 예비입찰을 시작으로 경영권 매각 절차를 본격화한다. 롯데카드 2대 주주인 우리금융의 참여 여부가 관심을 모으는 가운데 KT(030200)그룹과 카드 사업을 강화하려는 하나금융지주(086790) 등이 1차 인수 후보 그룹으로 거론되고 있다.1일 투자은행(IB) 업계에 따르면 롯데카드 지분 60%를 보유한 사모펀드(PEF) 운용사인 MBK파트너스와 매각주관사인 JP모건은 7일 롯데카드 매각 예비입찰을 실시한다. 매각 예상가는 MBK파트너스 보유 지분에 경영권을 포함해 2조 원 안팎이 거론된다. 우리금융이 롯데카드 인수를 포기하고 보유 지분(20%)을 내놓을 경우 인수가는 2조 4000억 원 이상으로 높아질 수 있다.금융 및 투자 업계는 롯데카드 인수에 유력한 후보로 계속 거론된 우리금융그룹의 참여 여부에 일단 주목하고 있다. 우리은행은 2019년 MBK파트너스와 컨소시엄을 이뤄 롯데카드를 인수하며 지분 20%를 확보했다. 우리은행은 공개입찰 전 롯데카드 인수를 우선 검토할 수 있는 권한도 갖고 있다.다만 우리금융은 증권업 진출을 우선순위에 놓고 있어서 롯데카드 인수전 참여에 신중한 입장이다. 우리금융은 대출 자산 급증으로 자본적정성 지표가 떨어지면서 빅딜을 한꺼번에 추진하기는 쉽지 않은 상황이다. 우리금융의 2분기 기준 BIS비율은 14.2%로 지난해 4분기(15.1%) 이후 2분기 연속 떨어져 4대 금융지주 중 가장 낮다. 이 때문에 우리금융그룹 안팎에서는 차라리 롯데카드 매각 과정에서 보유 지분을 함께 팔고 증권사 인수에 집중할 것이라는 관측이 적지 않다.우리금융에 이어 롯데카드 인수를 저울질하는 곳은 BC카드를 자회사로 두고 있는 KT와 2019년 롯데카드 인수전에 참여했던 하나금융지주가 꼽힌다. KT와 하나금융 모두 롯데카드를 인수하면 계열 카드 사업의 경쟁력을 강화하는 데 확실한 발판이 될 수 있다.시장에서는 또 신용카드업 진출 계획을 밝힌 빅테크 기업도 예의 주시하고 있다. 카카오뱅크(323410)와 토스뱅크는 신용카드 사업 진출 의사를 밝힌 바 있다. 현재 포화 상태인 카드 시장에서 사업 진출을 위해 금융당국으로부터 신규 라이선스를 따기보다는 기존 기업을 인수하는 편이 현실적일 수 있다.롯데카드는 최근 실적 개선세가 뚜렷해 올해 상반기에는 9년 만에 업계 4위 현대카드를 제쳤다. 롯데카드는 MBK파트너스가 인수한 2019년 순이익이 694억 원에 그쳤지만 지난해에는 2224억 원에 달했다. 올 상반기까지 순이익은 1772억 원으로 전년 동기보다 63.2% 급증했다. 우리은행과 함께 2대 주주로 있는 롯데쇼핑(023530)을 통해 다양한 사업 시너지를 기대할 수 있는 것도 강점 중 하나다. 롯데그룹은 이번 롯데카드 매각 과정에서 보유 지분을 팔지 않는 것으로 가닥을 잡은 것으로 전해졌다.IB 업계의 한 관계자는 “롯데카드가 단기 차입 위주로 자본을 조달해 재무 부담이 커졌지만 실적 상승세는 단연 업계 최고 수준”이라며 “금융그룹이 인수하면 다양한 시너지를 낼 수 있어 최근 기업 인수합병(M&amp;A) 시장 침체에도 상당한 관심을 모을 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>행안부, 네이버·카카오·삼성전자 등과 공공지능 정책 방향 모색</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005316803?sid=100</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>16일 공공분야 지능형 서비스 참여기업 간담회 개최디지털플랫폼정부 구현에 민간 역할 및 참여 확대[이데일리 양희동 기자] 행정안전부는 16일 디지털플랫폼정부 구현과정에 민간의 역할 및 참여 확대를 위해 민·관 공공지능 정책 기업간담회를 개최한다고 15일 밝혔다. 이번 간담회는 공공분야 지능형 서비스에 참여하고 있는 플랫폼, 은행·카드·보험, 통신 기업 등이 한자리에 모여 공공지능 정책 발전 방향을 함께 논의한다. 또 공공분야 지능형 서비스에 대한 각종 아이디어를 제시할 수 있도록 민·관 협력의 장으로 마련됐다. 참여기업은 네이버와 카카오, 비바리퍼블리카, 엔에이치엔(NHN)페이코, 케이비(KB)국민은행, 엔에이치(NH)농협은행, 신한카드, 교보생명, 케이티(KT), 에스케이(SK)텔레콤, 엘지유플러스(LG U+), 삼성전자, 야놀자 등이다.행안부는 4차 산업혁명 시대를 맞아 그동안 공공서비스에 인공지능, 블록체인 등의 디지털 신기술을 접목한 디지털정부 고도화 사업을 추진해 왔다. 특히 코로나19 위기 극복과정에서의 사회적 변화와 디지털 대전환 시대의 신규 수요 등을 반영, 각종 지능형 서비스를 제공해 국민 편익을 높여 왔다는 설명이다.공공분야 지능형 서비스의 주요 사례를 살펴보면 국민비서, 공공 마이데이터, 전자증명서, 모바일 신분증 등의 서비스가 있다. 국민비서 서비스는 네이버·카카오톡 등 민간앱 등을 통해 국민에게 필요한 각종 생활정보 알림서비스를 제공하고 있으다.공공 마이데이터 서비스는 행정·공공기관과 은행·카드·보험·증권사 등 76개 금융기관 등이 서로 연계돼 주민등록등본, 건강보험자격득실확인서 등의 구비서류 간소화 서비스를 제공하고 있다. 공공 마이데이터 서비스를 통해 현재까지 1억 8000만 건의 구비서류 제출이 간소화됐다. 또 종이 증명서를 대신해 각종 민원 증명서를 블록체인 기술이 적용된 전자문서지갑을 통해 본인의 스마트폰으로 쉽게 발급받을 수 있다. 이 전자증명서는 정부24 등 정부 앱 외에, 네이버앱, 카카오톡, 토스앱, 이니셜 등 18개 민간 모바일앱에서 발급받거나 제출할 수 있다.모바일 신분증은 지난 7월부터 전국 모든 운전면허시험장과 경찰서에서 모바일 운전면허증 발급을 시작, 플라스틱 운전면허증을 블록체인 기술이 적용된 개인 스마트폰에 저장 후 안전하게 활용할 수 있다. 행안부는 공공서비스와 민간서비스 간 연계를 확대하고 공공서비스를 민간에 보다 확대 개방, 이러한 추진과정에서 민간 기업의 다양한 의견과 아이디어를 수렴해 나갈 계획이다.서보람 행안부 디지털정부국장은 “이번 기업간담회를 계기로 공공분야 지능형 서비스 제공과정에서의 정부와 민간 간 협업체계를 강화해 나가겠다”며 “민간의 우수한 서비스와 기술력을 접목하여 디지털플랫폼정부 구현의 가시적 성과를 이루어 나가도록 추진하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>'3조 몸값' 롯데카드 인수 유력후보는 누구?…관건은 매각가</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000301873?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>[앵커]수출은 크게 흔들렸지만 소비는 그렇지 않습니다.거리두기 해제 등으로 국내 활동도 늘고 소비도 늘었는데, 여기에서 돈을 번 곳이 카드사입니다.이 시기를 기다려왔다는 듯 매물로 나온 롯데카드 인수전의 본격적인 막이 올랐습니다.관건은 3조 원까지도 거론되고 있는 매각가격이 될 것으로 보이는데, 어떤 인수 후보가 있는지 알아보겠습니다.이한승 기자, 롯데카드가 매물로 나왔다는 건 사실 오래된 소식인데, 상황이 어떻게 달라진 건가요?[기자]롯데카드의 대주주인 사모펀드 운용사 MBK파트너스와 매각주관사인 JP모간은 롯데카드 매각 예비입찰을 시작했습니다.롯데카드에 관심있는 기업들이 인수의향서를 내게 될 텐데요.롯데카드는 올해 상반기 당기순이익 측면에서 현대카드를 앞지르면서 업계 4위까지 올라왔고, 이에 힘입어 매각가격으로는 3조 원이 거론되고 있습니다.[앵커]거론되는 인수후보들, 어디인가요?[기자]공개 입찰 전에는 롯데카드 지분 20%를 가진 우리은행에 인수를 우선 검토할 권한이 있었는데요.우리금융이 카드사보다는 증권사 매물을 더 급하게 찾고있어 우리금융이 인수전에 뛰어들 가능성은 낮아보입니다.다른 후보들 중에서는 KT와 토스 등이 거론되고 있는데요.KT는 BC카드를 자회사로 두고 있죠.BC카드의 결제망을 이용하던 금융사들이 자체망 구축에 나서면서 BC카드도 카드업 경쟁력을 키워야 한다는 점이 KT를 후보군에 올려놓고 있습니다.토스는 토스뱅크가 신용카드업 직접 진출을 공식화한 바 있어 유력 후보로 꼽히고 있는데요.토스뱅크가 지금은 본업인 은행업에 집중할 때라며 도전 의사에 대해서는 선을 그었지만, 여전한 유력 후보로 언급되고 있습니다.하지만 결국은 롯데카드가 3조원이라는 몸값을 주고 살만한 가치가 있는지 여부가 인수전의 관건이 될 전망입니다.SBS Biz 이한승입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.09.07.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>토스 자회사된 타다, 하반기 테크 직군 '경력직' 공개 채용</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005312240?sid=105</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>지난해 쏘카 자회사에서 토스가 인수..토스, 지분 60% 확보개발, 데이터, 프로덕트 오너(PO) 분야 9개 포지션 경력자 두자릿수 규모 채용9월 말까지 타다 홈페이지에서 간편 지원 시스템 통해 접수 받아[이데일리 김현아 기자] 모빌리티 플랫폼 타다(대표 이정행)가 테크 직군 경력직 인재 공개 채용을 진행한다.타다는 지난해 토스를 운영하는 비바리퍼블리카가 쏘카가 가진 타다 운영사 VCNC의 지분 60%를 인수해 토스 자회사가 됐다. 타다의 테크 직군 모집 부문은 ▲안드로이드 개발자 ▲iOS개발자 ▲서버 개발자 ▲프론트엔드 개발자 ▲인터널 개발자 ▲데이터 엔지니어 ▲데이터 사이언티스트 ▲데이터 분석가 ▲프로덕트 오너(PO) 등 9개 분야다.채용 인원은 총 두 자릿수 규모다. 유관 경력자라면 누구나 지원할 수 있다. 지원은 9월 말까지 타다 홈페이지 내 ‘타다팀 채용’ 페이지 또는 노션 페이지를 통해 접수 가능하다.타다 채용 페이지에서 ‘이력서 없이 간편 지원하기’에 접속하면 이름, 연락처, 지원 희망 포지션 등의 기본 정보를 비롯해 현재 직무나 경력 연차 같은 주요 경력 사항을 바로 기재하는 방식으로 쉽고 간편하게 지원할 수 있다.면접은 서류 검토 합격자를 대상으로 진행된다. 개발 및 데이터 직군의 경우, 1차 전화 인터뷰와 코딩테스트를 포함한 2차 기술 인터뷰, 3차 컬처핏 인터뷰 순서로 구성된다. 프로덕트 오너 직군의 면접은 1차 역량 인터뷰와 2차 컬처핏 인터뷰 순서로 진행된다.김남현 타다 최고기술책임자(CTO)는 “타다는 IT기술로 도로 위에서 발생하는 모든 스트레스를 없애고 이동의 경험을 온전히 개인의 것으로 만들어 주기 위한 혁신의 여정을 이어가고 있다”며, “이동의 문제를 해결하기 위해 진심을 가지고 몰입하실 수 있는 분이라면 이번 채용에 꼭 지원해주시길 바란다”고 말했다.한편, 타다는 작년 11월 말 5~7인승 승합차 기반의 모빌리티 서비스 ‘타다 넥스트’를 처음으로 선보인 후 현재까지 50만 명 이상의 신규 가입자를 유치해 250만 명에 달하는 누적 가입자를 확보했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.09.15.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>"하루만 맡겨도 이자가 2%대라고?"...파킹통장도 후끈</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005147495?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>자유 수시입출금 상품인 '파킹통장'의 금리 인상 경쟁에 인터넷전문은행들이 참전했다. 토스뱅크가 지난해 연 2% 금리의 수시입출금 통장을 출시했을 때만 해도 파격이란 평을 들었지만, 이젠 2%대 파킹통장도 보편화되는 모양새다.15일 금융권에 따르면 인터넷전문은행 3사(카카오·케이·토스뱅크)의 파킹통장은 2~2.3%대 금리를 제공하고 있다.케이뱅크는 지난 14일 수시로 돈을 넣고 뺄 수 있는 파킹통장 '플러스박스'의 금리를 2.3%로 인상하면서 인터넷전문은행 중 최고라는 수식어를 얻었다. 하루만 맡겨도 연 2.3%의 금리 이자가 적용되고, 매월 넷째 주 토요일에 쌓인 이자를 받을 수 있다. 최대한도는 3억원이다. 케이뱅크는 지난 7월 0.8%포인트 금리 인상에 이어 이번에도 0.2%포인트를 인상하면서 2개월 만에 파킹통장의 금리를 1%포인트나 올렸다.카카오뱅크도 앞서 지난 8일 파킹통장 '세이프박스'의 기본금리를 기존 2%에서 연 2.2%로 0.2%포인트 올리면서 승부수를 던졌다. 세이프박스는 계좌 속 금고 개념으로 여유 자금을 따로 분리해서 관리할 수 있는 상품이다. 세이프박스 1개의 최대 보관 한도는 1억원이다.2%대 파킹통장의 시대를 열었던 토스뱅크는 3사 중에서는 이날 기준 가장 낮은 금리를 제공하면서 다소 난감해진 상황이다. 출범 당시인 지난해 10월부터 연 2%의 수시입출금 통장을 제공해왔다. 토스뱅크 관계자는 금리 인상 계획과 관련해서는 "지난해 기준금리가 낮을 때부터 선제적으로 2% 금리를 선보였다"며 "시장 상황을 보면서 검토 중이다"고 말했다.인터넷전문은행들이 파킹통장 경쟁을 벌이는 것은 이용자를 묶어두는 락인효과도 상당하기 때문으로 풀이된다. 케이뱅크의 경우 지난 7월 파킹통장의 금리 인상 초반에, 가입자 수가 일평균 10배 증가했다. 7월14일 금리인상 전 대비 8월말에 플러스박스의 가입자 수가 15% 이상 늘었고, 전체 예치 금액도 2배 이상 증가했다. 카카오뱅크도 금리 인상 후 수신 잔액이 5000억원 이상 늘었다.한편 저축은행에서는 이미 3%대의 파킹통장 상품도 속속 나오고 있다. OK저축은행은 최고 연 3.3% 금리를 제공하는 입출금통장 'OK세컨드통장'을 출시했다. 다만 이 상품은 1000만원 초과분에 대해서는 최고 연 1%가 적용된다. 앞서 페퍼저축은행도 최고 연 3.2% 금리의 '페퍼스 파킹통장'을 내놨다. 시중은행에서는 KDB산업은행의 'KDB Hi 비대면 입출금통장', SC제일은행 '제일EZ통장'이 각각 최고 연 2.25%, 2.5%의 금리를 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.09.09.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>저축은행, 금융사고 예방과 보안기능 강화된 서비스 눈길</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004896404?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]   3년 만에 거리두기 없는 첫 명절을 맞아 기차역과 터미널이 붐비는 등 모처럼 들뜬 분위기다. 이 같은 상황 속에서 저축은행들은 명절 특수를 노린 보이스 피싱 등 혹시 모를 금융사기 예방에 만전을 기하면서 고객을 위한 안전하고 더욱 다양한 금융 서비스를 제공하기 위해 노력 중이다.   ■  연휴에도 고객 자산 ‘안전 지킴이’ JT저축은행은 보이스피싱 금융 범죄 예방을 통해 고객의 자산을 보호하고 이 같은 공로를 인정받아 금융감독원으로부터 감사장을 수여한데 이어, 고객의 이상 거래 징후를 포착해 금융 범죄 피해를 사전에 예방한 바 있다. 또 1사1교 금융교육을 통해 자매결연을 맺은 경기 분당경영고 학생들을 대상으로 다양한 보이스피싱 사례 소개와 대처 방법을 교육했다. 페퍼저축은행은 홈페이지 고객센터의 금융사기주의 안내 게시글을 통해 금융사기 관련제도, 주의 사항 등을 안내하고 있으며, 웰컴저축은행과 OK저축은행은 고령자 개인정보 탈취 후 명의도용 대출 실행 등 고령자 대상 최신 보이스피싱 사례와 예방법 등 고령층의 금융사기 예방을 위한 금융교육을 진행했다.   ■  모바일 고객 서비스 안전성 강화 앱 고도화 등을 통해 금융사기 예방에 나서는 저축은행도 있다. 웰컴저축은행은 한국인터넷진흥원으로부터 정보보호관리체계(ISMS) 인증을 받고 인공지능 기반 악성앱 탐지 기술을 모바일 앱에 도입해 불법 악성앱의 피해로부터 고객을 보호하고 있다. SBI저축은행은 안심이체서비스를 통해 송금 받는 계좌 명의자와 휴대전화 번호 명의자가 동일인인지 검증하고, 문자 인증 코드를 이용해 받는 사람의 거래 의사를 확인한 후 송금하는 서비스를 제공 중이다. 모아저축은행은 인공지능을 기반으로 출처가 불분명한 앱, 가짜 앱, 변조된 앱을 차단하는 보이스피싱 앱 탐지 솔루션 ‘페이크파인더’를 도입해 금융사고를 예방 중이다. 저축은행중앙회는 금융감독원과 소비자피해 예방을 위해 79개 저축은행 보이스피싱 업무담당자를 대상으로 온라인 교육을 진행하고 악성앱 탐지 서비스 도입 및 이상금융거래 탐지 시스템 (FDS) 고도화 등도 추진 중이다.   ■  간편해진 저축은행 고향을 찾지 못해 가족에게 용돈으로 마음을 전하고 싶다면, 저축은행중앙회와 연계한 핀테크 간편 송금 서비스를 이용할 수 있다. 네이버페이, 토스, 카카오페이, 페이코와 제휴해 간편결제·송금 서비스를 이용할 수 있다. 급하게 현금 인출이 필요한데 수수료가 걱정이라면 GS25 편의점을 찾으면 된다. 저축은행 체크카드 또는 현금카드가 있는 고객은 GS25 편의점 내 효성티엔에스 ATM(자동현금입출금기) 및 CD(현금출납기) 기기에서 24시간 무료로 출금 서비스를 이용할 수 있다. 저축은행 ‘SB팝 체크카드’를 보유한 고객은 출금 수수료 면제 외에도 다양한 혜택을 제공받을 수 있다.   ■  24시간 저축은행 서비스 이용 가능 저축은행 고객이라면 연휴에도 모바일 앱을 통해 저축은행의 서비스를 이용할 수 있다. JT저축은행의 모바일앱 ‘JT저축은행’은 자동심사 프로세스를 기반으로 대출 상품 조회부터 즉시 심사 유무를 확인해 자금 송금 등 전반적인 여신 서비스를 이용할 수 있다. 이외에도 SBI저축은행의 ‘사이다뱅크’, 웰컴저축은행의 ‘웰컴디지털뱅크’, JT친애저축은행의 ‘JT친애모바일뱅킹’ 상상인계열저축은행의 뱅뱅뱅,크크크등 다양한 저축은행이 자사 모바일 앱을 통해 비대면 서비스를 지원하고 있다.   챗봇 상담 서비스를 통해서도 지점 안내, 증명서 발급 절차부터 대출 상품 안내까지 다양한 정보를 24시간 제공받을 수 있다. JT친애저축은행은 지난 2017년 모바일 메신저인 카카오톡을 통한 ‘24시간 모바일 상담 서비스’를 선제적으로 도입해 운영 중이다. 이외에도 웰컴저축은행이 ‘웰컴봇’, SBI저축은행 ‘바빌론챗봇’, '사이다뱅크챗봇', OK저축은행 '오키톡', 진주저축은행 ‘여신봇’ 등 다양한 챗봇 서비스를 운영하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.09.13.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>'알뜰 소비 대명사' 체크카드는 어쩌다 외면받게 됐을까 [서정은 기자의 나·알·아]</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002039715?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>빅테크 간편결제에 밀리고은행 영업점에서 안밀어주고고객들은 “쓰고 싶어도 돈이 없다”체크카드 하락세 막기 어려워[헤럴드경제=서정은 기자] ‘알뜰소비’의 대명사 체크카드가 점차 내리막길을 걷고 있다. 표면적인 이유로는 빅테크의 간편결제 공습이 대표적으로 꼽힌다. 하지만 속내를 들여다보면 카드사 내에서의 외면, 은행 영업점에서의 디마케팅, 고객들의 구매력 저하 등이 복합적으로 맞물려 있다.13일 여신금융협회에 따르면 올 6월 말 기준 체크카드 누적 발급량은 1억540만장을 기록했다. 발급량은 작년 3분기 1억7190만장 이후 지속적으로 줄어드는 추세다.통장 잔고 범위 안에서 쓸 수 있는 체크카드는 약 10년전만 해도 각광을 받았다. 정부 또한 과소비와 가계 빚을 억제하기 위해 서민경제 안정화 방안의 일환으로 체크카드 활성화를 추진해왔었다. 하지만 최근 몇 년 사이 주요 카드사들은 신규 발급을 줄이는 중이는 등 체크카드는 카드사내에서도 계륵 신세가 되고 있다.체크카드의 부진은 간편결제 상승과 궤를 같이한다. 윤창현 국민의힘 의원이 금융감독원으로부터 받은 자료에 따르면 지난해 네이버파이낸셜, 카카오페이, 토스 등 3개사에서 결제된 금액(선불전자지급수단·계좌이체도 합산)은 63조원을 넘어섰다. 1년 전 42조원 수준이던 것에 비해 50% 가까이 폭증한 것이다. 비대면 금융 확산, 편의성 등이 MZ세대를 중심으로 체크카드에서 간편결제로 이동시켰다는 얘기다.빅테크 관계자는 “카드사들이 대형 가맹점 위주로 혜택을 주는 것과 달리 간편 결제사들은 중소가맹점에서 소비혜택을 주지 않느냐”며 “소비자가 부담하는 비용이 없다는 측면에서도 혜택에 대한 소비자들의 체감도와 만족도가 간편결제가 높다”고 설명했다.하지만 체크카드가 외면받는 이유를 간편결제의 활성화 때문이라고 보기에는 너무 단순하다. 우선 카드사 입장에서 보면 체크카드는 신용카드에 비해 판매 유인이 적다. 현금서비스, 카드론, 리볼빙 등 추가적인 이자 수익을 낼 수 있는 신용카드와 달리 체크카드는 사업성이 현저히 떨어진다. 연회비도 없어 고객들의 충성도도 낮다. 가맹점 수수료율 또한 체크카드가 신용카드보다 낮다보니 주요 사업 포트폴리오에서 제외된 실정이다.자연스럽게 체크카드 판매처 중 하나인 은행권들의 외면도 이어지고 있다. 은행권 관계자는 “은행 성과평가지표(KPI) 내에서 신용카드는 30~40포인트를 주는데, 체크카드는 10포인트 안팎으로 기여도를 아주 낮게 책정한다”며 “당국에서도 체크카드 육성에 대한 의지가 없어보이고, 우리들 또한 수수료 측면에서 밀어줄 필요가 없어 KPI에서도 외면받는 상황”이라고 말했다.본질적으로는 알뜰 소비를 하고 싶어도 할 수 없는 상황이 체크카드를 외면하게 한다는 의견도 있다. 인터넷 사이트에서 체크카드를 못쓰는 이유로 ‘통장잔고 없음→신용카드 씀→월급 감소→지난달 신용카드 대금 인출됨’ 그래프가 ‘밈(meme)’처럼 돌아다니는 이유도 여기에 있다. 빅테크 업권과의 ‘기울어진 운동장’ 문제를 빼고서라도 소비력 저하라는 본질적 문제를 깨기 어렵다는 얘기다. 체크카드의 몰락이 불가피한 이유도 여기에 있다.카드업계 관계자는 “기본적으로 사업하는 사람을 제외하고 월급받는 사람들 대다수는 체크카드를 쓰고 싶어도 (잔고에) 쓸 돈이 없다”며 “아무리 체크카드에서 소득공제 혜택을 준다고 할지라도 이 굴레를 깨기 어렵다면 당국에서 활성화 대책을 내놓아도 분위기가 바뀌긴 어려울 것”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>"대출 이자 낮춰주세요"…케이뱅크 고객 편 가장 많이 들었다</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002267435?sid=105</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>10명 중 2명 금리 낮아져…인터넷전문은행 중 금리인하요구권 수용률 제일 높아인터넷전문은행 '케이뱅크'가 대출 고객을 대상으로 '착한 은행'으로 거듭나고 있다.은행연합회가 지난 8월 처음 공개한 금리인하요구권을 6일 살펴본 결과 3개 인터넷전문은행(케이뱅크·카카오뱅크·토스뱅크) 중 케이뱅크 금리인하요구권 수용률이 가장 높았다.금리인하요구권은 대출을 받은 차주가 경제 상황 등이 나아지거나 신용점수가 향상됐을 때 기존 계약한 대출 이자를 조정해달라고 은행에 요구하는 것이다. 금리인하요구권 수용률이 높다는 것은 그만큼 고객을 대상으로 금리 인하에 적극적이었다는 것을 의미한다.케이뱅크 사옥케이뱅크의 수용률은 24.6%로 카카오뱅크(19%), 토스뱅크(17.9%)다 높았다. 10명 중 2명 이상이 금리를 낮춘 셈이다.금리인하요구 수용으로 인한 이자감면액도 케이뱅크가 가장 많았다. 케이뱅크의 이자감면액 규모는 53억5천600만원으로 뒤를 이은 신한은행(47억100만원)보다 많았고, 카카오뱅크(29억1천300만원)와 토스뱅크(21억2천200만원)보다 컸다.케이뱅크는 모바일로 금리인하를 요청할 수 있게 만들었다.또 금리인하요구권에 대해 적극적으로 안내하고 있다. 대출고객을 대상으로 이메일 등을 통해 연 2회 안내하고, 연말마다 애플리케이션(앱) 푸시로 금리인하요구권에 대한 정보를 전달하고 있다.이 같은 방침으로 케이뱅크의 금리인하요구권 신청건수는 2020년 4만4천745건에서 2021년 13만211건으로 증가, 올 상반기에는 11만2천523건이 신청됐다.수용 건수도 크게 증가했다. 케이뱅크의 금리인하요구권 수용 건수는 작년 한 해 1만6천54건에서 올 상반기에만 2만7천661건을 수용해 불과 6개월만에 72% 증가했다.케이뱅크 관계자는 “지난 2월 고객군별 특성을 반영한 맞춤형 특화모형을 구축하고 머신러닝 기법을 적용해 보다 정교한 평가를 수행하도록 하는 등 신용평가모형(CSS)를 고도화한 결과”라며 “또 고객 입장에서는 신용점수 상승이나 자산 변화가 있을 때마다 비대면으로 편리하게 금리인하요구권을 신청하면서 이자감면의 혜택을 받은 것으로 분석된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.09.10.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>미지근한 롯데카드 인수전…3兆 매각가가 발목 잡나</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005145518?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>유력 후보군 다수 불참 업계 중상위권 카드사인 롯데카드 매각전이 초반 뜨뜻미지근 한 분위기가 지속되고 있다. 업계에선 3조원대로 알려진 매각가에 원매자들이 부담을 느낀 것이 아니냔 분석이 제기된다.10일 금융권에 따르면 MBK파트너스는 지난 7일 매각 주관사인 JP모건을 통해 롯데카드 경영권 매각 예비입찰을 실시했다. MBK파트너스는 지난 2019년 1조3810억원에 롯데카드 지분 59.83%를 인수, 최대 주주로 올라선 바 있다.이번 예비입찰엔 하나금융그룹이 도전장을 낸 것으로 전해진다. 하나금융은 3년 전 롯데카드 매각 전 당시에도 인수를 추진했다가 고배를 마신 바 있다. 하나금융이 롯데카드를 인수할 경우 개인회원 이용실적 기준 점유율은 약 13.9%(지난 1분기 기준)로 업계 단숨에 업계 선두권으로 도약할 수 있다.다만 하나금융 외 그간 거론되던 유력 금융지주회사, 빅테크들은 이번 입찰에 참여하지 않은 것으로 전해진다. 롯데카드 지분 20%를 들고 있어 최우선 후보군으로 꼽혔던 우리금융그룹은 그룹 포트폴리오 다각화를 위해 증권사 인수에 더 관심을 보인다. 신한·KB국민카드의 경우 이미 업계 선두권을 형성하고 있어 유인이 떨어진다. 이외 후보군으로 꼽힌 카카오뱅크·토스 등도 별다른 반응을 보이지 않은 것으로 알려졌다.롯데카드 인수전이 뜨뜻미지근 한 가장 큰 이유론 약 3조원대로 알려진 '가격'이 꼽힌다. 올 상반기 약 1700억원가량의 당기순이익을 내며 순이익 기준으론 업계 선두권에 자리했지만 3조원이란 매각가는 다소 부담스럽다는 것이다. 금융권 관계자는 "금리 인상의 여파로 인수합병(M&amp;A) 시장 자체가 얼어 붙은 데다 향후 경기침체 가능성이 높은 만큼 거액을 주고 인수하기엔 무리가 있을 것"이라고 전했다.롯데카드가 수익성 강화를 위해 부동산 프로젝트파이낸싱(PF) 등 고위험-고수익 자산에 집중하고 있는 점도 원매자들을 머뭇거리게 하고 있다. 금융감독원이 윤창현 국민의힘 의원실에 제출한 자료에 따르면 올 1분기 기준 롯데카드의 부동산 PF 대출잔액은 1조2477억원으로 전 카드업권 부동산 PF 대출액(1조4758억원)의 84%에 이른다. 물론 선순위 대출 비중이 80%에 이르는 등 급격한 부실화 가능성은 높지 않은 편이지만, 금융사로선 리스크를 받아 안기가 부담스러운 형국이다. 카드사 한 관계자는 "여전 업 전반이 조달 비용 상승으로 어려움을 겪고 있고, 특히 부동산 시장 부진으로 감독당국에서부터 부동산 PF 대출 부실화 우려가 나오고 있는 국면"이라면서 "여러 조건을 고려할 때 원매자로서 3조원이란 큰 금액을 베팅하기는 쉽지 않아 보인다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.09.06.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>주3일 출근·연 1.5% 대출… "이러니 핀테크·인뱅 몰리지"</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002752920?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>네이버 파이낸셜 파격 주3일근무입사 2년 후 유급휴가 15일 추가케뱅, 3일 자기계발·휴가비까지토뱅, 3년마다 1개월 유급휴가도핀테크 기업과 인터넷 전문은행의 인재 수요가 증가하는 가운데 다양한 복리후생 혜택이 차별화 요소가 됐다. 각사 제공    핀테크 기업과 인터넷 전문은행의 인재 모시기 경쟁이 치열하다. 금융권의 디지털 전환에 따라 인력 이동이 빈번한 상황에서 빅테크들이 복리후생으로 차별화를 시도하며 인재를 끌어들이고 있다는 평가다.전통적인 금융회사와 핀테크 회사를 가르는 가장 중요한 요소는 근무 형태의 유연성이다. 네이버 계열사인 네이버파이낸셜은 지난 7월부터 주 5일 원격근무를 하는 'R타입'과, 주 3일 이상 회사로 출근하는 'O타입' 두2가지 근무형태 중 하나를 고를 수 있는 '커넥티드워크' 제도를 시행 중이다. 또  최근엔 새로운 복지제도인 '워케이션'(work+vacation) 프로그램을 도입해 진행하고 있다. 다양한 편의시설 및 인프라가 마련된 춘천 연수원 커넥트원에서 직원들은 최대 4박 5일까지 몰입과 휴식을 취할 수 있다. 네이버파이낸셜은 앞으로 일본 도쿄 베이스캠프 등으로 워케이션 프로그램 지원 지역을 확대할 계획이다.기본 제공 연차와 별개로 누릴 수 있는 휴가 혜택도 남다르다. 네이버파이낸셜의 경우 입사 2년 이후부터 기본 연차 외 유급 휴가 15일을 추가로 제공한다. 인터넷 전문은행인 케이뱅크는 6개월 만근시 그 해에 3일의 자기계발 휴가를 별도로 갈 수 있다. 카카오뱅크는 만 3년 근속한 직원에게 한달간의 안식휴가를 제공한다. 안식휴가비로 200만원을 별도 지급한다. 토스뱅크도 근속 3년마다 1개월의 유급휴가를 지원한다. 생활에 필요한 대출이자 지원책도 눈에 띈다. 네이버파이낸셜의 경우 주택담보·전세자금·신용 대출 등 최대 2억원을 연 1.5% 의 저금리로 10년간 제공한다. 토스뱅크는 6개월 이상 재직한 팀원들에게 주택 전세·매매 자금을 공급한다. 1억원 한도에서 필요한 만큼 무이자 대출을 제공한다.이색 복리후생도 차별화 요소다. 네이버파이낸셜은 주식 매입 리워드 혜택을 준다. 6개월 이상 보유한 자사 주식에 대해 매입 금액의 10%(연간 200만원 한도)를 현금으로 지원한다. 토스뱅크는 사내 헤어살롱이 인기다. 커트, 간단한 펌, 모발·두피 클리닉 등 간단한 시술을 무료로 할 수 있다. 토스뱅크는 지인·친구·동료 중 인재를 추천할 경우 인재추천비 500만원을 제공한다.업계 관계자는 "MZ 세대의 경우 이직 과정에서 특히 연봉외에 복리후생이나 유연근무제 등을 많이 고려하고 있다"며 "젊은 전문가를 영입하기 위한 시도라고 볼 수 있다"고 말했다. 또 다른 관계자는 "핀테크나 인터넷 은행끼리도 인재 경쟁이 있다 보니 전통적인 금융사에선 찾아보기 드문 복지후생 제도를 운영하고 있는 것"이라면서 "특히 IT 관련 개발자를 채용할 때 이런 혜택을 강조하는 것 같다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.09.14.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>베트남서 새 ‘금맥’ 캐는 은행들… 현지 스타트업과도 맞손</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000840275?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>최근 베트남 시장이 국내 은행들의 새로운 ‘엘도라도’로 떠오르고 있다. 신한은행 등 일부 금융사들은 현지 법인 설립을 통한 전통적인 은행 업무에만 집중했던 과거와 달리, 정보기술(IT) 기업의 지분에 투자하거나 현지 스타트업과 협업하는 등 다양한 방식으로 활로를 개척하고 있다.국내 은행들 가운데 베트남 시장에 가장 적극적으로 투자하고 있는 곳은 신한은행이다. 지난 1993년 국내 금융사 최초로 베트남에 진출한 신한은행은 현지 외국계 은행 중 지난해 기준 총자산과 순이익에서 모두 1위를 차지했다.신한은행의 베트남 법인인 신한베트남은행의 올해 상반기 순이익은 862억원으로 전년 동기 대비 47.5% 늘었다. 신한은행의 전체 해외법인이 올해 거둔 상반기 순이익은 1928억원이었는데, 이 가운데 약 45%를 베트남 법인이 벌어 들인 것이다.신한베트남은행은 지난달 디지털 플랫폼을 기반으로 한 공급망금융(Supply Chain Financing) 전략상품 ‘매출채권 담보대출’을 출시했다. 이달에는 베트남에 진출한 기업을 대상으로 투자 유치와 외국환 신고, 현지 행정 업무와 금융 지원 등 토탈솔루션을 제공하기 위해 회계 법무 전문 법인 KNL과 업무협약을 맺기도 했다.신한금융그룹은 지난 8월 베트남 하노이에서 ‘신한퓨처스랩 하노이 개소식’과 ‘오픈이노베이션’ 행사를 진행했다. 사진 왼쪽에서 네번째부터 팜 홍 꾸엇 베트남 과기부 국장, 박노완 주베트남 대사, 조용병 신한금융그룹 회장, 쩐 반 똠 베트남 과기부 차관, 김명희 신한금융그룹 CDO 등 관계자들이 기념촬영을 하고 있다.        신한은행의 베트남 시장 공략은 최근 베트남 현지 기업에 대한 직접 투자와 스타트업 금융 지원 등 여러 방식으로 진화하고 있다.올해 베트남 이커머스 선도기업인 ‘티키(TIKI)’ 지분 10%를 인수한 데 이어, 지난 달에는 벤처 스타트업을 지원하는 엑셀러레이터 프로그램 ‘신한퓨처스랩’의 하노이 사무소를 열기도 했다. 이를 통해 베트남 과학기술부와 협력을 강화하고, 스타트업의 성장에 따른 고수익을 얻겠다는 게 신한은행의 전략이다.신한은행은 지금껏 국내 스타트업 11곳의 베트남 진출을 지원하는 한편 40곳의 베트남 현지 스타트업 육성에 나서고 있다.우리은행도 베트남에서의 투자를 공격적으로 확대하고 있다. 우리은행은 1997년 하노이지점을 개설하며 베트남에 진출해, 2017년 베트남우리은행 법인을 설립하고 베트남 전역으로 영업망을 확장했다.베트남우리은행이 하노이, 다낭, 호치민 등에 총 17곳으로 네트워크를 확대하면서 실적도 빠르게 개선되고 있다. 베트남우리은행의 올 상반기 순이익은 238억원으로 전년 동기 대비 128.5% 증가했다. 우리은행 관계자는 “최근에는 비대면 리테일 영업과 자산수탁사업, 투자은행(IB) 주선 등으로 업무 영역을 확장하고 있다”고 말했다.베트남우리은행 전경. /우리금융그룹        NH농협은행도 올 하반기 호치민지점 개설을 준비 중이다. 은행과 증권 등으로 영역을 넓히고 있는 핀테크 업체 토스는 2년 전 베트남에서 ‘만보기 앱’ 서비스를 출시하며 현재 300만명이 넘는 활성 사용자를 확보했다. 향후 송금, 계좌 개설, 소액 대출 등 서비스를 점차 확대하겠다는 게 토스의 계획이다.이 밖에 하나금융그룹은 계열 증권사인 하나증권을 통해 베트남 시장에서 영역을 넓히고 있다. 하나증권은 올해 베트남 증권사 BIDV증권의 지분 35%를 1420억원에 인수하며 2대 주주로 올라섰다. BIDV 증권은 베트남 국영은행인 베트남투자개발은행(BIDV)의 증권 자회사로, 지난해 주식 위탁 매매(브로커리지) 부문에서 시장 점유율 11위를 기록했다.국내 시중은행 관계자는 “베트남은 금융 시장이 아직 초기 성장 단계에 있고, 젊은 인구가 많아 잠재력이 큰 시장”이라며 “은행을 비롯한 금융사들의 베트남 투자가 빠르게 증가할 것”이라고 말했다. 코트라에 따르면 지난 2020년 기준 베트남 인구는 9750만명으로, 전체 국민 중 19세 이하가 29.9%, 20~39세가 32.5%의 비중을 차지했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.09.05.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>[주간투자동향] 케어링, 300억 원 규모의 시리즈A 투자 유치</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003449245?sid=105</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>바야흐로 스타트업 시대입니다. 2010년부터 시작한 국내 스타트업 열풍은 지난 10년 동안 급속도로 성장했습니다. 대한민국은 어느새 유니콘 기업 11개를 배출한 세계 5위 스타트업 강국으로 자리매김했는데요. 쿠팡, 우아한형제들, 야놀자, 블루홀 등 경쟁력을 갖춘 스타트업이 우리 실생활 속으로 파고들었고, 지금 이 순간에도 성공을 꿈꾸는 수많은 스타트업이 치열한 경쟁 속에서 도전하고 있습니다. 이에 IT동아가 이러한 국내 스타트업의 현장을 [주간투자동향]으로 정리해 제공합니다.케어링, 300억 원 규모의 시리즈A 투자 유치케어링이 300억 원 규모의 시리즈A 투자를 유치했다. 이번 투자는 LB인베스트먼트, SV인베스트먼트, DSC인베스트먼트, 코리아오메가투자금융, KB인베스트먼트, 아주IB투자, NH벤처투자, 교보증권, 아크임팩트, 현대투자파트너스, 퀀텀벤처스, HGI, JB인베스트먼트, 메인스트리트인베스트먼트, 베이스인베스트먼트 등이 참여했다. 지난 2021년, 케어링은 50억 원 규모의 프리-시리즈A 투자를 유치한 바 있다.지난 2019년 설립한 케어링은 요양 산업의 디지털 전환(Digital Transformation)을 추구하는 시니어 테크 기업으로, 지난 2021년 연매출 112억 원을 기록했다.출처: 케어링케어링은 이번 투자를 통해 커뮤니티케어(통합재가)까지 확장해 토탈 시니어 케어 플랫폼으로 발돋움할 계획이다. 커뮤니티케어는 돌봄을 필요로 하는 주민이 살던 곳에서 주거, 보건, 의료, 돌봄 등을 다양하게 제공하는 사회 서비스 정책을 의미한다. 구체적으로 지역 단위 방문요양 업체를 인수하고, 지역 거점 센터를 활용해 로컬 시니어 인프라를 확장해 요양 서비스 인프라의 가치사슬을 선점할 계획이다. 이를 위해 지난 8월 17일, ‘케어링 커뮤니티케어’ 센터를 자회사로 설립했다.통계청에 따르면, 오는 2025년 국내 전체 인구 중 20%는 고령인구로 접어드는 초고령사회에 진입할 것으로 예상된다. 시니어 산업의 총 시장규모는 지난 2020년 12조 원으로 집계됐으며, 케어링이 타겟하는 1차 시장인 방문요양 시장 규모는 동년 기준 4조 원 규모다. 정부는 높아지는 사회 통합돌봄 요구에 따라 지난 2019년 ‘커뮤니티케어’를 중요 정책과제로 설정한 바 있다.케어링 김태성 대표는 “케어링은 정부 정책에 맞게, 방문요양을 커뮤니티케어로 확장해 장기적으로 모든 수급자에게 생애주기별 요양 서비스를 공급하고자 한다”라며, “당장 특별히 건강에 이상이 없더라도, 65세부터 사망까지 인간이 겪는 모든 요양주기에 맞춰 원스탑 솔루션을 제공할 수 있도록 인프라를 구축할 것”이라고 말했다.뷰티셀렉션, 110억 원 규모의 시리즈A 투자 유치인플루언서 커머스 스타트업 뷰티셀렉션이 110억 원 규모의 시리즈A 투자를 유치했다. 이번 투자는 알토스벤처스 주도로 레드배지퍼시픽 등 국내외 투자사가 함께 참여했다. 알토스벤처스는 우아한형제들, 크래프톤, 쏘카, 토스 등의 초기 투자를 이끈 한국계 미국 벤처캐피탈(VC)이며, 레드배지퍼시픽은 뉴욕, 싱가포르 등에 지사를 둔 글로벌 크로스보더 투자사다.출처: 뷰티셀렉션지난 2020년 2월 설립한 뷰티셀렉션은 라이프스타일 커머스 브랜드사다. 인플루언서와 협업해 소비자와의 쌍방향 소통을 바탕으로 활동하며, 뷰티, 건강기능식품, 패션 등 자체 브랜드를 갖췄다. 또한, 하이엔드 브랜드를 인수해 성장시키는 브랜드 애그리게이터(Aggregator)로도 활동한다.뷰티셀렉션은 국내 커머스 시장의 화두는 SNV 및 디지털 광고 마케팅 경쟁이라고 분석한다. 이를 해결하기 위해 SNS의 순기능인 양방향 소통과 상호성을 활용한다. 인플루언서와 팔로워 간 유대감을 바탕으로 인플루언서에게 소비자들의 아쉬움을 가장 가까이에서 듣고 이야기하는 역할을 부여한다. 공급자로부터 소비자에게 제품을 전달하는 기존 유통 방식에서 벗어나 소비자로부터 시작해 소비자에게 전달하는 방식을 구축하고자 노력하고 있다.이러한 방식을 통해 뷰티셀렉션은 2020년 부터 현재까지 평균 객단가 10만 원에 평균 재구매율 80%, 반품율 0.2%, 2021년 연매출 300억 원 수준을 기록했다.뷰티셀렉션 박재빈 대표는 “기존 인플루언서 커머스의 문제점은 개인의 유명세에 의존해 판매를 강행한 것이다. 이에 뷰티셀렉션은 소비자들과 소통하고, 개인화 흐름에 맞춰 성장할 수 있는 인플루언서 커머스의 장점에 주목했다”라며, “이번 투자금액 중 100억 원 이상을 인재 영입과 브랜드사 인수에 활용할 계획이다. 본격적인 소비자 중심의 새로운 커머스 패러다임 실현에 집중할 예정"이라고 말했다.페어스퀘어랩, 100억 원 규모의 시리즈A 투자 유치페어스퀘어랩(FairSquareLab)이 다우키움그룹 계열사 한국정보인증과 한미글로벌로부터 100억 원 규모의 시리즈A 투자를 유치했다. 다우키움그룹은 계열사 한국정보인증을 중심으로 블록체인 사업을 본격화하기 위해 투자했다.출처: 페어스퀘어랩페어스퀘어랩은 디파이(De-Fi, 탈중앙화 금융)와 웹3 서비스 인큐베이팅 관련 블록체인 기술 기업이다. 가상자산 지갑, 트레이딩, 노드 운영, 탈중앙화 거래소(DEX), 스왑(Swap) 등의 기술을 보유하고 있으며, 커머스, 미디어 등 다양한 영역에 웹3 개념과 기술을 접목해 사업화를 추진하고 있다.지난 2020년, 코빗, 블로코와 함께 한국디지털자산수탁(KDAC)을 설립해 신한은행으로부터 전략적 투자를 유치, 이후 KDAC은 다중서명 콜드월렛 블록체인 기술 개발과 상용화에 성공했다. 지난 2021년 12월에는 가상자산사업자(VASP)를 취득하고, 한국정보인증으로부터 투자를 유치했다.페어스퀘어랩과 한국정보인증은 각자 보유한 블록체인 기술과 보안 인증 기술 및 서비스 경험을 바탕으로 블록체인 분야 신사업을 공동 추진하고 있다. 한국정보인증의 공동인증서를 활용해 KYC(고객확인제도)를 강화하고, 커스터디(수탁), DeFi, DEX, 가상자산 운용 등 다양한 가상자산 금융상품을 연계하며, 향후 시장 규제 상황에 맞는 전통 금융 결합 금융 서비스를 구축할 계획이다.페어스퀘어랩 김준홍 대표는 “페어스퀘어랩은 묵묵히 가상자산 기술을 연구개발하고 상용화를 준비했다. 블록체인 기술을 통해 금융산업과 플랫폼 서비스들의 낡고 오래된 IT인프라를 대체하고자 노력하겠다”라고 밝혔다.스펙터, 65억 원 규모의 시리즈A 투자 유치스펙터가 65억 원 규모의 시리즈A 투자를 유치했다. 이번 투자는 스틱벤처스와 스톰벤처스가 공동 리드했으며, 기존 투자사인 스트롱벤처스와 베이스인베스트먼트가 후속 참여했다. 누적 투자 유치 금액은 83억 원 규모다.스펙터는 채용 시장의 정보 비대칭 문제를 해결하며 기업과 구직자 간 매칭을 돕는 스타트업으로, 평판을 통한 인재검증 서비스를 제공하고 있다. 지난 2021년 1월 평판조회 서비스를 선보인 뒤 평판을 등록한 누적 회원 수는 2만 5,000명이며, 평판 데이터는 10만 개 이상이다. 현재 1,800개 이상의 기업이 스펙터 서비스를 이용하고 있다.출처: 스펙터 홈페이지스펙터는 이번 투자 유치를 통해 인재검증 서비스를 고도화한다. 올해 하반기에 학력, 경력, 수상 내역 등 구직자가 스스로 관리하고 증명할 수 있는 전용 커리어 브랜딩 서비스 ‘마이스펙터’를 런칭할 계획이다. 또한, 등록된 평판 데이터를 분석해 직무, 직군별 성향 및 업무스타일을 유형화해 성장 및 취업을 돕는 서비스도 개발하고 있다.이와 함께 해외 진출도 준비한다. 베트남과 싱가포르를 대상으로 시범 운영을 추진하고 있다. 스펙터는 해외 시장의 경험을 통해 사업 역량을 강화하고 서비스 영역을 확장할 계획이다.스펙터 윤경욱 대표는 “기업의 HR 경쟁력을 높이기 위해 평판조회과 같은 인재검증을 보편적인 채용 절차와 문화로 활용할 수 있도록 서비스를 고도화하고, 구직자에게 커리어 브랜딩을 능동적으로 대처할 수 있는 플랫폼으로 성장할 것”이라며, “좋은 구직자가 대우받을 수 있는 공정한 채용 시장을 만들겠다”라고 전했다.청담미디어, NPX 캐피탈로부터 50억 원 규모의 투자 유치청담미디어가 글로벌 투자사 NPX 캐피탈(NPX Capital)로부터 50억 원 규모의 투자를 유치했다. 청담미디어는 ㈜크레버스(구 청담러닝)의 자회사이다.청담미디어는 크레버스의 ESL(English as a second language, 제2언어로서의 영어) 사업을 위해 언어, 사고, 예술을 결합한 스토리텔링 방식의 미디어 콘텐츠를 개발한 전문가들이 모여 설립해 해외 시장을 타겟으로 숏폼 콘텐츠 개발 및 미디어 플랫폼 사업을 전개했다.씨릴즈 유튜브 채널, 출처: 청담미디어청담미디어의 숏폼 콘텐츠IP 브랜드 ‘씨릴즈(CeREELs)’는 Z세대를 대상으로 스토리텔링과 영상, 음악, 텍스트 등을 결합한 90초~180초 사이의 애니메이션 형태다. 씨릴즈는 총 37개의 IP, 116개의 시리즈, 295개의 에피소드로 구성되어 있다. 씨릴즈 유튜브 채널 구독자 수는 20만 명 이상이며, 누적 조회 수는 7,300만 회 이상이다.주요 IP 중 하나인 ‘엘라 게이터(Ella Gator)’는 시즌 1부터 시즌 5까지 총 누적 조회 수 5,000만 뷰 이상을 기록, 현재 시즌 9 기획을 완료한 상태다. 다른 IP인 ‘폭스 인 더 우즈(Fox in the Woods)’는 서울 웹페스트에서 베스트 애니메이션상을 수상했다. 청담미디어는 이같은 성과를 바탕으로 미국의 스콜라스틱(Scholastic)과 출판 라이센싱 계약을 맺어 총 16개 국가에서 11개 씨릴즈 IP 도서를 출간할 예정이다. 또한, 전 세계 33개 이상 음원 플랫폼을 통해 씨릴즈 IP 오리지널 음원 앨범을 발매하고 있다.청담미디어는 이번 투자를 통해 확보한 자금으로 트랜스 미디어 사업과 메타버스, NFT 등과 같은 신사업을 추진하고, IP 사업의 성장 토대를 구축할 계획이다. 글로벌 OTT 플랫폼 및 애니메이션 제작사와 공동 제작을 추진하고 있다.청담미디어 이광재 대표는 “숏폼 콘텐츠 제작 역량과 자사의 IP 비전에 공감한 NPX 캐피탈로부터 투자를 유치할 수 있어 뜻깊다”라며 “이번 투자를 바탕으로 숏폼 콘텐츠 제작 역량을 고도화하고, IP 산업을 선도해 전 세계적으로 인정받는 청담미디어만의 IP 유니버스를 구축하고자 한다”라고 전했다.뮤직카우, 키움증권으로부터 전략적 투자 유치음악 저작권료 수익 공유 플랫폼을 운영하는 문화테크 기업 뮤직카우가 키움증권으로부터 전략적 투자(SI)를 유치했다. 키움증권은 상환전환우선주(RCPS) 방식으로 투자에 참여했다.출처: 뮤직카우키움증권은 뮤직카우가 개척한 음원 IP를 차세대 주요 자산으로 가치를 평가해 이번 투자를 결정했다. 키움증권은 음원 IP를 추가 문화금융상품으로 확보하고, MZ세대를 신규 투자자로 유치할 계획이다. 뮤직카우는 키움증권과 제휴해 신규 고객을 유치하고 문화테크 시장 기반을 확대할 것으로 기대한다. 또한, 양사가 지니고 있는 강점을 바탕으로 상호 고객 기반 확대, 금융인프라 고도화, 고객정보 보호 등 다양한 분야에서 협력할 예정이다.뮤직카우는 “키움증권과 함께 미래 금융시장의 새로운 모델을 구축하고, 음악 저작권 시장 확대에 기틀을 다져 기쁘다”라며, “키움증권 고객의 안전한 투자 환경 조성과 음악 저작권 시장의 활성화를 위해 더욱 노력하겠다”라고 말했다.아이티앤베이직, 네이버 D2SF로부터 투자 유치아이티앤베이직이 네이버 D2SF(D2 Startup Factory)로부터 신규 투자를 유치했다.출처: 아이티앤베이직아이티앤베이직은 HR솔루션 ‘심오피스(symoffice)’를 서비스하는 기업이다. 심오피스는 온라인 진단을 통해 조직 내에서 발생할 수 있는 갈등 상황을 해결하도록 돕는 서비스다. 성격검사와 다르게 개인의 성격이나 성향이 아닌 업무를 대하는 태도를 분석해 전체 조직의 효율 향상을 위한 구체적인 가이드를 제시한다. Janssen Korea(한국얀센), AB inBev(OB맥주), 현대백화점그룹, 롯데중앙연구소, NCSOFT, 하남시청, 등이 심오피스를 활용하고 있다.아이티앤베이직 서비스 상품들, 출처: 아이티앤베이직 홈페이지아이티앤베이직은 자체 교육연구소를 통해 심오피스를 일반 대기업의 전체 그룹사부터 IT기업, 제조공장, 스타트업까지 다양한 규모와 형태의 기업에 적합한 커리큘럼을 개발해 대응하고 있다. 내부 연구원과 외부 전문 기관을 통해 신뢰도/타당도를 검증하고 있으며, 누적 데이터를 활용한 HR 자동화 시스템 구축을 위해 노력하고 있다.아이티앤베이직 민경욱 대표는 “투자 유치와 함께 네이버에 솔루션을 제공해 의미가 깊다”라며, “향후 데이터 분석을 고도화하고, 보다 공격적인 비즈니스에 나서 데이터 기반의 HR SaaS를 구축할 것” 이라고 전했다.모카앤제이에스, 팁스 선정전자계약 서비스 ‘왙싸인(WattSign)’을 서비스하는 모카앤제이에스가 기술 창업 투자 프로그램 ‘팁스(TIPS)’에 최종 선정됐다. 팁스는 중소벤처기업부가 주관하는 민간투자주도형 기술 지원 프로그램으로, 민간 투자사가 선발한 스타트업에 정부가 2년간 최대 5억 원의 연구개발(R&amp;D) 비용을 지원해 스타트업의 기술 개발과 사업화를 돕는다.왙싸인, 출처: 모카앤제이에스왙싸인은 기존 PDF 방식의 전자계약 방식에서 벗어나 웹 문서도구로 계약 생성, 협업, 법률 검토 등과 계약 업무에 자주 사용하는 서식을 제공해 계약 초안의 자동화 생성을 지원한다. 또한, 계약 주기를 관리할 수 있는 갱신 알림 기능도 제공한다.모카앤제이에스 김현준 대표는 “계약 업무는 여전히 개선해야 하는 부분이 많은 분야”라며, “왙싸인은 간단한 입력으로 계약 초안을 생성하고, 이를 내외부 협업, 검토, 체결 이후의 업무 사이클 등을 통합 관리할 수 있는 CLM(Contract Lifecycle Management) 서비스로 성장하고 있다”라고 전했다.동아닷컴 IT 전문 권명관 기자 tornadosn@itdonga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.09.08.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>‘알뜰폰의 반격’ 1폰 2번호 e심+5G 가격 낮춰 통신 3사 점유율 뺏는다</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000839608?sid=105</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>高물가에 정부, 알뜰폰·e심 통해 경쟁 유도5G 도매대가 할인 ‘촉각’…11월 알뜰폰 대책 발표통신 3사, 8800원 닮은꼴 요금제…정부 자극했나경쟁 유도 위해 50~100GB 중간요금제도 ‘솔솔’윤석열 대통령이 지난달 11일 서울 서초구 양재동 하나로마트 양재점에서 열린 제5차 비상경제민생회의에서 발언하고 있다. /연합뉴스        정부가 5세대 이동통신(5G) 중간요금제와 ‘eSIM(e심)’ 서비스 시행에 이어, 오는 11월 알뜰폰 활성화 대책을 예고하면서 이동통신 업계의 긴장감이 고조되고 있다. 통신 3사가 시행을 반대하며, 수년간 버텨 오던 5G 중간요금제와 e심을 제도화했고, 최근 5~6%대의 고물가 상황에서 알뜰폰을 통해, 통신시장의 경쟁 활성화를 유도하겠다는 작업에 착수했기 때문이다. 사실상 국민의 체감 물가에 영향을 미치는 ‘통신비 절감’에 정부가 직접 나서겠다는 것이다.특히 알뜰폰 활성화 대책에는 과학기술정보통신부와 SK텔레콤이 논의를 시작한 ‘5G 도매대가 인하’도 포함될 것으로 전망되고 있다. 도매대가는 알뜰폰 사용자가 내는 망 이용료다. 도매대가가 낮아지면 알뜰폰 사업자는 요금을 더 저렴하게 출시할 수 있다. 알뜰폰 업계도 5G 시장에 본격 진출하면서 ‘e심+도매대가 인하’ 조합을 무기로 통신 3사의 점유율을 가져오겠다는 목표다. 이미 과기정통부는 도매대가 산정과 관련해 “(알뜰폰 업계가) 통신사보다 30% 저렴한 요금제를 출시할 수 있도록 도매대가를 설계하겠다”고 밝힌 바 있다.8일 과기정통부와 통신 3사에 따르면, 과기정통부는 알뜰폰 사업자에 5G 중간요금제를 도매 제공하는 것과 관련해, 의무 도매제공 사업자인 SK텔레콤과 협의에 착수했다. 과기정통부 관계자는 “지속적으로 협의하고 있다”며 “오는 11월 발표 예정인 알뜰폰 활성화 대책에 결과가 담길 예정이다”고 했다.서울 시내에 위치한 알뜰폰 스퀘어 매장 모습. /뉴스1  高물가에 통신시장 경쟁, 정부가 챙기나        알뜰폰 사업자는 통신 3사 망을 임대해 쓰는 특성상 의무 도매제공 사업자인 SK텔레콤이 제공하는 요금제를 기반으로 요금을 설계한다. 현재 알뜰폰 5G 요금제는 12GB 이하 요금제와 100GB 이상 요금제로 양분돼 있다. 통신 3사는 최근 24~31GB 구간의 5G 중간요금제를 출시했지만, 알뜰폰 업계는 아직 이에 대한 도매 제공을 받지 못했다.도매대가가 할인되면, 그만큼 알뜰폰 업체들은 원가가 줄면서 가격 경쟁력을 갖출 수 있다. 특히 여전히 롱텀에볼루션(LTE)을 주력으로 하는 알뜰폰 사업자 입장에서는 도매대가가 인하될 경우, e심 제도와의 시너지로 5G 시장에도 경쟁이 가능해진다.도매대가 산정은 매년 이뤄지는데, 올해는 예년과 분위기가 다르다. 정부가 ‘5G 중간요금제 출시 유도→e심 제도 시행→도매대가 할인 등 알뜰폰 대책’ 등 통신비 절감 정책을 잇따라 추진하고 있기 때문이다. 또 정부는 5G 중간요금제와 관련해, 50~100GB 사이의 대량 요금 구간에서도 신규 요금제가 출시될 수 있도록 단계적 추진을 공언한 바 있다. 업계에서는 도매대가 협의를 물가 대책으로 인식, 과기정통부 차원을 넘어, 정부가 직접 챙길 수 있다는 분위기로 해석되고 있다.이종호 과학기술정보통신부 장관이 지난 7월 11일 오후 서울 중구 대한상공회의소에서 열린 통신3사 CEO 간담회에 참석해 기념촬영을 하고 있다. 왼쪽부터 유영상 SK텔레콤 대표, 이종호 과학기술정보통신부 장관, 구현모 KT 대표, 황현식 LG유플러스 대표. /뉴스1        통신 시장 경쟁 활성화에 나서겠다는 정부의 의지는 이미 여러 정책을 통해 표출돼왔다. 지난달 통신 3사가 출시한 5G 중간요금제는 지난해 국정감사부터 지적됐지만, 새 정부 이전까지 아무런 움직임이 없었다. 하지만 윤 정부가 물가 대책으로 지난 5월 중간요금제 출시 유도 방침을 밝히자, 그제야 부랴부랴 요금제 출시를 준비했다.e심도 마찬가지다. e심의 필요성이 제기된 것은 이미 지난 2018년 때부터다. 당시 애플 아이폰XS가 e심 기능을 탑재해 출시됐지만, 국내에서는 e심 정책이 시행되지 않아 사용할 수 없었다. e심이 그간 도입되지 못했던 것은 통신 3사가 과도한 경쟁 유발, U심 판매금 감소 등을 이유로 e심을 반대했기 때문이다. 하지만 새 정부가 들어선 뒤 e심 제도가 본격 시행됐다.정부 고위 관계자는 “통신비가 물가 차지하는 비중은 적지만, 매달 꼬박꼬박 수만원에서 수십원만씩 지불해야 하는 가계통신비의 경우 국민의 체감 물가에 큰 영향을 미친다”며 “다만, 현재의 물가 상승이 유동성 회수, 금리인상, 공급망 교란, 우크라이나 사태 등 글로벌 차원에서 발생하는 만큼, 국내에서 해결할 수 있는 대책들이 많지 않다. 이러한 상황 때문에 통신비 인하가 중요해졌고, 통신 시장의 경쟁 촉진 확산을 유도할 필요가 있다”고 했다. ‘알뜰폰=e심’ 공식 만들까        정부는 도매대가 산정과 함께, 이통사 경쟁 확산을 위한 수단으로 e심의 가능성을 크게 보고 있다. 이통사(MNO)에 비해, 알뜰폰(MVNO) 업계가 가격 경쟁력이 있고, 합리성을 중요하게 생각하는 젊은 세대 사이에서 통신비를 아끼려는 ‘이통사(주번호)+알뜰폰(보조번호)’ 조합에 대한 관심이 커지고 있기 때문이다. 특히 e심은 이통사 대리점을 방문할 필요 없이 문자나 QR코드로 가입할 수 있어, 그간 고객 접점이 열악했던 알뜰폰 업계가 유리해진 상황이다.알뜰폰 업계는 정부의 e심 정책에 대해 반기는 분위기다. 알뜰폰의 가장 큰 경쟁력은 저렴한 요금제다. 5G 요금제는 아직 망 도매대가가 높아 통신사와 알뜰폰 사이 가격 차이가 크지 않지만, LTE 요금제는 알뜰폰이 20~30% 이상 저렴하다. 특히 최근 KB리브엠을 비롯해 신한, 토스 등 막대한 자금력을 갖춘 금융사들이 잇따라 알뜰폰 시장에 진출하면서 고객 유치를 위한 다양한 할인 프로모션도 기대되는 상황이다.토스 알뜰폰(왼쪽)와 리브모바일.         예를 들어, KT가 출시한 LTE 듀얼심 요금제는 통화나 문제 무제한에 데이터 1GB를 제공하면서 요금은 월 8800원이다. 하지만 KT망을 사용하는 한 알뜰폰 사업자는 2GB 데이터를 제공하면서 월 7400원을 받는다. 단순 요금만 비교하면 16%가량 저렴하다. 여기에 데이터는 1GB를 더 사용할 수 있다. 일부 업체들의 프로모션을 고려하면 요금이 더욱 저렴해질 수 있다.일각에서는 통신 3사의 8800원 ‘닮은 꼴’ 듀얼심 요금제가 정부를 자극했다는 지적도 나온다. KT와 LG유플러스는 지난 1일 e심 도입에 맞춰, 8800원의 듀얼심 특화 요금제를 출시했다. 데이터 구성은 조금씩 다르지만, 월 요금운 동일하다. SK텔레콤도 이날 동일한 8800원의 듀얼심 요금제 출시했다. 통신 3사는 과거 유심(가입자인증모듈)을 도입할 때도 유심 가격을 모두 8800원으로 책정하면서, 담합 논란이 있었다. 2018년에는 통신 3사가 유심 가격을 동일하게 1100원을 인하하면서, 또다시 담합 논란을 불러일으켰다.정지연 한국소비자연맹 사무총장은 “이번 e심 요금제는 통신 3사가 사실상의 담함을 하고 있다는 것을 보여주는 대표적인 사례 같다”라며 “통신시장에 있는 3개 회사가 출시하는 요금제가 동일하게 8800원이라는 점을 볼 때 정부가 통신시장의 경쟁 촉진을 위한 정책적인 수단을 마련할 필요가 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.09.09.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>"통계 왜곡" vs "경쟁 촉진"…예대금리차 공시 논란</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000559767?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[앵커] 지난달 22일부터 은행연합회 소비자포털에 19개 은행의 예대금리차 비교 공시가 시작됐는데요. 소비자 알권리이자, 정보 공개를 통한 경쟁 촉진이 목적입니다. 하지만 일률적 줄세우기로 인한 통계 왜곡 같은 부작용도 나올 수 있어 보완이 필요하다는 지적입니다.김동욱 기자입니다.[기자]예금금리와 대출금리 간의 격차, 예대금리차의 첫 비교공시가 지난달 22일 이뤄졌습니다.주요 시중은행중에서는 농협은행이 1.36%포인트, 핵심인 가계대출만 놓고 봤을 땐 신한은행이 1.62%포인트로 가장 컸습니다.지방은행 중에는 전북은행이 4.59%포인트, 인터넷은행 중에선 토스뱅크가 5.65%포인트로 1위였습니다.정보가 공개된 뒤, 은행들이 금리 인하 경쟁에 나서자 소비자들 반응은 일단 긍정적입니다.&lt;윤문용 / 서울 송파구&gt; "아무래도 공시가 안되면 어느 은행이 이자율이 어떻게 되는지 소비자들은 잘 모르니깐 공시를 해주면 잘 판단할 수 있을 것 같거든요."하지만 은행들에선 일률적 줄세우기라며 불만이 나옵니다.정부가 독려한대로 서민과 중·저신용자 대출을 늘릴수록, 평균 대출금리가 올라 '이자장사하는 은행'으로 낙인찍힌다는 겁니다.&lt;시중은행 관계자&gt; "이자장사 많이 한 것 처럼 보여서…사실 이게 저희가 서민금융을 많이 취급한 건이 반영된 게 있더라고요."금융당국도 이런 지적을 일부 받아들여 이르면 다음 달부터 대표적 서민금융상품으로, 주택담보대출보다 금리가 높은 '햇살론'을 뺀 예대금리차를 함께 공시할 예정입니다.그래도 통계 왜곡을 완전히 해소하기는 어려울 전망입니다.은행들은 평균 대출금리를 낮추기 위해 고소득자 대출, 주택담보대출에만 매달릴 수 있고, 대출자들은 평균 금리차만으론 자신에게 실제 가장 유리한 은행을 알기 어렵기 때문입니다.연합뉴스TV 김동욱입니다. (dk1@yna.co.kr)#예대금리차_공시 #은행_대출연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.09.02.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>클릭 한 번의 위력...인터넷은행 대출 40조 돌파</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004892728?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 금리 상승으로 가계대출 수요가 줄고 있지만, 인터넷 전문은행들의 여신 잔액은 8개월째 증가세를 보이고 있다.   2일 은행권에 따르면 8월 말 기준 카카오·케이·토스뱅크의 여신 잔액은 총 43조991억원으로, 40조원을 돌파했다.   은행별로 보면 카카오뱅크는 27조1991억원으로 전달보다 2487억원 늘었고, 케이뱅크는 9조5000억원으로 같은 기간 3400억원 많아졌다.   토스뱅크의 여신 잔액은 6조4000억원이었다. 두 달 전인 6월 말과 비교하면 잔액이 2조2000억원 급증했다.   이는 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출이 8개월째 감소세를 보이는 현상과 대조된다.   인터넷 은행 3사는 각기 다른 장점을 내세우며 여신 성장세를 유지하고 있다.   카카오뱅크는 전월세·주택담보대출 등 담보부대출이 증가했다.   카카오뱅크는 올해 2월 주택담보대출 상품을 처음 출시한 뒤 지난달 17일 대상 지역을 수도권 소재 아파트에서 전국으로 확대했으며, 금리도 여러 차례 인하해 수요를 견인했다고 설명했다. 8월 말 기준 누적 약정 금액은 5500억원을 돌파했다.   케이뱅크는 낮은 신용대출 금리를 제공해 경쟁력을 확보했다.   케이뱅크 신용대출의 신용등급별 평균금리는 연 5.19%로 카카오뱅크(연 6.37%), 토스뱅크(연 7.14%)보다 낮았고, 신용점수 구간별로 비교했을 때도 더 낮은 금리를 제공하는 것으로 나타났다.   후발 주자인 토스뱅크는 중저신용 대출 공급에 주력하고 있다. 토스뱅크에 따르면 10명 중 4명의 소비자가 중저신용자인 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.09.04.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>은행 예대금리차 `햇살론` 빼고 공시한다</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002752400?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>서민대출 많을수록 금리차이 커연 15.9% 햇살론 비교대상 제외공시 이후 금리하락 효과는 뚜렷서울 시내 한 은행에 부착된 정기예탁금 금리 안내문. 연합뉴스    지난달부터 은행별 예대금리차(평균 대출금리-평균 저축성수신금리) 공시가 시작됐지만 서민과 중·저신용자에 대한 금융지원을 늘릴수록 평균 대출금리가 높아져 '과도한 이자장사를 하는 은행'으로 낙인찍힐 수 있다는 은행들의 불만이 커지고 있다. 이에 따라 금융당국은 대표적 서민금융상품인 '햇살론'을 뺀 예대금리차를 별도로 공시하는 방안을 추진키로 했다.4일 금융권에 따르면 예대금리차 공시에 참여 중인 시중은행의 여신 실무자들과 금융당국 관계자들은 지난 2일 은행연합회에서 비공개 회의를 가졌다. 이 자리에서 은행들은 햇살론 금리가 예대금리차 산정 과정에 반영되는 게 불합리하다고 지적했다.햇살론은 금융권 대출을 이용할 수 없는 서민에게 서민금융진흥원의 보증을 바탕으로 공급하는 정책금융 상품으로, 현재 금리가 연 15.9%에 달한다. 은행 입장에서는 서민 금융지원을 위한 햇살론 취급을 늘릴수록 예대금리차는 커질 수밖에 없다. 이런 왜곡을 막기 위해 은행권과 금융당국, 은행연합회는 햇살론을 뺀 예대금리차와 빼지 않은 예대금리차를 모두 공시하는데 의견을 모은 것으로 전해졌다.그러나 중·저신용자에 대한 고금리 대출이 많거나, 주택담보대출보다 금리가 상대적으로 높은 신용대출이 늘면 예대금리차는 커질 수 있는 헛점은 여전히 문제로 남게 됐다.지난달 첫 예대금리차 공시에서 토스뱅크의 예대금리차는 5.6%포인트로, 같은 인터넷 은행인 케이뱅크(2.46%포인트), 카카오뱅크(2.33%포인트)와 비교해도 크게 높았다. 이와 관련, 토스뱅크는 "대출 고객 중 중저신용자 비율이 모든 은행 중 가장 높고, 담보대출 대비 비교적 금리가 높은 신용대출을 주로 취급한 영향"이라며 "신생 인터넷 은행으로서 겪는 특수한 상황이 이번 예대금리차 공시에 반영됐다"고 설명했다.대출자 입장에서 새 금리 공시 제도의 실효성이 크지 않다는 지적도 나오고 있다. 현재 공시에서 은행별 대출금리와 예대금리차가 신용평가사(CB) 신용점수를 기준으로 구간별로 제공되는데, 실제 대출금리는 은행 자체 평가를 통한 신용등급·우대금리 등에 따라 정해지는 탓이다. 하지만 예대금리차 공시 이후 은행들의 예대금리 축소경쟁에 불이 붙으면서 서민들의 대출금리를 낮추는 효과가 점차 나타나고 있다는 평가도 있다. 신한은행은 5일부터 주택담보대출과 신용대출, 전세대출의 금리를 최대 0.3%포인트 낮출 예정이다. 신한은행은 앞서 지난달 24일에도 신용대출, 주택담보대출 등 대부분의 개인대출 금리를 최고 0.5%포인트 내렸는데 불과 10여일만에 추가 인하에 나선 것이다. 신한은행뿐 아니라 카카오뱅크, NH농협은행, KB국민은행 등 다른 주요 은행들도 최근 줄줄이 대출 금리를 낮췄다.대출 금리 인하 움직임과 반대로 수신(예금) 금리는 상승세가 이어지고 있다. 예금 금리 상승 영향으로 5대 은행의 정기 예·적금 잔액도 크게 늘었다. 5대 은행의 정기 예·적금 잔액은 작년말 690조366억원에서 올 8월말 729조8206억원으로 39조7840억원으로 증가했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
